--- a/tables.xlsx
+++ b/tables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,6 +33,8 @@
     <externalReference r:id="rId22"/>
     <externalReference r:id="rId23"/>
     <externalReference r:id="rId24"/>
+    <externalReference r:id="rId25"/>
+    <externalReference r:id="rId26"/>
   </externalReferences>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="190">
   <si>
     <t xml:space="preserve">Note: the baseline model has Cobb-Douglas final good aggrgeator and balanced trade</t>
   </si>
@@ -317,6 +319,81 @@
   <si>
     <t xml:space="preserve">Volatility change due to specialization
 (3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium and Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Note: Column (1) shows the percent change in average volatility as economies lowered their trading costs. Column (2) shows the contribution of diversification to the change in volatility in (1). Column (3) shows the contribution of specialization to the change in volatility in (1).</t>
@@ -2234,6 +2311,584 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="output_table"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="F2">
+            <v>1.53565969760448</v>
+          </cell>
+          <cell r="G2">
+            <v>-2.71755881791087</v>
+          </cell>
+          <cell r="H2">
+            <v>4.25321851551535</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="F3">
+            <v>-38.5279154522765</v>
+          </cell>
+          <cell r="G3">
+            <v>-63.1102312132425</v>
+          </cell>
+          <cell r="H3">
+            <v>24.5823157609659</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="F4">
+            <v>-50.4369578823248</v>
+          </cell>
+          <cell r="G4">
+            <v>-114.967667474995</v>
+          </cell>
+          <cell r="H4">
+            <v>64.5307095926705</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="F5">
+            <v>-60.3409836251069</v>
+          </cell>
+          <cell r="G5">
+            <v>-86.8373952493637</v>
+          </cell>
+          <cell r="H5">
+            <v>26.4964116242568</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="F6">
+            <v>1.4983505141899</v>
+          </cell>
+          <cell r="G6">
+            <v>0.404562364073804</v>
+          </cell>
+          <cell r="H6">
+            <v>1.09378815011609</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7">
+            <v>-21.2460741959909</v>
+          </cell>
+          <cell r="G7">
+            <v>-30.0166956657148</v>
+          </cell>
+          <cell r="H7">
+            <v>8.77062146972392</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8">
+            <v>-64.0181393545729</v>
+          </cell>
+          <cell r="G8">
+            <v>-47.7143781807209</v>
+          </cell>
+          <cell r="H8">
+            <v>-16.3037611738521</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="F9">
+            <v>-24.8789298589546</v>
+          </cell>
+          <cell r="G9">
+            <v>-60.6151655981537</v>
+          </cell>
+          <cell r="H9">
+            <v>35.7362357391991</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="F10">
+            <v>-15.7780180144079</v>
+          </cell>
+          <cell r="G10">
+            <v>6.41822020639214</v>
+          </cell>
+          <cell r="H10">
+            <v>-22.1962382208</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="F11">
+            <v>-27.7988506799051</v>
+          </cell>
+          <cell r="G11">
+            <v>-28.2268809748409</v>
+          </cell>
+          <cell r="H11">
+            <v>0.428030294935807</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="F12">
+            <v>-6.05592643701143</v>
+          </cell>
+          <cell r="G12">
+            <v>-9.83128374887882</v>
+          </cell>
+          <cell r="H12">
+            <v>3.77535731186739</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="F13">
+            <v>-11.2035330994139</v>
+          </cell>
+          <cell r="G13">
+            <v>-9.93230148713843</v>
+          </cell>
+          <cell r="H13">
+            <v>-1.27123161227549</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="F14">
+            <v>-60.1983780253013</v>
+          </cell>
+          <cell r="G14">
+            <v>-65.6128709674574</v>
+          </cell>
+          <cell r="H14">
+            <v>5.41449294215603</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="F15">
+            <v>-14.4078417117512</v>
+          </cell>
+          <cell r="G15">
+            <v>4.71884232358183</v>
+          </cell>
+          <cell r="H15">
+            <v>-19.126684035333</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="F16">
+            <v>-0.826092384415307</v>
+          </cell>
+          <cell r="G16">
+            <v>1.82713411767557</v>
+          </cell>
+          <cell r="H16">
+            <v>-2.65322650209088</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="F17">
+            <v>-52.0209504678687</v>
+          </cell>
+          <cell r="G17">
+            <v>-95.0974410260455</v>
+          </cell>
+          <cell r="H17">
+            <v>43.0764905581768</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="F18">
+            <v>-46.6285415670942</v>
+          </cell>
+          <cell r="G18">
+            <v>-139.472271334296</v>
+          </cell>
+          <cell r="H18">
+            <v>92.8437297672019</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="F19">
+            <v>-30.6682467622372</v>
+          </cell>
+          <cell r="G19">
+            <v>-77.2442100835886</v>
+          </cell>
+          <cell r="H19">
+            <v>46.5759633213514</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="F20">
+            <v>2.73429281907091</v>
+          </cell>
+          <cell r="G20">
+            <v>-35.3128491268408</v>
+          </cell>
+          <cell r="H20">
+            <v>38.0471419459117</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="F21">
+            <v>0.645602769649538</v>
+          </cell>
+          <cell r="G21">
+            <v>-2.53029015621022</v>
+          </cell>
+          <cell r="H21">
+            <v>3.17589292585977</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="F22">
+            <v>-8.52814823042821</v>
+          </cell>
+          <cell r="G22">
+            <v>-19.1323757812069</v>
+          </cell>
+          <cell r="H22">
+            <v>10.6042275507786</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="F23">
+            <v>-54.3889106351373</v>
+          </cell>
+          <cell r="G23">
+            <v>-26.2595934427098</v>
+          </cell>
+          <cell r="H23">
+            <v>-28.1293171924275</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="F24">
+            <v>-35.1188988311438</v>
+          </cell>
+          <cell r="G24">
+            <v>-37.9730664102412</v>
+          </cell>
+          <cell r="H24">
+            <v>2.85416757909741</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="F25">
+            <v>-43.8717707163064</v>
+          </cell>
+          <cell r="G25">
+            <v>-27.3801465095112</v>
+          </cell>
+          <cell r="H25">
+            <v>-16.4916242067951</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="F26">
+            <v>-0.433223766340495</v>
+          </cell>
+          <cell r="G26">
+            <v>2.53635681745116</v>
+          </cell>
+          <cell r="H26">
+            <v>-2.96958058379166</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="output_table"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="F2">
+            <v>1.24920886859601</v>
+          </cell>
+          <cell r="G2">
+            <v>-2.76100436543347</v>
+          </cell>
+          <cell r="H2">
+            <v>4.01021323402948</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="F3">
+            <v>-37.3535592295672</v>
+          </cell>
+          <cell r="G3">
+            <v>-63.6905108438777</v>
+          </cell>
+          <cell r="H3">
+            <v>26.3369516143105</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="F4">
+            <v>-50.5214820257963</v>
+          </cell>
+          <cell r="G4">
+            <v>-115.958047296187</v>
+          </cell>
+          <cell r="H4">
+            <v>65.4365652703909</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="F5">
+            <v>-60.8531517220489</v>
+          </cell>
+          <cell r="G5">
+            <v>-86.3291733470898</v>
+          </cell>
+          <cell r="H5">
+            <v>25.476021625041</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="F6">
+            <v>1.53195692063427</v>
+          </cell>
+          <cell r="G6">
+            <v>0.360723902908225</v>
+          </cell>
+          <cell r="H6">
+            <v>1.17123301772604</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7">
+            <v>-21.2743927968265</v>
+          </cell>
+          <cell r="G7">
+            <v>-29.5645696806361</v>
+          </cell>
+          <cell r="H7">
+            <v>8.29017688380957</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8">
+            <v>-64.1669041955435</v>
+          </cell>
+          <cell r="G8">
+            <v>-48.1580906373406</v>
+          </cell>
+          <cell r="H8">
+            <v>-16.0088135582029</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="F9">
+            <v>-24.8640073764381</v>
+          </cell>
+          <cell r="G9">
+            <v>-61.1969865804073</v>
+          </cell>
+          <cell r="H9">
+            <v>36.3329792039692</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="F10">
+            <v>-15.5584347216418</v>
+          </cell>
+          <cell r="G10">
+            <v>6.80416134993578</v>
+          </cell>
+          <cell r="H10">
+            <v>-22.3625960715776</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="F11">
+            <v>-27.9334177059314</v>
+          </cell>
+          <cell r="G11">
+            <v>-28.2076092078725</v>
+          </cell>
+          <cell r="H11">
+            <v>0.274191501941107</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="F12">
+            <v>-5.48861839313903</v>
+          </cell>
+          <cell r="G12">
+            <v>-10.7663957650113</v>
+          </cell>
+          <cell r="H12">
+            <v>5.27777737187224</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="F13">
+            <v>-11.2192688765699</v>
+          </cell>
+          <cell r="G13">
+            <v>-9.92610155153194</v>
+          </cell>
+          <cell r="H13">
+            <v>-1.29316732503796</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="F14">
+            <v>-59.8161223001668</v>
+          </cell>
+          <cell r="G14">
+            <v>-67.2050236265695</v>
+          </cell>
+          <cell r="H14">
+            <v>7.38890132640277</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="F15">
+            <v>-14.1849952522035</v>
+          </cell>
+          <cell r="G15">
+            <v>5.23557686980738</v>
+          </cell>
+          <cell r="H15">
+            <v>-19.4205721220108</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="F16">
+            <v>-0.940976731782397</v>
+          </cell>
+          <cell r="G16">
+            <v>1.9212893334437</v>
+          </cell>
+          <cell r="H16">
+            <v>-2.8622660652261</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="F17">
+            <v>-52.087796342518</v>
+          </cell>
+          <cell r="G17">
+            <v>-93.7942610951611</v>
+          </cell>
+          <cell r="H17">
+            <v>41.7064647526431</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="F18">
+            <v>-47.1785356250076</v>
+          </cell>
+          <cell r="G18">
+            <v>-141.762503623923</v>
+          </cell>
+          <cell r="H18">
+            <v>94.5839679989157</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="F19">
+            <v>-30.1867219949592</v>
+          </cell>
+          <cell r="G19">
+            <v>-77.2243565108896</v>
+          </cell>
+          <cell r="H19">
+            <v>47.0376345159305</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="F20">
+            <v>1.72108421710482</v>
+          </cell>
+          <cell r="G20">
+            <v>-35.5889673796901</v>
+          </cell>
+          <cell r="H20">
+            <v>37.3100515967949</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="F21">
+            <v>0.683610189736178</v>
+          </cell>
+          <cell r="G21">
+            <v>-2.5002919845191</v>
+          </cell>
+          <cell r="H21">
+            <v>3.18390217425528</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="F22">
+            <v>-8.86283645070318</v>
+          </cell>
+          <cell r="G22">
+            <v>-19.8806587417992</v>
+          </cell>
+          <cell r="H22">
+            <v>11.0178222910961</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="F23">
+            <v>-54.2789119406964</v>
+          </cell>
+          <cell r="G23">
+            <v>-26.4513289680599</v>
+          </cell>
+          <cell r="H23">
+            <v>-27.8275829726364</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="F24">
+            <v>-35.6306450415239</v>
+          </cell>
+          <cell r="G24">
+            <v>-38.2452330189464</v>
+          </cell>
+          <cell r="H24">
+            <v>2.61458797742249</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="F25">
+            <v>-44.1726536210684</v>
+          </cell>
+          <cell r="G25">
+            <v>-26.94770311953</v>
+          </cell>
+          <cell r="H25">
+            <v>-17.2249505015384</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="F26">
+            <v>-0.441011625162661</v>
+          </cell>
+          <cell r="G26">
+            <v>2.7479450706726</v>
+          </cell>
+          <cell r="H26">
+            <v>-3.18895669583526</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -32771,7 +33426,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32783,7 +33438,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32828,9 +33483,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A7" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="B7" s="17" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([10]output_table!F2,1),"0.0"),"%")</f>
@@ -32858,9 +33512,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A8" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="B8" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([10]output_table!F3,1),"0.0"),"%")</f>
@@ -32888,9 +33541,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A9" s="20" t="s">
+        <v>92</v>
       </c>
       <c r="B9" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([10]output_table!F4,1),"0.0"),"%")</f>
@@ -32918,9 +33570,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A10" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="B10" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([10]output_table!F5,1),"0.0"),"%")</f>
@@ -32948,9 +33599,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A11" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="B11" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([10]output_table!F6,1),"0.0"),"%")</f>
@@ -32978,9 +33628,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A12" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="B12" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([10]output_table!F7,1),"0.0"),"%")</f>
@@ -33008,9 +33657,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A13" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="B13" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([10]output_table!F8,1),"0.0"),"%")</f>
@@ -33038,9 +33686,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A14" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="B14" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([10]output_table!F9,1),"0.0"),"%")</f>
@@ -33068,9 +33715,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A15" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="B15" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([10]output_table!F10,1),"0.0"),"%")</f>
@@ -33098,9 +33744,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A16" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="B16" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([10]output_table!F11,1),"0.0"),"%")</f>
@@ -33128,9 +33773,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A17" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="B17" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([10]output_table!F12,1),"0.0"),"%")</f>
@@ -33158,9 +33802,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A18" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="B18" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([10]output_table!F13,1),"0.0"),"%")</f>
@@ -33188,9 +33831,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A19" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="B19" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([10]output_table!F14,1),"0.0"),"%")</f>
@@ -33218,9 +33860,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A20" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="B20" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([10]output_table!F15,1),"0.0"),"%")</f>
@@ -33248,9 +33889,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A21" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="B21" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([10]output_table!F16,1),"0.0"),"%")</f>
@@ -33278,9 +33918,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A22" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="B22" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([10]output_table!F17,1),"0.0"),"%")</f>
@@ -33308,9 +33947,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A23" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="B23" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([10]output_table!F18,1),"0.0"),"%")</f>
@@ -33338,9 +33976,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A24" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="B24" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([10]output_table!F19,1),"0.0"),"%")</f>
@@ -33368,9 +34005,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A25" s="20" t="s">
+        <v>108</v>
       </c>
       <c r="B25" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([10]output_table!F20,1),"0.0"),"%")</f>
@@ -33398,9 +34034,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A26" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="B26" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([10]output_table!F21,1),"0.0"),"%")</f>
@@ -33428,9 +34063,8 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A27" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="B27" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([10]output_table!F22,1),"0.0"),"%")</f>
@@ -33458,9 +34092,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A28" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="B28" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([10]output_table!F23,1),"0.0"),"%")</f>
@@ -33488,9 +34121,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A29" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="B29" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([10]output_table!F24,1),"0.0"),"%")</f>
@@ -33518,9 +34150,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A30" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="B30" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([10]output_table!F25,1),"0.0"),"%")</f>
@@ -33548,9 +34179,8 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A31" s="24" t="s">
+        <v>114</v>
       </c>
       <c r="B31" s="25" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([10]output_table!F26,1),"0.0"),"%")</f>
@@ -33579,7 +34209,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -33606,7 +34236,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33629,22 +34259,21 @@
     </row>
     <row r="5" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="13" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A6" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="B6" s="44" t="n">
         <f aca="false">ROUND([1]output_table!B2,6)</f>
@@ -33664,9 +34293,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A7" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="B7" s="47" t="n">
         <f aca="false">ROUND([1]output_table!B3,6)</f>
@@ -33686,9 +34314,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A8" s="20" t="s">
+        <v>92</v>
       </c>
       <c r="B8" s="47" t="n">
         <f aca="false">ROUND([1]output_table!B4,6)</f>
@@ -33708,9 +34335,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A9" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="B9" s="47" t="n">
         <f aca="false">ROUND([1]output_table!B5,6)</f>
@@ -33730,9 +34356,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A10" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="B10" s="47" t="n">
         <f aca="false">ROUND([1]output_table!B6,6)</f>
@@ -33752,9 +34377,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A11" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="B11" s="47" t="n">
         <f aca="false">ROUND([1]output_table!B7,6)</f>
@@ -33774,9 +34398,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A12" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="B12" s="47" t="n">
         <f aca="false">ROUND([1]output_table!B8,6)</f>
@@ -33796,9 +34419,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A13" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="B13" s="47" t="n">
         <f aca="false">ROUND([1]output_table!B9,6)</f>
@@ -33818,9 +34440,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A14" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="B14" s="47" t="n">
         <f aca="false">ROUND([1]output_table!B10,6)</f>
@@ -33840,9 +34461,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A15" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="B15" s="47" t="n">
         <f aca="false">ROUND([1]output_table!B11,6)</f>
@@ -33862,9 +34482,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A16" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="B16" s="47" t="n">
         <f aca="false">ROUND([1]output_table!B12,6)</f>
@@ -33884,9 +34503,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A17" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="B17" s="47" t="n">
         <f aca="false">ROUND([1]output_table!B13,6)</f>
@@ -33906,9 +34524,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A18" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="B18" s="47" t="n">
         <f aca="false">ROUND([1]output_table!B14,6)</f>
@@ -33928,9 +34545,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A19" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="B19" s="47" t="n">
         <f aca="false">ROUND([1]output_table!B15,6)</f>
@@ -33950,9 +34566,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A20" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="B20" s="47" t="n">
         <f aca="false">ROUND([1]output_table!B16,6)</f>
@@ -33972,9 +34587,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A21" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="B21" s="47" t="n">
         <f aca="false">ROUND([1]output_table!B17,6)</f>
@@ -33994,9 +34608,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A22" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="B22" s="47" t="n">
         <f aca="false">ROUND([1]output_table!B18,6)</f>
@@ -34016,9 +34629,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A23" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="B23" s="47" t="n">
         <f aca="false">ROUND([1]output_table!B19,6)</f>
@@ -34038,9 +34650,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A24" s="20" t="s">
+        <v>108</v>
       </c>
       <c r="B24" s="47" t="n">
         <f aca="false">ROUND([1]output_table!B20,6)</f>
@@ -34060,9 +34671,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A25" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="B25" s="47" t="n">
         <f aca="false">ROUND([1]output_table!B21,6)</f>
@@ -34082,9 +34692,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A26" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="B26" s="47" t="n">
         <f aca="false">ROUND([1]output_table!B22,6)</f>
@@ -34104,9 +34713,8 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A27" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="B27" s="47" t="n">
         <f aca="false">ROUND([1]output_table!B23,6)</f>
@@ -34126,9 +34734,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A28" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="B28" s="47" t="n">
         <f aca="false">ROUND([1]output_table!B24,6)</f>
@@ -34148,9 +34755,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A29" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="B29" s="47" t="n">
         <f aca="false">ROUND([1]output_table!B25,6)</f>
@@ -34170,9 +34776,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A30" s="24" t="s">
+        <v>114</v>
       </c>
       <c r="B30" s="51" t="n">
         <f aca="false">ROUND([1]output_table!B26,6)</f>
@@ -34193,7 +34798,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -34227,26 +34832,26 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K1" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.0451017</v>
@@ -34258,12 +34863,12 @@
         <v>0.53</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.0675627</v>
@@ -34275,12 +34880,12 @@
         <v>4.27</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.1177053</v>
@@ -34292,12 +34897,12 @@
         <v>4.61</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>112</v>
+        <v>137</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.0096435</v>
@@ -34311,19 +34916,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K7" s="0" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="54"/>
       <c r="K9" s="0" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="54"/>
       <c r="K10" s="0" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34332,422 +34937,422 @@
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="54"/>
       <c r="K12" s="0" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K13" s="0" t="s">
-        <v>117</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K14" s="0" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K15" s="0" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K17" s="0" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K19" s="0" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K20" s="0" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K22" s="0" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K23" s="0" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K24" s="0" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K25" s="0" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K27" s="0" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K28" s="0" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K30" s="0" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K31" s="0" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K32" s="0" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K33" s="0" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K34" s="0" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K35" s="0" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K37" s="0" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K39" s="0" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K40" s="0" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K42" s="0" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K43" s="0" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K44" s="0" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K45" s="0" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K47" s="0" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K48" s="0" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K50" s="0" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K51" s="0" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K52" s="0" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K53" s="0" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K54" s="0" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K55" s="0" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K56" s="0" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K57" s="0" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K58" s="0" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K59" s="0" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K60" s="0" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K62" s="0" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K63" s="0" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K64" s="0" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K65" s="0" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K67" s="0" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K69" s="0" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K70" s="0" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K72" s="0" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K73" s="0" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K74" s="0" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K75" s="0" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K77" s="0" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K78" s="0" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K80" s="0" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K81" s="0" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K82" s="0" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K83" s="0" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K84" s="0" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K85" s="0" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K87" s="0" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K89" s="0" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K90" s="0" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K92" s="0" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K93" s="0" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K94" s="0" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K95" s="0" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K97" s="0" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K98" s="0" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K100" s="0" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K101" s="0" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K102" s="0" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K103" s="0" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K104" s="0" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K105" s="0" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K106" s="0" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K107" s="0" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K108" s="0" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K109" s="0" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K110" s="0" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K112" s="0" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K113" s="0" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K114" s="0" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K115" s="0" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K116" s="0" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K117" s="0" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -34769,7 +35374,7 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -34821,7 +35426,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34855,9 +35460,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A6" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="B6" s="17" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([1]output_table!F2,1),"0.0"),"%")</f>
@@ -34873,9 +35477,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A7" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="B7" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([1]output_table!F3,1),"0.0"),"%")</f>
@@ -34891,9 +35494,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A8" s="20" t="s">
+        <v>92</v>
       </c>
       <c r="B8" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([1]output_table!F4,1),"0.0"),"%")</f>
@@ -34909,9 +35511,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A9" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="B9" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([1]output_table!F5,1),"0.0"),"%")</f>
@@ -34927,9 +35528,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A10" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="B10" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([1]output_table!F6,1),"0.0"),"%")</f>
@@ -34945,9 +35545,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A11" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="B11" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([1]output_table!F7,1),"0.0"),"%")</f>
@@ -34967,9 +35566,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A12" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="B12" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([1]output_table!F8,1),"0.0"),"%")</f>
@@ -34985,9 +35583,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A13" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="B13" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([1]output_table!F9,1),"0.0"),"%")</f>
@@ -35003,9 +35600,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A14" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="B14" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([1]output_table!F10,1),"0.0"),"%")</f>
@@ -35021,9 +35617,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A15" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="B15" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([1]output_table!F11,1),"0.0"),"%")</f>
@@ -35039,9 +35634,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A16" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="B16" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([1]output_table!F12,1),"0.0"),"%")</f>
@@ -35057,9 +35651,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A17" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="B17" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([1]output_table!F13,1),"0.0"),"%")</f>
@@ -35075,9 +35668,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A18" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="B18" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([1]output_table!F14,1),"0.0"),"%")</f>
@@ -35093,9 +35685,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A19" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="B19" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([1]output_table!F15,1),"0.0"),"%")</f>
@@ -35111,9 +35702,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A20" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="B20" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([1]output_table!F16,1),"0.0"),"%")</f>
@@ -35129,9 +35719,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A21" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="B21" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([1]output_table!F17,1),"0.0"),"%")</f>
@@ -35147,9 +35736,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A22" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="B22" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([1]output_table!F18,1),"0.0"),"%")</f>
@@ -35165,9 +35753,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A23" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="B23" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([1]output_table!F19,1),"0.0"),"%")</f>
@@ -35183,9 +35770,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A24" s="20" t="s">
+        <v>108</v>
       </c>
       <c r="B24" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([1]output_table!F20,1),"0.0"),"%")</f>
@@ -35201,9 +35787,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A25" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="B25" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([1]output_table!F21,1),"0.0"),"%")</f>
@@ -35219,9 +35804,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A26" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="B26" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([1]output_table!F22,1),"0.0"),"%")</f>
@@ -35237,9 +35821,8 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A27" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="B27" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([1]output_table!F23,1),"0.0"),"%")</f>
@@ -35255,9 +35838,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A28" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="B28" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([1]output_table!F24,1),"0.0"),"%")</f>
@@ -35273,9 +35855,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A29" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="B29" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([1]output_table!F25,1),"0.0"),"%")</f>
@@ -35291,9 +35872,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A30" s="24" t="s">
+        <v>114</v>
       </c>
       <c r="B30" s="25" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([1]output_table!F26,1),"0.0"),"%")</f>
@@ -35310,7 +35890,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -35333,7 +35913,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35367,9 +35947,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A6" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="B6" s="17" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([2]output_table!F2,1),"0.0"),"%")</f>
@@ -35385,9 +35964,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A7" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="B7" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([2]output_table!F3,1),"0.0"),"%")</f>
@@ -35403,9 +35981,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A8" s="20" t="s">
+        <v>92</v>
       </c>
       <c r="B8" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([2]output_table!F4,1),"0.0"),"%")</f>
@@ -35421,9 +35998,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A9" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="B9" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([2]output_table!F5,1),"0.0"),"%")</f>
@@ -35439,9 +36015,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A10" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="B10" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([2]output_table!F6,1),"0.0"),"%")</f>
@@ -35457,9 +36032,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A11" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="B11" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([2]output_table!F7,1),"0.0"),"%")</f>
@@ -35475,9 +36049,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A12" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="B12" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([2]output_table!F8,1),"0.0"),"%")</f>
@@ -35493,9 +36066,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A13" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="B13" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([2]output_table!F9,1),"0.0"),"%")</f>
@@ -35511,9 +36083,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A14" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="B14" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([2]output_table!F10,1),"0.0"),"%")</f>
@@ -35529,9 +36100,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A15" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="B15" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([2]output_table!F11,1),"0.0"),"%")</f>
@@ -35547,9 +36117,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A16" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="B16" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([2]output_table!F12,1),"0.0"),"%")</f>
@@ -35565,9 +36134,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A17" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="B17" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([2]output_table!F13,1),"0.0"),"%")</f>
@@ -35583,9 +36151,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A18" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="B18" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([2]output_table!F14,1),"0.0"),"%")</f>
@@ -35601,9 +36168,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A19" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="B19" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([2]output_table!F15,1),"0.0"),"%")</f>
@@ -35619,9 +36185,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A20" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="B20" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([2]output_table!F16,1),"0.0"),"%")</f>
@@ -35637,9 +36202,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A21" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="B21" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([2]output_table!F17,1),"0.0"),"%")</f>
@@ -35655,9 +36219,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A22" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="B22" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([2]output_table!F18,1),"0.0"),"%")</f>
@@ -35673,9 +36236,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A23" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="B23" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([2]output_table!F19,1),"0.0"),"%")</f>
@@ -35691,9 +36253,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A24" s="20" t="s">
+        <v>108</v>
       </c>
       <c r="B24" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([2]output_table!F20,1),"0.0"),"%")</f>
@@ -35709,9 +36270,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A25" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="B25" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([2]output_table!F21,1),"0.0"),"%")</f>
@@ -35727,9 +36287,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A26" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="B26" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([2]output_table!F22,1),"0.0"),"%")</f>
@@ -35745,9 +36304,8 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A27" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="B27" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([2]output_table!F23,1),"0.0"),"%")</f>
@@ -35763,9 +36321,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A28" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="B28" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([2]output_table!F24,1),"0.0"),"%")</f>
@@ -35781,9 +36338,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A29" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="B29" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([2]output_table!F25,1),"0.0"),"%")</f>
@@ -35799,9 +36355,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A30" s="24" t="s">
+        <v>114</v>
       </c>
       <c r="B30" s="25" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([2]output_table!F26,1),"0.0"),"%")</f>
@@ -35818,7 +36373,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -35841,7 +36396,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -35898,9 +36453,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A7" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="B7" s="17" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([3]output_table!F2,1),"0.0"),"%")</f>
@@ -35928,9 +36482,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A8" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="B8" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([3]output_table!F3,1),"0.0"),"%")</f>
@@ -35958,9 +36511,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A9" s="20" t="s">
+        <v>92</v>
       </c>
       <c r="B9" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([3]output_table!F4,1),"0.0"),"%")</f>
@@ -35988,9 +36540,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A10" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="B10" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([3]output_table!F5,1),"0.0"),"%")</f>
@@ -36018,9 +36569,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A11" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="B11" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([3]output_table!F6,1),"0.0"),"%")</f>
@@ -36048,9 +36598,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A12" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="B12" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([3]output_table!F7,1),"0.0"),"%")</f>
@@ -36078,9 +36627,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A13" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="B13" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([3]output_table!F8,1),"0.0"),"%")</f>
@@ -36108,9 +36656,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A14" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="B14" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([3]output_table!F9,1),"0.0"),"%")</f>
@@ -36138,9 +36685,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A15" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="B15" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([3]output_table!F10,1),"0.0"),"%")</f>
@@ -36168,9 +36714,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A16" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="B16" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([3]output_table!F11,1),"0.0"),"%")</f>
@@ -36198,9 +36743,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A17" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="B17" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([3]output_table!F12,1),"0.0"),"%")</f>
@@ -36228,9 +36772,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A18" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="B18" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([3]output_table!F13,1),"0.0"),"%")</f>
@@ -36258,9 +36801,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A19" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="B19" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([3]output_table!F14,1),"0.0"),"%")</f>
@@ -36288,9 +36830,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A20" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="B20" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([3]output_table!F15,1),"0.0"),"%")</f>
@@ -36318,9 +36859,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A21" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="B21" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([3]output_table!F16,1),"0.0"),"%")</f>
@@ -36348,9 +36888,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A22" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="B22" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([3]output_table!F17,1),"0.0"),"%")</f>
@@ -36378,9 +36917,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A23" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="B23" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([3]output_table!F18,1),"0.0"),"%")</f>
@@ -36408,9 +36946,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A24" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="B24" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([3]output_table!F19,1),"0.0"),"%")</f>
@@ -36438,9 +36975,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A25" s="20" t="s">
+        <v>108</v>
       </c>
       <c r="B25" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([3]output_table!F20,1),"0.0"),"%")</f>
@@ -36468,9 +37004,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A26" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="B26" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([3]output_table!F21,1),"0.0"),"%")</f>
@@ -36498,9 +37033,8 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A27" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="B27" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([3]output_table!F22,1),"0.0"),"%")</f>
@@ -36528,9 +37062,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A28" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="B28" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([3]output_table!F23,1),"0.0"),"%")</f>
@@ -36558,9 +37091,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A29" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="B29" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([3]output_table!F24,1),"0.0"),"%")</f>
@@ -36588,9 +37120,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A30" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="B30" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([3]output_table!F25,1),"0.0"),"%")</f>
@@ -36618,9 +37149,8 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A31" s="24" t="s">
+        <v>114</v>
       </c>
       <c r="B31" s="25" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([3]output_table!F26,1),"0.0"),"%")</f>
@@ -36649,7 +37179,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -36676,7 +37206,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -36710,9 +37240,8 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A6" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="B6" s="17" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([5]output_table!F2,1),"0.0"),"%")</f>
@@ -36728,9 +37257,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A7" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="B7" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([5]output_table!F3,1),"0.0"),"%")</f>
@@ -36746,9 +37274,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A8" s="20" t="s">
+        <v>92</v>
       </c>
       <c r="B8" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([5]output_table!F4,1),"0.0"),"%")</f>
@@ -36764,9 +37291,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A9" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="B9" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([5]output_table!F5,1),"0.0"),"%")</f>
@@ -36782,9 +37308,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A10" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="B10" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([5]output_table!F6,1),"0.0"),"%")</f>
@@ -36800,9 +37325,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A11" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="B11" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([5]output_table!F7,1),"0.0"),"%")</f>
@@ -36818,9 +37342,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A12" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="B12" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([5]output_table!F8,1),"0.0"),"%")</f>
@@ -36836,9 +37359,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A13" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="B13" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([5]output_table!F9,1),"0.0"),"%")</f>
@@ -36854,9 +37376,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A14" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="B14" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([5]output_table!F10,1),"0.0"),"%")</f>
@@ -36872,9 +37393,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A15" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="B15" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([5]output_table!F11,1),"0.0"),"%")</f>
@@ -36890,9 +37410,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A16" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="B16" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([5]output_table!F12,1),"0.0"),"%")</f>
@@ -36908,9 +37427,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A17" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="B17" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([5]output_table!F13,1),"0.0"),"%")</f>
@@ -36926,9 +37444,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A18" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="B18" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([5]output_table!F14,1),"0.0"),"%")</f>
@@ -36944,9 +37461,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A19" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="B19" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([5]output_table!F15,1),"0.0"),"%")</f>
@@ -36962,9 +37478,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A20" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="B20" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([5]output_table!F16,1),"0.0"),"%")</f>
@@ -36980,9 +37495,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A21" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="B21" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([5]output_table!F17,1),"0.0"),"%")</f>
@@ -36998,9 +37512,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A22" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="B22" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([5]output_table!F18,1),"0.0"),"%")</f>
@@ -37016,9 +37529,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A23" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="B23" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([5]output_table!F19,1),"0.0"),"%")</f>
@@ -37034,9 +37546,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A24" s="20" t="s">
+        <v>108</v>
       </c>
       <c r="B24" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([5]output_table!F20,1),"0.0"),"%")</f>
@@ -37052,9 +37563,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A25" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="B25" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([5]output_table!F21,1),"0.0"),"%")</f>
@@ -37070,9 +37580,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A26" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="B26" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([5]output_table!F22,1),"0.0"),"%")</f>
@@ -37088,9 +37597,8 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A27" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="B27" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([5]output_table!F23,1),"0.0"),"%")</f>
@@ -37106,9 +37614,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A28" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="B28" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([5]output_table!F24,1),"0.0"),"%")</f>
@@ -37124,9 +37631,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A29" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="B29" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([5]output_table!F25,1),"0.0"),"%")</f>
@@ -37142,9 +37648,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A30" s="24" t="s">
+        <v>114</v>
       </c>
       <c r="B30" s="25" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([5]output_table!F26,1),"0.0"),"%")</f>
@@ -37161,7 +37666,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -37183,8 +37688,8 @@
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37256,13 +37761,21 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
+      <c r="A7" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="17" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!F2,1),"0.0"),"%")</f>
+        <v>1.5%</v>
+      </c>
+      <c r="C7" s="18" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!G2,1),"0.0"),"%")</f>
+        <v>-2.7%</v>
+      </c>
+      <c r="D7" s="19" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!H2,1),"0.0"),"%")</f>
+        <v>4.3%</v>
+      </c>
       <c r="E7" s="17" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!F2,1),"0.0"),"%")</f>
         <v>1.4%</v>
@@ -37275,18 +37788,35 @@
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!H2,1),"0.0"),"%")</f>
         <v>4.1%</v>
       </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19"/>
+      <c r="H7" s="17" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!F2,1),"0.0"),"%")</f>
+        <v>1.2%</v>
+      </c>
+      <c r="I7" s="18" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!G2,1),"0.0"),"%")</f>
+        <v>-2.8%</v>
+      </c>
+      <c r="J7" s="19" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!H2,1),"0.0"),"%")</f>
+        <v>4.0%</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
+      <c r="A8" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!F3,1),"0.0"),"%")</f>
+        <v>-38.5%</v>
+      </c>
+      <c r="C8" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!G3,1),"0.0"),"%")</f>
+        <v>-63.1%</v>
+      </c>
+      <c r="D8" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!H3,1),"0.0"),"%")</f>
+        <v>24.6%</v>
+      </c>
       <c r="E8" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!F3,1),"0.0"),"%")</f>
         <v>-37.8%</v>
@@ -37299,18 +37829,35 @@
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!H3,1),"0.0"),"%")</f>
         <v>25.9%</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
+      <c r="H8" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!F3,1),"0.0"),"%")</f>
+        <v>-37.4%</v>
+      </c>
+      <c r="I8" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!G3,1),"0.0"),"%")</f>
+        <v>-63.7%</v>
+      </c>
+      <c r="J8" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!H3,1),"0.0"),"%")</f>
+        <v>26.3%</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
+      <c r="A9" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!F4,1),"0.0"),"%")</f>
+        <v>-50.4%</v>
+      </c>
+      <c r="C9" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!G4,1),"0.0"),"%")</f>
+        <v>-115.0%</v>
+      </c>
+      <c r="D9" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!H4,1),"0.0"),"%")</f>
+        <v>64.5%</v>
+      </c>
       <c r="E9" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!F4,1),"0.0"),"%")</f>
         <v>-50.5%</v>
@@ -37323,18 +37870,35 @@
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!H4,1),"0.0"),"%")</f>
         <v>64.8%</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23"/>
+      <c r="H9" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!F4,1),"0.0"),"%")</f>
+        <v>-50.5%</v>
+      </c>
+      <c r="I9" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!G4,1),"0.0"),"%")</f>
+        <v>-116.0%</v>
+      </c>
+      <c r="J9" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!H4,1),"0.0"),"%")</f>
+        <v>65.4%</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
+      <c r="A10" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!F5,1),"0.0"),"%")</f>
+        <v>-60.3%</v>
+      </c>
+      <c r="C10" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!G5,1),"0.0"),"%")</f>
+        <v>-86.8%</v>
+      </c>
+      <c r="D10" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!H5,1),"0.0"),"%")</f>
+        <v>26.5%</v>
+      </c>
       <c r="E10" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!F5,1),"0.0"),"%")</f>
         <v>-60.5%</v>
@@ -37347,18 +37911,35 @@
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!H5,1),"0.0"),"%")</f>
         <v>26.2%</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23"/>
+      <c r="H10" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!F5,1),"0.0"),"%")</f>
+        <v>-60.9%</v>
+      </c>
+      <c r="I10" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!G5,1),"0.0"),"%")</f>
+        <v>-86.3%</v>
+      </c>
+      <c r="J10" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!H5,1),"0.0"),"%")</f>
+        <v>25.5%</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
+      <c r="A11" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!F6,1),"0.0"),"%")</f>
+        <v>1.5%</v>
+      </c>
+      <c r="C11" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!G6,1),"0.0"),"%")</f>
+        <v>0.4%</v>
+      </c>
+      <c r="D11" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!H6,1),"0.0"),"%")</f>
+        <v>1.1%</v>
+      </c>
       <c r="E11" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!F6,1),"0.0"),"%")</f>
         <v>1.5%</v>
@@ -37371,18 +37952,35 @@
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!H6,1),"0.0"),"%")</f>
         <v>1.1%</v>
       </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
+      <c r="H11" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!F6,1),"0.0"),"%")</f>
+        <v>1.5%</v>
+      </c>
+      <c r="I11" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!G6,1),"0.0"),"%")</f>
+        <v>0.4%</v>
+      </c>
+      <c r="J11" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!H6,1),"0.0"),"%")</f>
+        <v>1.2%</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
+      <c r="A12" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!F7,1),"0.0"),"%")</f>
+        <v>-21.2%</v>
+      </c>
+      <c r="C12" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!G7,1),"0.0"),"%")</f>
+        <v>-30.0%</v>
+      </c>
+      <c r="D12" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!H7,1),"0.0"),"%")</f>
+        <v>8.8%</v>
+      </c>
       <c r="E12" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!F7,1),"0.0"),"%")</f>
         <v>-21.3%</v>
@@ -37395,18 +37993,35 @@
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!H7,1),"0.0"),"%")</f>
         <v>8.5%</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
+      <c r="H12" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!F7,1),"0.0"),"%")</f>
+        <v>-21.3%</v>
+      </c>
+      <c r="I12" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!G7,1),"0.0"),"%")</f>
+        <v>-29.6%</v>
+      </c>
+      <c r="J12" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!H7,1),"0.0"),"%")</f>
+        <v>8.3%</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
+      <c r="A13" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!F8,1),"0.0"),"%")</f>
+        <v>-64.0%</v>
+      </c>
+      <c r="C13" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!G8,1),"0.0"),"%")</f>
+        <v>-47.7%</v>
+      </c>
+      <c r="D13" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!H8,1),"0.0"),"%")</f>
+        <v>-16.3%</v>
+      </c>
       <c r="E13" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!F8,1),"0.0"),"%")</f>
         <v>-64.1%</v>
@@ -37419,18 +38034,35 @@
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!H8,1),"0.0"),"%")</f>
         <v>-16.1%</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
+      <c r="H13" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!F8,1),"0.0"),"%")</f>
+        <v>-64.2%</v>
+      </c>
+      <c r="I13" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!G8,1),"0.0"),"%")</f>
+        <v>-48.2%</v>
+      </c>
+      <c r="J13" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!H8,1),"0.0"),"%")</f>
+        <v>-16.0%</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
+      <c r="A14" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!F9,1),"0.0"),"%")</f>
+        <v>-24.9%</v>
+      </c>
+      <c r="C14" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!G9,1),"0.0"),"%")</f>
+        <v>-60.6%</v>
+      </c>
+      <c r="D14" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!H9,1),"0.0"),"%")</f>
+        <v>35.7%</v>
+      </c>
       <c r="E14" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!F9,1),"0.0"),"%")</f>
         <v>-24.9%</v>
@@ -37443,18 +38075,35 @@
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!H9,1),"0.0"),"%")</f>
         <v>35.9%</v>
       </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="23"/>
+      <c r="H14" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!F9,1),"0.0"),"%")</f>
+        <v>-24.9%</v>
+      </c>
+      <c r="I14" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!G9,1),"0.0"),"%")</f>
+        <v>-61.2%</v>
+      </c>
+      <c r="J14" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!H9,1),"0.0"),"%")</f>
+        <v>36.3%</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
+      <c r="A15" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!F10,1),"0.0"),"%")</f>
+        <v>-15.8%</v>
+      </c>
+      <c r="C15" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!G10,1),"0.0"),"%")</f>
+        <v>6.4%</v>
+      </c>
+      <c r="D15" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!H10,1),"0.0"),"%")</f>
+        <v>-22.2%</v>
+      </c>
       <c r="E15" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!F10,1),"0.0"),"%")</f>
         <v>-15.7%</v>
@@ -37467,18 +38116,35 @@
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!H10,1),"0.0"),"%")</f>
         <v>-22.3%</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
+      <c r="H15" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!F10,1),"0.0"),"%")</f>
+        <v>-15.6%</v>
+      </c>
+      <c r="I15" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!G10,1),"0.0"),"%")</f>
+        <v>6.8%</v>
+      </c>
+      <c r="J15" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!H10,1),"0.0"),"%")</f>
+        <v>-22.4%</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
+      <c r="A16" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!F11,1),"0.0"),"%")</f>
+        <v>-27.8%</v>
+      </c>
+      <c r="C16" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!G11,1),"0.0"),"%")</f>
+        <v>-28.2%</v>
+      </c>
+      <c r="D16" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!H11,1),"0.0"),"%")</f>
+        <v>0.4%</v>
+      </c>
       <c r="E16" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!F11,1),"0.0"),"%")</f>
         <v>-27.8%</v>
@@ -37491,18 +38157,35 @@
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!H11,1),"0.0"),"%")</f>
         <v>0.4%</v>
       </c>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="23"/>
+      <c r="H16" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!F11,1),"0.0"),"%")</f>
+        <v>-27.9%</v>
+      </c>
+      <c r="I16" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!G11,1),"0.0"),"%")</f>
+        <v>-28.2%</v>
+      </c>
+      <c r="J16" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!H11,1),"0.0"),"%")</f>
+        <v>0.3%</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
+      <c r="A17" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!F12,1),"0.0"),"%")</f>
+        <v>-6.1%</v>
+      </c>
+      <c r="C17" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!G12,1),"0.0"),"%")</f>
+        <v>-9.8%</v>
+      </c>
+      <c r="D17" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!H12,1),"0.0"),"%")</f>
+        <v>3.8%</v>
+      </c>
       <c r="E17" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!F12,1),"0.0"),"%")</f>
         <v>-5.7%</v>
@@ -37515,18 +38198,35 @@
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!H12,1),"0.0"),"%")</f>
         <v>4.4%</v>
       </c>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="23"/>
+      <c r="H17" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!F12,1),"0.0"),"%")</f>
+        <v>-5.5%</v>
+      </c>
+      <c r="I17" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!G12,1),"0.0"),"%")</f>
+        <v>-10.8%</v>
+      </c>
+      <c r="J17" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!H12,1),"0.0"),"%")</f>
+        <v>5.3%</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
+      <c r="A18" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!F13,1),"0.0"),"%")</f>
+        <v>-11.2%</v>
+      </c>
+      <c r="C18" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!G13,1),"0.0"),"%")</f>
+        <v>-9.9%</v>
+      </c>
+      <c r="D18" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!H13,1),"0.0"),"%")</f>
+        <v>-1.3%</v>
+      </c>
       <c r="E18" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!F13,1),"0.0"),"%")</f>
         <v>-11.2%</v>
@@ -37539,18 +38239,35 @@
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!H13,1),"0.0"),"%")</f>
         <v>-1.3%</v>
       </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="23"/>
+      <c r="H18" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!F13,1),"0.0"),"%")</f>
+        <v>-11.2%</v>
+      </c>
+      <c r="I18" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!G13,1),"0.0"),"%")</f>
+        <v>-9.9%</v>
+      </c>
+      <c r="J18" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!H13,1),"0.0"),"%")</f>
+        <v>-1.3%</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
+      <c r="A19" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!F14,1),"0.0"),"%")</f>
+        <v>-60.2%</v>
+      </c>
+      <c r="C19" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!G14,1),"0.0"),"%")</f>
+        <v>-65.6%</v>
+      </c>
+      <c r="D19" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!H14,1),"0.0"),"%")</f>
+        <v>5.4%</v>
+      </c>
       <c r="E19" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!F14,1),"0.0"),"%")</f>
         <v>-60.1%</v>
@@ -37563,18 +38280,35 @@
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!H14,1),"0.0"),"%")</f>
         <v>6.0%</v>
       </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="23"/>
+      <c r="H19" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!F14,1),"0.0"),"%")</f>
+        <v>-59.8%</v>
+      </c>
+      <c r="I19" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!G14,1),"0.0"),"%")</f>
+        <v>-67.2%</v>
+      </c>
+      <c r="J19" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!H14,1),"0.0"),"%")</f>
+        <v>7.4%</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
+      <c r="A20" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!F15,1),"0.0"),"%")</f>
+        <v>-14.4%</v>
+      </c>
+      <c r="C20" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!G15,1),"0.0"),"%")</f>
+        <v>4.7%</v>
+      </c>
+      <c r="D20" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!H15,1),"0.0"),"%")</f>
+        <v>-19.1%</v>
+      </c>
       <c r="E20" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!F15,1),"0.0"),"%")</f>
         <v>-14.3%</v>
@@ -37587,18 +38321,35 @@
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!H15,1),"0.0"),"%")</f>
         <v>-19.3%</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="23"/>
+      <c r="H20" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!F15,1),"0.0"),"%")</f>
+        <v>-14.2%</v>
+      </c>
+      <c r="I20" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!G15,1),"0.0"),"%")</f>
+        <v>5.2%</v>
+      </c>
+      <c r="J20" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!H15,1),"0.0"),"%")</f>
+        <v>-19.4%</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
+      <c r="A21" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!F16,1),"0.0"),"%")</f>
+        <v>-0.8%</v>
+      </c>
+      <c r="C21" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!G16,1),"0.0"),"%")</f>
+        <v>1.8%</v>
+      </c>
+      <c r="D21" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!H16,1),"0.0"),"%")</f>
+        <v>-2.7%</v>
+      </c>
       <c r="E21" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!F16,1),"0.0"),"%")</f>
         <v>-0.9%</v>
@@ -37611,18 +38362,35 @@
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!H16,1),"0.0"),"%")</f>
         <v>-2.7%</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="23"/>
+      <c r="H21" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!F16,1),"0.0"),"%")</f>
+        <v>-0.9%</v>
+      </c>
+      <c r="I21" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!G16,1),"0.0"),"%")</f>
+        <v>1.9%</v>
+      </c>
+      <c r="J21" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!H16,1),"0.0"),"%")</f>
+        <v>-2.9%</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
+      <c r="A22" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!F17,1),"0.0"),"%")</f>
+        <v>-52.0%</v>
+      </c>
+      <c r="C22" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!G17,1),"0.0"),"%")</f>
+        <v>-95.1%</v>
+      </c>
+      <c r="D22" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!H17,1),"0.0"),"%")</f>
+        <v>43.1%</v>
+      </c>
       <c r="E22" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!F17,1),"0.0"),"%")</f>
         <v>-52.1%</v>
@@ -37635,18 +38403,35 @@
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!H17,1),"0.0"),"%")</f>
         <v>42.5%</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23"/>
+      <c r="H22" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!F17,1),"0.0"),"%")</f>
+        <v>-52.1%</v>
+      </c>
+      <c r="I22" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!G17,1),"0.0"),"%")</f>
+        <v>-93.8%</v>
+      </c>
+      <c r="J22" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!H17,1),"0.0"),"%")</f>
+        <v>41.7%</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
+      <c r="A23" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!F18,1),"0.0"),"%")</f>
+        <v>-46.6%</v>
+      </c>
+      <c r="C23" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!G18,1),"0.0"),"%")</f>
+        <v>-139.5%</v>
+      </c>
+      <c r="D23" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!H18,1),"0.0"),"%")</f>
+        <v>92.8%</v>
+      </c>
       <c r="E23" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!F18,1),"0.0"),"%")</f>
         <v>-46.8%</v>
@@ -37659,18 +38444,35 @@
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!H18,1),"0.0"),"%")</f>
         <v>93.5%</v>
       </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="23"/>
+      <c r="H23" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!F18,1),"0.0"),"%")</f>
+        <v>-47.2%</v>
+      </c>
+      <c r="I23" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!G18,1),"0.0"),"%")</f>
+        <v>-141.8%</v>
+      </c>
+      <c r="J23" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!H18,1),"0.0"),"%")</f>
+        <v>94.6%</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
+      <c r="A24" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!F19,1),"0.0"),"%")</f>
+        <v>-30.7%</v>
+      </c>
+      <c r="C24" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!G19,1),"0.0"),"%")</f>
+        <v>-77.2%</v>
+      </c>
+      <c r="D24" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!H19,1),"0.0"),"%")</f>
+        <v>46.6%</v>
+      </c>
       <c r="E24" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!F19,1),"0.0"),"%")</f>
         <v>-30.5%</v>
@@ -37683,18 +38485,35 @@
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!H19,1),"0.0"),"%")</f>
         <v>46.7%</v>
       </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="23"/>
+      <c r="H24" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!F19,1),"0.0"),"%")</f>
+        <v>-30.2%</v>
+      </c>
+      <c r="I24" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!G19,1),"0.0"),"%")</f>
+        <v>-77.2%</v>
+      </c>
+      <c r="J24" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!H19,1),"0.0"),"%")</f>
+        <v>47.0%</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
+      <c r="A25" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!F20,1),"0.0"),"%")</f>
+        <v>2.7%</v>
+      </c>
+      <c r="C25" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!G20,1),"0.0"),"%")</f>
+        <v>-35.3%</v>
+      </c>
+      <c r="D25" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!H20,1),"0.0"),"%")</f>
+        <v>38.0%</v>
+      </c>
       <c r="E25" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!F20,1),"0.0"),"%")</f>
         <v>2.2%</v>
@@ -37707,18 +38526,35 @@
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!H20,1),"0.0"),"%")</f>
         <v>37.7%</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="23"/>
+      <c r="H25" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!F20,1),"0.0"),"%")</f>
+        <v>1.7%</v>
+      </c>
+      <c r="I25" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!G20,1),"0.0"),"%")</f>
+        <v>-35.6%</v>
+      </c>
+      <c r="J25" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!H20,1),"0.0"),"%")</f>
+        <v>37.3%</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
+      <c r="A26" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!F21,1),"0.0"),"%")</f>
+        <v>0.6%</v>
+      </c>
+      <c r="C26" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!G21,1),"0.0"),"%")</f>
+        <v>-2.5%</v>
+      </c>
+      <c r="D26" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!H21,1),"0.0"),"%")</f>
+        <v>3.2%</v>
+      </c>
       <c r="E26" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!F21,1),"0.0"),"%")</f>
         <v>0.7%</v>
@@ -37731,18 +38567,35 @@
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!H21,1),"0.0"),"%")</f>
         <v>3.2%</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="23"/>
+      <c r="H26" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!F21,1),"0.0"),"%")</f>
+        <v>0.7%</v>
+      </c>
+      <c r="I26" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!G21,1),"0.0"),"%")</f>
+        <v>-2.5%</v>
+      </c>
+      <c r="J26" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!H21,1),"0.0"),"%")</f>
+        <v>3.2%</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="23"/>
+      <c r="A27" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!F22,1),"0.0"),"%")</f>
+        <v>-8.5%</v>
+      </c>
+      <c r="C27" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!G22,1),"0.0"),"%")</f>
+        <v>-19.1%</v>
+      </c>
+      <c r="D27" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!H22,1),"0.0"),"%")</f>
+        <v>10.6%</v>
+      </c>
       <c r="E27" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!F22,1),"0.0"),"%")</f>
         <v>-8.7%</v>
@@ -37755,18 +38608,35 @@
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!H22,1),"0.0"),"%")</f>
         <v>10.8%</v>
       </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="23"/>
+      <c r="H27" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!F22,1),"0.0"),"%")</f>
+        <v>-8.9%</v>
+      </c>
+      <c r="I27" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!G22,1),"0.0"),"%")</f>
+        <v>-19.9%</v>
+      </c>
+      <c r="J27" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!H22,1),"0.0"),"%")</f>
+        <v>11.0%</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
+      <c r="A28" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!F23,1),"0.0"),"%")</f>
+        <v>-54.4%</v>
+      </c>
+      <c r="C28" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!G23,1),"0.0"),"%")</f>
+        <v>-26.3%</v>
+      </c>
+      <c r="D28" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!H23,1),"0.0"),"%")</f>
+        <v>-28.1%</v>
+      </c>
       <c r="E28" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!F23,1),"0.0"),"%")</f>
         <v>-54.3%</v>
@@ -37779,18 +38649,35 @@
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!H23,1),"0.0"),"%")</f>
         <v>-28.0%</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="23"/>
+      <c r="H28" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!F23,1),"0.0"),"%")</f>
+        <v>-54.3%</v>
+      </c>
+      <c r="I28" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!G23,1),"0.0"),"%")</f>
+        <v>-26.5%</v>
+      </c>
+      <c r="J28" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!H23,1),"0.0"),"%")</f>
+        <v>-27.8%</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="23"/>
+      <c r="A29" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!F24,1),"0.0"),"%")</f>
+        <v>-35.1%</v>
+      </c>
+      <c r="C29" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!G24,1),"0.0"),"%")</f>
+        <v>-38.0%</v>
+      </c>
+      <c r="D29" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!H24,1),"0.0"),"%")</f>
+        <v>2.9%</v>
+      </c>
       <c r="E29" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!F24,1),"0.0"),"%")</f>
         <v>-35.3%</v>
@@ -37803,18 +38690,35 @@
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!H24,1),"0.0"),"%")</f>
         <v>2.7%</v>
       </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="23"/>
+      <c r="H29" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!F24,1),"0.0"),"%")</f>
+        <v>-35.6%</v>
+      </c>
+      <c r="I29" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!G24,1),"0.0"),"%")</f>
+        <v>-38.2%</v>
+      </c>
+      <c r="J29" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!H24,1),"0.0"),"%")</f>
+        <v>2.6%</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
+      <c r="A30" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!F25,1),"0.0"),"%")</f>
+        <v>-43.9%</v>
+      </c>
+      <c r="C30" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!G25,1),"0.0"),"%")</f>
+        <v>-27.4%</v>
+      </c>
+      <c r="D30" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!H25,1),"0.0"),"%")</f>
+        <v>-16.5%</v>
+      </c>
       <c r="E30" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!F25,1),"0.0"),"%")</f>
         <v>-44.0%</v>
@@ -37827,18 +38731,35 @@
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!H25,1),"0.0"),"%")</f>
         <v>-16.8%</v>
       </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="23"/>
+      <c r="H30" s="21" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!F25,1),"0.0"),"%")</f>
+        <v>-44.2%</v>
+      </c>
+      <c r="I30" s="22" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!G25,1),"0.0"),"%")</f>
+        <v>-26.9%</v>
+      </c>
+      <c r="J30" s="23" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!H25,1),"0.0"),"%")</f>
+        <v>-17.2%</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
+      <c r="A31" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="25" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!F26,1),"0.0"),"%")</f>
+        <v>-0.4%</v>
+      </c>
+      <c r="C31" s="26" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!G26,1),"0.0"),"%")</f>
+        <v>2.5%</v>
+      </c>
+      <c r="D31" s="27" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([14]output_table!H26,1),"0.0"),"%")</f>
+        <v>-3.0%</v>
+      </c>
       <c r="E31" s="25" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!F26,1),"0.0"),"%")</f>
         <v>-0.4%</v>
@@ -37851,13 +38772,22 @@
         <f aca="false">CONCATENATE(TEXT(ROUND([6]output_table!H26,1),"0.0"),"%")</f>
         <v>-3.0%</v>
       </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="27"/>
+      <c r="H31" s="25" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!F26,1),"0.0"),"%")</f>
+        <v>-0.4%</v>
+      </c>
+      <c r="I31" s="26" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!G26,1),"0.0"),"%")</f>
+        <v>2.7%</v>
+      </c>
+      <c r="J31" s="27" t="str">
+        <f aca="false">CONCATENATE(TEXT(ROUND([15]output_table!H26,1),"0.0"),"%")</f>
+        <v>-3.2%</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -37885,7 +38815,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37942,9 +38872,8 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A7" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="B7" s="17" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([7]output_table!F2,1),"0.0"),"%")</f>
@@ -37972,9 +38901,8 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A8" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="B8" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([7]output_table!F3,1),"0.0"),"%")</f>
@@ -38002,9 +38930,8 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A9" s="20" t="s">
+        <v>92</v>
       </c>
       <c r="B9" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([7]output_table!F4,1),"0.0"),"%")</f>
@@ -38032,9 +38959,8 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A10" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="B10" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([7]output_table!F5,1),"0.0"),"%")</f>
@@ -38062,9 +38988,8 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A11" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="B11" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([7]output_table!F6,1),"0.0"),"%")</f>
@@ -38092,9 +39017,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A12" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="B12" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([7]output_table!F7,1),"0.0"),"%")</f>
@@ -38122,9 +39046,8 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A13" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="B13" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([7]output_table!F8,1),"0.0"),"%")</f>
@@ -38152,9 +39075,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A14" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="B14" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([7]output_table!F9,1),"0.0"),"%")</f>
@@ -38182,9 +39104,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A15" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="B15" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([7]output_table!F10,1),"0.0"),"%")</f>
@@ -38212,9 +39133,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A16" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="B16" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([7]output_table!F11,1),"0.0"),"%")</f>
@@ -38242,9 +39162,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A17" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="B17" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([7]output_table!F12,1),"0.0"),"%")</f>
@@ -38272,9 +39191,8 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A18" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="B18" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([7]output_table!F13,1),"0.0"),"%")</f>
@@ -38302,9 +39220,8 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A19" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="B19" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([7]output_table!F14,1),"0.0"),"%")</f>
@@ -38332,9 +39249,8 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A20" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="B20" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([7]output_table!F15,1),"0.0"),"%")</f>
@@ -38362,9 +39278,8 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A21" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="B21" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([7]output_table!F16,1),"0.0"),"%")</f>
@@ -38392,9 +39307,8 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A22" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="B22" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([7]output_table!F17,1),"0.0"),"%")</f>
@@ -38422,9 +39336,8 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A23" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="B23" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([7]output_table!F18,1),"0.0"),"%")</f>
@@ -38452,9 +39365,8 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A24" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="B24" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([7]output_table!F19,1),"0.0"),"%")</f>
@@ -38482,9 +39394,8 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A25" s="20" t="s">
+        <v>108</v>
       </c>
       <c r="B25" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([7]output_table!F20,1),"0.0"),"%")</f>
@@ -38512,9 +39423,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A26" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="B26" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([7]output_table!F21,1),"0.0"),"%")</f>
@@ -38542,9 +39452,8 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A27" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="B27" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([7]output_table!F22,1),"0.0"),"%")</f>
@@ -38572,9 +39481,8 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A28" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="B28" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([7]output_table!F23,1),"0.0"),"%")</f>
@@ -38602,9 +39510,8 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A29" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="B29" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([7]output_table!F24,1),"0.0"),"%")</f>
@@ -38632,9 +39539,8 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A30" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="B30" s="21" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([7]output_table!F25,1),"0.0"),"%")</f>
@@ -38662,9 +39568,8 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24" t="e">
-        <f aca="false">#REF!</f>
-        <v>#REF!</v>
+      <c r="A31" s="24" t="s">
+        <v>114</v>
       </c>
       <c r="B31" s="25" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([7]output_table!F26,1),"0.0"),"%")</f>
@@ -38693,7 +39598,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -38755,7 +39660,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="B6" s="30" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([9]volatility_by_decade!B2,1),"0.0"),"%")</f>
@@ -38772,7 +39677,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="33" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B7" s="34" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([9]volatility_by_decade!B3,1),"0.0"),"%")</f>
@@ -38789,7 +39694,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="B8" s="34" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([9]volatility_by_decade!B4,1),"0.0"),"%")</f>
@@ -38806,7 +39711,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="37" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B9" s="38" t="str">
         <f aca="false">CONCATENATE(TEXT(ROUND([9]volatility_by_decade!B5,1),"0.0"),"%")</f>
@@ -38828,7 +39733,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -24,18 +24,6 @@
   <externalReferences>
     <externalReference r:id="rId14"/>
     <externalReference r:id="rId15"/>
-    <externalReference r:id="rId16"/>
-    <externalReference r:id="rId17"/>
-    <externalReference r:id="rId18"/>
-    <externalReference r:id="rId19"/>
-    <externalReference r:id="rId20"/>
-    <externalReference r:id="rId21"/>
-    <externalReference r:id="rId22"/>
-    <externalReference r:id="rId23"/>
-    <externalReference r:id="rId24"/>
-    <externalReference r:id="rId25"/>
-    <externalReference r:id="rId26"/>
-    <externalReference r:id="rId27"/>
   </externalReferences>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -855,7 +843,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -972,7 +960,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -996,16 +984,8 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1124,20 +1104,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="output_table"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1147,277 +1114,277 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="F2">
-            <v>-17.2647272514739</v>
+            <v>-0.871995016938059</v>
           </cell>
           <cell r="G2">
-            <v>-5.23745218634783</v>
+            <v>-4.78527761838807</v>
           </cell>
           <cell r="H2">
-            <v>-12.0272750651261</v>
+            <v>3.91328260145002</v>
           </cell>
         </row>
         <row r="3">
           <cell r="F3">
-            <v>-66.3552630641328</v>
+            <v>-24.4374821423859</v>
           </cell>
           <cell r="G3">
-            <v>-140.323981633381</v>
+            <v>-54.3372392480144</v>
           </cell>
           <cell r="H3">
-            <v>73.9687185692483</v>
+            <v>29.8997571056286</v>
           </cell>
         </row>
         <row r="4">
           <cell r="F4">
-            <v>-78.0748338263203</v>
+            <v>-51.9067343614722</v>
           </cell>
           <cell r="G4">
-            <v>-130.227650431545</v>
+            <v>-120.014431542971</v>
           </cell>
           <cell r="H4">
-            <v>52.1528166052247</v>
+            <v>68.1076971814993</v>
           </cell>
         </row>
         <row r="5">
           <cell r="F5">
-            <v>-79.4982414515835</v>
+            <v>-58.0690718007581</v>
           </cell>
           <cell r="G5">
-            <v>-112.544915357088</v>
+            <v>-79.9086805784265</v>
           </cell>
           <cell r="H5">
-            <v>33.0466739055045</v>
+            <v>21.8396087776684</v>
           </cell>
         </row>
         <row r="6">
           <cell r="F6">
-            <v>0.703705436951999</v>
+            <v>0.148798216700991</v>
           </cell>
           <cell r="G6">
-            <v>0.691690343866086</v>
+            <v>-0.517503332565823</v>
           </cell>
           <cell r="H6">
-            <v>0.0120150930859128</v>
+            <v>0.666301549266814</v>
           </cell>
         </row>
         <row r="7">
           <cell r="F7">
-            <v>-68.7750470961296</v>
+            <v>-14.2564850715132</v>
           </cell>
           <cell r="G7">
-            <v>-103.698794253575</v>
+            <v>-53.0229168922839</v>
           </cell>
           <cell r="H7">
-            <v>34.9237471574451</v>
+            <v>38.7664318207707</v>
           </cell>
         </row>
         <row r="8">
           <cell r="F8">
-            <v>-87.7844961483615</v>
+            <v>-49.2452883411108</v>
           </cell>
           <cell r="G8">
-            <v>-54.4075554034306</v>
+            <v>-37.966738886339</v>
           </cell>
           <cell r="H8">
-            <v>-33.3769407449309</v>
+            <v>-11.2785494547718</v>
           </cell>
         </row>
         <row r="9">
           <cell r="F9">
-            <v>-59.664553793865</v>
+            <v>-27.7226086616764</v>
           </cell>
           <cell r="G9">
-            <v>-121.260499546549</v>
+            <v>-54.5526515343252</v>
           </cell>
           <cell r="H9">
-            <v>61.5959457526842</v>
+            <v>26.8300428726488</v>
           </cell>
         </row>
         <row r="10">
           <cell r="F10">
-            <v>-43.7613268463589</v>
+            <v>-11.3835253898429</v>
           </cell>
           <cell r="G10">
-            <v>57.4525423926411</v>
+            <v>4.10072534058516</v>
           </cell>
           <cell r="H10">
-            <v>-101.213869239</v>
+            <v>-15.484250730428</v>
           </cell>
         </row>
         <row r="11">
           <cell r="F11">
-            <v>-73.5208686722026</v>
+            <v>-19.3471852953465</v>
           </cell>
           <cell r="G11">
-            <v>-85.6206316426167</v>
+            <v>-25.5467838279911</v>
           </cell>
           <cell r="H11">
-            <v>12.0997629704141</v>
+            <v>6.19959853264459</v>
           </cell>
         </row>
         <row r="12">
           <cell r="F12">
-            <v>-57.2110635552616</v>
+            <v>-19.6861749866989</v>
           </cell>
           <cell r="G12">
-            <v>-12.2993973063135</v>
+            <v>-2.33002931491005</v>
           </cell>
           <cell r="H12">
-            <v>-44.9116662489481</v>
+            <v>-17.3561456717888</v>
           </cell>
         </row>
         <row r="13">
           <cell r="F13">
-            <v>-37.8638395176289</v>
+            <v>-17.4660605201418</v>
           </cell>
           <cell r="G13">
-            <v>-17.5199583438792</v>
+            <v>-6.36371613876475</v>
           </cell>
           <cell r="H13">
-            <v>-20.3438811737496</v>
+            <v>-11.102344381377</v>
           </cell>
         </row>
         <row r="14">
           <cell r="F14">
-            <v>-70.5836055853548</v>
+            <v>-42.3678389613345</v>
           </cell>
           <cell r="G14">
-            <v>-101.21423428337</v>
+            <v>-50.9302170187423</v>
           </cell>
           <cell r="H14">
-            <v>30.6306286980154</v>
+            <v>8.56237805740784</v>
           </cell>
         </row>
         <row r="15">
           <cell r="F15">
-            <v>-48.9265388074369</v>
+            <v>-10.6176015864681</v>
           </cell>
           <cell r="G15">
-            <v>42.6322822915167</v>
+            <v>3.04484286407378</v>
           </cell>
           <cell r="H15">
-            <v>-91.5588210989536</v>
+            <v>-13.6624444505419</v>
           </cell>
         </row>
         <row r="16">
           <cell r="F16">
-            <v>-10.5358678777485</v>
+            <v>2.96940293156509</v>
           </cell>
           <cell r="G16">
-            <v>9.15303477446509</v>
+            <v>0.754191321264443</v>
           </cell>
           <cell r="H16">
-            <v>-19.6889026522136</v>
+            <v>2.21521161030064</v>
           </cell>
         </row>
         <row r="17">
           <cell r="F17">
-            <v>-74.8023312458015</v>
+            <v>-46.7974722117531</v>
           </cell>
           <cell r="G17">
-            <v>-146.451375262106</v>
+            <v>-57.8010968696742</v>
           </cell>
           <cell r="H17">
-            <v>71.6490440163041</v>
+            <v>11.0036246579211</v>
           </cell>
         </row>
         <row r="18">
           <cell r="F18">
-            <v>-85.2391496013064</v>
+            <v>-39.8552026477866</v>
           </cell>
           <cell r="G18">
-            <v>-151.21306214398</v>
+            <v>-91.2143662445799</v>
           </cell>
           <cell r="H18">
-            <v>65.9739125426737</v>
+            <v>51.3591635967933</v>
           </cell>
         </row>
         <row r="19">
           <cell r="F19">
-            <v>-61.3974821982836</v>
+            <v>-20.5316753152855</v>
           </cell>
           <cell r="G19">
-            <v>-136.331547703165</v>
+            <v>-88.9409467706447</v>
           </cell>
           <cell r="H19">
-            <v>74.934065504881</v>
+            <v>68.4092714553592</v>
           </cell>
         </row>
         <row r="20">
           <cell r="F20">
-            <v>-43.1539115860251</v>
+            <v>-4.48722535326793</v>
           </cell>
           <cell r="G20">
-            <v>-116.825454332009</v>
+            <v>-49.6369095325512</v>
           </cell>
           <cell r="H20">
-            <v>73.6715427459835</v>
+            <v>45.1496841792833</v>
           </cell>
         </row>
         <row r="21">
           <cell r="F21">
-            <v>1.96258704713315</v>
+            <v>2.42106592073112</v>
           </cell>
           <cell r="G21">
-            <v>0.0564162461738484</v>
+            <v>-4.58193011121156</v>
           </cell>
           <cell r="H21">
-            <v>1.9061708009593</v>
+            <v>7.00299603194268</v>
           </cell>
         </row>
         <row r="22">
           <cell r="F22">
-            <v>-22.2874521682159</v>
+            <v>-1.45737451200485</v>
           </cell>
           <cell r="G22">
-            <v>-54.8672285741576</v>
+            <v>-7.98375863200927</v>
           </cell>
           <cell r="H22">
-            <v>32.5797764059417</v>
+            <v>6.52638412000442</v>
           </cell>
         </row>
         <row r="23">
           <cell r="F23">
-            <v>-90.8740640607595</v>
+            <v>-38.0717854226395</v>
           </cell>
           <cell r="G23">
-            <v>-59.3775697219967</v>
+            <v>-24.5862184231078</v>
           </cell>
           <cell r="H23">
-            <v>-31.4964943387628</v>
+            <v>-13.4855669995317</v>
           </cell>
         </row>
         <row r="24">
           <cell r="F24">
-            <v>-56.726397623179</v>
+            <v>-30.7753648851186</v>
           </cell>
           <cell r="G24">
-            <v>-62.1777050862891</v>
+            <v>-35.6293815819547</v>
           </cell>
           <cell r="H24">
-            <v>5.45130746311008</v>
+            <v>4.85401669683606</v>
           </cell>
         </row>
         <row r="25">
           <cell r="F25">
-            <v>-78.6598262593196</v>
+            <v>-28.2944435893703</v>
           </cell>
           <cell r="G25">
-            <v>-49.451266784874</v>
+            <v>-20.9917282784647</v>
           </cell>
           <cell r="H25">
-            <v>-29.2085594744456</v>
+            <v>-7.30271531090558</v>
           </cell>
         </row>
         <row r="26">
           <cell r="F26">
-            <v>-0.925451908309994</v>
+            <v>0.274887888504036</v>
           </cell>
           <cell r="G26">
-            <v>16.3029611087207</v>
+            <v>0.483104676231486</v>
           </cell>
           <cell r="H26">
-            <v>-17.2284130170306</v>
+            <v>-0.20821678772745</v>
           </cell>
         </row>
       </sheetData>
@@ -1426,7 +1393,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1436,1555 +1403,277 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="F2">
-            <v>0.660719976540655</v>
+            <v>-7.23492731217544</v>
           </cell>
           <cell r="G2">
-            <v>0.544383966328072</v>
+            <v>23.7645038137774</v>
           </cell>
           <cell r="H2">
-            <v>0.116336010212584</v>
+            <v>-30.9994311259528</v>
           </cell>
         </row>
         <row r="3">
           <cell r="F3">
-            <v>-31.2868834741823</v>
+            <v>-22.8230753231275</v>
           </cell>
           <cell r="G3">
-            <v>-71.040600952572</v>
+            <v>15.6385428602272</v>
           </cell>
           <cell r="H3">
-            <v>39.7537174783897</v>
+            <v>-38.4616181833547</v>
           </cell>
         </row>
         <row r="4">
           <cell r="F4">
-            <v>-53.8247580639704</v>
+            <v>-77.417062133289</v>
           </cell>
           <cell r="G4">
-            <v>-74.1130999459054</v>
+            <v>37.6039161400117</v>
           </cell>
           <cell r="H4">
-            <v>20.2883418819349</v>
+            <v>-115.020978273301</v>
           </cell>
         </row>
         <row r="5">
           <cell r="F5">
-            <v>-55.8040284061951</v>
+            <v>-81.3742436866602</v>
           </cell>
           <cell r="G5">
-            <v>-71.8645064731028</v>
+            <v>-114.810123085594</v>
           </cell>
           <cell r="H5">
-            <v>16.0604780669077</v>
+            <v>33.4358793989334</v>
           </cell>
         </row>
         <row r="6">
           <cell r="F6">
-            <v>0.685953458538268</v>
+            <v>-0.227964164184585</v>
           </cell>
           <cell r="G6">
-            <v>-0.15953000174914</v>
+            <v>1.88861176725159</v>
           </cell>
           <cell r="H6">
-            <v>0.845483460287408</v>
+            <v>-2.11657593143618</v>
           </cell>
         </row>
         <row r="7">
           <cell r="F7">
-            <v>-18.5404906239554</v>
+            <v>-60.3481275834134</v>
           </cell>
           <cell r="G7">
-            <v>-25.2364556674054</v>
+            <v>-42.4098633842026</v>
           </cell>
           <cell r="H7">
-            <v>6.69596504345001</v>
+            <v>-17.9382641992108</v>
           </cell>
         </row>
         <row r="8">
           <cell r="F8">
-            <v>-56.5165083099801</v>
+            <v>-80.5623863063795</v>
           </cell>
           <cell r="G8">
-            <v>-27.1465295738638</v>
+            <v>22.2387408478649</v>
           </cell>
           <cell r="H8">
-            <v>-29.3699787361163</v>
+            <v>-102.801127154244</v>
           </cell>
         </row>
         <row r="9">
           <cell r="F9">
-            <v>-22.1663772312658</v>
+            <v>-10.2549710959205</v>
           </cell>
           <cell r="G9">
-            <v>-31.0105083624342</v>
+            <v>-2.19850232691694</v>
           </cell>
           <cell r="H9">
-            <v>8.8441311311684</v>
+            <v>-8.05646876900356</v>
           </cell>
         </row>
         <row r="10">
           <cell r="F10">
-            <v>-13.7750220644569</v>
+            <v>19.9010897848067</v>
           </cell>
           <cell r="G10">
-            <v>10.3597349430215</v>
+            <v>83.7714983171599</v>
           </cell>
           <cell r="H10">
-            <v>-24.1347570074785</v>
+            <v>-63.8704085323531</v>
           </cell>
         </row>
         <row r="11">
           <cell r="F11">
-            <v>-28.5690673207729</v>
+            <v>157.632433295042</v>
           </cell>
           <cell r="G11">
-            <v>-19.2062867496044</v>
+            <v>47.9272941067823</v>
           </cell>
           <cell r="H11">
-            <v>-9.36278057116847</v>
+            <v>109.70513918826</v>
           </cell>
         </row>
         <row r="12">
           <cell r="F12">
-            <v>-5.94401104670541</v>
+            <v>-15.8048493772097</v>
           </cell>
           <cell r="G12">
-            <v>15.554630684484</v>
+            <v>19.6454646122422</v>
           </cell>
           <cell r="H12">
-            <v>-21.4986417311894</v>
+            <v>-35.4503139894519</v>
           </cell>
         </row>
         <row r="13">
           <cell r="F13">
-            <v>-5.21219667440007</v>
+            <v>-7.49476493598397</v>
           </cell>
           <cell r="G13">
-            <v>-0.582801298973885</v>
+            <v>-0.779280541311926</v>
           </cell>
           <cell r="H13">
-            <v>-4.62939537542619</v>
+            <v>-6.71548439467204</v>
           </cell>
         </row>
         <row r="14">
           <cell r="F14">
-            <v>-45.5650307090274</v>
+            <v>-31.5300992401331</v>
           </cell>
           <cell r="G14">
-            <v>-28.8714247265307</v>
+            <v>-23.7501064971338</v>
           </cell>
           <cell r="H14">
-            <v>-16.6936059824967</v>
+            <v>-7.77999274299929</v>
           </cell>
         </row>
         <row r="15">
           <cell r="F15">
-            <v>-15.417278391941</v>
+            <v>-5.49753947063335</v>
           </cell>
           <cell r="G15">
-            <v>8.99078529366727</v>
+            <v>65.937894183685</v>
           </cell>
           <cell r="H15">
-            <v>-24.4080636856083</v>
+            <v>-71.4354336543184</v>
           </cell>
         </row>
         <row r="16">
           <cell r="F16">
-            <v>1.22338089054342</v>
+            <v>7.9719948086892</v>
           </cell>
           <cell r="G16">
-            <v>4.70394667257341</v>
+            <v>17.3708435483298</v>
           </cell>
           <cell r="H16">
-            <v>-3.48056578202998</v>
+            <v>-9.39884873964065</v>
           </cell>
         </row>
         <row r="17">
           <cell r="F17">
-            <v>-33.1438500709249</v>
+            <v>-33.1043806473291</v>
           </cell>
           <cell r="G17">
-            <v>-43.8014034880043</v>
+            <v>-65.5061779791485</v>
           </cell>
           <cell r="H17">
-            <v>10.6575534170795</v>
+            <v>32.4017973318194</v>
           </cell>
         </row>
         <row r="18">
           <cell r="F18">
-            <v>-53.338960281608</v>
+            <v>-34.7105652883372</v>
           </cell>
           <cell r="G18">
-            <v>-89.9121368380541</v>
+            <v>-18.8868133215729</v>
           </cell>
           <cell r="H18">
-            <v>36.5731765564461</v>
+            <v>-15.8237519667643</v>
           </cell>
         </row>
         <row r="19">
           <cell r="F19">
-            <v>-11.9196196907611</v>
+            <v>-38.2826257083383</v>
           </cell>
           <cell r="G19">
-            <v>-36.1527256246215</v>
+            <v>-37.7981614204648</v>
           </cell>
           <cell r="H19">
-            <v>24.2331059338605</v>
+            <v>-0.484464287873454</v>
           </cell>
         </row>
         <row r="20">
           <cell r="F20">
-            <v>4.97951038606629</v>
+            <v>-5.82872078297532</v>
           </cell>
           <cell r="G20">
-            <v>-18.4784413066226</v>
+            <v>166.23371979197</v>
           </cell>
           <cell r="H20">
-            <v>23.4579516926889</v>
+            <v>-172.062440574945</v>
           </cell>
         </row>
         <row r="21">
           <cell r="F21">
-            <v>0.18255093630343</v>
+            <v>2.64858142588495</v>
           </cell>
           <cell r="G21">
-            <v>-1.77008830992428</v>
+            <v>10.6312081109899</v>
           </cell>
           <cell r="H21">
-            <v>1.95263924622772</v>
+            <v>-7.98262668510493</v>
           </cell>
         </row>
         <row r="22">
           <cell r="F22">
-            <v>3.5726531364414</v>
+            <v>79.2225852507143</v>
           </cell>
           <cell r="G22">
-            <v>4.47780142960186</v>
+            <v>80.7671138129608</v>
           </cell>
           <cell r="H22">
-            <v>-0.905148293160464</v>
+            <v>-1.54452856224645</v>
           </cell>
         </row>
         <row r="23">
           <cell r="F23">
-            <v>-59.4193961025428</v>
+            <v>-53.3366574083791</v>
           </cell>
           <cell r="G23">
-            <v>-22.4925283022025</v>
+            <v>33.9166529569355</v>
           </cell>
           <cell r="H23">
-            <v>-36.9268678003403</v>
+            <v>-87.2533103653146</v>
           </cell>
         </row>
         <row r="24">
           <cell r="F24">
-            <v>-27.4513111781875</v>
+            <v>34.0016562998975</v>
           </cell>
           <cell r="G24">
-            <v>-9.21451104842669</v>
+            <v>46.5582311452327</v>
           </cell>
           <cell r="H24">
-            <v>-18.2368001297608</v>
+            <v>-12.5565748453352</v>
           </cell>
         </row>
         <row r="25">
           <cell r="F25">
-            <v>-35.3417446059145</v>
+            <v>-0.387560202024685</v>
           </cell>
           <cell r="G25">
-            <v>-11.1732589346991</v>
+            <v>114.323422022419</v>
           </cell>
           <cell r="H25">
-            <v>-24.1684856712154</v>
+            <v>-114.710982224443</v>
           </cell>
         </row>
         <row r="26">
           <cell r="F26">
-            <v>0.435528754233677</v>
+            <v>21.0206312128304</v>
           </cell>
           <cell r="G26">
-            <v>3.75424044900677</v>
+            <v>35.9960903355552</v>
           </cell>
           <cell r="H26">
-            <v>-3.31871169477309</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink56.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="output_table"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="F2">
-            <v>1.72837411746847</v>
-          </cell>
-          <cell r="G2">
-            <v>-0.319861190268695</v>
-          </cell>
-          <cell r="H2">
-            <v>2.04823530773717</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>-3.80836459747178</v>
-          </cell>
-          <cell r="G3">
-            <v>-9.15721255699018</v>
-          </cell>
-          <cell r="H3">
-            <v>5.3488479595184</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>-10.6898268307279</v>
-          </cell>
-          <cell r="G4">
-            <v>-34.5968727726989</v>
-          </cell>
-          <cell r="H4">
-            <v>23.907045941971</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>-7.98928341748596</v>
-          </cell>
-          <cell r="G5">
-            <v>-9.63795578217202</v>
-          </cell>
-          <cell r="H5">
-            <v>1.64867236468606</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>0.842674226392593</v>
-          </cell>
-          <cell r="G6">
-            <v>0.241718111389184</v>
-          </cell>
-          <cell r="H6">
-            <v>0.600956115003408</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>-5.10442581296863</v>
-          </cell>
-          <cell r="G7">
-            <v>-5.20461432895433</v>
-          </cell>
-          <cell r="H7">
-            <v>0.100188515985698</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>-12.0903505278588</v>
-          </cell>
-          <cell r="G8">
-            <v>-10.446459171222</v>
-          </cell>
-          <cell r="H8">
-            <v>-1.64389135663675</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>-3.04308689932293</v>
-          </cell>
-          <cell r="G9">
-            <v>-10.7763094450982</v>
-          </cell>
-          <cell r="H9">
-            <v>7.73322254577526</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>0.658510789438875</v>
-          </cell>
-          <cell r="G10">
-            <v>0.0757242111892604</v>
-          </cell>
-          <cell r="H10">
-            <v>0.582786578249614</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>-0.38627394525717</v>
-          </cell>
-          <cell r="G11">
-            <v>-1.06081344076023</v>
-          </cell>
-          <cell r="H11">
-            <v>0.674539495503061</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>3.93258894750502</v>
-          </cell>
-          <cell r="G12">
-            <v>-0.355077050110087</v>
-          </cell>
-          <cell r="H12">
-            <v>4.28766599761511</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>0.776664838882218</v>
-          </cell>
-          <cell r="G13">
-            <v>-0.061667306699141</v>
-          </cell>
-          <cell r="H13">
-            <v>0.838332145581359</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>-13.6558569782093</v>
-          </cell>
-          <cell r="G14">
-            <v>-13.2610270682753</v>
-          </cell>
-          <cell r="H14">
-            <v>-0.394829909934002</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>0.352943567904479</v>
-          </cell>
-          <cell r="G15">
-            <v>-0.331740892958664</v>
-          </cell>
-          <cell r="H15">
-            <v>0.684684460863144</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>1.25755727475125</v>
-          </cell>
-          <cell r="G16">
-            <v>0.0546745891750425</v>
-          </cell>
-          <cell r="H16">
-            <v>1.20288268557621</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>-21.1073897781544</v>
-          </cell>
-          <cell r="G17">
-            <v>-36.9920109813683</v>
-          </cell>
-          <cell r="H17">
-            <v>15.8846212032139</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>-4.80281915531282</v>
-          </cell>
-          <cell r="G18">
-            <v>-12.850833650902</v>
-          </cell>
-          <cell r="H18">
-            <v>8.0480144955892</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>-7.02653037357378</v>
-          </cell>
-          <cell r="G19">
-            <v>-9.13450798258572</v>
-          </cell>
-          <cell r="H19">
-            <v>2.10797760901194</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>2.44188679539382</v>
-          </cell>
-          <cell r="G20">
-            <v>-9.34000636965661</v>
-          </cell>
-          <cell r="H20">
-            <v>11.7818931650504</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>0.22213897052527</v>
-          </cell>
-          <cell r="G21">
-            <v>-0.310204459232675</v>
-          </cell>
-          <cell r="H21">
-            <v>0.532343429757945</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>-2.36065735054953</v>
-          </cell>
-          <cell r="G22">
-            <v>-1.86780724144693</v>
-          </cell>
-          <cell r="H22">
-            <v>-0.492850109102598</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>-6.12471966576379</v>
-          </cell>
-          <cell r="G23">
-            <v>-3.26067932337489</v>
-          </cell>
-          <cell r="H23">
-            <v>-2.8640403423889</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>0.401976894184059</v>
-          </cell>
-          <cell r="G24">
-            <v>-4.45960375263286</v>
-          </cell>
-          <cell r="H24">
-            <v>4.86158064681692</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>-1.78200567335503</v>
-          </cell>
-          <cell r="G25">
-            <v>-2.6340787952333</v>
-          </cell>
-          <cell r="H25">
-            <v>0.852073121878272</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>0.352845201842609</v>
-          </cell>
-          <cell r="G26">
-            <v>0.116977869278286</v>
-          </cell>
-          <cell r="H26">
-            <v>0.235867332564323</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink57.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="output_table"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink58.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="output_table"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink59.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="output_table"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink60.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="output_table"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="F2">
-            <v>-2.16462979183204</v>
-          </cell>
-          <cell r="G2">
-            <v>-0.730568835833007</v>
-          </cell>
-          <cell r="H2">
-            <v>-1.43406095599903</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>-41.6432784928032</v>
-          </cell>
-          <cell r="G3">
-            <v>-115.233304462373</v>
-          </cell>
-          <cell r="H3">
-            <v>73.5900259695695</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>-65.4369619571696</v>
-          </cell>
-          <cell r="G4">
-            <v>-105.299629816857</v>
-          </cell>
-          <cell r="H4">
-            <v>39.8626678596872</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>-71.6030119317235</v>
-          </cell>
-          <cell r="G5">
-            <v>-98.0890961716671</v>
-          </cell>
-          <cell r="H5">
-            <v>26.4860842399436</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>0.00273063048366431</v>
-          </cell>
-          <cell r="G6">
-            <v>0.00479970195546571</v>
-          </cell>
-          <cell r="H6">
-            <v>-0.0020690714718014</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>-43.3100734517849</v>
-          </cell>
-          <cell r="G7">
-            <v>-63.4671975470489</v>
-          </cell>
-          <cell r="H7">
-            <v>20.157124095264</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>-77.1731324969192</v>
-          </cell>
-          <cell r="G8">
-            <v>-42.7163506913475</v>
-          </cell>
-          <cell r="H8">
-            <v>-34.4567818055717</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>-38.5873950410221</v>
-          </cell>
-          <cell r="G9">
-            <v>-65.9092990382779</v>
-          </cell>
-          <cell r="H9">
-            <v>27.3219039972558</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>-24.5820271829083</v>
-          </cell>
-          <cell r="G10">
-            <v>24.3602903563213</v>
-          </cell>
-          <cell r="H10">
-            <v>-48.9423175392296</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>-51.9788087782618</v>
-          </cell>
-          <cell r="G11">
-            <v>-48.8383794634856</v>
-          </cell>
-          <cell r="H11">
-            <v>-3.14042931477619</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>-22.3443517875965</v>
-          </cell>
-          <cell r="G12">
-            <v>8.79521237228266</v>
-          </cell>
-          <cell r="H12">
-            <v>-31.1395641598791</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>-16.0404468379164</v>
-          </cell>
-          <cell r="G13">
-            <v>-6.60244643660178</v>
-          </cell>
-          <cell r="H13">
-            <v>-9.43800040131464</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>-57.26250324717</v>
-          </cell>
-          <cell r="G14">
-            <v>-71.7199938213725</v>
-          </cell>
-          <cell r="H14">
-            <v>14.4574905742025</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>-27.2590767176212</v>
-          </cell>
-          <cell r="G15">
-            <v>21.1571191454877</v>
-          </cell>
-          <cell r="H15">
-            <v>-48.4161958631089</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>-1.84093484682575</v>
-          </cell>
-          <cell r="G16">
-            <v>7.81062927747571</v>
-          </cell>
-          <cell r="H16">
-            <v>-9.65156412430146</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>-56.1200756165894</v>
-          </cell>
-          <cell r="G17">
-            <v>-92.6667572374652</v>
-          </cell>
-          <cell r="H17">
-            <v>36.5466816208758</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>-71.6498970068515</v>
-          </cell>
-          <cell r="G18">
-            <v>-131.089955444188</v>
-          </cell>
-          <cell r="H18">
-            <v>59.4400584373364</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>-34.4666914916347</v>
-          </cell>
-          <cell r="G19">
-            <v>-85.6589393355806</v>
-          </cell>
-          <cell r="H19">
-            <v>51.1922478439459</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>-8.14022054510633</v>
-          </cell>
-          <cell r="G20">
-            <v>-57.693971645835</v>
-          </cell>
-          <cell r="H20">
-            <v>49.5537511007286</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>0.817878315020299</v>
-          </cell>
-          <cell r="G21">
-            <v>-1.52996208833592</v>
-          </cell>
-          <cell r="H21">
-            <v>2.34784040335623</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>-1.31041768563223</v>
-          </cell>
-          <cell r="G22">
-            <v>-8.76416025930815</v>
-          </cell>
-          <cell r="H22">
-            <v>7.45374257367592</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>-79.3912040549661</v>
-          </cell>
-          <cell r="G23">
-            <v>-43.6580214316245</v>
-          </cell>
-          <cell r="H23">
-            <v>-35.7331826233415</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>-39.1836056593749</v>
-          </cell>
-          <cell r="G24">
-            <v>-25.1445037044437</v>
-          </cell>
-          <cell r="H24">
-            <v>-14.0391019549312</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>-58.249089911704</v>
-          </cell>
-          <cell r="G25">
-            <v>-29.8848568326819</v>
-          </cell>
-          <cell r="H25">
-            <v>-28.3642330790221</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>-1.31555247829673</v>
-          </cell>
-          <cell r="G26">
-            <v>7.14987036344115</v>
-          </cell>
-          <cell r="H26">
-            <v>-8.46542284173788</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink61.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="output_table"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink62.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="volatility_by_decade"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2">
-            <v>-3.46318979006214</v>
-          </cell>
-          <cell r="C2">
-            <v>-15.7427284615131</v>
-          </cell>
-          <cell r="D2">
-            <v>12.279538671451</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>-12.2884893934008</v>
-          </cell>
-          <cell r="C3">
-            <v>-35.9600542589178</v>
-          </cell>
-          <cell r="D3">
-            <v>23.671564865517</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>-34.026437043474</v>
-          </cell>
-          <cell r="C4">
-            <v>-66.1273971941935</v>
-          </cell>
-          <cell r="D4">
-            <v>32.1009601507195</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>-66.8434581128015</v>
-          </cell>
-          <cell r="C5">
-            <v>-65.0011112564255</v>
-          </cell>
-          <cell r="D5">
-            <v>-1.84234685637596</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink63.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink64.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink66.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="output_table"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="F2">
-            <v>-7.78955069048462</v>
-          </cell>
-          <cell r="G2">
-            <v>-2.39266799667744</v>
-          </cell>
-          <cell r="H2">
-            <v>-5.39688269380718</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>7.01528975659844</v>
-          </cell>
-          <cell r="G3">
-            <v>11.2290106938738</v>
-          </cell>
-          <cell r="H3">
-            <v>-4.21372093727536</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>-50.0802546090139</v>
-          </cell>
-          <cell r="G4">
-            <v>-0.992020667044146</v>
-          </cell>
-          <cell r="H4">
-            <v>-49.0882339419697</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>49.6736042947601</v>
-          </cell>
-          <cell r="G5">
-            <v>39.103941428887</v>
-          </cell>
-          <cell r="H5">
-            <v>10.5696628658731</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>-9.72352495266113</v>
-          </cell>
-          <cell r="G6">
-            <v>1.3622333441537</v>
-          </cell>
-          <cell r="H6">
-            <v>-11.0857582968148</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>76.93910047858</v>
-          </cell>
-          <cell r="G7">
-            <v>252.023981275044</v>
-          </cell>
-          <cell r="H7">
-            <v>-175.084880796464</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>-48.3449332258562</v>
-          </cell>
-          <cell r="G8">
-            <v>-33.8787978956657</v>
-          </cell>
-          <cell r="H8">
-            <v>-14.4661353301905</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>-1.13012192051716</v>
-          </cell>
-          <cell r="G9">
-            <v>0.677784554173445</v>
-          </cell>
-          <cell r="H9">
-            <v>-1.80790647469061</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>15.8731092166737</v>
-          </cell>
-          <cell r="G10">
-            <v>8.82563259376884</v>
-          </cell>
-          <cell r="H10">
-            <v>7.04747662290482</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>20.7917343821651</v>
-          </cell>
-          <cell r="G11">
-            <v>27.3954646897379</v>
-          </cell>
-          <cell r="H11">
-            <v>-6.60373030757275</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>1.40366981968668</v>
-          </cell>
-          <cell r="G12">
-            <v>1.15315664460986</v>
-          </cell>
-          <cell r="H12">
-            <v>0.250513175076819</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>-23.7355516187557</v>
-          </cell>
-          <cell r="G13">
-            <v>-31.4370394773218</v>
-          </cell>
-          <cell r="H13">
-            <v>7.70148785856614</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>-37.765918067884</v>
-          </cell>
-          <cell r="G14">
-            <v>44.8823245986085</v>
-          </cell>
-          <cell r="H14">
-            <v>-82.6482426664925</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>-16.1774399851195</v>
-          </cell>
-          <cell r="G15">
-            <v>6.82924698208575</v>
-          </cell>
-          <cell r="H15">
-            <v>-23.0066869672053</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>-5.70135392710688</v>
-          </cell>
-          <cell r="G16">
-            <v>3.72318556252982</v>
-          </cell>
-          <cell r="H16">
-            <v>-9.4245394896367</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>-40.7818939934115</v>
-          </cell>
-          <cell r="G17">
-            <v>-32.068228221552</v>
-          </cell>
-          <cell r="H17">
-            <v>-8.7136657718595</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>-18.6402685808661</v>
-          </cell>
-          <cell r="G18">
-            <v>-35.3241205009285</v>
-          </cell>
-          <cell r="H18">
-            <v>16.6838519200624</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>4.79044501551066</v>
-          </cell>
-          <cell r="G19">
-            <v>-4.56167176170595</v>
-          </cell>
-          <cell r="H19">
-            <v>9.3521167772166</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>4.97994195198456</v>
-          </cell>
-          <cell r="G20">
-            <v>47.7656473157994</v>
-          </cell>
-          <cell r="H20">
-            <v>-42.7857053638148</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>1.65163782897912</v>
-          </cell>
-          <cell r="G21">
-            <v>-11.3631995476317</v>
-          </cell>
-          <cell r="H21">
-            <v>13.0148373766108</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>2.24784577758807</v>
-          </cell>
-          <cell r="G22">
-            <v>-17.9370924142797</v>
-          </cell>
-          <cell r="H22">
-            <v>20.1849381918678</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>77.3490039904889</v>
-          </cell>
-          <cell r="G23">
-            <v>95.0078774007516</v>
-          </cell>
-          <cell r="H23">
-            <v>-17.6588734102627</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>-2.37011384275196</v>
-          </cell>
-          <cell r="G24">
-            <v>-14.2094895376824</v>
-          </cell>
-          <cell r="H24">
-            <v>11.8393756949305</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>-6.64090802249802</v>
-          </cell>
-          <cell r="G25">
-            <v>-6.85548016879436</v>
-          </cell>
-          <cell r="H25">
-            <v>0.21457214629634</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>-5.17962220692134</v>
-          </cell>
-          <cell r="G26">
-            <v>-6.53984343289365</v>
-          </cell>
-          <cell r="H26">
-            <v>1.36022122597236</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink67.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="output_table"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="F2">
-            <v>-2.66483223067003</v>
-          </cell>
-          <cell r="G2">
-            <v>-2.93489225631953</v>
-          </cell>
-          <cell r="H2">
-            <v>0.27006002564951</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>-10.8118143893755</v>
-          </cell>
-          <cell r="G3">
-            <v>37.8711499089679</v>
-          </cell>
-          <cell r="H3">
-            <v>-48.6829642983434</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>-34.8864242678888</v>
-          </cell>
-          <cell r="G4">
-            <v>25.7239028940595</v>
-          </cell>
-          <cell r="H4">
-            <v>-60.6103271619483</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>-37.9012235548349</v>
-          </cell>
-          <cell r="G5">
-            <v>-33.7124720822347</v>
-          </cell>
-          <cell r="H5">
-            <v>-4.1887514726002</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>-0.844398586450973</v>
-          </cell>
-          <cell r="G6">
-            <v>2.5186455117024</v>
-          </cell>
-          <cell r="H6">
-            <v>-3.36304409815335</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>-28.6839192102708</v>
-          </cell>
-          <cell r="G7">
-            <v>-40.6335126775797</v>
-          </cell>
-          <cell r="H7">
-            <v>11.9495934673089</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>19.177561466381</v>
-          </cell>
-          <cell r="G8">
-            <v>129.741141131461</v>
-          </cell>
-          <cell r="H8">
-            <v>-110.56357966508</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>-37.1561163416134</v>
-          </cell>
-          <cell r="G9">
-            <v>-35.7449837422413</v>
-          </cell>
-          <cell r="H9">
-            <v>-1.41113259937216</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>-18.994132714526</v>
-          </cell>
-          <cell r="G10">
-            <v>-26.9702942227625</v>
-          </cell>
-          <cell r="H10">
-            <v>7.97616150823649</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>-13.5761631465261</v>
-          </cell>
-          <cell r="G11">
-            <v>-10.6536397735575</v>
-          </cell>
-          <cell r="H11">
-            <v>-2.92252337296864</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>-11.2732202923018</v>
-          </cell>
-          <cell r="G12">
-            <v>-10.4854365921296</v>
-          </cell>
-          <cell r="H12">
-            <v>-0.787783700172208</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>2.00497488316254</v>
-          </cell>
-          <cell r="G13">
-            <v>1.85960894294296</v>
-          </cell>
-          <cell r="H13">
-            <v>0.145365940219583</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>-41.8729823707109</v>
-          </cell>
-          <cell r="G14">
-            <v>-20.6943532933829</v>
-          </cell>
-          <cell r="H14">
-            <v>-21.1786290773279</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>-4.08579123797435</v>
-          </cell>
-          <cell r="G15">
-            <v>-6.21871212756475</v>
-          </cell>
-          <cell r="H15">
-            <v>2.1329208895904</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>0.127559593082893</v>
-          </cell>
-          <cell r="G16">
-            <v>0.304845128934065</v>
-          </cell>
-          <cell r="H16">
-            <v>-0.177285535851171</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>-21.0094947138114</v>
-          </cell>
-          <cell r="G17">
-            <v>-21.2164510272478</v>
-          </cell>
-          <cell r="H17">
-            <v>0.206956313436409</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>-14.0618293793715</v>
-          </cell>
-          <cell r="G18">
-            <v>32.1710933260955</v>
-          </cell>
-          <cell r="H18">
-            <v>-46.232922705467</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>-17.8018644987312</v>
-          </cell>
-          <cell r="G19">
-            <v>-20.3161608156174</v>
-          </cell>
-          <cell r="H19">
-            <v>2.51429631688621</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>-9.23516103658737</v>
-          </cell>
-          <cell r="G20">
-            <v>-12.2004761866048</v>
-          </cell>
-          <cell r="H20">
-            <v>2.96531515001746</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>-3.15664950361445</v>
-          </cell>
-          <cell r="G21">
-            <v>-0.0757082468175998</v>
-          </cell>
-          <cell r="H21">
-            <v>-3.08094125679685</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>2.10143933218909</v>
-          </cell>
-          <cell r="G22">
-            <v>5.3574930494522</v>
-          </cell>
-          <cell r="H22">
-            <v>-3.25605371726313</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>-44.8147433405584</v>
-          </cell>
-          <cell r="G23">
-            <v>-36.8724046162601</v>
-          </cell>
-          <cell r="H23">
-            <v>-7.94233872429823</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>-28.6756848996245</v>
-          </cell>
-          <cell r="G24">
-            <v>-6.22351513069976</v>
-          </cell>
-          <cell r="H24">
-            <v>-22.4521697689247</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>-10.3031475270445</v>
-          </cell>
-          <cell r="G25">
-            <v>-8.73380835860847</v>
-          </cell>
-          <cell r="H25">
-            <v>-1.56933916843603</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>3.30443616288117</v>
-          </cell>
-          <cell r="G26">
-            <v>5.97615568645405</v>
-          </cell>
-          <cell r="H26">
-            <v>-2.67171952357286</v>
+            <v>-14.9754591227248</v>
           </cell>
         </row>
       </sheetData>
@@ -31449,7 +30138,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31510,28 +30199,28 @@
         <v>91</v>
       </c>
       <c r="B7" s="17" t="n">
-        <f aca="false">[66]output_table!F2/100</f>
-        <v>-0.0778955069048462</v>
+        <f aca="false">[29]output_table!F2/100</f>
+        <v>-0.00871995016938059</v>
       </c>
       <c r="C7" s="18" t="n">
-        <f aca="false">[66]output_table!G2/100</f>
-        <v>-0.0239266799667744</v>
+        <f aca="false">[29]output_table!G2/100</f>
+        <v>-0.0478527761838807</v>
       </c>
       <c r="D7" s="19" t="n">
-        <f aca="false">[66]output_table!H2/100</f>
-        <v>-0.0539688269380718</v>
+        <f aca="false">[29]output_table!H2/100</f>
+        <v>0.0391328260145002</v>
       </c>
       <c r="E7" s="17" t="n">
-        <f aca="false">[67]output_table!F2/100</f>
-        <v>-0.0266483223067003</v>
+        <f aca="false">[30]output_table!F2/100</f>
+        <v>-0.0723492731217544</v>
       </c>
       <c r="F7" s="18" t="n">
-        <f aca="false">[67]output_table!G2/100</f>
-        <v>-0.0293489225631953</v>
+        <f aca="false">[30]output_table!G2/100</f>
+        <v>0.237645038137774</v>
       </c>
       <c r="G7" s="19" t="n">
-        <f aca="false">[67]output_table!H2/100</f>
-        <v>0.0027006002564951</v>
+        <f aca="false">[30]output_table!H2/100</f>
+        <v>-0.309994311259528</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31539,28 +30228,28 @@
         <v>92</v>
       </c>
       <c r="B8" s="21" t="n">
-        <f aca="false">[66]output_table!F3/100</f>
-        <v>0.0701528975659844</v>
+        <f aca="false">[29]output_table!F3/100</f>
+        <v>-0.244374821423859</v>
       </c>
       <c r="C8" s="22" t="n">
-        <f aca="false">[66]output_table!G3/100</f>
-        <v>0.112290106938738</v>
+        <f aca="false">[29]output_table!G3/100</f>
+        <v>-0.543372392480144</v>
       </c>
       <c r="D8" s="23" t="n">
-        <f aca="false">[66]output_table!H3/100</f>
-        <v>-0.0421372093727536</v>
+        <f aca="false">[29]output_table!H3/100</f>
+        <v>0.298997571056286</v>
       </c>
       <c r="E8" s="21" t="n">
-        <f aca="false">[67]output_table!F3/100</f>
-        <v>-0.108118143893755</v>
+        <f aca="false">[30]output_table!F3/100</f>
+        <v>-0.228230753231275</v>
       </c>
       <c r="F8" s="22" t="n">
-        <f aca="false">[67]output_table!G3/100</f>
-        <v>0.378711499089679</v>
+        <f aca="false">[30]output_table!G3/100</f>
+        <v>0.156385428602272</v>
       </c>
       <c r="G8" s="23" t="n">
-        <f aca="false">[67]output_table!H3/100</f>
-        <v>-0.486829642983434</v>
+        <f aca="false">[30]output_table!H3/100</f>
+        <v>-0.384616181833547</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31568,28 +30257,28 @@
         <v>93</v>
       </c>
       <c r="B9" s="21" t="n">
-        <f aca="false">[66]output_table!F4/100</f>
-        <v>-0.500802546090139</v>
+        <f aca="false">[29]output_table!F4/100</f>
+        <v>-0.519067343614722</v>
       </c>
       <c r="C9" s="22" t="n">
-        <f aca="false">[66]output_table!G4/100</f>
-        <v>-0.00992020667044146</v>
+        <f aca="false">[29]output_table!G4/100</f>
+        <v>-1.20014431542971</v>
       </c>
       <c r="D9" s="23" t="n">
-        <f aca="false">[66]output_table!H4/100</f>
-        <v>-0.490882339419697</v>
+        <f aca="false">[29]output_table!H4/100</f>
+        <v>0.681076971814993</v>
       </c>
       <c r="E9" s="21" t="n">
-        <f aca="false">[67]output_table!F4/100</f>
-        <v>-0.348864242678888</v>
+        <f aca="false">[30]output_table!F4/100</f>
+        <v>-0.77417062133289</v>
       </c>
       <c r="F9" s="22" t="n">
-        <f aca="false">[67]output_table!G4/100</f>
-        <v>0.257239028940595</v>
+        <f aca="false">[30]output_table!G4/100</f>
+        <v>0.376039161400117</v>
       </c>
       <c r="G9" s="23" t="n">
-        <f aca="false">[67]output_table!H4/100</f>
-        <v>-0.606103271619483</v>
+        <f aca="false">[30]output_table!H4/100</f>
+        <v>-1.15020978273301</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31597,28 +30286,28 @@
         <v>94</v>
       </c>
       <c r="B10" s="21" t="n">
-        <f aca="false">[66]output_table!F5/100</f>
-        <v>0.496736042947601</v>
+        <f aca="false">[29]output_table!F5/100</f>
+        <v>-0.580690718007581</v>
       </c>
       <c r="C10" s="22" t="n">
-        <f aca="false">[66]output_table!G5/100</f>
-        <v>0.39103941428887</v>
+        <f aca="false">[29]output_table!G5/100</f>
+        <v>-0.799086805784265</v>
       </c>
       <c r="D10" s="23" t="n">
-        <f aca="false">[66]output_table!H5/100</f>
-        <v>0.105696628658731</v>
+        <f aca="false">[29]output_table!H5/100</f>
+        <v>0.218396087776684</v>
       </c>
       <c r="E10" s="21" t="n">
-        <f aca="false">[67]output_table!F5/100</f>
-        <v>-0.379012235548349</v>
+        <f aca="false">[30]output_table!F5/100</f>
+        <v>-0.813742436866602</v>
       </c>
       <c r="F10" s="22" t="n">
-        <f aca="false">[67]output_table!G5/100</f>
-        <v>-0.337124720822347</v>
+        <f aca="false">[30]output_table!G5/100</f>
+        <v>-1.14810123085594</v>
       </c>
       <c r="G10" s="23" t="n">
-        <f aca="false">[67]output_table!H5/100</f>
-        <v>-0.041887514726002</v>
+        <f aca="false">[30]output_table!H5/100</f>
+        <v>0.334358793989334</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31626,28 +30315,28 @@
         <v>95</v>
       </c>
       <c r="B11" s="21" t="n">
-        <f aca="false">[66]output_table!F6/100</f>
-        <v>-0.0972352495266113</v>
+        <f aca="false">[29]output_table!F6/100</f>
+        <v>0.00148798216700991</v>
       </c>
       <c r="C11" s="22" t="n">
-        <f aca="false">[66]output_table!G6/100</f>
-        <v>0.013622333441537</v>
+        <f aca="false">[29]output_table!G6/100</f>
+        <v>-0.00517503332565823</v>
       </c>
       <c r="D11" s="23" t="n">
-        <f aca="false">[66]output_table!H6/100</f>
-        <v>-0.110857582968148</v>
+        <f aca="false">[29]output_table!H6/100</f>
+        <v>0.00666301549266814</v>
       </c>
       <c r="E11" s="21" t="n">
-        <f aca="false">[67]output_table!F6/100</f>
-        <v>-0.00844398586450973</v>
+        <f aca="false">[30]output_table!F6/100</f>
+        <v>-0.00227964164184585</v>
       </c>
       <c r="F11" s="22" t="n">
-        <f aca="false">[67]output_table!G6/100</f>
-        <v>0.025186455117024</v>
+        <f aca="false">[30]output_table!G6/100</f>
+        <v>0.0188861176725159</v>
       </c>
       <c r="G11" s="23" t="n">
-        <f aca="false">[67]output_table!H6/100</f>
-        <v>-0.0336304409815335</v>
+        <f aca="false">[30]output_table!H6/100</f>
+        <v>-0.0211657593143618</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31655,28 +30344,28 @@
         <v>96</v>
       </c>
       <c r="B12" s="21" t="n">
-        <f aca="false">[66]output_table!F7/100</f>
-        <v>0.7693910047858</v>
+        <f aca="false">[29]output_table!F7/100</f>
+        <v>-0.142564850715132</v>
       </c>
       <c r="C12" s="22" t="n">
-        <f aca="false">[66]output_table!G7/100</f>
-        <v>2.52023981275044</v>
+        <f aca="false">[29]output_table!G7/100</f>
+        <v>-0.530229168922839</v>
       </c>
       <c r="D12" s="23" t="n">
-        <f aca="false">[66]output_table!H7/100</f>
-        <v>-1.75084880796464</v>
+        <f aca="false">[29]output_table!H7/100</f>
+        <v>0.387664318207707</v>
       </c>
       <c r="E12" s="21" t="n">
-        <f aca="false">[67]output_table!F7/100</f>
-        <v>-0.286839192102708</v>
+        <f aca="false">[30]output_table!F7/100</f>
+        <v>-0.603481275834134</v>
       </c>
       <c r="F12" s="22" t="n">
-        <f aca="false">[67]output_table!G7/100</f>
-        <v>-0.406335126775797</v>
+        <f aca="false">[30]output_table!G7/100</f>
+        <v>-0.424098633842026</v>
       </c>
       <c r="G12" s="23" t="n">
-        <f aca="false">[67]output_table!H7/100</f>
-        <v>0.119495934673089</v>
+        <f aca="false">[30]output_table!H7/100</f>
+        <v>-0.179382641992108</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31684,28 +30373,28 @@
         <v>97</v>
       </c>
       <c r="B13" s="21" t="n">
-        <f aca="false">[66]output_table!F8/100</f>
-        <v>-0.483449332258562</v>
+        <f aca="false">[29]output_table!F8/100</f>
+        <v>-0.492452883411108</v>
       </c>
       <c r="C13" s="22" t="n">
-        <f aca="false">[66]output_table!G8/100</f>
-        <v>-0.338787978956657</v>
+        <f aca="false">[29]output_table!G8/100</f>
+        <v>-0.37966738886339</v>
       </c>
       <c r="D13" s="23" t="n">
-        <f aca="false">[66]output_table!H8/100</f>
-        <v>-0.144661353301905</v>
+        <f aca="false">[29]output_table!H8/100</f>
+        <v>-0.112785494547718</v>
       </c>
       <c r="E13" s="21" t="n">
-        <f aca="false">[67]output_table!F8/100</f>
-        <v>0.19177561466381</v>
+        <f aca="false">[30]output_table!F8/100</f>
+        <v>-0.805623863063795</v>
       </c>
       <c r="F13" s="22" t="n">
-        <f aca="false">[67]output_table!G8/100</f>
-        <v>1.29741141131461</v>
+        <f aca="false">[30]output_table!G8/100</f>
+        <v>0.222387408478649</v>
       </c>
       <c r="G13" s="23" t="n">
-        <f aca="false">[67]output_table!H8/100</f>
-        <v>-1.1056357966508</v>
+        <f aca="false">[30]output_table!H8/100</f>
+        <v>-1.02801127154244</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31713,28 +30402,28 @@
         <v>98</v>
       </c>
       <c r="B14" s="21" t="n">
-        <f aca="false">[66]output_table!F9/100</f>
-        <v>-0.0113012192051716</v>
+        <f aca="false">[29]output_table!F9/100</f>
+        <v>-0.277226086616764</v>
       </c>
       <c r="C14" s="22" t="n">
-        <f aca="false">[66]output_table!G9/100</f>
-        <v>0.00677784554173445</v>
+        <f aca="false">[29]output_table!G9/100</f>
+        <v>-0.545526515343252</v>
       </c>
       <c r="D14" s="23" t="n">
-        <f aca="false">[66]output_table!H9/100</f>
-        <v>-0.0180790647469061</v>
+        <f aca="false">[29]output_table!H9/100</f>
+        <v>0.268300428726488</v>
       </c>
       <c r="E14" s="21" t="n">
-        <f aca="false">[67]output_table!F9/100</f>
-        <v>-0.371561163416134</v>
+        <f aca="false">[30]output_table!F9/100</f>
+        <v>-0.102549710959205</v>
       </c>
       <c r="F14" s="22" t="n">
-        <f aca="false">[67]output_table!G9/100</f>
-        <v>-0.357449837422413</v>
+        <f aca="false">[30]output_table!G9/100</f>
+        <v>-0.0219850232691694</v>
       </c>
       <c r="G14" s="23" t="n">
-        <f aca="false">[67]output_table!H9/100</f>
-        <v>-0.0141113259937216</v>
+        <f aca="false">[30]output_table!H9/100</f>
+        <v>-0.0805646876900356</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31742,28 +30431,28 @@
         <v>99</v>
       </c>
       <c r="B15" s="21" t="n">
-        <f aca="false">[66]output_table!F10/100</f>
-        <v>0.158731092166737</v>
+        <f aca="false">[29]output_table!F10/100</f>
+        <v>-0.113835253898429</v>
       </c>
       <c r="C15" s="22" t="n">
-        <f aca="false">[66]output_table!G10/100</f>
-        <v>0.0882563259376884</v>
+        <f aca="false">[29]output_table!G10/100</f>
+        <v>0.0410072534058516</v>
       </c>
       <c r="D15" s="23" t="n">
-        <f aca="false">[66]output_table!H10/100</f>
-        <v>0.0704747662290482</v>
+        <f aca="false">[29]output_table!H10/100</f>
+        <v>-0.15484250730428</v>
       </c>
       <c r="E15" s="21" t="n">
-        <f aca="false">[67]output_table!F10/100</f>
-        <v>-0.18994132714526</v>
+        <f aca="false">[30]output_table!F10/100</f>
+        <v>0.199010897848067</v>
       </c>
       <c r="F15" s="22" t="n">
-        <f aca="false">[67]output_table!G10/100</f>
-        <v>-0.269702942227625</v>
+        <f aca="false">[30]output_table!G10/100</f>
+        <v>0.837714983171599</v>
       </c>
       <c r="G15" s="23" t="n">
-        <f aca="false">[67]output_table!H10/100</f>
-        <v>0.0797616150823649</v>
+        <f aca="false">[30]output_table!H10/100</f>
+        <v>-0.638704085323531</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31771,28 +30460,28 @@
         <v>100</v>
       </c>
       <c r="B16" s="21" t="n">
-        <f aca="false">[66]output_table!F11/100</f>
-        <v>0.207917343821651</v>
+        <f aca="false">[29]output_table!F11/100</f>
+        <v>-0.193471852953465</v>
       </c>
       <c r="C16" s="22" t="n">
-        <f aca="false">[66]output_table!G11/100</f>
-        <v>0.273954646897379</v>
+        <f aca="false">[29]output_table!G11/100</f>
+        <v>-0.255467838279911</v>
       </c>
       <c r="D16" s="23" t="n">
-        <f aca="false">[66]output_table!H11/100</f>
-        <v>-0.0660373030757275</v>
+        <f aca="false">[29]output_table!H11/100</f>
+        <v>0.0619959853264459</v>
       </c>
       <c r="E16" s="21" t="n">
-        <f aca="false">[67]output_table!F11/100</f>
-        <v>-0.135761631465261</v>
+        <f aca="false">[30]output_table!F11/100</f>
+        <v>1.57632433295042</v>
       </c>
       <c r="F16" s="22" t="n">
-        <f aca="false">[67]output_table!G11/100</f>
-        <v>-0.106536397735575</v>
+        <f aca="false">[30]output_table!G11/100</f>
+        <v>0.479272941067823</v>
       </c>
       <c r="G16" s="23" t="n">
-        <f aca="false">[67]output_table!H11/100</f>
-        <v>-0.0292252337296864</v>
+        <f aca="false">[30]output_table!H11/100</f>
+        <v>1.0970513918826</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31800,28 +30489,28 @@
         <v>101</v>
       </c>
       <c r="B17" s="21" t="n">
-        <f aca="false">[66]output_table!F12/100</f>
-        <v>0.0140366981968668</v>
+        <f aca="false">[29]output_table!F12/100</f>
+        <v>-0.196861749866989</v>
       </c>
       <c r="C17" s="22" t="n">
-        <f aca="false">[66]output_table!G12/100</f>
-        <v>0.0115315664460986</v>
+        <f aca="false">[29]output_table!G12/100</f>
+        <v>-0.0233002931491005</v>
       </c>
       <c r="D17" s="23" t="n">
-        <f aca="false">[66]output_table!H12/100</f>
-        <v>0.00250513175076819</v>
+        <f aca="false">[29]output_table!H12/100</f>
+        <v>-0.173561456717888</v>
       </c>
       <c r="E17" s="21" t="n">
-        <f aca="false">[67]output_table!F12/100</f>
-        <v>-0.112732202923018</v>
+        <f aca="false">[30]output_table!F12/100</f>
+        <v>-0.158048493772097</v>
       </c>
       <c r="F17" s="22" t="n">
-        <f aca="false">[67]output_table!G12/100</f>
-        <v>-0.104854365921296</v>
+        <f aca="false">[30]output_table!G12/100</f>
+        <v>0.196454646122422</v>
       </c>
       <c r="G17" s="23" t="n">
-        <f aca="false">[67]output_table!H12/100</f>
-        <v>-0.00787783700172208</v>
+        <f aca="false">[30]output_table!H12/100</f>
+        <v>-0.354503139894518</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31829,28 +30518,28 @@
         <v>102</v>
       </c>
       <c r="B18" s="21" t="n">
-        <f aca="false">[66]output_table!F13/100</f>
-        <v>-0.237355516187557</v>
+        <f aca="false">[29]output_table!F13/100</f>
+        <v>-0.174660605201418</v>
       </c>
       <c r="C18" s="22" t="n">
-        <f aca="false">[66]output_table!G13/100</f>
-        <v>-0.314370394773218</v>
+        <f aca="false">[29]output_table!G13/100</f>
+        <v>-0.0636371613876475</v>
       </c>
       <c r="D18" s="23" t="n">
-        <f aca="false">[66]output_table!H13/100</f>
-        <v>0.0770148785856614</v>
+        <f aca="false">[29]output_table!H13/100</f>
+        <v>-0.11102344381377</v>
       </c>
       <c r="E18" s="21" t="n">
-        <f aca="false">[67]output_table!F13/100</f>
-        <v>0.0200497488316254</v>
+        <f aca="false">[30]output_table!F13/100</f>
+        <v>-0.0749476493598397</v>
       </c>
       <c r="F18" s="22" t="n">
-        <f aca="false">[67]output_table!G13/100</f>
-        <v>0.0185960894294296</v>
+        <f aca="false">[30]output_table!G13/100</f>
+        <v>-0.00779280541311926</v>
       </c>
       <c r="G18" s="23" t="n">
-        <f aca="false">[67]output_table!H13/100</f>
-        <v>0.00145365940219583</v>
+        <f aca="false">[30]output_table!H13/100</f>
+        <v>-0.0671548439467204</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31858,28 +30547,28 @@
         <v>103</v>
       </c>
       <c r="B19" s="21" t="n">
-        <f aca="false">[66]output_table!F14/100</f>
-        <v>-0.37765918067884</v>
+        <f aca="false">[29]output_table!F14/100</f>
+        <v>-0.423678389613345</v>
       </c>
       <c r="C19" s="22" t="n">
-        <f aca="false">[66]output_table!G14/100</f>
-        <v>0.448823245986085</v>
+        <f aca="false">[29]output_table!G14/100</f>
+        <v>-0.509302170187423</v>
       </c>
       <c r="D19" s="23" t="n">
-        <f aca="false">[66]output_table!H14/100</f>
-        <v>-0.826482426664925</v>
+        <f aca="false">[29]output_table!H14/100</f>
+        <v>0.0856237805740784</v>
       </c>
       <c r="E19" s="21" t="n">
-        <f aca="false">[67]output_table!F14/100</f>
-        <v>-0.418729823707109</v>
+        <f aca="false">[30]output_table!F14/100</f>
+        <v>-0.315300992401331</v>
       </c>
       <c r="F19" s="22" t="n">
-        <f aca="false">[67]output_table!G14/100</f>
-        <v>-0.206943532933829</v>
+        <f aca="false">[30]output_table!G14/100</f>
+        <v>-0.237501064971338</v>
       </c>
       <c r="G19" s="23" t="n">
-        <f aca="false">[67]output_table!H14/100</f>
-        <v>-0.211786290773279</v>
+        <f aca="false">[30]output_table!H14/100</f>
+        <v>-0.0777999274299929</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31887,28 +30576,28 @@
         <v>104</v>
       </c>
       <c r="B20" s="21" t="n">
-        <f aca="false">[66]output_table!F15/100</f>
-        <v>-0.161774399851195</v>
+        <f aca="false">[29]output_table!F15/100</f>
+        <v>-0.106176015864681</v>
       </c>
       <c r="C20" s="22" t="n">
-        <f aca="false">[66]output_table!G15/100</f>
-        <v>0.0682924698208575</v>
+        <f aca="false">[29]output_table!G15/100</f>
+        <v>0.0304484286407378</v>
       </c>
       <c r="D20" s="23" t="n">
-        <f aca="false">[66]output_table!H15/100</f>
-        <v>-0.230066869672052</v>
+        <f aca="false">[29]output_table!H15/100</f>
+        <v>-0.136624444505419</v>
       </c>
       <c r="E20" s="21" t="n">
-        <f aca="false">[67]output_table!F15/100</f>
-        <v>-0.0408579123797435</v>
+        <f aca="false">[30]output_table!F15/100</f>
+        <v>-0.0549753947063335</v>
       </c>
       <c r="F20" s="22" t="n">
-        <f aca="false">[67]output_table!G15/100</f>
-        <v>-0.0621871212756475</v>
+        <f aca="false">[30]output_table!G15/100</f>
+        <v>0.65937894183685</v>
       </c>
       <c r="G20" s="23" t="n">
-        <f aca="false">[67]output_table!H15/100</f>
-        <v>0.021329208895904</v>
+        <f aca="false">[30]output_table!H15/100</f>
+        <v>-0.714354336543184</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31916,28 +30605,28 @@
         <v>105</v>
       </c>
       <c r="B21" s="21" t="n">
-        <f aca="false">[66]output_table!F16/100</f>
-        <v>-0.0570135392710688</v>
+        <f aca="false">[29]output_table!F16/100</f>
+        <v>0.0296940293156509</v>
       </c>
       <c r="C21" s="22" t="n">
-        <f aca="false">[66]output_table!G16/100</f>
-        <v>0.0372318556252982</v>
+        <f aca="false">[29]output_table!G16/100</f>
+        <v>0.00754191321264443</v>
       </c>
       <c r="D21" s="23" t="n">
-        <f aca="false">[66]output_table!H16/100</f>
-        <v>-0.094245394896367</v>
+        <f aca="false">[29]output_table!H16/100</f>
+        <v>0.0221521161030064</v>
       </c>
       <c r="E21" s="21" t="n">
-        <f aca="false">[67]output_table!F16/100</f>
-        <v>0.00127559593082893</v>
+        <f aca="false">[30]output_table!F16/100</f>
+        <v>0.079719948086892</v>
       </c>
       <c r="F21" s="22" t="n">
-        <f aca="false">[67]output_table!G16/100</f>
-        <v>0.00304845128934065</v>
+        <f aca="false">[30]output_table!G16/100</f>
+        <v>0.173708435483298</v>
       </c>
       <c r="G21" s="23" t="n">
-        <f aca="false">[67]output_table!H16/100</f>
-        <v>-0.00177285535851171</v>
+        <f aca="false">[30]output_table!H16/100</f>
+        <v>-0.0939884873964065</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31945,28 +30634,28 @@
         <v>106</v>
       </c>
       <c r="B22" s="21" t="n">
-        <f aca="false">[66]output_table!F17/100</f>
-        <v>-0.407818939934115</v>
+        <f aca="false">[29]output_table!F17/100</f>
+        <v>-0.467974722117531</v>
       </c>
       <c r="C22" s="22" t="n">
-        <f aca="false">[66]output_table!G17/100</f>
-        <v>-0.32068228221552</v>
+        <f aca="false">[29]output_table!G17/100</f>
+        <v>-0.578010968696742</v>
       </c>
       <c r="D22" s="23" t="n">
-        <f aca="false">[66]output_table!H17/100</f>
-        <v>-0.087136657718595</v>
+        <f aca="false">[29]output_table!H17/100</f>
+        <v>0.110036246579211</v>
       </c>
       <c r="E22" s="21" t="n">
-        <f aca="false">[67]output_table!F17/100</f>
-        <v>-0.210094947138113</v>
+        <f aca="false">[30]output_table!F17/100</f>
+        <v>-0.331043806473291</v>
       </c>
       <c r="F22" s="22" t="n">
-        <f aca="false">[67]output_table!G17/100</f>
-        <v>-0.212164510272478</v>
+        <f aca="false">[30]output_table!G17/100</f>
+        <v>-0.655061779791485</v>
       </c>
       <c r="G22" s="23" t="n">
-        <f aca="false">[67]output_table!H17/100</f>
-        <v>0.00206956313436409</v>
+        <f aca="false">[30]output_table!H17/100</f>
+        <v>0.324017973318194</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -31974,28 +30663,28 @@
         <v>107</v>
       </c>
       <c r="B23" s="21" t="n">
-        <f aca="false">[66]output_table!F18/100</f>
-        <v>-0.186402685808661</v>
+        <f aca="false">[29]output_table!F18/100</f>
+        <v>-0.398552026477866</v>
       </c>
       <c r="C23" s="22" t="n">
-        <f aca="false">[66]output_table!G18/100</f>
-        <v>-0.353241205009285</v>
+        <f aca="false">[29]output_table!G18/100</f>
+        <v>-0.912143662445799</v>
       </c>
       <c r="D23" s="23" t="n">
-        <f aca="false">[66]output_table!H18/100</f>
-        <v>0.166838519200624</v>
+        <f aca="false">[29]output_table!H18/100</f>
+        <v>0.513591635967933</v>
       </c>
       <c r="E23" s="21" t="n">
-        <f aca="false">[67]output_table!F18/100</f>
-        <v>-0.140618293793715</v>
+        <f aca="false">[30]output_table!F18/100</f>
+        <v>-0.347105652883372</v>
       </c>
       <c r="F23" s="22" t="n">
-        <f aca="false">[67]output_table!G18/100</f>
-        <v>0.321710933260955</v>
+        <f aca="false">[30]output_table!G18/100</f>
+        <v>-0.188868133215729</v>
       </c>
       <c r="G23" s="23" t="n">
-        <f aca="false">[67]output_table!H18/100</f>
-        <v>-0.46232922705467</v>
+        <f aca="false">[30]output_table!H18/100</f>
+        <v>-0.158237519667643</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32003,28 +30692,28 @@
         <v>108</v>
       </c>
       <c r="B24" s="21" t="n">
-        <f aca="false">[66]output_table!F19/100</f>
-        <v>0.0479044501551066</v>
+        <f aca="false">[29]output_table!F19/100</f>
+        <v>-0.205316753152855</v>
       </c>
       <c r="C24" s="22" t="n">
-        <f aca="false">[66]output_table!G19/100</f>
-        <v>-0.0456167176170595</v>
+        <f aca="false">[29]output_table!G19/100</f>
+        <v>-0.889409467706447</v>
       </c>
       <c r="D24" s="23" t="n">
-        <f aca="false">[66]output_table!H19/100</f>
-        <v>0.093521167772166</v>
+        <f aca="false">[29]output_table!H19/100</f>
+        <v>0.684092714553592</v>
       </c>
       <c r="E24" s="21" t="n">
-        <f aca="false">[67]output_table!F19/100</f>
-        <v>-0.178018644987312</v>
+        <f aca="false">[30]output_table!F19/100</f>
+        <v>-0.382826257083383</v>
       </c>
       <c r="F24" s="22" t="n">
-        <f aca="false">[67]output_table!G19/100</f>
-        <v>-0.203161608156174</v>
+        <f aca="false">[30]output_table!G19/100</f>
+        <v>-0.377981614204648</v>
       </c>
       <c r="G24" s="23" t="n">
-        <f aca="false">[67]output_table!H19/100</f>
-        <v>0.0251429631688621</v>
+        <f aca="false">[30]output_table!H19/100</f>
+        <v>-0.00484464287873454</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32032,28 +30721,28 @@
         <v>109</v>
       </c>
       <c r="B25" s="21" t="n">
-        <f aca="false">[66]output_table!F20/100</f>
-        <v>0.0497994195198456</v>
+        <f aca="false">[29]output_table!F20/100</f>
+        <v>-0.0448722535326793</v>
       </c>
       <c r="C25" s="22" t="n">
-        <f aca="false">[66]output_table!G20/100</f>
-        <v>0.477656473157994</v>
+        <f aca="false">[29]output_table!G20/100</f>
+        <v>-0.496369095325512</v>
       </c>
       <c r="D25" s="23" t="n">
-        <f aca="false">[66]output_table!H20/100</f>
-        <v>-0.427857053638148</v>
+        <f aca="false">[29]output_table!H20/100</f>
+        <v>0.451496841792833</v>
       </c>
       <c r="E25" s="21" t="n">
-        <f aca="false">[67]output_table!F20/100</f>
-        <v>-0.0923516103658737</v>
+        <f aca="false">[30]output_table!F20/100</f>
+        <v>-0.0582872078297532</v>
       </c>
       <c r="F25" s="22" t="n">
-        <f aca="false">[67]output_table!G20/100</f>
-        <v>-0.122004761866048</v>
+        <f aca="false">[30]output_table!G20/100</f>
+        <v>1.6623371979197</v>
       </c>
       <c r="G25" s="23" t="n">
-        <f aca="false">[67]output_table!H20/100</f>
-        <v>0.0296531515001746</v>
+        <f aca="false">[30]output_table!H20/100</f>
+        <v>-1.72062440574945</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32061,28 +30750,28 @@
         <v>110</v>
       </c>
       <c r="B26" s="21" t="n">
-        <f aca="false">[66]output_table!F21/100</f>
-        <v>0.0165163782897912</v>
+        <f aca="false">[29]output_table!F21/100</f>
+        <v>0.0242106592073112</v>
       </c>
       <c r="C26" s="22" t="n">
-        <f aca="false">[66]output_table!G21/100</f>
-        <v>-0.113631995476317</v>
+        <f aca="false">[29]output_table!G21/100</f>
+        <v>-0.0458193011121156</v>
       </c>
       <c r="D26" s="23" t="n">
-        <f aca="false">[66]output_table!H21/100</f>
-        <v>0.130148373766108</v>
+        <f aca="false">[29]output_table!H21/100</f>
+        <v>0.0700299603194268</v>
       </c>
       <c r="E26" s="21" t="n">
-        <f aca="false">[67]output_table!F21/100</f>
-        <v>-0.0315664950361445</v>
+        <f aca="false">[30]output_table!F21/100</f>
+        <v>0.0264858142588495</v>
       </c>
       <c r="F26" s="22" t="n">
-        <f aca="false">[67]output_table!G21/100</f>
-        <v>-0.000757082468175998</v>
+        <f aca="false">[30]output_table!G21/100</f>
+        <v>0.106312081109899</v>
       </c>
       <c r="G26" s="23" t="n">
-        <f aca="false">[67]output_table!H21/100</f>
-        <v>-0.0308094125679685</v>
+        <f aca="false">[30]output_table!H21/100</f>
+        <v>-0.0798262668510493</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32090,28 +30779,28 @@
         <v>111</v>
       </c>
       <c r="B27" s="21" t="n">
-        <f aca="false">[66]output_table!F22/100</f>
-        <v>0.0224784577758807</v>
-      </c>
-      <c r="C27" s="36" t="n">
-        <f aca="false">[66]output_table!G22/100</f>
-        <v>-0.179370924142797</v>
-      </c>
-      <c r="D27" s="37" t="n">
-        <f aca="false">[66]output_table!H22/100</f>
-        <v>0.201849381918678</v>
+        <f aca="false">[29]output_table!F22/100</f>
+        <v>-0.0145737451200485</v>
+      </c>
+      <c r="C27" s="22" t="n">
+        <f aca="false">[29]output_table!G22/100</f>
+        <v>-0.0798375863200927</v>
+      </c>
+      <c r="D27" s="23" t="n">
+        <f aca="false">[29]output_table!H22/100</f>
+        <v>0.0652638412000442</v>
       </c>
       <c r="E27" s="21" t="n">
-        <f aca="false">[67]output_table!F22/100</f>
-        <v>0.0210143933218909</v>
+        <f aca="false">[30]output_table!F22/100</f>
+        <v>0.792225852507143</v>
       </c>
       <c r="F27" s="22" t="n">
-        <f aca="false">[67]output_table!G22/100</f>
-        <v>0.053574930494522</v>
+        <f aca="false">[30]output_table!G22/100</f>
+        <v>0.807671138129608</v>
       </c>
       <c r="G27" s="23" t="n">
-        <f aca="false">[67]output_table!H22/100</f>
-        <v>-0.0325605371726313</v>
+        <f aca="false">[30]output_table!H22/100</f>
+        <v>-0.0154452856224645</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32119,28 +30808,28 @@
         <v>112</v>
       </c>
       <c r="B28" s="21" t="n">
-        <f aca="false">[66]output_table!F23/100</f>
-        <v>0.773490039904889</v>
+        <f aca="false">[29]output_table!F23/100</f>
+        <v>-0.380717854226395</v>
       </c>
       <c r="C28" s="22" t="n">
-        <f aca="false">[66]output_table!G23/100</f>
-        <v>0.950078774007516</v>
+        <f aca="false">[29]output_table!G23/100</f>
+        <v>-0.245862184231078</v>
       </c>
       <c r="D28" s="23" t="n">
-        <f aca="false">[66]output_table!H23/100</f>
-        <v>-0.176588734102627</v>
+        <f aca="false">[29]output_table!H23/100</f>
+        <v>-0.134855669995317</v>
       </c>
       <c r="E28" s="21" t="n">
-        <f aca="false">[67]output_table!F23/100</f>
-        <v>-0.448147433405584</v>
+        <f aca="false">[30]output_table!F23/100</f>
+        <v>-0.533366574083791</v>
       </c>
       <c r="F28" s="22" t="n">
-        <f aca="false">[67]output_table!G23/100</f>
-        <v>-0.368724046162601</v>
+        <f aca="false">[30]output_table!G23/100</f>
+        <v>0.339166529569355</v>
       </c>
       <c r="G28" s="23" t="n">
-        <f aca="false">[67]output_table!H23/100</f>
-        <v>-0.0794233872429823</v>
+        <f aca="false">[30]output_table!H23/100</f>
+        <v>-0.872533103653146</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32148,28 +30837,28 @@
         <v>113</v>
       </c>
       <c r="B29" s="21" t="n">
-        <f aca="false">[66]output_table!F24/100</f>
-        <v>-0.0237011384275196</v>
+        <f aca="false">[29]output_table!F24/100</f>
+        <v>-0.307753648851186</v>
       </c>
       <c r="C29" s="22" t="n">
-        <f aca="false">[66]output_table!G24/100</f>
-        <v>-0.142094895376824</v>
+        <f aca="false">[29]output_table!G24/100</f>
+        <v>-0.356293815819547</v>
       </c>
       <c r="D29" s="23" t="n">
-        <f aca="false">[66]output_table!H24/100</f>
-        <v>0.118393756949305</v>
+        <f aca="false">[29]output_table!H24/100</f>
+        <v>0.0485401669683606</v>
       </c>
       <c r="E29" s="21" t="n">
-        <f aca="false">[67]output_table!F24/100</f>
-        <v>-0.286756848996245</v>
+        <f aca="false">[30]output_table!F24/100</f>
+        <v>0.340016562998975</v>
       </c>
       <c r="F29" s="22" t="n">
-        <f aca="false">[67]output_table!G24/100</f>
-        <v>-0.0622351513069976</v>
+        <f aca="false">[30]output_table!G24/100</f>
+        <v>0.465582311452327</v>
       </c>
       <c r="G29" s="23" t="n">
-        <f aca="false">[67]output_table!H24/100</f>
-        <v>-0.224521697689247</v>
+        <f aca="false">[30]output_table!H24/100</f>
+        <v>-0.125565748453352</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32177,28 +30866,28 @@
         <v>114</v>
       </c>
       <c r="B30" s="21" t="n">
-        <f aca="false">[66]output_table!F25/100</f>
-        <v>-0.0664090802249802</v>
+        <f aca="false">[29]output_table!F25/100</f>
+        <v>-0.282944435893703</v>
       </c>
       <c r="C30" s="22" t="n">
-        <f aca="false">[66]output_table!G25/100</f>
-        <v>-0.0685548016879435</v>
+        <f aca="false">[29]output_table!G25/100</f>
+        <v>-0.209917282784647</v>
       </c>
       <c r="D30" s="23" t="n">
-        <f aca="false">[66]output_table!H25/100</f>
-        <v>0.0021457214629634</v>
+        <f aca="false">[29]output_table!H25/100</f>
+        <v>-0.0730271531090558</v>
       </c>
       <c r="E30" s="21" t="n">
-        <f aca="false">[67]output_table!F25/100</f>
-        <v>-0.103031475270445</v>
+        <f aca="false">[30]output_table!F25/100</f>
+        <v>-0.00387560202024685</v>
       </c>
       <c r="F30" s="22" t="n">
-        <f aca="false">[67]output_table!G25/100</f>
-        <v>-0.0873380835860847</v>
+        <f aca="false">[30]output_table!G25/100</f>
+        <v>1.14323422022419</v>
       </c>
       <c r="G30" s="23" t="n">
-        <f aca="false">[67]output_table!H25/100</f>
-        <v>-0.0156933916843603</v>
+        <f aca="false">[30]output_table!H25/100</f>
+        <v>-1.14710982224443</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32206,28 +30895,28 @@
         <v>115</v>
       </c>
       <c r="B31" s="25" t="n">
-        <f aca="false">[66]output_table!F26/100</f>
-        <v>-0.0517962220692134</v>
+        <f aca="false">[29]output_table!F26/100</f>
+        <v>0.00274887888504036</v>
       </c>
       <c r="C31" s="26" t="n">
-        <f aca="false">[66]output_table!G26/100</f>
-        <v>-0.0653984343289365</v>
+        <f aca="false">[29]output_table!G26/100</f>
+        <v>0.00483104676231486</v>
       </c>
       <c r="D31" s="27" t="n">
-        <f aca="false">[66]output_table!H26/100</f>
-        <v>0.0136022122597236</v>
+        <f aca="false">[29]output_table!H26/100</f>
+        <v>-0.0020821678772745</v>
       </c>
       <c r="E31" s="25" t="n">
-        <f aca="false">[67]output_table!F26/100</f>
-        <v>0.0330443616288117</v>
+        <f aca="false">[30]output_table!F26/100</f>
+        <v>0.210206312128304</v>
       </c>
       <c r="F31" s="26" t="n">
-        <f aca="false">[67]output_table!G26/100</f>
-        <v>0.0597615568645405</v>
+        <f aca="false">[30]output_table!G26/100</f>
+        <v>0.359960903355552</v>
       </c>
       <c r="G31" s="27" t="n">
-        <f aca="false">[67]output_table!H26/100</f>
-        <v>-0.0267171952357286</v>
+        <f aca="false">[30]output_table!H26/100</f>
+        <v>-0.149754591227248</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -32236,27 +30925,27 @@
       </c>
       <c r="B32" s="28" t="n">
         <f aca="false">AVERAGE(B7:B31)</f>
-        <v>-0.00453842925233308</v>
+        <v>-0.220733776446165</v>
       </c>
       <c r="C32" s="28" t="n">
         <f aca="false">AVERAGE(C7:C31)</f>
-        <v>0.136967934184738</v>
+        <v>-0.345303863270306</v>
       </c>
       <c r="D32" s="28" t="n">
         <f aca="false">AVERAGE(D7:D31)</f>
-        <v>-0.141506363437072</v>
+        <v>0.124570086824141</v>
       </c>
       <c r="E32" s="28" t="n">
         <f aca="false">AVERAGE(E7:E31)</f>
-        <v>-0.146037448721916</v>
+        <v>-0.0975286194354516</v>
       </c>
       <c r="F32" s="28" t="n">
         <f aca="false">AVERAGE(F7:F31)</f>
-        <v>-0.0208651142278237</v>
+        <v>0.20722988792682</v>
       </c>
       <c r="G32" s="28" t="n">
         <f aca="false">AVERAGE(G7:G31)</f>
-        <v>-0.125172334494092</v>
+        <v>-0.304758507362271</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -32335,20 +31024,20 @@
       <c r="A6" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="38" t="n">
-        <f aca="false">ROUND([53]output_table!B2,6)</f>
+      <c r="B6" s="36" t="n">
+        <f aca="false">ROUND([53]output_table!b2,6)</f>
         <v>0.000902</v>
       </c>
-      <c r="C6" s="39" t="n">
-        <f aca="false">ROUND([53]output_table!D2,6)</f>
+      <c r="C6" s="37" t="n">
+        <f aca="false">ROUND([53]output_table!d2,6)</f>
         <v>0.001047</v>
       </c>
-      <c r="D6" s="39" t="n">
-        <f aca="false">ROUND([53]output_table!C2,6)</f>
+      <c r="D6" s="37" t="n">
+        <f aca="false">ROUND([53]output_table!c2,6)</f>
         <v>0.000923</v>
       </c>
-      <c r="E6" s="40" t="n">
-        <f aca="false">ROUND([53]output_table!E2,6)</f>
+      <c r="E6" s="38" t="n">
+        <f aca="false">ROUND([53]output_table!e2,6)</f>
         <v>0.001056</v>
       </c>
     </row>
@@ -32356,20 +31045,20 @@
       <c r="A7" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="41" t="n">
-        <f aca="false">ROUND([53]output_table!B3,6)</f>
+      <c r="B7" s="39" t="n">
+        <f aca="false">ROUND([53]output_table!b3,6)</f>
         <v>0.000537</v>
       </c>
-      <c r="C7" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!D3,6)</f>
+      <c r="C7" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!d3,6)</f>
         <v>0.00069</v>
       </c>
-      <c r="D7" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!C3,6)</f>
+      <c r="D7" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!c3,6)</f>
         <v>0.000948</v>
       </c>
-      <c r="E7" s="43" t="n">
-        <f aca="false">ROUND([53]output_table!E3,6)</f>
+      <c r="E7" s="41" t="n">
+        <f aca="false">ROUND([53]output_table!e3,6)</f>
         <v>0.001807</v>
       </c>
     </row>
@@ -32377,20 +31066,20 @@
       <c r="A8" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="41" t="n">
-        <f aca="false">ROUND([53]output_table!B4,6)</f>
+      <c r="B8" s="39" t="n">
+        <f aca="false">ROUND([53]output_table!b4,6)</f>
         <v>0.001022</v>
       </c>
-      <c r="C8" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!D4,6)</f>
+      <c r="C8" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!d4,6)</f>
         <v>0.001122</v>
       </c>
-      <c r="D8" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!C4,6)</f>
+      <c r="D8" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!c4,6)</f>
         <v>0.00301</v>
       </c>
-      <c r="E8" s="43" t="n">
-        <f aca="false">ROUND([53]output_table!E4,6)</f>
+      <c r="E8" s="41" t="n">
+        <f aca="false">ROUND([53]output_table!e4,6)</f>
         <v>0.00435</v>
       </c>
     </row>
@@ -32398,20 +31087,20 @@
       <c r="A9" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="41" t="n">
-        <f aca="false">ROUND([53]output_table!B5,6)</f>
+      <c r="B9" s="39" t="n">
+        <f aca="false">ROUND([53]output_table!b5,6)</f>
         <v>0.000592</v>
       </c>
-      <c r="C9" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!D5,6)</f>
+      <c r="C9" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!d5,6)</f>
         <v>0.001075</v>
       </c>
-      <c r="D9" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!C5,6)</f>
+      <c r="D9" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!c5,6)</f>
         <v>0.002177</v>
       </c>
-      <c r="E9" s="43" t="n">
-        <f aca="false">ROUND([53]output_table!E5,6)</f>
+      <c r="E9" s="41" t="n">
+        <f aca="false">ROUND([53]output_table!e5,6)</f>
         <v>0.003263</v>
       </c>
     </row>
@@ -32419,20 +31108,20 @@
       <c r="A10" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="41" t="n">
-        <f aca="false">ROUND([53]output_table!B6,6)</f>
+      <c r="B10" s="39" t="n">
+        <f aca="false">ROUND([53]output_table!b6,6)</f>
         <v>0.006239</v>
       </c>
-      <c r="C10" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!D6,6)</f>
+      <c r="C10" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!d6,6)</f>
         <v>0.007006</v>
       </c>
-      <c r="D10" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!C6,6)</f>
+      <c r="D10" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!c6,6)</f>
         <v>0.006153</v>
       </c>
-      <c r="E10" s="43" t="n">
-        <f aca="false">ROUND([53]output_table!E6,6)</f>
+      <c r="E10" s="41" t="n">
+        <f aca="false">ROUND([53]output_table!e6,6)</f>
         <v>0.006978</v>
       </c>
     </row>
@@ -32440,20 +31129,20 @@
       <c r="A11" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="41" t="n">
-        <f aca="false">ROUND([53]output_table!B7,6)</f>
+      <c r="B11" s="39" t="n">
+        <f aca="false">ROUND([53]output_table!b7,6)</f>
         <v>0.0011</v>
       </c>
-      <c r="C11" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!D7,6)</f>
+      <c r="C11" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!d7,6)</f>
         <v>0.002508</v>
       </c>
-      <c r="D11" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!C7,6)</f>
+      <c r="D11" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!c7,6)</f>
         <v>0.001943</v>
       </c>
-      <c r="E11" s="43" t="n">
-        <f aca="false">ROUND([53]output_table!E7,6)</f>
+      <c r="E11" s="41" t="n">
+        <f aca="false">ROUND([53]output_table!e7,6)</f>
         <v>0.003776</v>
       </c>
     </row>
@@ -32461,20 +31150,20 @@
       <c r="A12" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="41" t="n">
-        <f aca="false">ROUND([53]output_table!B8,6)</f>
+      <c r="B12" s="39" t="n">
+        <f aca="false">ROUND([53]output_table!b8,6)</f>
         <v>0.000442</v>
       </c>
-      <c r="C12" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!D8,6)</f>
+      <c r="C12" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!d8,6)</f>
         <v>0.000479</v>
       </c>
-      <c r="D12" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!C8,6)</f>
+      <c r="D12" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!c8,6)</f>
         <v>0.00201</v>
       </c>
-      <c r="E12" s="43" t="n">
-        <f aca="false">ROUND([53]output_table!E8,6)</f>
+      <c r="E12" s="41" t="n">
+        <f aca="false">ROUND([53]output_table!e8,6)</f>
         <v>0.001285</v>
       </c>
     </row>
@@ -32482,20 +31171,20 @@
       <c r="A13" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="41" t="n">
-        <f aca="false">ROUND([53]output_table!B9,6)</f>
+      <c r="B13" s="39" t="n">
+        <f aca="false">ROUND([53]output_table!b9,6)</f>
         <v>0.000618</v>
       </c>
-      <c r="C13" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!D9,6)</f>
+      <c r="C13" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!d9,6)</f>
         <v>0.001</v>
       </c>
-      <c r="D13" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!C9,6)</f>
+      <c r="D13" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!c9,6)</f>
         <v>0.000992</v>
       </c>
-      <c r="E13" s="43" t="n">
-        <f aca="false">ROUND([53]output_table!E9,6)</f>
+      <c r="E13" s="41" t="n">
+        <f aca="false">ROUND([53]output_table!e9,6)</f>
         <v>0.001661</v>
       </c>
     </row>
@@ -32503,20 +31192,20 @@
       <c r="A14" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="41" t="n">
-        <f aca="false">ROUND([53]output_table!B10,6)</f>
+      <c r="B14" s="39" t="n">
+        <f aca="false">ROUND([53]output_table!b10,6)</f>
         <v>0.000196</v>
       </c>
-      <c r="C14" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!D10,6)</f>
+      <c r="C14" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!d10,6)</f>
         <v>0.000257</v>
       </c>
-      <c r="D14" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!C10,6)</f>
+      <c r="D14" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!c10,6)</f>
         <v>0.000262</v>
       </c>
-      <c r="E14" s="43" t="n">
-        <f aca="false">ROUND([53]output_table!E10,6)</f>
+      <c r="E14" s="41" t="n">
+        <f aca="false">ROUND([53]output_table!e10,6)</f>
         <v>0.000189</v>
       </c>
     </row>
@@ -32524,20 +31213,20 @@
       <c r="A15" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="41" t="n">
-        <f aca="false">ROUND([53]output_table!B11,6)</f>
+      <c r="B15" s="39" t="n">
+        <f aca="false">ROUND([53]output_table!b11,6)</f>
         <v>0.000244</v>
       </c>
-      <c r="C15" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!D11,6)</f>
+      <c r="C15" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!d11,6)</f>
         <v>0.000428</v>
       </c>
-      <c r="D15" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!C11,6)</f>
+      <c r="D15" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!c11,6)</f>
         <v>0.00052</v>
       </c>
-      <c r="E15" s="43" t="n">
-        <f aca="false">ROUND([53]output_table!E11,6)</f>
+      <c r="E15" s="41" t="n">
+        <f aca="false">ROUND([53]output_table!e11,6)</f>
         <v>0.000687</v>
       </c>
     </row>
@@ -32545,20 +31234,20 @@
       <c r="A16" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="41" t="n">
-        <f aca="false">ROUND([53]output_table!B12,6)</f>
+      <c r="B16" s="39" t="n">
+        <f aca="false">ROUND([53]output_table!b12,6)</f>
         <v>0.000298</v>
       </c>
-      <c r="C16" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!D12,6)</f>
+      <c r="C16" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!d12,6)</f>
         <v>0.00044</v>
       </c>
-      <c r="D16" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!C12,6)</f>
+      <c r="D16" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!c12,6)</f>
         <v>0.000379</v>
       </c>
-      <c r="E16" s="43" t="n">
-        <f aca="false">ROUND([53]output_table!E12,6)</f>
+      <c r="E16" s="41" t="n">
+        <f aca="false">ROUND([53]output_table!e12,6)</f>
         <v>0.000409</v>
       </c>
     </row>
@@ -32566,20 +31255,20 @@
       <c r="A17" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="41" t="n">
-        <f aca="false">ROUND([53]output_table!B13,6)</f>
+      <c r="B17" s="39" t="n">
+        <f aca="false">ROUND([53]output_table!b13,6)</f>
         <v>0.001019</v>
       </c>
-      <c r="C17" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!D13,6)</f>
+      <c r="C17" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!d13,6)</f>
         <v>0.000861</v>
       </c>
-      <c r="D17" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!C13,6)</f>
+      <c r="D17" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!c13,6)</f>
         <v>0.001213</v>
       </c>
-      <c r="E17" s="43" t="n">
-        <f aca="false">ROUND([53]output_table!E13,6)</f>
+      <c r="E17" s="41" t="n">
+        <f aca="false">ROUND([53]output_table!e13,6)</f>
         <v>0.000936</v>
       </c>
     </row>
@@ -32587,20 +31276,20 @@
       <c r="A18" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="41" t="n">
-        <f aca="false">ROUND([53]output_table!B14,6)</f>
+      <c r="B18" s="39" t="n">
+        <f aca="false">ROUND([53]output_table!b14,6)</f>
         <v>0.001048</v>
       </c>
-      <c r="C18" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!D14,6)</f>
+      <c r="C18" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!d14,6)</f>
         <v>0.002048</v>
       </c>
-      <c r="D18" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!C14,6)</f>
+      <c r="D18" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!c14,6)</f>
         <v>0.002557</v>
       </c>
-      <c r="E18" s="43" t="n">
-        <f aca="false">ROUND([53]output_table!E14,6)</f>
+      <c r="E18" s="41" t="n">
+        <f aca="false">ROUND([53]output_table!e14,6)</f>
         <v>0.003812</v>
       </c>
     </row>
@@ -32608,20 +31297,20 @@
       <c r="A19" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="41" t="n">
-        <f aca="false">ROUND([53]output_table!B15,6)</f>
+      <c r="B19" s="39" t="n">
+        <f aca="false">ROUND([53]output_table!b15,6)</f>
         <v>0.00019</v>
       </c>
-      <c r="C19" s="44" t="n">
-        <f aca="false">ROUND([53]output_table!D15,6)</f>
+      <c r="C19" s="42" t="n">
+        <f aca="false">ROUND([53]output_table!d15,6)</f>
         <v>0.000182</v>
       </c>
-      <c r="D19" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!C15,6)</f>
+      <c r="D19" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!c15,6)</f>
         <v>0.000262</v>
       </c>
-      <c r="E19" s="43" t="n">
-        <f aca="false">ROUND([53]output_table!E15,6)</f>
+      <c r="E19" s="41" t="n">
+        <f aca="false">ROUND([53]output_table!e15,6)</f>
         <v>0.000126</v>
       </c>
     </row>
@@ -32629,20 +31318,20 @@
       <c r="A20" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="41" t="n">
-        <f aca="false">ROUND([53]output_table!B16,6)</f>
+      <c r="B20" s="39" t="n">
+        <f aca="false">ROUND([53]output_table!b16,6)</f>
         <v>0.000296</v>
       </c>
-      <c r="C20" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!D16,6)</f>
+      <c r="C20" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!d16,6)</f>
         <v>0.000223</v>
       </c>
-      <c r="D20" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!C16,6)</f>
+      <c r="D20" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!c16,6)</f>
         <v>0.000305</v>
       </c>
-      <c r="E20" s="43" t="n">
-        <f aca="false">ROUND([53]output_table!E16,6)</f>
+      <c r="E20" s="41" t="n">
+        <f aca="false">ROUND([53]output_table!e16,6)</f>
         <v>0.000199</v>
       </c>
     </row>
@@ -32650,20 +31339,20 @@
       <c r="A21" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="41" t="n">
-        <f aca="false">ROUND([53]output_table!B17,6)</f>
+      <c r="B21" s="39" t="n">
+        <f aca="false">ROUND([53]output_table!b17,6)</f>
         <v>0.001049</v>
       </c>
-      <c r="C21" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!D17,6)</f>
+      <c r="C21" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!d17,6)</f>
         <v>0.005222</v>
       </c>
-      <c r="D21" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!C17,6)</f>
+      <c r="D21" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!c17,6)</f>
         <v>0.002422</v>
       </c>
-      <c r="E21" s="43" t="n">
-        <f aca="false">ROUND([53]output_table!E17,6)</f>
+      <c r="E21" s="41" t="n">
+        <f aca="false">ROUND([53]output_table!e17,6)</f>
         <v>0.007472</v>
       </c>
     </row>
@@ -32671,20 +31360,20 @@
       <c r="A22" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="41" t="n">
-        <f aca="false">ROUND([53]output_table!B18,6)</f>
+      <c r="B22" s="39" t="n">
+        <f aca="false">ROUND([53]output_table!b18,6)</f>
         <v>0.000336</v>
       </c>
-      <c r="C22" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!D18,6)</f>
+      <c r="C22" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!d18,6)</f>
         <v>0.000658</v>
       </c>
-      <c r="D22" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!C18,6)</f>
+      <c r="D22" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!c18,6)</f>
         <v>0.001236</v>
       </c>
-      <c r="E22" s="43" t="n">
-        <f aca="false">ROUND([53]output_table!E18,6)</f>
+      <c r="E22" s="41" t="n">
+        <f aca="false">ROUND([53]output_table!e18,6)</f>
         <v>0.002313</v>
       </c>
     </row>
@@ -32692,20 +31381,20 @@
       <c r="A23" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="41" t="n">
-        <f aca="false">ROUND([53]output_table!B19,6)</f>
+      <c r="B23" s="39" t="n">
+        <f aca="false">ROUND([53]output_table!b19,6)</f>
         <v>0.000842</v>
       </c>
-      <c r="C23" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!D19,6)</f>
+      <c r="C23" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!d19,6)</f>
         <v>0.002089</v>
       </c>
-      <c r="D23" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!C19,6)</f>
+      <c r="D23" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!c19,6)</f>
         <v>0.001259</v>
       </c>
-      <c r="E23" s="43" t="n">
-        <f aca="false">ROUND([53]output_table!E19,6)</f>
+      <c r="E23" s="41" t="n">
+        <f aca="false">ROUND([53]output_table!e19,6)</f>
         <v>0.003225</v>
       </c>
     </row>
@@ -32713,20 +31402,20 @@
       <c r="A24" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="41" t="n">
-        <f aca="false">ROUND([53]output_table!B20,6)</f>
+      <c r="B24" s="39" t="n">
+        <f aca="false">ROUND([53]output_table!b20,6)</f>
         <v>0.00156</v>
       </c>
-      <c r="C24" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!D20,6)</f>
+      <c r="C24" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!d20,6)</f>
         <v>0.001711</v>
       </c>
-      <c r="D24" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!C20,6)</f>
+      <c r="D24" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!c20,6)</f>
         <v>0.001661</v>
       </c>
-      <c r="E24" s="43" t="n">
-        <f aca="false">ROUND([53]output_table!E20,6)</f>
+      <c r="E24" s="41" t="n">
+        <f aca="false">ROUND([53]output_table!e20,6)</f>
         <v>0.002715</v>
       </c>
     </row>
@@ -32734,20 +31423,20 @@
       <c r="A25" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="41" t="n">
-        <f aca="false">ROUND([53]output_table!B21,6)</f>
+      <c r="B25" s="39" t="n">
+        <f aca="false">ROUND([53]output_table!b21,6)</f>
         <v>0.00165</v>
       </c>
-      <c r="C25" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!D21,6)</f>
+      <c r="C25" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!d21,6)</f>
         <v>0.002388</v>
       </c>
-      <c r="D25" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!C21,6)</f>
+      <c r="D25" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!c21,6)</f>
         <v>0.001631</v>
       </c>
-      <c r="E25" s="43" t="n">
-        <f aca="false">ROUND([53]output_table!E21,6)</f>
+      <c r="E25" s="41" t="n">
+        <f aca="false">ROUND([53]output_table!e21,6)</f>
         <v>0.002413</v>
       </c>
     </row>
@@ -32755,20 +31444,20 @@
       <c r="A26" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="41" t="n">
-        <f aca="false">ROUND([53]output_table!B22,6)</f>
+      <c r="B26" s="39" t="n">
+        <f aca="false">ROUND([53]output_table!b22,6)</f>
         <v>0.000853</v>
       </c>
-      <c r="C26" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!D22,6)</f>
+      <c r="C26" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!d22,6)</f>
         <v>0.000793</v>
       </c>
-      <c r="D26" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!C22,6)</f>
+      <c r="D26" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!c22,6)</f>
         <v>0.000863</v>
       </c>
-      <c r="E26" s="43" t="n">
-        <f aca="false">ROUND([53]output_table!E22,6)</f>
+      <c r="E26" s="41" t="n">
+        <f aca="false">ROUND([53]output_table!e22,6)</f>
         <v>0.000877</v>
       </c>
     </row>
@@ -32776,20 +31465,20 @@
       <c r="A27" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="41" t="n">
-        <f aca="false">ROUND([53]output_table!B23,6)</f>
+      <c r="B27" s="39" t="n">
+        <f aca="false">ROUND([53]output_table!b23,6)</f>
         <v>0.000241</v>
       </c>
-      <c r="C27" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!D23,6)</f>
+      <c r="C27" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!d23,6)</f>
         <v>0.000252</v>
       </c>
-      <c r="D27" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!C23,6)</f>
+      <c r="D27" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!c23,6)</f>
         <v>0.001229</v>
       </c>
-      <c r="E27" s="43" t="n">
-        <f aca="false">ROUND([53]output_table!E23,6)</f>
+      <c r="E27" s="41" t="n">
+        <f aca="false">ROUND([53]output_table!e23,6)</f>
         <v>0.000793</v>
       </c>
     </row>
@@ -32797,20 +31486,20 @@
       <c r="A28" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="41" t="n">
-        <f aca="false">ROUND([53]output_table!B24,6)</f>
+      <c r="B28" s="39" t="n">
+        <f aca="false">ROUND([53]output_table!b24,6)</f>
         <v>0.000346</v>
       </c>
-      <c r="C28" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!D24,6)</f>
+      <c r="C28" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!d24,6)</f>
         <v>0.000526</v>
       </c>
-      <c r="D28" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!C24,6)</f>
+      <c r="D28" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!c24,6)</f>
         <v>0.000592</v>
       </c>
-      <c r="E28" s="43" t="n">
-        <f aca="false">ROUND([53]output_table!E24,6)</f>
+      <c r="E28" s="41" t="n">
+        <f aca="false">ROUND([53]output_table!e24,6)</f>
         <v>0.000688</v>
       </c>
     </row>
@@ -32818,20 +31507,20 @@
       <c r="A29" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="41" t="n">
-        <f aca="false">ROUND([53]output_table!B25,6)</f>
+      <c r="B29" s="39" t="n">
+        <f aca="false">ROUND([53]output_table!b25,6)</f>
         <v>0.000236</v>
       </c>
-      <c r="C29" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!D25,6)</f>
+      <c r="C29" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!d25,6)</f>
         <v>0.000184</v>
       </c>
-      <c r="D29" s="42" t="n">
-        <f aca="false">ROUND([53]output_table!C25,6)</f>
+      <c r="D29" s="40" t="n">
+        <f aca="false">ROUND([53]output_table!c25,6)</f>
         <v>0.000595</v>
       </c>
-      <c r="E29" s="43" t="n">
-        <f aca="false">ROUND([53]output_table!E25,6)</f>
+      <c r="E29" s="41" t="n">
+        <f aca="false">ROUND([53]output_table!e25,6)</f>
         <v>0.000362</v>
       </c>
     </row>
@@ -32839,20 +31528,20 @@
       <c r="A30" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="45" t="n">
-        <f aca="false">ROUND([53]output_table!B26,6)</f>
+      <c r="B30" s="43" t="n">
+        <f aca="false">ROUND([53]output_table!b26,6)</f>
         <v>0.000262</v>
       </c>
-      <c r="C30" s="46" t="n">
-        <f aca="false">ROUND([53]output_table!D26,6)</f>
+      <c r="C30" s="44" t="n">
+        <f aca="false">ROUND([53]output_table!d26,6)</f>
         <v>0.000358</v>
       </c>
-      <c r="D30" s="46" t="n">
-        <f aca="false">ROUND([53]output_table!C26,6)</f>
+      <c r="D30" s="44" t="n">
+        <f aca="false">ROUND([53]output_table!c26,6)</f>
         <v>0.000266</v>
       </c>
-      <c r="E30" s="47" t="n">
-        <f aca="false">ROUND([53]output_table!E26,6)</f>
+      <c r="E30" s="45" t="n">
+        <f aca="false">ROUND([53]output_table!e26,6)</f>
         <v>0.000337</v>
       </c>
     </row>
@@ -32909,7 +31598,7 @@
       <c r="C2" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="46" t="s">
         <v>132</v>
       </c>
       <c r="K2" s="0" t="s">
@@ -32987,22 +31676,22 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="48"/>
+      <c r="B9" s="46"/>
       <c r="K9" s="0" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="48"/>
+      <c r="B10" s="46"/>
       <c r="K10" s="0" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="48"/>
+      <c r="B11" s="46"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="48"/>
+      <c r="B12" s="46"/>
       <c r="K12" s="0" t="s">
         <v>144</v>
       </c>
@@ -33442,7 +32131,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33464,10 +32153,10 @@
         <v>86</v>
       </c>
       <c r="B2" s="10" t="n">
-        <v>0.9539</v>
+        <v>0.958</v>
       </c>
       <c r="C2" s="10" t="n">
-        <v>0.9848</v>
+        <v>0.987</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -33475,10 +32164,10 @@
         <v>87</v>
       </c>
       <c r="B3" s="11" t="n">
-        <v>0.8722</v>
+        <v>0.879</v>
       </c>
       <c r="C3" s="10" t="n">
-        <v>0.8778</v>
+        <v>0.892</v>
       </c>
     </row>
   </sheetData>
@@ -33539,15 +32228,15 @@
         <v>91</v>
       </c>
       <c r="B6" s="17" t="n">
-        <f aca="false">[18]output_table!F2/100</f>
+        <f aca="false">[18]output_table!f2/100</f>
         <v>-0.0221545089782619</v>
       </c>
       <c r="C6" s="18" t="n">
-        <f aca="false">[18]output_table!G2/100</f>
+        <f aca="false">[18]output_table!g2/100</f>
         <v>-0.00911333428951213</v>
       </c>
       <c r="D6" s="19" t="n">
-        <f aca="false">[18]output_table!H2/100</f>
+        <f aca="false">[18]output_table!h2/100</f>
         <v>-0.0130411746887498</v>
       </c>
     </row>
@@ -33556,15 +32245,15 @@
         <v>92</v>
       </c>
       <c r="B7" s="21" t="n">
-        <f aca="false">[18]output_table!F3/100</f>
+        <f aca="false">[18]output_table!f3/100</f>
         <v>-0.433120897909035</v>
       </c>
       <c r="C7" s="22" t="n">
-        <f aca="false">[18]output_table!G3/100</f>
+        <f aca="false">[18]output_table!g3/100</f>
         <v>-1.17774992775076</v>
       </c>
       <c r="D7" s="23" t="n">
-        <f aca="false">[18]output_table!H3/100</f>
+        <f aca="false">[18]output_table!h3/100</f>
         <v>0.744629029841729</v>
       </c>
     </row>
@@ -33573,15 +32262,15 @@
         <v>93</v>
       </c>
       <c r="B8" s="21" t="n">
-        <f aca="false">[18]output_table!F4/100</f>
+        <f aca="false">[18]output_table!f4/100</f>
         <v>-0.660447852176205</v>
       </c>
       <c r="C8" s="22" t="n">
-        <f aca="false">[18]output_table!G4/100</f>
+        <f aca="false">[18]output_table!g4/100</f>
         <v>-1.07241937866316</v>
       </c>
       <c r="D8" s="23" t="n">
-        <f aca="false">[18]output_table!H4/100</f>
+        <f aca="false">[18]output_table!h4/100</f>
         <v>0.411971526486957</v>
       </c>
     </row>
@@ -33590,15 +32279,15 @@
         <v>94</v>
       </c>
       <c r="B9" s="21" t="n">
-        <f aca="false">[18]output_table!F5/100</f>
+        <f aca="false">[18]output_table!f5/100</f>
         <v>-0.728319328590585</v>
       </c>
       <c r="C9" s="22" t="n">
-        <f aca="false">[18]output_table!G5/100</f>
+        <f aca="false">[18]output_table!g5/100</f>
         <v>-1.00497135209422</v>
       </c>
       <c r="D9" s="23" t="n">
-        <f aca="false">[18]output_table!H5/100</f>
+        <f aca="false">[18]output_table!h5/100</f>
         <v>0.27665202350363</v>
       </c>
     </row>
@@ -33607,15 +32296,15 @@
         <v>95</v>
       </c>
       <c r="B10" s="21" t="n">
-        <f aca="false">[18]output_table!F6/100</f>
+        <f aca="false">[18]output_table!f6/100</f>
         <v>0.0139754215208166</v>
       </c>
       <c r="C10" s="22" t="n">
-        <f aca="false">[18]output_table!G6/100</f>
+        <f aca="false">[18]output_table!g6/100</f>
         <v>0.00450816716774414</v>
       </c>
       <c r="D10" s="23" t="n">
-        <f aca="false">[18]output_table!H6/100</f>
+        <f aca="false">[18]output_table!h6/100</f>
         <v>0.0094672543530725</v>
       </c>
     </row>
@@ -33624,19 +32313,19 @@
         <v>96</v>
       </c>
       <c r="B11" s="21" t="n">
-        <f aca="false">[18]output_table!F7/100</f>
+        <f aca="false">[18]output_table!f7/100</f>
         <v>-0.433679611094768</v>
       </c>
       <c r="C11" s="22" t="n">
-        <f aca="false">[18]output_table!G7/100</f>
+        <f aca="false">[18]output_table!g7/100</f>
         <v>-0.65228085976386</v>
       </c>
       <c r="D11" s="23" t="n">
-        <f aca="false">[18]output_table!H7/100</f>
+        <f aca="false">[18]output_table!h7/100</f>
         <v>0.218601248669092</v>
       </c>
       <c r="G11" s="10" t="n">
-        <f aca="false">[18]output_table!J14</f>
+        <f aca="false">[18]output_table!j14</f>
         <v>0</v>
       </c>
     </row>
@@ -33645,15 +32334,15 @@
         <v>97</v>
       </c>
       <c r="B12" s="21" t="n">
-        <f aca="false">[18]output_table!F8/100</f>
+        <f aca="false">[18]output_table!f8/100</f>
         <v>-0.780278672421773</v>
       </c>
       <c r="C12" s="22" t="n">
-        <f aca="false">[18]output_table!G8/100</f>
+        <f aca="false">[18]output_table!g8/100</f>
         <v>-0.400751090645278</v>
       </c>
       <c r="D12" s="23" t="n">
-        <f aca="false">[18]output_table!H8/100</f>
+        <f aca="false">[18]output_table!h8/100</f>
         <v>-0.379527581776495</v>
       </c>
     </row>
@@ -33662,15 +32351,15 @@
         <v>98</v>
       </c>
       <c r="B13" s="21" t="n">
-        <f aca="false">[18]output_table!F9/100</f>
+        <f aca="false">[18]output_table!f9/100</f>
         <v>-0.376731086291881</v>
       </c>
       <c r="C13" s="22" t="n">
-        <f aca="false">[18]output_table!G9/100</f>
+        <f aca="false">[18]output_table!g9/100</f>
         <v>-0.666145961002364</v>
       </c>
       <c r="D13" s="23" t="n">
-        <f aca="false">[18]output_table!H9/100</f>
+        <f aca="false">[18]output_table!h9/100</f>
         <v>0.289414874710483</v>
       </c>
     </row>
@@ -33679,15 +32368,15 @@
         <v>99</v>
       </c>
       <c r="B14" s="21" t="n">
-        <f aca="false">[18]output_table!F10/100</f>
+        <f aca="false">[18]output_table!f10/100</f>
         <v>-0.252279804698286</v>
       </c>
       <c r="C14" s="22" t="n">
-        <f aca="false">[18]output_table!G10/100</f>
+        <f aca="false">[18]output_table!g10/100</f>
         <v>0.25815178005355</v>
       </c>
       <c r="D14" s="23" t="n">
-        <f aca="false">[18]output_table!H10/100</f>
+        <f aca="false">[18]output_table!h10/100</f>
         <v>-0.510431584751836</v>
       </c>
     </row>
@@ -33696,15 +32385,15 @@
         <v>100</v>
       </c>
       <c r="B15" s="21" t="n">
-        <f aca="false">[18]output_table!F11/100</f>
+        <f aca="false">[18]output_table!f11/100</f>
         <v>-0.531895133245992</v>
       </c>
       <c r="C15" s="22" t="n">
-        <f aca="false">[18]output_table!G11/100</f>
+        <f aca="false">[18]output_table!g11/100</f>
         <v>-0.497258336292738</v>
       </c>
       <c r="D15" s="23" t="n">
-        <f aca="false">[18]output_table!H11/100</f>
+        <f aca="false">[18]output_table!h11/100</f>
         <v>-0.0346367969532541</v>
       </c>
     </row>
@@ -33713,15 +32402,15 @@
         <v>101</v>
       </c>
       <c r="B16" s="21" t="n">
-        <f aca="false">[18]output_table!F12/100</f>
+        <f aca="false">[18]output_table!f12/100</f>
         <v>-0.212922348691201</v>
       </c>
       <c r="C16" s="22" t="n">
-        <f aca="false">[18]output_table!G12/100</f>
+        <f aca="false">[18]output_table!g12/100</f>
         <v>0.0833280980652471</v>
       </c>
       <c r="D16" s="23" t="n">
-        <f aca="false">[18]output_table!H12/100</f>
+        <f aca="false">[18]output_table!h12/100</f>
         <v>-0.296250446756448</v>
       </c>
     </row>
@@ -33730,15 +32419,15 @@
         <v>102</v>
       </c>
       <c r="B17" s="21" t="n">
-        <f aca="false">[18]output_table!F13/100</f>
+        <f aca="false">[18]output_table!f13/100</f>
         <v>-0.160085169982907</v>
       </c>
       <c r="C17" s="22" t="n">
-        <f aca="false">[18]output_table!G13/100</f>
+        <f aca="false">[18]output_table!g13/100</f>
         <v>-0.0618892470746476</v>
       </c>
       <c r="D17" s="23" t="n">
-        <f aca="false">[18]output_table!H13/100</f>
+        <f aca="false">[18]output_table!h13/100</f>
         <v>-0.0981959229082593</v>
       </c>
     </row>
@@ -33747,15 +32436,15 @@
         <v>103</v>
       </c>
       <c r="B18" s="21" t="n">
-        <f aca="false">[18]output_table!F14/100</f>
+        <f aca="false">[18]output_table!f14/100</f>
         <v>-0.590338601722649</v>
       </c>
       <c r="C18" s="22" t="n">
-        <f aca="false">[18]output_table!G14/100</f>
+        <f aca="false">[18]output_table!g14/100</f>
         <v>-0.690114845065105</v>
       </c>
       <c r="D18" s="23" t="n">
-        <f aca="false">[18]output_table!H14/100</f>
+        <f aca="false">[18]output_table!h14/100</f>
         <v>0.0997762433424555</v>
       </c>
     </row>
@@ -33764,15 +32453,15 @@
         <v>104</v>
       </c>
       <c r="B19" s="21" t="n">
-        <f aca="false">[18]output_table!F15/100</f>
+        <f aca="false">[18]output_table!f15/100</f>
         <v>-0.27391295617386</v>
       </c>
       <c r="C19" s="22" t="n">
-        <f aca="false">[18]output_table!G15/100</f>
+        <f aca="false">[18]output_table!g15/100</f>
         <v>0.213245564808174</v>
       </c>
       <c r="D19" s="23" t="n">
-        <f aca="false">[18]output_table!H15/100</f>
+        <f aca="false">[18]output_table!h15/100</f>
         <v>-0.487158520982035</v>
       </c>
     </row>
@@ -33781,15 +32470,15 @@
         <v>105</v>
       </c>
       <c r="B20" s="21" t="n">
-        <f aca="false">[18]output_table!F16/100</f>
+        <f aca="false">[18]output_table!f16/100</f>
         <v>-0.0294010004448435</v>
       </c>
       <c r="C20" s="22" t="n">
-        <f aca="false">[18]output_table!G16/100</f>
+        <f aca="false">[18]output_table!g16/100</f>
         <v>0.0785068753927509</v>
       </c>
       <c r="D20" s="23" t="n">
-        <f aca="false">[18]output_table!H16/100</f>
+        <f aca="false">[18]output_table!h16/100</f>
         <v>-0.107907875837594</v>
       </c>
     </row>
@@ -33798,15 +32487,15 @@
         <v>106</v>
       </c>
       <c r="B21" s="21" t="n">
-        <f aca="false">[18]output_table!F17/100</f>
+        <f aca="false">[18]output_table!f17/100</f>
         <v>-0.566835882919984</v>
       </c>
       <c r="C21" s="22" t="n">
-        <f aca="false">[18]output_table!G17/100</f>
+        <f aca="false">[18]output_table!g17/100</f>
         <v>-0.92881450858457</v>
       </c>
       <c r="D21" s="23" t="n">
-        <f aca="false">[18]output_table!H17/100</f>
+        <f aca="false">[18]output_table!h17/100</f>
         <v>0.361978625664586</v>
       </c>
     </row>
@@ -33815,15 +32504,15 @@
         <v>107</v>
       </c>
       <c r="B22" s="21" t="n">
-        <f aca="false">[18]output_table!F18/100</f>
+        <f aca="false">[18]output_table!f18/100</f>
         <v>-0.727895603430568</v>
       </c>
       <c r="C22" s="22" t="n">
-        <f aca="false">[18]output_table!G18/100</f>
+        <f aca="false">[18]output_table!g18/100</f>
         <v>-1.33901309755984</v>
       </c>
       <c r="D22" s="23" t="n">
-        <f aca="false">[18]output_table!H18/100</f>
+        <f aca="false">[18]output_table!h18/100</f>
         <v>0.611117494129271</v>
       </c>
     </row>
@@ -33832,15 +32521,15 @@
         <v>108</v>
       </c>
       <c r="B23" s="21" t="n">
-        <f aca="false">[18]output_table!F19/100</f>
+        <f aca="false">[18]output_table!f19/100</f>
         <v>-0.331076231220729</v>
       </c>
       <c r="C23" s="22" t="n">
-        <f aca="false">[18]output_table!G19/100</f>
+        <f aca="false">[18]output_table!g19/100</f>
         <v>-0.901810823883885</v>
       </c>
       <c r="D23" s="23" t="n">
-        <f aca="false">[18]output_table!H19/100</f>
+        <f aca="false">[18]output_table!h19/100</f>
         <v>0.570734592663156</v>
       </c>
     </row>
@@ -33849,15 +32538,15 @@
         <v>109</v>
       </c>
       <c r="B24" s="21" t="n">
-        <f aca="false">[18]output_table!F20/100</f>
+        <f aca="false">[18]output_table!f20/100</f>
         <v>-0.0605215431474709</v>
       </c>
       <c r="C24" s="22" t="n">
-        <f aca="false">[18]output_table!G20/100</f>
+        <f aca="false">[18]output_table!g20/100</f>
         <v>-0.604896004583805</v>
       </c>
       <c r="D24" s="23" t="n">
-        <f aca="false">[18]output_table!H20/100</f>
+        <f aca="false">[18]output_table!h20/100</f>
         <v>0.544374461436334</v>
       </c>
     </row>
@@ -33866,15 +32555,15 @@
         <v>110</v>
       </c>
       <c r="B25" s="21" t="n">
-        <f aca="false">[18]output_table!F21/100</f>
+        <f aca="false">[18]output_table!f21/100</f>
         <v>0.0111564447797642</v>
       </c>
       <c r="C25" s="22" t="n">
-        <f aca="false">[18]output_table!G21/100</f>
+        <f aca="false">[18]output_table!g21/100</f>
         <v>-0.0156420783508161</v>
       </c>
       <c r="D25" s="23" t="n">
-        <f aca="false">[18]output_table!H21/100</f>
+        <f aca="false">[18]output_table!h21/100</f>
         <v>0.0267985231305803</v>
       </c>
     </row>
@@ -33883,15 +32572,15 @@
         <v>111</v>
       </c>
       <c r="B26" s="21" t="n">
-        <f aca="false">[18]output_table!F22/100</f>
+        <f aca="false">[18]output_table!f22/100</f>
         <v>-0.0118124121370011</v>
       </c>
       <c r="C26" s="22" t="n">
-        <f aca="false">[18]output_table!G22/100</f>
+        <f aca="false">[18]output_table!g22/100</f>
         <v>-0.0974899178588105</v>
       </c>
       <c r="D26" s="23" t="n">
-        <f aca="false">[18]output_table!H22/100</f>
+        <f aca="false">[18]output_table!h22/100</f>
         <v>0.0856775057218094</v>
       </c>
     </row>
@@ -33900,15 +32589,15 @@
         <v>112</v>
       </c>
       <c r="B27" s="21" t="n">
-        <f aca="false">[18]output_table!F23/100</f>
+        <f aca="false">[18]output_table!f23/100</f>
         <v>-0.803634917954918</v>
       </c>
       <c r="C27" s="22" t="n">
-        <f aca="false">[18]output_table!G23/100</f>
+        <f aca="false">[18]output_table!g23/100</f>
         <v>-0.440254261137247</v>
       </c>
       <c r="D27" s="23" t="n">
-        <f aca="false">[18]output_table!H23/100</f>
+        <f aca="false">[18]output_table!h23/100</f>
         <v>-0.363380656817671</v>
       </c>
     </row>
@@ -33917,15 +32606,15 @@
         <v>113</v>
       </c>
       <c r="B28" s="21" t="n">
-        <f aca="false">[18]output_table!F24/100</f>
+        <f aca="false">[18]output_table!f24/100</f>
         <v>-0.415722547186038</v>
       </c>
       <c r="C28" s="22" t="n">
-        <f aca="false">[18]output_table!G24/100</f>
+        <f aca="false">[18]output_table!g24/100</f>
         <v>-0.273969838845227</v>
       </c>
       <c r="D28" s="23" t="n">
-        <f aca="false">[18]output_table!H24/100</f>
+        <f aca="false">[18]output_table!h24/100</f>
         <v>-0.14175270834081</v>
       </c>
     </row>
@@ -33934,15 +32623,15 @@
         <v>114</v>
       </c>
       <c r="B29" s="21" t="n">
-        <f aca="false">[18]output_table!F25/100</f>
+        <f aca="false">[18]output_table!f25/100</f>
         <v>-0.603733044708156</v>
       </c>
       <c r="C29" s="22" t="n">
-        <f aca="false">[18]output_table!G25/100</f>
+        <f aca="false">[18]output_table!g25/100</f>
         <v>-0.299234728249103</v>
       </c>
       <c r="D29" s="23" t="n">
-        <f aca="false">[18]output_table!H25/100</f>
+        <f aca="false">[18]output_table!h25/100</f>
         <v>-0.304498316459053</v>
       </c>
     </row>
@@ -33951,15 +32640,15 @@
         <v>115</v>
       </c>
       <c r="B30" s="25" t="n">
-        <f aca="false">[18]output_table!F26/100</f>
+        <f aca="false">[18]output_table!f26/100</f>
         <v>-0.0166636915463004</v>
       </c>
       <c r="C30" s="26" t="n">
-        <f aca="false">[18]output_table!G26/100</f>
+        <f aca="false">[18]output_table!g26/100</f>
         <v>0.07864046370202</v>
       </c>
       <c r="D30" s="27" t="n">
-        <f aca="false">[18]output_table!H26/100</f>
+        <f aca="false">[18]output_table!h26/100</f>
         <v>-0.0953041552483204</v>
       </c>
     </row>
@@ -34057,15 +32746,15 @@
         <v>91</v>
       </c>
       <c r="B6" s="17" t="n">
-        <f aca="false">[43]output_table!F2/100</f>
+        <f aca="false">[43]output_table!f2/100</f>
         <v>-0.0368344802782356</v>
       </c>
       <c r="C6" s="18" t="n">
-        <f aca="false">[43]output_table!G2/100</f>
+        <f aca="false">[43]output_table!g2/100</f>
         <v>-0.0204935156919391</v>
       </c>
       <c r="D6" s="19" t="n">
-        <f aca="false">[43]output_table!H2/100</f>
+        <f aca="false">[43]output_table!h2/100</f>
         <v>-0.0163409645862965</v>
       </c>
     </row>
@@ -34074,15 +32763,15 @@
         <v>92</v>
       </c>
       <c r="B7" s="21" t="n">
-        <f aca="false">[43]output_table!F3/100</f>
+        <f aca="false">[43]output_table!f3/100</f>
         <v>-0.440140094369348</v>
       </c>
       <c r="C7" s="22" t="n">
-        <f aca="false">[43]output_table!G3/100</f>
+        <f aca="false">[43]output_table!g3/100</f>
         <v>-1.19741854848344</v>
       </c>
       <c r="D7" s="23" t="n">
-        <f aca="false">[43]output_table!H3/100</f>
+        <f aca="false">[43]output_table!h3/100</f>
         <v>0.757278454114092</v>
       </c>
     </row>
@@ -34091,15 +32780,15 @@
         <v>93</v>
       </c>
       <c r="B8" s="21" t="n">
-        <f aca="false">[43]output_table!F4/100</f>
+        <f aca="false">[43]output_table!f4/100</f>
         <v>-0.654424627370792</v>
       </c>
       <c r="C8" s="22" t="n">
-        <f aca="false">[43]output_table!G4/100</f>
+        <f aca="false">[43]output_table!g4/100</f>
         <v>-1.13741965609665</v>
       </c>
       <c r="D8" s="23" t="n">
-        <f aca="false">[43]output_table!H4/100</f>
+        <f aca="false">[43]output_table!h4/100</f>
         <v>0.482995028725854</v>
       </c>
     </row>
@@ -34108,15 +32797,15 @@
         <v>94</v>
       </c>
       <c r="B9" s="21" t="n">
-        <f aca="false">[43]output_table!F5/100</f>
+        <f aca="false">[43]output_table!f5/100</f>
         <v>-0.740145140803165</v>
       </c>
       <c r="C9" s="22" t="n">
-        <f aca="false">[43]output_table!G5/100</f>
+        <f aca="false">[43]output_table!g5/100</f>
         <v>-1.00914241611677</v>
       </c>
       <c r="D9" s="23" t="n">
-        <f aca="false">[43]output_table!H5/100</f>
+        <f aca="false">[43]output_table!h5/100</f>
         <v>0.2689972753136</v>
       </c>
     </row>
@@ -34125,15 +32814,15 @@
         <v>95</v>
       </c>
       <c r="B10" s="21" t="n">
-        <f aca="false">[43]output_table!F6/100</f>
+        <f aca="false">[43]output_table!f6/100</f>
         <v>0.0175778300760961</v>
       </c>
       <c r="C10" s="22" t="n">
-        <f aca="false">[43]output_table!G6/100</f>
+        <f aca="false">[43]output_table!g6/100</f>
         <v>0.0158502144961624</v>
       </c>
       <c r="D10" s="23" t="n">
-        <f aca="false">[43]output_table!H6/100</f>
+        <f aca="false">[43]output_table!h6/100</f>
         <v>0.00172761557993373</v>
       </c>
     </row>
@@ -34142,15 +32831,15 @@
         <v>96</v>
       </c>
       <c r="B11" s="21" t="n">
-        <f aca="false">[43]output_table!F7/100</f>
+        <f aca="false">[43]output_table!f7/100</f>
         <v>-0.441129422764084</v>
       </c>
       <c r="C11" s="22" t="n">
-        <f aca="false">[43]output_table!G7/100</f>
+        <f aca="false">[43]output_table!g7/100</f>
         <v>-0.669219745172582</v>
       </c>
       <c r="D11" s="23" t="n">
-        <f aca="false">[43]output_table!H7/100</f>
+        <f aca="false">[43]output_table!h7/100</f>
         <v>0.228090322408498</v>
       </c>
     </row>
@@ -34159,15 +32848,15 @@
         <v>97</v>
       </c>
       <c r="B12" s="21" t="n">
-        <f aca="false">[43]output_table!F8/100</f>
+        <f aca="false">[43]output_table!f8/100</f>
         <v>-0.76061931946419</v>
       </c>
       <c r="C12" s="22" t="n">
-        <f aca="false">[43]output_table!G8/100</f>
+        <f aca="false">[43]output_table!g8/100</f>
         <v>-0.418199982541437</v>
       </c>
       <c r="D12" s="23" t="n">
-        <f aca="false">[43]output_table!H8/100</f>
+        <f aca="false">[43]output_table!h8/100</f>
         <v>-0.342419336922753</v>
       </c>
     </row>
@@ -34176,15 +32865,15 @@
         <v>98</v>
       </c>
       <c r="B13" s="21" t="n">
-        <f aca="false">[43]output_table!F9/100</f>
+        <f aca="false">[43]output_table!f9/100</f>
         <v>-0.363190846226128</v>
       </c>
       <c r="C13" s="22" t="n">
-        <f aca="false">[43]output_table!G9/100</f>
+        <f aca="false">[43]output_table!g9/100</f>
         <v>-0.650987702939865</v>
       </c>
       <c r="D13" s="23" t="n">
-        <f aca="false">[43]output_table!H9/100</f>
+        <f aca="false">[43]output_table!h9/100</f>
         <v>0.287796856713736</v>
       </c>
     </row>
@@ -34193,15 +32882,15 @@
         <v>99</v>
       </c>
       <c r="B14" s="21" t="n">
-        <f aca="false">[43]output_table!F10/100</f>
+        <f aca="false">[43]output_table!f10/100</f>
         <v>-0.248354410483435</v>
       </c>
       <c r="C14" s="22" t="n">
-        <f aca="false">[43]output_table!G10/100</f>
+        <f aca="false">[43]output_table!g10/100</f>
         <v>0.248492068379413</v>
       </c>
       <c r="D14" s="23" t="n">
-        <f aca="false">[43]output_table!H10/100</f>
+        <f aca="false">[43]output_table!h10/100</f>
         <v>-0.496846478862848</v>
       </c>
     </row>
@@ -34210,15 +32899,15 @@
         <v>100</v>
       </c>
       <c r="B15" s="21" t="n">
-        <f aca="false">[43]output_table!F11/100</f>
+        <f aca="false">[43]output_table!f11/100</f>
         <v>-0.526769447454915</v>
       </c>
       <c r="C15" s="22" t="n">
-        <f aca="false">[43]output_table!G11/100</f>
+        <f aca="false">[43]output_table!g11/100</f>
         <v>-0.502685638651905</v>
       </c>
       <c r="D15" s="23" t="n">
-        <f aca="false">[43]output_table!H11/100</f>
+        <f aca="false">[43]output_table!h11/100</f>
         <v>-0.0240838088030105</v>
       </c>
     </row>
@@ -34227,15 +32916,15 @@
         <v>101</v>
       </c>
       <c r="B16" s="21" t="n">
-        <f aca="false">[43]output_table!F12/100</f>
+        <f aca="false">[43]output_table!f12/100</f>
         <v>-0.241781912513826</v>
       </c>
       <c r="C16" s="22" t="n">
-        <f aca="false">[43]output_table!G12/100</f>
+        <f aca="false">[43]output_table!g12/100</f>
         <v>0.0194246810330748</v>
       </c>
       <c r="D16" s="23" t="n">
-        <f aca="false">[43]output_table!H12/100</f>
+        <f aca="false">[43]output_table!h12/100</f>
         <v>-0.261206593546901</v>
       </c>
     </row>
@@ -34244,15 +32933,15 @@
         <v>102</v>
       </c>
       <c r="B17" s="21" t="n">
-        <f aca="false">[43]output_table!F13/100</f>
+        <f aca="false">[43]output_table!f13/100</f>
         <v>-0.154243959099375</v>
       </c>
       <c r="C17" s="22" t="n">
-        <f aca="false">[43]output_table!G13/100</f>
+        <f aca="false">[43]output_table!g13/100</f>
         <v>-0.073507926317903</v>
       </c>
       <c r="D17" s="23" t="n">
-        <f aca="false">[43]output_table!H13/100</f>
+        <f aca="false">[43]output_table!h13/100</f>
         <v>-0.0807360327814722</v>
       </c>
     </row>
@@ -34261,15 +32950,15 @@
         <v>103</v>
       </c>
       <c r="B18" s="21" t="n">
-        <f aca="false">[43]output_table!F14/100</f>
+        <f aca="false">[43]output_table!f14/100</f>
         <v>-0.552584704835349</v>
       </c>
       <c r="C18" s="22" t="n">
-        <f aca="false">[43]output_table!G14/100</f>
+        <f aca="false">[43]output_table!g14/100</f>
         <v>-0.675945641335112</v>
       </c>
       <c r="D18" s="23" t="n">
-        <f aca="false">[43]output_table!H14/100</f>
+        <f aca="false">[43]output_table!h14/100</f>
         <v>0.123360936499763</v>
       </c>
     </row>
@@ -34278,15 +32967,15 @@
         <v>104</v>
       </c>
       <c r="B19" s="21" t="n">
-        <f aca="false">[43]output_table!F15/100</f>
+        <f aca="false">[43]output_table!f15/100</f>
         <v>-0.264430390133735</v>
       </c>
       <c r="C19" s="22" t="n">
-        <f aca="false">[43]output_table!G15/100</f>
+        <f aca="false">[43]output_table!g15/100</f>
         <v>0.207193421501089</v>
       </c>
       <c r="D19" s="23" t="n">
-        <f aca="false">[43]output_table!H15/100</f>
+        <f aca="false">[43]output_table!h15/100</f>
         <v>-0.471623811634824</v>
       </c>
     </row>
@@ -34295,15 +32984,15 @@
         <v>105</v>
       </c>
       <c r="B20" s="21" t="n">
-        <f aca="false">[43]output_table!F16/100</f>
+        <f aca="false">[43]output_table!f16/100</f>
         <v>-0.0032784382817985</v>
       </c>
       <c r="C20" s="22" t="n">
-        <f aca="false">[43]output_table!G16/100</f>
+        <f aca="false">[43]output_table!g16/100</f>
         <v>0.0719705347634612</v>
       </c>
       <c r="D20" s="23" t="n">
-        <f aca="false">[43]output_table!H16/100</f>
+        <f aca="false">[43]output_table!h16/100</f>
         <v>-0.0752489730452597</v>
       </c>
     </row>
@@ -34312,15 +33001,15 @@
         <v>106</v>
       </c>
       <c r="B21" s="21" t="n">
-        <f aca="false">[43]output_table!F17/100</f>
+        <f aca="false">[43]output_table!f17/100</f>
         <v>-0.553756924030687</v>
       </c>
       <c r="C21" s="22" t="n">
-        <f aca="false">[43]output_table!G17/100</f>
+        <f aca="false">[43]output_table!g17/100</f>
         <v>-0.932719245157943</v>
       </c>
       <c r="D21" s="23" t="n">
-        <f aca="false">[43]output_table!H17/100</f>
+        <f aca="false">[43]output_table!h17/100</f>
         <v>0.378962321127256</v>
       </c>
     </row>
@@ -34329,15 +33018,15 @@
         <v>107</v>
       </c>
       <c r="B22" s="21" t="n">
-        <f aca="false">[43]output_table!F18/100</f>
+        <f aca="false">[43]output_table!f18/100</f>
         <v>-0.73577787542698</v>
       </c>
       <c r="C22" s="22" t="n">
-        <f aca="false">[43]output_table!G18/100</f>
+        <f aca="false">[43]output_table!g18/100</f>
         <v>-1.31922615625241</v>
       </c>
       <c r="D22" s="23" t="n">
-        <f aca="false">[43]output_table!H18/100</f>
+        <f aca="false">[43]output_table!h18/100</f>
         <v>0.583448280825429</v>
       </c>
     </row>
@@ -34346,15 +33035,15 @@
         <v>108</v>
       </c>
       <c r="B23" s="21" t="n">
-        <f aca="false">[43]output_table!F19/100</f>
+        <f aca="false">[43]output_table!f19/100</f>
         <v>-0.337516330750765</v>
       </c>
       <c r="C23" s="22" t="n">
-        <f aca="false">[43]output_table!G19/100</f>
+        <f aca="false">[43]output_table!g19/100</f>
         <v>-0.897126539665786</v>
       </c>
       <c r="D23" s="23" t="n">
-        <f aca="false">[43]output_table!H19/100</f>
+        <f aca="false">[43]output_table!h19/100</f>
         <v>0.559610208915021</v>
       </c>
     </row>
@@ -34363,15 +33052,15 @@
         <v>109</v>
       </c>
       <c r="B24" s="21" t="n">
-        <f aca="false">[43]output_table!F20/100</f>
+        <f aca="false">[43]output_table!f20/100</f>
         <v>-0.0663436110672812</v>
       </c>
       <c r="C24" s="22" t="n">
-        <f aca="false">[43]output_table!G20/100</f>
+        <f aca="false">[43]output_table!g20/100</f>
         <v>-0.608694151708548</v>
       </c>
       <c r="D24" s="23" t="n">
-        <f aca="false">[43]output_table!H20/100</f>
+        <f aca="false">[43]output_table!h20/100</f>
         <v>0.542350540641267</v>
       </c>
     </row>
@@ -34380,15 +33069,15 @@
         <v>110</v>
       </c>
       <c r="B25" s="21" t="n">
-        <f aca="false">[43]output_table!F21/100</f>
+        <f aca="false">[43]output_table!f21/100</f>
         <v>0.00730269411518984</v>
       </c>
       <c r="C25" s="22" t="n">
-        <f aca="false">[43]output_table!G21/100</f>
+        <f aca="false">[43]output_table!g21/100</f>
         <v>-0.0140575920381376</v>
       </c>
       <c r="D25" s="23" t="n">
-        <f aca="false">[43]output_table!H21/100</f>
+        <f aca="false">[43]output_table!h21/100</f>
         <v>0.0213602861533274</v>
       </c>
     </row>
@@ -34397,15 +33086,15 @@
         <v>111</v>
       </c>
       <c r="B26" s="21" t="n">
-        <f aca="false">[43]output_table!F22/100</f>
+        <f aca="false">[43]output_table!f22/100</f>
         <v>-0.00185495231833724</v>
       </c>
       <c r="C26" s="22" t="n">
-        <f aca="false">[43]output_table!G22/100</f>
+        <f aca="false">[43]output_table!g22/100</f>
         <v>-0.077447304375504</v>
       </c>
       <c r="D26" s="23" t="n">
-        <f aca="false">[43]output_table!H22/100</f>
+        <f aca="false">[43]output_table!h22/100</f>
         <v>0.0755923520571667</v>
       </c>
     </row>
@@ -34414,15 +33103,15 @@
         <v>112</v>
       </c>
       <c r="B27" s="21" t="n">
-        <f aca="false">[43]output_table!F23/100</f>
+        <f aca="false">[43]output_table!f23/100</f>
         <v>-0.799622225857276</v>
       </c>
       <c r="C27" s="22" t="n">
-        <f aca="false">[43]output_table!G23/100</f>
+        <f aca="false">[43]output_table!g23/100</f>
         <v>-0.439240047639952</v>
       </c>
       <c r="D27" s="23" t="n">
-        <f aca="false">[43]output_table!H23/100</f>
+        <f aca="false">[43]output_table!h23/100</f>
         <v>-0.360382178217324</v>
       </c>
     </row>
@@ -34431,15 +33120,15 @@
         <v>113</v>
       </c>
       <c r="B28" s="21" t="n">
-        <f aca="false">[43]output_table!F24/100</f>
+        <f aca="false">[43]output_table!f24/100</f>
         <v>-0.411216003064707</v>
       </c>
       <c r="C28" s="22" t="n">
-        <f aca="false">[43]output_table!G24/100</f>
+        <f aca="false">[43]output_table!g24/100</f>
         <v>-0.28237297814188</v>
       </c>
       <c r="D28" s="23" t="n">
-        <f aca="false">[43]output_table!H24/100</f>
+        <f aca="false">[43]output_table!h24/100</f>
         <v>-0.128843024922827</v>
       </c>
     </row>
@@ -34448,15 +33137,15 @@
         <v>114</v>
       </c>
       <c r="B29" s="21" t="n">
-        <f aca="false">[43]output_table!F25/100</f>
+        <f aca="false">[43]output_table!f25/100</f>
         <v>-0.590959822418176</v>
       </c>
       <c r="C29" s="22" t="n">
-        <f aca="false">[43]output_table!G25/100</f>
+        <f aca="false">[43]output_table!g25/100</f>
         <v>-0.302066401168096</v>
       </c>
       <c r="D29" s="23" t="n">
-        <f aca="false">[43]output_table!H25/100</f>
+        <f aca="false">[43]output_table!h25/100</f>
         <v>-0.288893421250081</v>
       </c>
     </row>
@@ -34465,15 +33154,15 @@
         <v>115</v>
       </c>
       <c r="B30" s="25" t="n">
-        <f aca="false">[43]output_table!F26/100</f>
+        <f aca="false">[43]output_table!f26/100</f>
         <v>-0.0219409361890993</v>
       </c>
       <c r="C30" s="26" t="n">
-        <f aca="false">[43]output_table!G26/100</f>
+        <f aca="false">[43]output_table!g26/100</f>
         <v>0.0645861672035352</v>
       </c>
       <c r="D30" s="27" t="n">
-        <f aca="false">[43]output_table!H26/100</f>
+        <f aca="false">[43]output_table!h26/100</f>
         <v>-0.0865271033926345</v>
       </c>
     </row>
@@ -34587,27 +33276,27 @@
         <v>91</v>
       </c>
       <c r="B7" s="17" t="n">
-        <f aca="false">[54]output_table!F2/100</f>
+        <f aca="false">[54]output_table!f2/100</f>
         <v>-0.172647272514739</v>
       </c>
       <c r="C7" s="18" t="n">
-        <f aca="false">[54]output_table!G2/100</f>
+        <f aca="false">[54]output_table!g2/100</f>
         <v>-0.0523745218634783</v>
       </c>
       <c r="D7" s="19" t="n">
-        <f aca="false">[54]output_table!H2/100</f>
+        <f aca="false">[54]output_table!h2/100</f>
         <v>-0.120272750651261</v>
       </c>
       <c r="E7" s="17" t="n">
-        <f aca="false">[55]output_table!F2/100</f>
+        <f aca="false">[55]output_table!f2/100</f>
         <v>0.00660719976540656</v>
       </c>
       <c r="F7" s="18" t="n">
-        <f aca="false">[55]output_table!G2/100</f>
+        <f aca="false">[55]output_table!g2/100</f>
         <v>0.00544383966328072</v>
       </c>
       <c r="G7" s="19" t="n">
-        <f aca="false">[55]output_table!H2/100</f>
+        <f aca="false">[55]output_table!h2/100</f>
         <v>0.00116336010212584</v>
       </c>
     </row>
@@ -34616,27 +33305,27 @@
         <v>92</v>
       </c>
       <c r="B8" s="21" t="n">
-        <f aca="false">[54]output_table!F3/100</f>
+        <f aca="false">[54]output_table!f3/100</f>
         <v>-0.663552630641328</v>
       </c>
       <c r="C8" s="22" t="n">
-        <f aca="false">[54]output_table!G3/100</f>
+        <f aca="false">[54]output_table!g3/100</f>
         <v>-1.40323981633381</v>
       </c>
       <c r="D8" s="23" t="n">
-        <f aca="false">[54]output_table!H3/100</f>
+        <f aca="false">[54]output_table!h3/100</f>
         <v>0.739687185692483</v>
       </c>
       <c r="E8" s="21" t="n">
-        <f aca="false">[55]output_table!F3/100</f>
+        <f aca="false">[55]output_table!f3/100</f>
         <v>-0.312868834741823</v>
       </c>
       <c r="F8" s="22" t="n">
-        <f aca="false">[55]output_table!G3/100</f>
+        <f aca="false">[55]output_table!g3/100</f>
         <v>-0.71040600952572</v>
       </c>
       <c r="G8" s="23" t="n">
-        <f aca="false">[55]output_table!H3/100</f>
+        <f aca="false">[55]output_table!h3/100</f>
         <v>0.397537174783897</v>
       </c>
     </row>
@@ -34645,27 +33334,27 @@
         <v>93</v>
       </c>
       <c r="B9" s="21" t="n">
-        <f aca="false">[54]output_table!F4/100</f>
+        <f aca="false">[54]output_table!f4/100</f>
         <v>-0.780748338263203</v>
       </c>
       <c r="C9" s="22" t="n">
-        <f aca="false">[54]output_table!G4/100</f>
+        <f aca="false">[54]output_table!g4/100</f>
         <v>-1.30227650431545</v>
       </c>
       <c r="D9" s="23" t="n">
-        <f aca="false">[54]output_table!H4/100</f>
+        <f aca="false">[54]output_table!h4/100</f>
         <v>0.521528166052247</v>
       </c>
       <c r="E9" s="21" t="n">
-        <f aca="false">[55]output_table!F4/100</f>
+        <f aca="false">[55]output_table!f4/100</f>
         <v>-0.538247580639704</v>
       </c>
       <c r="F9" s="22" t="n">
-        <f aca="false">[55]output_table!G4/100</f>
+        <f aca="false">[55]output_table!g4/100</f>
         <v>-0.741130999459054</v>
       </c>
       <c r="G9" s="23" t="n">
-        <f aca="false">[55]output_table!H4/100</f>
+        <f aca="false">[55]output_table!h4/100</f>
         <v>0.202883418819349</v>
       </c>
     </row>
@@ -34674,27 +33363,27 @@
         <v>94</v>
       </c>
       <c r="B10" s="21" t="n">
-        <f aca="false">[54]output_table!F5/100</f>
+        <f aca="false">[54]output_table!f5/100</f>
         <v>-0.794982414515835</v>
       </c>
       <c r="C10" s="22" t="n">
-        <f aca="false">[54]output_table!G5/100</f>
+        <f aca="false">[54]output_table!g5/100</f>
         <v>-1.12544915357088</v>
       </c>
       <c r="D10" s="23" t="n">
-        <f aca="false">[54]output_table!H5/100</f>
+        <f aca="false">[54]output_table!h5/100</f>
         <v>0.330466739055045</v>
       </c>
       <c r="E10" s="21" t="n">
-        <f aca="false">[55]output_table!F5/100</f>
+        <f aca="false">[55]output_table!f5/100</f>
         <v>-0.558040284061951</v>
       </c>
       <c r="F10" s="22" t="n">
-        <f aca="false">[55]output_table!G5/100</f>
+        <f aca="false">[55]output_table!g5/100</f>
         <v>-0.718645064731028</v>
       </c>
       <c r="G10" s="23" t="n">
-        <f aca="false">[55]output_table!H5/100</f>
+        <f aca="false">[55]output_table!h5/100</f>
         <v>0.160604780669077</v>
       </c>
     </row>
@@ -34703,27 +33392,27 @@
         <v>95</v>
       </c>
       <c r="B11" s="21" t="n">
-        <f aca="false">[54]output_table!F6/100</f>
+        <f aca="false">[54]output_table!f6/100</f>
         <v>0.00703705436951999</v>
       </c>
       <c r="C11" s="22" t="n">
-        <f aca="false">[54]output_table!G6/100</f>
+        <f aca="false">[54]output_table!g6/100</f>
         <v>0.00691690343866086</v>
       </c>
       <c r="D11" s="23" t="n">
-        <f aca="false">[54]output_table!H6/100</f>
+        <f aca="false">[54]output_table!h6/100</f>
         <v>0.000120150930859128</v>
       </c>
       <c r="E11" s="21" t="n">
-        <f aca="false">[55]output_table!F6/100</f>
+        <f aca="false">[55]output_table!f6/100</f>
         <v>0.00685953458538268</v>
       </c>
       <c r="F11" s="22" t="n">
-        <f aca="false">[55]output_table!G6/100</f>
+        <f aca="false">[55]output_table!g6/100</f>
         <v>-0.0015953000174914</v>
       </c>
       <c r="G11" s="23" t="n">
-        <f aca="false">[55]output_table!H6/100</f>
+        <f aca="false">[55]output_table!h6/100</f>
         <v>0.00845483460287408</v>
       </c>
     </row>
@@ -34732,27 +33421,27 @@
         <v>96</v>
       </c>
       <c r="B12" s="21" t="n">
-        <f aca="false">[54]output_table!F7/100</f>
+        <f aca="false">[54]output_table!f7/100</f>
         <v>-0.687750470961296</v>
       </c>
       <c r="C12" s="22" t="n">
-        <f aca="false">[54]output_table!G7/100</f>
+        <f aca="false">[54]output_table!g7/100</f>
         <v>-1.03698794253575</v>
       </c>
       <c r="D12" s="23" t="n">
-        <f aca="false">[54]output_table!H7/100</f>
+        <f aca="false">[54]output_table!h7/100</f>
         <v>0.349237471574451</v>
       </c>
       <c r="E12" s="21" t="n">
-        <f aca="false">[55]output_table!F7/100</f>
+        <f aca="false">[55]output_table!f7/100</f>
         <v>-0.185404906239554</v>
       </c>
       <c r="F12" s="22" t="n">
-        <f aca="false">[55]output_table!G7/100</f>
+        <f aca="false">[55]output_table!g7/100</f>
         <v>-0.252364556674054</v>
       </c>
       <c r="G12" s="23" t="n">
-        <f aca="false">[55]output_table!H7/100</f>
+        <f aca="false">[55]output_table!h7/100</f>
         <v>0.0669596504345001</v>
       </c>
     </row>
@@ -34761,27 +33450,27 @@
         <v>97</v>
       </c>
       <c r="B13" s="21" t="n">
-        <f aca="false">[54]output_table!F8/100</f>
+        <f aca="false">[54]output_table!f8/100</f>
         <v>-0.877844961483615</v>
       </c>
       <c r="C13" s="22" t="n">
-        <f aca="false">[54]output_table!G8/100</f>
+        <f aca="false">[54]output_table!g8/100</f>
         <v>-0.544075554034306</v>
       </c>
       <c r="D13" s="23" t="n">
-        <f aca="false">[54]output_table!H8/100</f>
+        <f aca="false">[54]output_table!h8/100</f>
         <v>-0.333769407449309</v>
       </c>
       <c r="E13" s="21" t="n">
-        <f aca="false">[55]output_table!F8/100</f>
+        <f aca="false">[55]output_table!f8/100</f>
         <v>-0.565165083099801</v>
       </c>
       <c r="F13" s="22" t="n">
-        <f aca="false">[55]output_table!G8/100</f>
+        <f aca="false">[55]output_table!g8/100</f>
         <v>-0.271465295738638</v>
       </c>
       <c r="G13" s="23" t="n">
-        <f aca="false">[55]output_table!H8/100</f>
+        <f aca="false">[55]output_table!h8/100</f>
         <v>-0.293699787361163</v>
       </c>
     </row>
@@ -34790,27 +33479,27 @@
         <v>98</v>
       </c>
       <c r="B14" s="21" t="n">
-        <f aca="false">[54]output_table!F9/100</f>
+        <f aca="false">[54]output_table!f9/100</f>
         <v>-0.59664553793865</v>
       </c>
       <c r="C14" s="22" t="n">
-        <f aca="false">[54]output_table!G9/100</f>
+        <f aca="false">[54]output_table!g9/100</f>
         <v>-1.21260499546549</v>
       </c>
       <c r="D14" s="23" t="n">
-        <f aca="false">[54]output_table!H9/100</f>
+        <f aca="false">[54]output_table!h9/100</f>
         <v>0.615959457526842</v>
       </c>
       <c r="E14" s="21" t="n">
-        <f aca="false">[55]output_table!F9/100</f>
+        <f aca="false">[55]output_table!f9/100</f>
         <v>-0.221663772312658</v>
       </c>
       <c r="F14" s="22" t="n">
-        <f aca="false">[55]output_table!G9/100</f>
+        <f aca="false">[55]output_table!g9/100</f>
         <v>-0.310105083624342</v>
       </c>
       <c r="G14" s="23" t="n">
-        <f aca="false">[55]output_table!H9/100</f>
+        <f aca="false">[55]output_table!h9/100</f>
         <v>0.088441311311684</v>
       </c>
     </row>
@@ -34819,27 +33508,27 @@
         <v>99</v>
       </c>
       <c r="B15" s="21" t="n">
-        <f aca="false">[54]output_table!F10/100</f>
+        <f aca="false">[54]output_table!f10/100</f>
         <v>-0.437613268463589</v>
       </c>
       <c r="C15" s="22" t="n">
-        <f aca="false">[54]output_table!G10/100</f>
+        <f aca="false">[54]output_table!g10/100</f>
         <v>0.574525423926411</v>
       </c>
       <c r="D15" s="23" t="n">
-        <f aca="false">[54]output_table!H10/100</f>
+        <f aca="false">[54]output_table!h10/100</f>
         <v>-1.01213869239</v>
       </c>
       <c r="E15" s="21" t="n">
-        <f aca="false">[55]output_table!F10/100</f>
+        <f aca="false">[55]output_table!f10/100</f>
         <v>-0.137750220644569</v>
       </c>
       <c r="F15" s="22" t="n">
-        <f aca="false">[55]output_table!G10/100</f>
+        <f aca="false">[55]output_table!g10/100</f>
         <v>0.103597349430215</v>
       </c>
       <c r="G15" s="23" t="n">
-        <f aca="false">[55]output_table!H10/100</f>
+        <f aca="false">[55]output_table!h10/100</f>
         <v>-0.241347570074785</v>
       </c>
     </row>
@@ -34848,27 +33537,27 @@
         <v>100</v>
       </c>
       <c r="B16" s="21" t="n">
-        <f aca="false">[54]output_table!F11/100</f>
+        <f aca="false">[54]output_table!f11/100</f>
         <v>-0.735208686722026</v>
       </c>
       <c r="C16" s="22" t="n">
-        <f aca="false">[54]output_table!G11/100</f>
+        <f aca="false">[54]output_table!g11/100</f>
         <v>-0.856206316426167</v>
       </c>
       <c r="D16" s="23" t="n">
-        <f aca="false">[54]output_table!H11/100</f>
+        <f aca="false">[54]output_table!h11/100</f>
         <v>0.120997629704141</v>
       </c>
       <c r="E16" s="21" t="n">
-        <f aca="false">[55]output_table!F11/100</f>
+        <f aca="false">[55]output_table!f11/100</f>
         <v>-0.285690673207729</v>
       </c>
       <c r="F16" s="22" t="n">
-        <f aca="false">[55]output_table!G11/100</f>
+        <f aca="false">[55]output_table!g11/100</f>
         <v>-0.192062867496044</v>
       </c>
       <c r="G16" s="23" t="n">
-        <f aca="false">[55]output_table!H11/100</f>
+        <f aca="false">[55]output_table!h11/100</f>
         <v>-0.0936278057116847</v>
       </c>
     </row>
@@ -34877,27 +33566,27 @@
         <v>101</v>
       </c>
       <c r="B17" s="21" t="n">
-        <f aca="false">[54]output_table!F12/100</f>
+        <f aca="false">[54]output_table!f12/100</f>
         <v>-0.572110635552616</v>
       </c>
       <c r="C17" s="22" t="n">
-        <f aca="false">[54]output_table!G12/100</f>
+        <f aca="false">[54]output_table!g12/100</f>
         <v>-0.122993973063135</v>
       </c>
       <c r="D17" s="23" t="n">
-        <f aca="false">[54]output_table!H12/100</f>
+        <f aca="false">[54]output_table!h12/100</f>
         <v>-0.449116662489481</v>
       </c>
       <c r="E17" s="21" t="n">
-        <f aca="false">[55]output_table!F12/100</f>
+        <f aca="false">[55]output_table!f12/100</f>
         <v>-0.0594401104670541</v>
       </c>
       <c r="F17" s="22" t="n">
-        <f aca="false">[55]output_table!G12/100</f>
+        <f aca="false">[55]output_table!g12/100</f>
         <v>0.15554630684484</v>
       </c>
       <c r="G17" s="23" t="n">
-        <f aca="false">[55]output_table!H12/100</f>
+        <f aca="false">[55]output_table!h12/100</f>
         <v>-0.214986417311894</v>
       </c>
     </row>
@@ -34906,27 +33595,27 @@
         <v>102</v>
       </c>
       <c r="B18" s="21" t="n">
-        <f aca="false">[54]output_table!F13/100</f>
+        <f aca="false">[54]output_table!f13/100</f>
         <v>-0.378638395176289</v>
       </c>
       <c r="C18" s="22" t="n">
-        <f aca="false">[54]output_table!G13/100</f>
+        <f aca="false">[54]output_table!g13/100</f>
         <v>-0.175199583438792</v>
       </c>
       <c r="D18" s="23" t="n">
-        <f aca="false">[54]output_table!H13/100</f>
+        <f aca="false">[54]output_table!h13/100</f>
         <v>-0.203438811737496</v>
       </c>
       <c r="E18" s="21" t="n">
-        <f aca="false">[55]output_table!F13/100</f>
+        <f aca="false">[55]output_table!f13/100</f>
         <v>-0.0521219667440007</v>
       </c>
       <c r="F18" s="22" t="n">
-        <f aca="false">[55]output_table!G13/100</f>
+        <f aca="false">[55]output_table!g13/100</f>
         <v>-0.00582801298973885</v>
       </c>
       <c r="G18" s="23" t="n">
-        <f aca="false">[55]output_table!H13/100</f>
+        <f aca="false">[55]output_table!h13/100</f>
         <v>-0.0462939537542619</v>
       </c>
     </row>
@@ -34935,27 +33624,27 @@
         <v>103</v>
       </c>
       <c r="B19" s="21" t="n">
-        <f aca="false">[54]output_table!F14/100</f>
+        <f aca="false">[54]output_table!f14/100</f>
         <v>-0.705836055853548</v>
       </c>
       <c r="C19" s="22" t="n">
-        <f aca="false">[54]output_table!G14/100</f>
+        <f aca="false">[54]output_table!g14/100</f>
         <v>-1.0121423428337</v>
       </c>
       <c r="D19" s="23" t="n">
-        <f aca="false">[54]output_table!H14/100</f>
+        <f aca="false">[54]output_table!h14/100</f>
         <v>0.306306286980154</v>
       </c>
       <c r="E19" s="21" t="n">
-        <f aca="false">[55]output_table!F14/100</f>
+        <f aca="false">[55]output_table!f14/100</f>
         <v>-0.455650307090274</v>
       </c>
       <c r="F19" s="22" t="n">
-        <f aca="false">[55]output_table!G14/100</f>
+        <f aca="false">[55]output_table!g14/100</f>
         <v>-0.288714247265307</v>
       </c>
       <c r="G19" s="23" t="n">
-        <f aca="false">[55]output_table!H14/100</f>
+        <f aca="false">[55]output_table!h14/100</f>
         <v>-0.166936059824967</v>
       </c>
     </row>
@@ -34964,27 +33653,27 @@
         <v>104</v>
       </c>
       <c r="B20" s="21" t="n">
-        <f aca="false">[54]output_table!F15/100</f>
+        <f aca="false">[54]output_table!f15/100</f>
         <v>-0.489265388074369</v>
       </c>
       <c r="C20" s="22" t="n">
-        <f aca="false">[54]output_table!G15/100</f>
+        <f aca="false">[54]output_table!g15/100</f>
         <v>0.426322822915167</v>
       </c>
       <c r="D20" s="23" t="n">
-        <f aca="false">[54]output_table!H15/100</f>
+        <f aca="false">[54]output_table!h15/100</f>
         <v>-0.915588210989536</v>
       </c>
       <c r="E20" s="21" t="n">
-        <f aca="false">[55]output_table!F15/100</f>
+        <f aca="false">[55]output_table!f15/100</f>
         <v>-0.15417278391941</v>
       </c>
       <c r="F20" s="22" t="n">
-        <f aca="false">[55]output_table!G15/100</f>
+        <f aca="false">[55]output_table!g15/100</f>
         <v>0.0899078529366727</v>
       </c>
       <c r="G20" s="23" t="n">
-        <f aca="false">[55]output_table!H15/100</f>
+        <f aca="false">[55]output_table!h15/100</f>
         <v>-0.244080636856083</v>
       </c>
     </row>
@@ -34993,27 +33682,27 @@
         <v>105</v>
       </c>
       <c r="B21" s="21" t="n">
-        <f aca="false">[54]output_table!F16/100</f>
+        <f aca="false">[54]output_table!f16/100</f>
         <v>-0.105358678777485</v>
       </c>
       <c r="C21" s="22" t="n">
-        <f aca="false">[54]output_table!G16/100</f>
+        <f aca="false">[54]output_table!g16/100</f>
         <v>0.0915303477446509</v>
       </c>
       <c r="D21" s="23" t="n">
-        <f aca="false">[54]output_table!H16/100</f>
+        <f aca="false">[54]output_table!h16/100</f>
         <v>-0.196889026522136</v>
       </c>
       <c r="E21" s="21" t="n">
-        <f aca="false">[55]output_table!F16/100</f>
+        <f aca="false">[55]output_table!f16/100</f>
         <v>0.0122338089054342</v>
       </c>
       <c r="F21" s="22" t="n">
-        <f aca="false">[55]output_table!G16/100</f>
+        <f aca="false">[55]output_table!g16/100</f>
         <v>0.0470394667257341</v>
       </c>
       <c r="G21" s="23" t="n">
-        <f aca="false">[55]output_table!H16/100</f>
+        <f aca="false">[55]output_table!h16/100</f>
         <v>-0.0348056578202998</v>
       </c>
     </row>
@@ -35022,27 +33711,27 @@
         <v>106</v>
       </c>
       <c r="B22" s="21" t="n">
-        <f aca="false">[54]output_table!F17/100</f>
+        <f aca="false">[54]output_table!f17/100</f>
         <v>-0.748023312458015</v>
       </c>
       <c r="C22" s="22" t="n">
-        <f aca="false">[54]output_table!G17/100</f>
+        <f aca="false">[54]output_table!g17/100</f>
         <v>-1.46451375262106</v>
       </c>
       <c r="D22" s="23" t="n">
-        <f aca="false">[54]output_table!H17/100</f>
+        <f aca="false">[54]output_table!h17/100</f>
         <v>0.716490440163041</v>
       </c>
       <c r="E22" s="21" t="n">
-        <f aca="false">[55]output_table!F17/100</f>
+        <f aca="false">[55]output_table!f17/100</f>
         <v>-0.331438500709249</v>
       </c>
       <c r="F22" s="22" t="n">
-        <f aca="false">[55]output_table!G17/100</f>
+        <f aca="false">[55]output_table!g17/100</f>
         <v>-0.438014034880043</v>
       </c>
       <c r="G22" s="23" t="n">
-        <f aca="false">[55]output_table!H17/100</f>
+        <f aca="false">[55]output_table!h17/100</f>
         <v>0.106575534170795</v>
       </c>
     </row>
@@ -35051,27 +33740,27 @@
         <v>107</v>
       </c>
       <c r="B23" s="21" t="n">
-        <f aca="false">[54]output_table!F18/100</f>
+        <f aca="false">[54]output_table!f18/100</f>
         <v>-0.852391496013064</v>
       </c>
       <c r="C23" s="22" t="n">
-        <f aca="false">[54]output_table!G18/100</f>
+        <f aca="false">[54]output_table!g18/100</f>
         <v>-1.5121306214398</v>
       </c>
       <c r="D23" s="23" t="n">
-        <f aca="false">[54]output_table!H18/100</f>
+        <f aca="false">[54]output_table!h18/100</f>
         <v>0.659739125426737</v>
       </c>
       <c r="E23" s="21" t="n">
-        <f aca="false">[55]output_table!F18/100</f>
+        <f aca="false">[55]output_table!f18/100</f>
         <v>-0.53338960281608</v>
       </c>
       <c r="F23" s="22" t="n">
-        <f aca="false">[55]output_table!G18/100</f>
+        <f aca="false">[55]output_table!g18/100</f>
         <v>-0.899121368380541</v>
       </c>
       <c r="G23" s="23" t="n">
-        <f aca="false">[55]output_table!H18/100</f>
+        <f aca="false">[55]output_table!h18/100</f>
         <v>0.365731765564461</v>
       </c>
     </row>
@@ -35080,27 +33769,27 @@
         <v>108</v>
       </c>
       <c r="B24" s="21" t="n">
-        <f aca="false">[54]output_table!F19/100</f>
+        <f aca="false">[54]output_table!f19/100</f>
         <v>-0.613974821982836</v>
       </c>
       <c r="C24" s="22" t="n">
-        <f aca="false">[54]output_table!G19/100</f>
+        <f aca="false">[54]output_table!g19/100</f>
         <v>-1.36331547703165</v>
       </c>
       <c r="D24" s="23" t="n">
-        <f aca="false">[54]output_table!H19/100</f>
+        <f aca="false">[54]output_table!h19/100</f>
         <v>0.74934065504881</v>
       </c>
       <c r="E24" s="21" t="n">
-        <f aca="false">[55]output_table!F19/100</f>
+        <f aca="false">[55]output_table!f19/100</f>
         <v>-0.11919619690761</v>
       </c>
       <c r="F24" s="22" t="n">
-        <f aca="false">[55]output_table!G19/100</f>
+        <f aca="false">[55]output_table!g19/100</f>
         <v>-0.361527256246215</v>
       </c>
       <c r="G24" s="23" t="n">
-        <f aca="false">[55]output_table!H19/100</f>
+        <f aca="false">[55]output_table!h19/100</f>
         <v>0.242331059338605</v>
       </c>
     </row>
@@ -35109,27 +33798,27 @@
         <v>109</v>
       </c>
       <c r="B25" s="21" t="n">
-        <f aca="false">[54]output_table!F20/100</f>
+        <f aca="false">[54]output_table!f20/100</f>
         <v>-0.431539115860251</v>
       </c>
       <c r="C25" s="22" t="n">
-        <f aca="false">[54]output_table!G20/100</f>
+        <f aca="false">[54]output_table!g20/100</f>
         <v>-1.16825454332009</v>
       </c>
       <c r="D25" s="23" t="n">
-        <f aca="false">[54]output_table!H20/100</f>
+        <f aca="false">[54]output_table!h20/100</f>
         <v>0.736715427459835</v>
       </c>
       <c r="E25" s="21" t="n">
-        <f aca="false">[55]output_table!F20/100</f>
+        <f aca="false">[55]output_table!f20/100</f>
         <v>0.0497951038606629</v>
       </c>
       <c r="F25" s="22" t="n">
-        <f aca="false">[55]output_table!G20/100</f>
+        <f aca="false">[55]output_table!g20/100</f>
         <v>-0.184784413066226</v>
       </c>
       <c r="G25" s="23" t="n">
-        <f aca="false">[55]output_table!H20/100</f>
+        <f aca="false">[55]output_table!h20/100</f>
         <v>0.234579516926889</v>
       </c>
     </row>
@@ -35138,27 +33827,27 @@
         <v>110</v>
       </c>
       <c r="B26" s="21" t="n">
-        <f aca="false">[54]output_table!F21/100</f>
+        <f aca="false">[54]output_table!f21/100</f>
         <v>0.0196258704713315</v>
       </c>
       <c r="C26" s="22" t="n">
-        <f aca="false">[54]output_table!G21/100</f>
+        <f aca="false">[54]output_table!g21/100</f>
         <v>0.000564162461738484</v>
       </c>
       <c r="D26" s="23" t="n">
-        <f aca="false">[54]output_table!H21/100</f>
+        <f aca="false">[54]output_table!h21/100</f>
         <v>0.019061708009593</v>
       </c>
       <c r="E26" s="21" t="n">
-        <f aca="false">[55]output_table!F21/100</f>
+        <f aca="false">[55]output_table!f21/100</f>
         <v>0.0018255093630343</v>
       </c>
       <c r="F26" s="22" t="n">
-        <f aca="false">[55]output_table!G21/100</f>
+        <f aca="false">[55]output_table!g21/100</f>
         <v>-0.0177008830992428</v>
       </c>
       <c r="G26" s="23" t="n">
-        <f aca="false">[55]output_table!H21/100</f>
+        <f aca="false">[55]output_table!h21/100</f>
         <v>0.0195263924622772</v>
       </c>
     </row>
@@ -35167,27 +33856,27 @@
         <v>111</v>
       </c>
       <c r="B27" s="21" t="n">
-        <f aca="false">[54]output_table!F22/100</f>
+        <f aca="false">[54]output_table!f22/100</f>
         <v>-0.222874521682159</v>
       </c>
       <c r="C27" s="22" t="n">
-        <f aca="false">[54]output_table!G22/100</f>
+        <f aca="false">[54]output_table!g22/100</f>
         <v>-0.548672285741576</v>
       </c>
       <c r="D27" s="23" t="n">
-        <f aca="false">[54]output_table!H22/100</f>
+        <f aca="false">[54]output_table!h22/100</f>
         <v>0.325797764059417</v>
       </c>
       <c r="E27" s="21" t="n">
-        <f aca="false">[55]output_table!F22/100</f>
+        <f aca="false">[55]output_table!f22/100</f>
         <v>0.035726531364414</v>
       </c>
       <c r="F27" s="22" t="n">
-        <f aca="false">[55]output_table!G22/100</f>
+        <f aca="false">[55]output_table!g22/100</f>
         <v>0.0447780142960186</v>
       </c>
       <c r="G27" s="23" t="n">
-        <f aca="false">[55]output_table!H22/100</f>
+        <f aca="false">[55]output_table!h22/100</f>
         <v>-0.00905148293160464</v>
       </c>
     </row>
@@ -35196,27 +33885,27 @@
         <v>112</v>
       </c>
       <c r="B28" s="21" t="n">
-        <f aca="false">[54]output_table!F23/100</f>
+        <f aca="false">[54]output_table!f23/100</f>
         <v>-0.908740640607595</v>
       </c>
       <c r="C28" s="22" t="n">
-        <f aca="false">[54]output_table!G23/100</f>
+        <f aca="false">[54]output_table!g23/100</f>
         <v>-0.593775697219967</v>
       </c>
       <c r="D28" s="23" t="n">
-        <f aca="false">[54]output_table!H23/100</f>
+        <f aca="false">[54]output_table!h23/100</f>
         <v>-0.314964943387628</v>
       </c>
       <c r="E28" s="21" t="n">
-        <f aca="false">[55]output_table!F23/100</f>
+        <f aca="false">[55]output_table!f23/100</f>
         <v>-0.594193961025428</v>
       </c>
       <c r="F28" s="22" t="n">
-        <f aca="false">[55]output_table!G23/100</f>
+        <f aca="false">[55]output_table!g23/100</f>
         <v>-0.224925283022025</v>
       </c>
       <c r="G28" s="23" t="n">
-        <f aca="false">[55]output_table!H23/100</f>
+        <f aca="false">[55]output_table!h23/100</f>
         <v>-0.369268678003403</v>
       </c>
     </row>
@@ -35225,27 +33914,27 @@
         <v>113</v>
       </c>
       <c r="B29" s="21" t="n">
-        <f aca="false">[54]output_table!F24/100</f>
+        <f aca="false">[54]output_table!f24/100</f>
         <v>-0.56726397623179</v>
       </c>
       <c r="C29" s="22" t="n">
-        <f aca="false">[54]output_table!G24/100</f>
+        <f aca="false">[54]output_table!g24/100</f>
         <v>-0.621777050862891</v>
       </c>
       <c r="D29" s="23" t="n">
-        <f aca="false">[54]output_table!H24/100</f>
+        <f aca="false">[54]output_table!h24/100</f>
         <v>0.0545130746311008</v>
       </c>
       <c r="E29" s="21" t="n">
-        <f aca="false">[55]output_table!F24/100</f>
+        <f aca="false">[55]output_table!f24/100</f>
         <v>-0.274513111781875</v>
       </c>
       <c r="F29" s="22" t="n">
-        <f aca="false">[55]output_table!G24/100</f>
+        <f aca="false">[55]output_table!g24/100</f>
         <v>-0.0921451104842669</v>
       </c>
       <c r="G29" s="23" t="n">
-        <f aca="false">[55]output_table!H24/100</f>
+        <f aca="false">[55]output_table!h24/100</f>
         <v>-0.182368001297608</v>
       </c>
     </row>
@@ -35254,27 +33943,27 @@
         <v>114</v>
       </c>
       <c r="B30" s="21" t="n">
-        <f aca="false">[54]output_table!F25/100</f>
+        <f aca="false">[54]output_table!f25/100</f>
         <v>-0.786598262593196</v>
       </c>
       <c r="C30" s="22" t="n">
-        <f aca="false">[54]output_table!G25/100</f>
+        <f aca="false">[54]output_table!g25/100</f>
         <v>-0.494512667848739</v>
       </c>
       <c r="D30" s="23" t="n">
-        <f aca="false">[54]output_table!H25/100</f>
+        <f aca="false">[54]output_table!h25/100</f>
         <v>-0.292085594744456</v>
       </c>
       <c r="E30" s="21" t="n">
-        <f aca="false">[55]output_table!F25/100</f>
+        <f aca="false">[55]output_table!f25/100</f>
         <v>-0.353417446059145</v>
       </c>
       <c r="F30" s="22" t="n">
-        <f aca="false">[55]output_table!G25/100</f>
+        <f aca="false">[55]output_table!g25/100</f>
         <v>-0.111732589346991</v>
       </c>
       <c r="G30" s="23" t="n">
-        <f aca="false">[55]output_table!H25/100</f>
+        <f aca="false">[55]output_table!h25/100</f>
         <v>-0.241684856712154</v>
       </c>
     </row>
@@ -35283,27 +33972,27 @@
         <v>115</v>
       </c>
       <c r="B31" s="25" t="n">
-        <f aca="false">[54]output_table!F26/100</f>
+        <f aca="false">[54]output_table!f26/100</f>
         <v>-0.00925451908309994</v>
       </c>
       <c r="C31" s="26" t="n">
-        <f aca="false">[54]output_table!G26/100</f>
+        <f aca="false">[54]output_table!g26/100</f>
         <v>0.163029611087207</v>
       </c>
       <c r="D31" s="27" t="n">
-        <f aca="false">[54]output_table!H26/100</f>
+        <f aca="false">[54]output_table!h26/100</f>
         <v>-0.172284130170306</v>
       </c>
       <c r="E31" s="25" t="n">
-        <f aca="false">[55]output_table!F26/100</f>
+        <f aca="false">[55]output_table!f26/100</f>
         <v>0.00435528754233677</v>
       </c>
       <c r="F31" s="26" t="n">
-        <f aca="false">[55]output_table!G26/100</f>
+        <f aca="false">[55]output_table!g26/100</f>
         <v>0.0375424044900677</v>
       </c>
       <c r="G31" s="27" t="n">
-        <f aca="false">[55]output_table!H26/100</f>
+        <f aca="false">[55]output_table!h26/100</f>
         <v>-0.0331871169477309</v>
       </c>
     </row>
@@ -35411,15 +34100,15 @@
         <v>91</v>
       </c>
       <c r="B6" s="17" t="n">
-        <f aca="false">[56]output_table!F2/100</f>
+        <f aca="false">[56]output_table!f2/100</f>
         <v>0.0172837411746847</v>
       </c>
       <c r="C6" s="18" t="n">
-        <f aca="false">[56]output_table!G2/100</f>
+        <f aca="false">[56]output_table!g2/100</f>
         <v>-0.00319861190268695</v>
       </c>
       <c r="D6" s="19" t="n">
-        <f aca="false">[56]output_table!H2/100</f>
+        <f aca="false">[56]output_table!h2/100</f>
         <v>0.0204823530773717</v>
       </c>
     </row>
@@ -35428,15 +34117,15 @@
         <v>92</v>
       </c>
       <c r="B7" s="21" t="n">
-        <f aca="false">[56]output_table!F3/100</f>
+        <f aca="false">[56]output_table!f3/100</f>
         <v>-0.0380836459747178</v>
       </c>
       <c r="C7" s="22" t="n">
-        <f aca="false">[56]output_table!G3/100</f>
+        <f aca="false">[56]output_table!g3/100</f>
         <v>-0.0915721255699018</v>
       </c>
       <c r="D7" s="23" t="n">
-        <f aca="false">[56]output_table!H3/100</f>
+        <f aca="false">[56]output_table!h3/100</f>
         <v>0.053488479595184</v>
       </c>
     </row>
@@ -35445,15 +34134,15 @@
         <v>93</v>
       </c>
       <c r="B8" s="21" t="n">
-        <f aca="false">[56]output_table!F4/100</f>
+        <f aca="false">[56]output_table!f4/100</f>
         <v>-0.106898268307279</v>
       </c>
       <c r="C8" s="22" t="n">
-        <f aca="false">[56]output_table!G4/100</f>
+        <f aca="false">[56]output_table!g4/100</f>
         <v>-0.345968727726989</v>
       </c>
       <c r="D8" s="23" t="n">
-        <f aca="false">[56]output_table!H4/100</f>
+        <f aca="false">[56]output_table!h4/100</f>
         <v>0.23907045941971</v>
       </c>
     </row>
@@ -35462,15 +34151,15 @@
         <v>94</v>
       </c>
       <c r="B9" s="21" t="n">
-        <f aca="false">[56]output_table!F5/100</f>
+        <f aca="false">[56]output_table!f5/100</f>
         <v>-0.0798928341748596</v>
       </c>
       <c r="C9" s="22" t="n">
-        <f aca="false">[56]output_table!G5/100</f>
+        <f aca="false">[56]output_table!g5/100</f>
         <v>-0.0963795578217202</v>
       </c>
       <c r="D9" s="23" t="n">
-        <f aca="false">[56]output_table!H5/100</f>
+        <f aca="false">[56]output_table!h5/100</f>
         <v>0.0164867236468606</v>
       </c>
     </row>
@@ -35479,15 +34168,15 @@
         <v>95</v>
       </c>
       <c r="B10" s="21" t="n">
-        <f aca="false">[56]output_table!F6/100</f>
+        <f aca="false">[56]output_table!f6/100</f>
         <v>0.00842674226392593</v>
       </c>
       <c r="C10" s="22" t="n">
-        <f aca="false">[56]output_table!G6/100</f>
+        <f aca="false">[56]output_table!g6/100</f>
         <v>0.00241718111389184</v>
       </c>
       <c r="D10" s="23" t="n">
-        <f aca="false">[56]output_table!H6/100</f>
+        <f aca="false">[56]output_table!h6/100</f>
         <v>0.00600956115003408</v>
       </c>
     </row>
@@ -35496,15 +34185,15 @@
         <v>96</v>
       </c>
       <c r="B11" s="21" t="n">
-        <f aca="false">[56]output_table!F7/100</f>
+        <f aca="false">[56]output_table!f7/100</f>
         <v>-0.0510442581296863</v>
       </c>
       <c r="C11" s="22" t="n">
-        <f aca="false">[56]output_table!G7/100</f>
+        <f aca="false">[56]output_table!g7/100</f>
         <v>-0.0520461432895433</v>
       </c>
       <c r="D11" s="23" t="n">
-        <f aca="false">[56]output_table!H7/100</f>
+        <f aca="false">[56]output_table!h7/100</f>
         <v>0.00100188515985698</v>
       </c>
     </row>
@@ -35513,15 +34202,15 @@
         <v>97</v>
       </c>
       <c r="B12" s="21" t="n">
-        <f aca="false">[56]output_table!F8/100</f>
+        <f aca="false">[56]output_table!f8/100</f>
         <v>-0.120903505278588</v>
       </c>
       <c r="C12" s="22" t="n">
-        <f aca="false">[56]output_table!G8/100</f>
+        <f aca="false">[56]output_table!g8/100</f>
         <v>-0.10446459171222</v>
       </c>
       <c r="D12" s="23" t="n">
-        <f aca="false">[56]output_table!H8/100</f>
+        <f aca="false">[56]output_table!h8/100</f>
         <v>-0.0164389135663675</v>
       </c>
     </row>
@@ -35530,15 +34219,15 @@
         <v>98</v>
       </c>
       <c r="B13" s="21" t="n">
-        <f aca="false">[56]output_table!F9/100</f>
+        <f aca="false">[56]output_table!f9/100</f>
         <v>-0.0304308689932293</v>
       </c>
       <c r="C13" s="22" t="n">
-        <f aca="false">[56]output_table!G9/100</f>
+        <f aca="false">[56]output_table!g9/100</f>
         <v>-0.107763094450982</v>
       </c>
       <c r="D13" s="23" t="n">
-        <f aca="false">[56]output_table!H9/100</f>
+        <f aca="false">[56]output_table!h9/100</f>
         <v>0.0773322254577526</v>
       </c>
     </row>
@@ -35547,15 +34236,15 @@
         <v>99</v>
       </c>
       <c r="B14" s="21" t="n">
-        <f aca="false">[56]output_table!F10/100</f>
+        <f aca="false">[56]output_table!f10/100</f>
         <v>0.00658510789438875</v>
       </c>
       <c r="C14" s="22" t="n">
-        <f aca="false">[56]output_table!G10/100</f>
+        <f aca="false">[56]output_table!g10/100</f>
         <v>0.000757242111892604</v>
       </c>
       <c r="D14" s="23" t="n">
-        <f aca="false">[56]output_table!H10/100</f>
+        <f aca="false">[56]output_table!h10/100</f>
         <v>0.00582786578249614</v>
       </c>
     </row>
@@ -35564,15 +34253,15 @@
         <v>100</v>
       </c>
       <c r="B15" s="21" t="n">
-        <f aca="false">[56]output_table!F11/100</f>
+        <f aca="false">[56]output_table!f11/100</f>
         <v>-0.0038627394525717</v>
       </c>
       <c r="C15" s="22" t="n">
-        <f aca="false">[56]output_table!G11/100</f>
+        <f aca="false">[56]output_table!g11/100</f>
         <v>-0.0106081344076023</v>
       </c>
       <c r="D15" s="23" t="n">
-        <f aca="false">[56]output_table!H11/100</f>
+        <f aca="false">[56]output_table!h11/100</f>
         <v>0.00674539495503061</v>
       </c>
     </row>
@@ -35581,15 +34270,15 @@
         <v>101</v>
       </c>
       <c r="B16" s="21" t="n">
-        <f aca="false">[56]output_table!F12/100</f>
+        <f aca="false">[56]output_table!f12/100</f>
         <v>0.0393258894750502</v>
       </c>
       <c r="C16" s="22" t="n">
-        <f aca="false">[56]output_table!G12/100</f>
+        <f aca="false">[56]output_table!g12/100</f>
         <v>-0.00355077050110087</v>
       </c>
       <c r="D16" s="23" t="n">
-        <f aca="false">[56]output_table!H12/100</f>
+        <f aca="false">[56]output_table!h12/100</f>
         <v>0.0428766599761511</v>
       </c>
     </row>
@@ -35598,15 +34287,15 @@
         <v>102</v>
       </c>
       <c r="B17" s="21" t="n">
-        <f aca="false">[56]output_table!F13/100</f>
+        <f aca="false">[56]output_table!f13/100</f>
         <v>0.00776664838882218</v>
       </c>
       <c r="C17" s="22" t="n">
-        <f aca="false">[56]output_table!G13/100</f>
+        <f aca="false">[56]output_table!g13/100</f>
         <v>-0.00061667306699141</v>
       </c>
       <c r="D17" s="23" t="n">
-        <f aca="false">[56]output_table!H13/100</f>
+        <f aca="false">[56]output_table!h13/100</f>
         <v>0.00838332145581359</v>
       </c>
     </row>
@@ -35615,15 +34304,15 @@
         <v>103</v>
       </c>
       <c r="B18" s="21" t="n">
-        <f aca="false">[56]output_table!F14/100</f>
+        <f aca="false">[56]output_table!f14/100</f>
         <v>-0.136558569782093</v>
       </c>
       <c r="C18" s="22" t="n">
-        <f aca="false">[56]output_table!G14/100</f>
+        <f aca="false">[56]output_table!g14/100</f>
         <v>-0.132610270682753</v>
       </c>
       <c r="D18" s="23" t="n">
-        <f aca="false">[56]output_table!H14/100</f>
+        <f aca="false">[56]output_table!h14/100</f>
         <v>-0.00394829909934002</v>
       </c>
     </row>
@@ -35632,15 +34321,15 @@
         <v>104</v>
       </c>
       <c r="B19" s="21" t="n">
-        <f aca="false">[56]output_table!F15/100</f>
+        <f aca="false">[56]output_table!f15/100</f>
         <v>0.0035294356790448</v>
       </c>
       <c r="C19" s="22" t="n">
-        <f aca="false">[56]output_table!G15/100</f>
+        <f aca="false">[56]output_table!g15/100</f>
         <v>-0.00331740892958664</v>
       </c>
       <c r="D19" s="23" t="n">
-        <f aca="false">[56]output_table!H15/100</f>
+        <f aca="false">[56]output_table!h15/100</f>
         <v>0.00684684460863144</v>
       </c>
     </row>
@@ -35649,15 +34338,15 @@
         <v>105</v>
       </c>
       <c r="B20" s="21" t="n">
-        <f aca="false">[56]output_table!F16/100</f>
+        <f aca="false">[56]output_table!f16/100</f>
         <v>0.0125755727475125</v>
       </c>
       <c r="C20" s="22" t="n">
-        <f aca="false">[56]output_table!G16/100</f>
+        <f aca="false">[56]output_table!g16/100</f>
         <v>0.000546745891750425</v>
       </c>
       <c r="D20" s="23" t="n">
-        <f aca="false">[56]output_table!H16/100</f>
+        <f aca="false">[56]output_table!h16/100</f>
         <v>0.0120288268557621</v>
       </c>
     </row>
@@ -35666,15 +34355,15 @@
         <v>106</v>
       </c>
       <c r="B21" s="21" t="n">
-        <f aca="false">[56]output_table!F17/100</f>
+        <f aca="false">[56]output_table!f17/100</f>
         <v>-0.211073897781544</v>
       </c>
       <c r="C21" s="22" t="n">
-        <f aca="false">[56]output_table!G17/100</f>
+        <f aca="false">[56]output_table!g17/100</f>
         <v>-0.369920109813683</v>
       </c>
       <c r="D21" s="23" t="n">
-        <f aca="false">[56]output_table!H17/100</f>
+        <f aca="false">[56]output_table!h17/100</f>
         <v>0.158846212032139</v>
       </c>
     </row>
@@ -35683,15 +34372,15 @@
         <v>107</v>
       </c>
       <c r="B22" s="21" t="n">
-        <f aca="false">[56]output_table!F18/100</f>
+        <f aca="false">[56]output_table!f18/100</f>
         <v>-0.0480281915531282</v>
       </c>
       <c r="C22" s="22" t="n">
-        <f aca="false">[56]output_table!G18/100</f>
+        <f aca="false">[56]output_table!g18/100</f>
         <v>-0.12850833650902</v>
       </c>
       <c r="D22" s="23" t="n">
-        <f aca="false">[56]output_table!H18/100</f>
+        <f aca="false">[56]output_table!h18/100</f>
         <v>0.080480144955892</v>
       </c>
     </row>
@@ -35700,15 +34389,15 @@
         <v>108</v>
       </c>
       <c r="B23" s="21" t="n">
-        <f aca="false">[56]output_table!F19/100</f>
+        <f aca="false">[56]output_table!f19/100</f>
         <v>-0.0702653037357378</v>
       </c>
       <c r="C23" s="22" t="n">
-        <f aca="false">[56]output_table!G19/100</f>
+        <f aca="false">[56]output_table!g19/100</f>
         <v>-0.0913450798258572</v>
       </c>
       <c r="D23" s="23" t="n">
-        <f aca="false">[56]output_table!H19/100</f>
+        <f aca="false">[56]output_table!h19/100</f>
         <v>0.0210797760901194</v>
       </c>
     </row>
@@ -35717,15 +34406,15 @@
         <v>109</v>
       </c>
       <c r="B24" s="21" t="n">
-        <f aca="false">[56]output_table!F20/100</f>
+        <f aca="false">[56]output_table!f20/100</f>
         <v>0.0244188679539382</v>
       </c>
       <c r="C24" s="22" t="n">
-        <f aca="false">[56]output_table!G20/100</f>
+        <f aca="false">[56]output_table!g20/100</f>
         <v>-0.0934000636965661</v>
       </c>
       <c r="D24" s="23" t="n">
-        <f aca="false">[56]output_table!H20/100</f>
+        <f aca="false">[56]output_table!h20/100</f>
         <v>0.117818931650504</v>
       </c>
     </row>
@@ -35734,15 +34423,15 @@
         <v>110</v>
       </c>
       <c r="B25" s="21" t="n">
-        <f aca="false">[56]output_table!F21/100</f>
+        <f aca="false">[56]output_table!f21/100</f>
         <v>0.0022213897052527</v>
       </c>
       <c r="C25" s="22" t="n">
-        <f aca="false">[56]output_table!G21/100</f>
+        <f aca="false">[56]output_table!g21/100</f>
         <v>-0.00310204459232675</v>
       </c>
       <c r="D25" s="23" t="n">
-        <f aca="false">[56]output_table!H21/100</f>
+        <f aca="false">[56]output_table!h21/100</f>
         <v>0.00532343429757945</v>
       </c>
     </row>
@@ -35751,15 +34440,15 @@
         <v>111</v>
       </c>
       <c r="B26" s="21" t="n">
-        <f aca="false">[56]output_table!F22/100</f>
+        <f aca="false">[56]output_table!f22/100</f>
         <v>-0.0236065735054953</v>
       </c>
       <c r="C26" s="22" t="n">
-        <f aca="false">[56]output_table!G22/100</f>
+        <f aca="false">[56]output_table!g22/100</f>
         <v>-0.0186780724144693</v>
       </c>
       <c r="D26" s="23" t="n">
-        <f aca="false">[56]output_table!H22/100</f>
+        <f aca="false">[56]output_table!h22/100</f>
         <v>-0.00492850109102598</v>
       </c>
     </row>
@@ -35768,15 +34457,15 @@
         <v>112</v>
       </c>
       <c r="B27" s="21" t="n">
-        <f aca="false">[56]output_table!F23/100</f>
+        <f aca="false">[56]output_table!f23/100</f>
         <v>-0.0612471966576379</v>
       </c>
       <c r="C27" s="22" t="n">
-        <f aca="false">[56]output_table!G23/100</f>
+        <f aca="false">[56]output_table!g23/100</f>
         <v>-0.0326067932337489</v>
       </c>
       <c r="D27" s="23" t="n">
-        <f aca="false">[56]output_table!H23/100</f>
+        <f aca="false">[56]output_table!h23/100</f>
         <v>-0.028640403423889</v>
       </c>
     </row>
@@ -35785,15 +34474,15 @@
         <v>113</v>
       </c>
       <c r="B28" s="21" t="n">
-        <f aca="false">[56]output_table!F24/100</f>
+        <f aca="false">[56]output_table!f24/100</f>
         <v>0.00401976894184059</v>
       </c>
       <c r="C28" s="22" t="n">
-        <f aca="false">[56]output_table!G24/100</f>
+        <f aca="false">[56]output_table!g24/100</f>
         <v>-0.0445960375263286</v>
       </c>
       <c r="D28" s="23" t="n">
-        <f aca="false">[56]output_table!H24/100</f>
+        <f aca="false">[56]output_table!h24/100</f>
         <v>0.0486158064681692</v>
       </c>
     </row>
@@ -35802,15 +34491,15 @@
         <v>114</v>
       </c>
       <c r="B29" s="21" t="n">
-        <f aca="false">[56]output_table!F25/100</f>
+        <f aca="false">[56]output_table!f25/100</f>
         <v>-0.0178200567335503</v>
       </c>
       <c r="C29" s="22" t="n">
-        <f aca="false">[56]output_table!G25/100</f>
+        <f aca="false">[56]output_table!g25/100</f>
         <v>-0.026340787952333</v>
       </c>
       <c r="D29" s="23" t="n">
-        <f aca="false">[56]output_table!H25/100</f>
+        <f aca="false">[56]output_table!h25/100</f>
         <v>0.00852073121878272</v>
       </c>
     </row>
@@ -35819,15 +34508,15 @@
         <v>115</v>
       </c>
       <c r="B30" s="25" t="n">
-        <f aca="false">[56]output_table!F26/100</f>
+        <f aca="false">[56]output_table!f26/100</f>
         <v>0.00352845201842609</v>
       </c>
       <c r="C30" s="26" t="n">
-        <f aca="false">[56]output_table!G26/100</f>
+        <f aca="false">[56]output_table!g26/100</f>
         <v>0.00116977869278286</v>
       </c>
       <c r="D30" s="27" t="n">
-        <f aca="false">[56]output_table!H26/100</f>
+        <f aca="false">[56]output_table!h26/100</f>
         <v>0.00235867332564323</v>
       </c>
     </row>
@@ -35956,39 +34645,39 @@
         <v>91</v>
       </c>
       <c r="B7" s="17" t="n">
-        <f aca="false">[57]output_table!F2/100</f>
+        <f aca="false">[57]output_table!f2/100</f>
         <v>-0.0254151025916714</v>
       </c>
       <c r="C7" s="18" t="n">
-        <f aca="false">[57]output_table!G2/100</f>
+        <f aca="false">[57]output_table!g2/100</f>
         <v>-0.00887218894671668</v>
       </c>
       <c r="D7" s="19" t="n">
-        <f aca="false">[57]output_table!H2/100</f>
+        <f aca="false">[57]output_table!h2/100</f>
         <v>-0.0165429136449547</v>
       </c>
       <c r="E7" s="17" t="n">
-        <f aca="false">[58]output_table!F2/100</f>
+        <f aca="false">[58]output_table!f2/100</f>
         <v>-0.0265304628612027</v>
       </c>
       <c r="F7" s="18" t="n">
-        <f aca="false">[58]output_table!G2/100</f>
+        <f aca="false">[58]output_table!g2/100</f>
         <v>-0.00936212592364665</v>
       </c>
       <c r="G7" s="19" t="n">
-        <f aca="false">[58]output_table!H2/100</f>
+        <f aca="false">[58]output_table!h2/100</f>
         <v>-0.0171683369375562</v>
       </c>
       <c r="H7" s="17" t="n">
-        <f aca="false">[59]output_table!F2/100</f>
+        <f aca="false">[59]output_table!f2/100</f>
         <v>-0.028776599435869</v>
       </c>
       <c r="I7" s="18" t="n">
-        <f aca="false">[59]output_table!G2/100</f>
+        <f aca="false">[59]output_table!g2/100</f>
         <v>-0.0101915985402759</v>
       </c>
       <c r="J7" s="19" t="n">
-        <f aca="false">[59]output_table!H2/100</f>
+        <f aca="false">[59]output_table!h2/100</f>
         <v>-0.0185850008955931</v>
       </c>
     </row>
@@ -35997,39 +34686,39 @@
         <v>92</v>
       </c>
       <c r="B8" s="21" t="n">
-        <f aca="false">[57]output_table!F3/100</f>
+        <f aca="false">[57]output_table!f3/100</f>
         <v>-0.423395418486986</v>
       </c>
       <c r="C8" s="22" t="n">
-        <f aca="false">[57]output_table!G3/100</f>
+        <f aca="false">[57]output_table!g3/100</f>
         <v>-1.18759357575777</v>
       </c>
       <c r="D8" s="23" t="n">
-        <f aca="false">[57]output_table!H3/100</f>
+        <f aca="false">[57]output_table!h3/100</f>
         <v>0.76419815727078</v>
       </c>
       <c r="E8" s="21" t="n">
-        <f aca="false">[58]output_table!F3/100</f>
+        <f aca="false">[58]output_table!f3/100</f>
         <v>-0.423673049961418</v>
       </c>
       <c r="F8" s="22" t="n">
-        <f aca="false">[58]output_table!G3/100</f>
+        <f aca="false">[58]output_table!g3/100</f>
         <v>-1.18586483091543</v>
       </c>
       <c r="G8" s="23" t="n">
-        <f aca="false">[58]output_table!H3/100</f>
+        <f aca="false">[58]output_table!h3/100</f>
         <v>0.762191780954015</v>
       </c>
       <c r="H8" s="21" t="n">
-        <f aca="false">[59]output_table!F3/100</f>
+        <f aca="false">[59]output_table!f3/100</f>
         <v>-0.419035338641848</v>
       </c>
       <c r="I8" s="22" t="n">
-        <f aca="false">[59]output_table!G3/100</f>
+        <f aca="false">[59]output_table!g3/100</f>
         <v>-1.19411021822382</v>
       </c>
       <c r="J8" s="23" t="n">
-        <f aca="false">[59]output_table!H3/100</f>
+        <f aca="false">[59]output_table!h3/100</f>
         <v>0.775074879581973</v>
       </c>
     </row>
@@ -36038,39 +34727,39 @@
         <v>93</v>
       </c>
       <c r="B9" s="21" t="n">
-        <f aca="false">[57]output_table!F4/100</f>
+        <f aca="false">[57]output_table!f4/100</f>
         <v>-0.660455097765723</v>
       </c>
       <c r="C9" s="22" t="n">
-        <f aca="false">[57]output_table!G4/100</f>
+        <f aca="false">[57]output_table!g4/100</f>
         <v>-1.07612704255589</v>
       </c>
       <c r="D9" s="23" t="n">
-        <f aca="false">[57]output_table!H4/100</f>
+        <f aca="false">[57]output_table!h4/100</f>
         <v>0.415671944790171</v>
       </c>
       <c r="E9" s="21" t="n">
-        <f aca="false">[58]output_table!F4/100</f>
+        <f aca="false">[58]output_table!f4/100</f>
         <v>-0.661038347691566</v>
       </c>
       <c r="F9" s="22" t="n">
-        <f aca="false">[58]output_table!G4/100</f>
+        <f aca="false">[58]output_table!g4/100</f>
         <v>-1.07938202095158</v>
       </c>
       <c r="G9" s="23" t="n">
-        <f aca="false">[58]output_table!H4/100</f>
+        <f aca="false">[58]output_table!h4/100</f>
         <v>0.418343673260012</v>
       </c>
       <c r="H9" s="21" t="n">
-        <f aca="false">[59]output_table!F4/100</f>
+        <f aca="false">[59]output_table!f4/100</f>
         <v>-0.662045069556756</v>
       </c>
       <c r="I9" s="22" t="n">
-        <f aca="false">[59]output_table!G4/100</f>
+        <f aca="false">[59]output_table!g4/100</f>
         <v>-1.08533363373645</v>
       </c>
       <c r="J9" s="23" t="n">
-        <f aca="false">[59]output_table!H4/100</f>
+        <f aca="false">[59]output_table!h4/100</f>
         <v>0.423288564179696</v>
       </c>
     </row>
@@ -36079,39 +34768,39 @@
         <v>94</v>
       </c>
       <c r="B10" s="21" t="n">
-        <f aca="false">[57]output_table!F5/100</f>
+        <f aca="false">[57]output_table!f5/100</f>
         <v>-0.729643565386666</v>
       </c>
       <c r="C10" s="22" t="n">
-        <f aca="false">[57]output_table!G5/100</f>
+        <f aca="false">[57]output_table!g5/100</f>
         <v>-1.00466932785939</v>
       </c>
       <c r="D10" s="23" t="n">
-        <f aca="false">[57]output_table!H5/100</f>
+        <f aca="false">[57]output_table!h5/100</f>
         <v>0.275025762472728</v>
       </c>
       <c r="E10" s="21" t="n">
-        <f aca="false">[58]output_table!F5/100</f>
+        <f aca="false">[58]output_table!f5/100</f>
         <v>-0.73094860028228</v>
       </c>
       <c r="F10" s="22" t="n">
-        <f aca="false">[58]output_table!G5/100</f>
+        <f aca="false">[58]output_table!g5/100</f>
         <v>-1.00249249482572</v>
       </c>
       <c r="G10" s="23" t="n">
-        <f aca="false">[58]output_table!H5/100</f>
+        <f aca="false">[58]output_table!h5/100</f>
         <v>0.271543894543445</v>
       </c>
       <c r="H10" s="21" t="n">
-        <f aca="false">[59]output_table!F5/100</f>
+        <f aca="false">[59]output_table!f5/100</f>
         <v>-0.732790770235201</v>
       </c>
       <c r="I10" s="22" t="n">
-        <f aca="false">[59]output_table!G5/100</f>
+        <f aca="false">[59]output_table!g5/100</f>
         <v>-0.99558271296163</v>
       </c>
       <c r="J10" s="23" t="n">
-        <f aca="false">[59]output_table!H5/100</f>
+        <f aca="false">[59]output_table!h5/100</f>
         <v>0.262791942726429</v>
       </c>
     </row>
@@ -36120,39 +34809,39 @@
         <v>95</v>
       </c>
       <c r="B11" s="21" t="n">
-        <f aca="false">[57]output_table!F6/100</f>
+        <f aca="false">[57]output_table!f6/100</f>
         <v>0.0137544717329057</v>
       </c>
       <c r="C11" s="22" t="n">
-        <f aca="false">[57]output_table!G6/100</f>
+        <f aca="false">[57]output_table!g6/100</f>
         <v>0.00446660813928497</v>
       </c>
       <c r="D11" s="23" t="n">
-        <f aca="false">[57]output_table!H6/100</f>
+        <f aca="false">[57]output_table!h6/100</f>
         <v>0.0092878635936207</v>
       </c>
       <c r="E11" s="21" t="n">
-        <f aca="false">[58]output_table!F6/100</f>
+        <f aca="false">[58]output_table!f6/100</f>
         <v>0.0140195564829186</v>
       </c>
       <c r="F11" s="22" t="n">
-        <f aca="false">[58]output_table!G6/100</f>
+        <f aca="false">[58]output_table!g6/100</f>
         <v>0.00446789486709107</v>
       </c>
       <c r="G11" s="23" t="n">
-        <f aca="false">[58]output_table!H6/100</f>
+        <f aca="false">[58]output_table!h6/100</f>
         <v>0.0095516616158275</v>
       </c>
       <c r="H11" s="21" t="n">
-        <f aca="false">[59]output_table!F6/100</f>
+        <f aca="false">[59]output_table!f6/100</f>
         <v>0.0140840554224174</v>
       </c>
       <c r="I11" s="22" t="n">
-        <f aca="false">[59]output_table!G6/100</f>
+        <f aca="false">[59]output_table!g6/100</f>
         <v>0.0044718171796748</v>
       </c>
       <c r="J11" s="23" t="n">
-        <f aca="false">[59]output_table!H6/100</f>
+        <f aca="false">[59]output_table!h6/100</f>
         <v>0.00961223824274264</v>
       </c>
     </row>
@@ -36161,39 +34850,39 @@
         <v>96</v>
       </c>
       <c r="B12" s="21" t="n">
-        <f aca="false">[57]output_table!F7/100</f>
+        <f aca="false">[57]output_table!f7/100</f>
         <v>-0.436862380647748</v>
       </c>
       <c r="C12" s="22" t="n">
-        <f aca="false">[57]output_table!G7/100</f>
+        <f aca="false">[57]output_table!g7/100</f>
         <v>-0.613863512798427</v>
       </c>
       <c r="D12" s="23" t="n">
-        <f aca="false">[57]output_table!H7/100</f>
+        <f aca="false">[57]output_table!h7/100</f>
         <v>0.177001132150679</v>
       </c>
       <c r="E12" s="21" t="n">
-        <f aca="false">[58]output_table!F7/100</f>
+        <f aca="false">[58]output_table!f7/100</f>
         <v>-0.437221373927624</v>
       </c>
       <c r="F12" s="22" t="n">
-        <f aca="false">[58]output_table!G7/100</f>
+        <f aca="false">[58]output_table!g7/100</f>
         <v>-0.609849241162703</v>
       </c>
       <c r="G12" s="23" t="n">
-        <f aca="false">[58]output_table!H7/100</f>
+        <f aca="false">[58]output_table!h7/100</f>
         <v>0.172627867235079</v>
       </c>
       <c r="H12" s="21" t="n">
-        <f aca="false">[59]output_table!F7/100</f>
+        <f aca="false">[59]output_table!f7/100</f>
         <v>-0.437975469997839</v>
       </c>
       <c r="I12" s="22" t="n">
-        <f aca="false">[59]output_table!G7/100</f>
+        <f aca="false">[59]output_table!g7/100</f>
         <v>-0.607928269365496</v>
       </c>
       <c r="J12" s="23" t="n">
-        <f aca="false">[59]output_table!H7/100</f>
+        <f aca="false">[59]output_table!h7/100</f>
         <v>0.169952799367657</v>
       </c>
     </row>
@@ -36202,39 +34891,39 @@
         <v>97</v>
       </c>
       <c r="B13" s="21" t="n">
-        <f aca="false">[57]output_table!F8/100</f>
+        <f aca="false">[57]output_table!f8/100</f>
         <v>-0.781050138704082</v>
       </c>
       <c r="C13" s="22" t="n">
-        <f aca="false">[57]output_table!G8/100</f>
+        <f aca="false">[57]output_table!g8/100</f>
         <v>-0.407085202199603</v>
       </c>
       <c r="D13" s="23" t="n">
-        <f aca="false">[57]output_table!H8/100</f>
+        <f aca="false">[57]output_table!h8/100</f>
         <v>-0.373964936504479</v>
       </c>
       <c r="E13" s="21" t="n">
-        <f aca="false">[58]output_table!F8/100</f>
+        <f aca="false">[58]output_table!f8/100</f>
         <v>-0.782112278813804</v>
       </c>
       <c r="F13" s="22" t="n">
-        <f aca="false">[58]output_table!G8/100</f>
+        <f aca="false">[58]output_table!g8/100</f>
         <v>-0.408397348523603</v>
       </c>
       <c r="G13" s="23" t="n">
-        <f aca="false">[58]output_table!H8/100</f>
+        <f aca="false">[58]output_table!h8/100</f>
         <v>-0.373714930290201</v>
       </c>
       <c r="H13" s="21" t="n">
-        <f aca="false">[59]output_table!F8/100</f>
+        <f aca="false">[59]output_table!f8/100</f>
         <v>-0.783666858191965</v>
       </c>
       <c r="I13" s="22" t="n">
-        <f aca="false">[59]output_table!G8/100</f>
+        <f aca="false">[59]output_table!g8/100</f>
         <v>-0.411113575797053</v>
       </c>
       <c r="J13" s="23" t="n">
-        <f aca="false">[59]output_table!H8/100</f>
+        <f aca="false">[59]output_table!h8/100</f>
         <v>-0.372553282394912</v>
       </c>
     </row>
@@ -36243,39 +34932,39 @@
         <v>98</v>
       </c>
       <c r="B14" s="21" t="n">
-        <f aca="false">[57]output_table!F9/100</f>
+        <f aca="false">[57]output_table!f9/100</f>
         <v>-0.37733883189738</v>
       </c>
       <c r="C14" s="22" t="n">
-        <f aca="false">[57]output_table!G9/100</f>
+        <f aca="false">[57]output_table!g9/100</f>
         <v>-0.663077534591564</v>
       </c>
       <c r="D14" s="23" t="n">
-        <f aca="false">[57]output_table!H9/100</f>
+        <f aca="false">[57]output_table!h9/100</f>
         <v>0.285738702694185</v>
       </c>
       <c r="E14" s="21" t="n">
-        <f aca="false">[58]output_table!F9/100</f>
+        <f aca="false">[58]output_table!f9/100</f>
         <v>-0.37788926582177</v>
       </c>
       <c r="F14" s="22" t="n">
-        <f aca="false">[58]output_table!G9/100</f>
+        <f aca="false">[58]output_table!g9/100</f>
         <v>-0.665835112983478</v>
       </c>
       <c r="G14" s="23" t="n">
-        <f aca="false">[58]output_table!H9/100</f>
+        <f aca="false">[58]output_table!h9/100</f>
         <v>0.287945847161708</v>
       </c>
       <c r="H14" s="21" t="n">
-        <f aca="false">[59]output_table!F9/100</f>
+        <f aca="false">[59]output_table!f9/100</f>
         <v>-0.378949201870487</v>
       </c>
       <c r="I14" s="22" t="n">
-        <f aca="false">[59]output_table!G9/100</f>
+        <f aca="false">[59]output_table!g9/100</f>
         <v>-0.671919339068565</v>
       </c>
       <c r="J14" s="23" t="n">
-        <f aca="false">[59]output_table!H9/100</f>
+        <f aca="false">[59]output_table!h9/100</f>
         <v>0.292970137198078</v>
       </c>
     </row>
@@ -36284,39 +34973,39 @@
         <v>99</v>
       </c>
       <c r="B15" s="21" t="n">
-        <f aca="false">[57]output_table!F10/100</f>
+        <f aca="false">[57]output_table!f10/100</f>
         <v>-0.24963947126269</v>
       </c>
       <c r="C15" s="22" t="n">
-        <f aca="false">[57]output_table!G10/100</f>
+        <f aca="false">[57]output_table!g10/100</f>
         <v>0.269586021738064</v>
       </c>
       <c r="D15" s="23" t="n">
-        <f aca="false">[57]output_table!H10/100</f>
+        <f aca="false">[57]output_table!h10/100</f>
         <v>-0.519225493000753</v>
       </c>
       <c r="E15" s="21" t="n">
-        <f aca="false">[58]output_table!F10/100</f>
+        <f aca="false">[58]output_table!f10/100</f>
         <v>-0.2489438328836</v>
       </c>
       <c r="F15" s="22" t="n">
-        <f aca="false">[58]output_table!G10/100</f>
+        <f aca="false">[58]output_table!g10/100</f>
         <v>0.272817558472614</v>
       </c>
       <c r="G15" s="23" t="n">
-        <f aca="false">[58]output_table!H10/100</f>
+        <f aca="false">[58]output_table!h10/100</f>
         <v>-0.521761391356214</v>
       </c>
       <c r="H15" s="21" t="n">
-        <f aca="false">[59]output_table!F10/100</f>
+        <f aca="false">[59]output_table!f10/100</f>
         <v>-0.248154574723354</v>
       </c>
       <c r="I15" s="22" t="n">
-        <f aca="false">[59]output_table!G10/100</f>
+        <f aca="false">[59]output_table!g10/100</f>
         <v>0.277179232962057</v>
       </c>
       <c r="J15" s="23" t="n">
-        <f aca="false">[59]output_table!H10/100</f>
+        <f aca="false">[59]output_table!h10/100</f>
         <v>-0.525333807685412</v>
       </c>
     </row>
@@ -36325,39 +35014,39 @@
         <v>100</v>
       </c>
       <c r="B16" s="21" t="n">
-        <f aca="false">[57]output_table!F11/100</f>
+        <f aca="false">[57]output_table!f11/100</f>
         <v>-0.534122825860835</v>
       </c>
       <c r="C16" s="22" t="n">
-        <f aca="false">[57]output_table!G11/100</f>
+        <f aca="false">[57]output_table!g11/100</f>
         <v>-0.498162898016111</v>
       </c>
       <c r="D16" s="23" t="n">
-        <f aca="false">[57]output_table!H11/100</f>
+        <f aca="false">[57]output_table!h11/100</f>
         <v>-0.0359599278447239</v>
       </c>
       <c r="E16" s="21" t="n">
-        <f aca="false">[58]output_table!F11/100</f>
+        <f aca="false">[58]output_table!f11/100</f>
         <v>-0.536231979248809</v>
       </c>
       <c r="F16" s="22" t="n">
-        <f aca="false">[58]output_table!G11/100</f>
+        <f aca="false">[58]output_table!g11/100</f>
         <v>-0.499306832048087</v>
       </c>
       <c r="G16" s="23" t="n">
-        <f aca="false">[58]output_table!H11/100</f>
+        <f aca="false">[58]output_table!h11/100</f>
         <v>-0.0369251472007225</v>
       </c>
       <c r="H16" s="21" t="n">
-        <f aca="false">[59]output_table!F11/100</f>
+        <f aca="false">[59]output_table!f11/100</f>
         <v>-0.53968707537346</v>
       </c>
       <c r="I16" s="22" t="n">
-        <f aca="false">[59]output_table!G11/100</f>
+        <f aca="false">[59]output_table!g11/100</f>
         <v>-0.500721803456082</v>
       </c>
       <c r="J16" s="23" t="n">
-        <f aca="false">[59]output_table!H11/100</f>
+        <f aca="false">[59]output_table!h11/100</f>
         <v>-0.0389652719173784</v>
       </c>
     </row>
@@ -36366,39 +35055,39 @@
         <v>101</v>
       </c>
       <c r="B17" s="21" t="n">
-        <f aca="false">[57]output_table!F12/100</f>
+        <f aca="false">[57]output_table!f12/100</f>
         <v>-0.207126618575693</v>
       </c>
       <c r="C17" s="22" t="n">
-        <f aca="false">[57]output_table!G12/100</f>
+        <f aca="false">[57]output_table!g12/100</f>
         <v>0.0743449621833616</v>
       </c>
       <c r="D17" s="23" t="n">
-        <f aca="false">[57]output_table!H12/100</f>
+        <f aca="false">[57]output_table!h12/100</f>
         <v>-0.281471580759055</v>
       </c>
       <c r="E17" s="21" t="n">
-        <f aca="false">[58]output_table!F12/100</f>
+        <f aca="false">[58]output_table!f12/100</f>
         <v>-0.197818410613804</v>
       </c>
       <c r="F17" s="22" t="n">
-        <f aca="false">[58]output_table!G12/100</f>
+        <f aca="false">[58]output_table!g12/100</f>
         <v>0.0785696833779758</v>
       </c>
       <c r="G17" s="23" t="n">
-        <f aca="false">[58]output_table!H12/100</f>
+        <f aca="false">[58]output_table!h12/100</f>
         <v>-0.27638809399178</v>
       </c>
       <c r="H17" s="21" t="n">
-        <f aca="false">[59]output_table!F12/100</f>
+        <f aca="false">[59]output_table!f12/100</f>
         <v>-0.188925835756217</v>
       </c>
       <c r="I17" s="22" t="n">
-        <f aca="false">[59]output_table!G12/100</f>
+        <f aca="false">[59]output_table!g12/100</f>
         <v>0.0804562015879305</v>
       </c>
       <c r="J17" s="23" t="n">
-        <f aca="false">[59]output_table!H12/100</f>
+        <f aca="false">[59]output_table!h12/100</f>
         <v>-0.269382037344148</v>
       </c>
     </row>
@@ -36407,39 +35096,39 @@
         <v>102</v>
       </c>
       <c r="B18" s="21" t="n">
-        <f aca="false">[57]output_table!F13/100</f>
+        <f aca="false">[57]output_table!f13/100</f>
         <v>-0.158868632766356</v>
       </c>
       <c r="C18" s="22" t="n">
-        <f aca="false">[57]output_table!G13/100</f>
+        <f aca="false">[57]output_table!g13/100</f>
         <v>-0.0619482162448842</v>
       </c>
       <c r="D18" s="23" t="n">
-        <f aca="false">[57]output_table!H13/100</f>
+        <f aca="false">[57]output_table!h13/100</f>
         <v>-0.0969204165214718</v>
       </c>
       <c r="E18" s="21" t="n">
-        <f aca="false">[58]output_table!F13/100</f>
+        <f aca="false">[58]output_table!f13/100</f>
         <v>-0.15832502533872</v>
       </c>
       <c r="F18" s="22" t="n">
-        <f aca="false">[58]output_table!G13/100</f>
+        <f aca="false">[58]output_table!g13/100</f>
         <v>-0.0618226907176582</v>
       </c>
       <c r="G18" s="23" t="n">
-        <f aca="false">[58]output_table!H13/100</f>
+        <f aca="false">[58]output_table!h13/100</f>
         <v>-0.0965023346210622</v>
       </c>
       <c r="H18" s="21" t="n">
-        <f aca="false">[59]output_table!F13/100</f>
+        <f aca="false">[59]output_table!f13/100</f>
         <v>-0.157624338271379</v>
       </c>
       <c r="I18" s="22" t="n">
-        <f aca="false">[59]output_table!G13/100</f>
+        <f aca="false">[59]output_table!g13/100</f>
         <v>-0.062036054973402</v>
       </c>
       <c r="J18" s="23" t="n">
-        <f aca="false">[59]output_table!H13/100</f>
+        <f aca="false">[59]output_table!h13/100</f>
         <v>-0.0955882832979768</v>
       </c>
     </row>
@@ -36448,39 +35137,39 @@
         <v>103</v>
       </c>
       <c r="B19" s="21" t="n">
-        <f aca="false">[57]output_table!F14/100</f>
+        <f aca="false">[57]output_table!f14/100</f>
         <v>-0.589939505968451</v>
       </c>
       <c r="C19" s="22" t="n">
-        <f aca="false">[57]output_table!G14/100</f>
+        <f aca="false">[57]output_table!g14/100</f>
         <v>-0.693481082268548</v>
       </c>
       <c r="D19" s="23" t="n">
-        <f aca="false">[57]output_table!H14/100</f>
+        <f aca="false">[57]output_table!h14/100</f>
         <v>0.103541576300097</v>
       </c>
       <c r="E19" s="21" t="n">
-        <f aca="false">[58]output_table!F14/100</f>
+        <f aca="false">[58]output_table!f14/100</f>
         <v>-0.588719585149642</v>
       </c>
       <c r="F19" s="22" t="n">
-        <f aca="false">[58]output_table!G14/100</f>
+        <f aca="false">[58]output_table!g14/100</f>
         <v>-0.698630092573535</v>
       </c>
       <c r="G19" s="23" t="n">
-        <f aca="false">[58]output_table!H14/100</f>
+        <f aca="false">[58]output_table!h14/100</f>
         <v>0.109910507423893</v>
       </c>
       <c r="H19" s="21" t="n">
-        <f aca="false">[59]output_table!F14/100</f>
+        <f aca="false">[59]output_table!f14/100</f>
         <v>-0.58678267730608</v>
       </c>
       <c r="I19" s="22" t="n">
-        <f aca="false">[59]output_table!G14/100</f>
+        <f aca="false">[59]output_table!g14/100</f>
         <v>-0.706904218688312</v>
       </c>
       <c r="J19" s="23" t="n">
-        <f aca="false">[59]output_table!H14/100</f>
+        <f aca="false">[59]output_table!h14/100</f>
         <v>0.120121541382232</v>
       </c>
     </row>
@@ -36489,39 +35178,39 @@
         <v>104</v>
       </c>
       <c r="B20" s="21" t="n">
-        <f aca="false">[57]output_table!F15/100</f>
+        <f aca="false">[57]output_table!f15/100</f>
         <v>-0.270555060678221</v>
       </c>
       <c r="C20" s="22" t="n">
-        <f aca="false">[57]output_table!G15/100</f>
+        <f aca="false">[57]output_table!g15/100</f>
         <v>0.226494217025257</v>
       </c>
       <c r="D20" s="23" t="n">
-        <f aca="false">[57]output_table!H15/100</f>
+        <f aca="false">[57]output_table!h15/100</f>
         <v>-0.497049277703478</v>
       </c>
       <c r="E20" s="21" t="n">
-        <f aca="false">[58]output_table!F15/100</f>
+        <f aca="false">[58]output_table!f15/100</f>
         <v>-0.268725534394327</v>
       </c>
       <c r="F20" s="22" t="n">
-        <f aca="false">[58]output_table!G15/100</f>
+        <f aca="false">[58]output_table!g15/100</f>
         <v>0.232870374809109</v>
       </c>
       <c r="G20" s="23" t="n">
-        <f aca="false">[58]output_table!H15/100</f>
+        <f aca="false">[58]output_table!h15/100</f>
         <v>-0.501595909203436</v>
       </c>
       <c r="H20" s="21" t="n">
-        <f aca="false">[59]output_table!F15/100</f>
+        <f aca="false">[59]output_table!f15/100</f>
         <v>-0.267946786144836</v>
       </c>
       <c r="I20" s="22" t="n">
-        <f aca="false">[59]output_table!G15/100</f>
+        <f aca="false">[59]output_table!g15/100</f>
         <v>0.239230639788944</v>
       </c>
       <c r="J20" s="23" t="n">
-        <f aca="false">[59]output_table!H15/100</f>
+        <f aca="false">[59]output_table!h15/100</f>
         <v>-0.50717742593378</v>
       </c>
     </row>
@@ -36530,39 +35219,39 @@
         <v>105</v>
       </c>
       <c r="B21" s="21" t="n">
-        <f aca="false">[57]output_table!F16/100</f>
+        <f aca="false">[57]output_table!f16/100</f>
         <v>-0.0225755637982618</v>
       </c>
       <c r="C21" s="22" t="n">
-        <f aca="false">[57]output_table!G16/100</f>
+        <f aca="false">[57]output_table!g16/100</f>
         <v>0.0784974555648832</v>
       </c>
       <c r="D21" s="23" t="n">
-        <f aca="false">[57]output_table!H16/100</f>
+        <f aca="false">[57]output_table!h16/100</f>
         <v>-0.101073019363145</v>
       </c>
       <c r="E21" s="21" t="n">
-        <f aca="false">[58]output_table!F16/100</f>
+        <f aca="false">[58]output_table!f16/100</f>
         <v>-0.0225790753915951</v>
       </c>
       <c r="F21" s="22" t="n">
-        <f aca="false">[58]output_table!G16/100</f>
+        <f aca="false">[58]output_table!g16/100</f>
         <v>0.0788665060249623</v>
       </c>
       <c r="G21" s="23" t="n">
-        <f aca="false">[58]output_table!H16/100</f>
+        <f aca="false">[58]output_table!h16/100</f>
         <v>-0.101445581416557</v>
       </c>
       <c r="H21" s="21" t="n">
-        <f aca="false">[59]output_table!F16/100</f>
+        <f aca="false">[59]output_table!f16/100</f>
         <v>-0.0234779712430347</v>
       </c>
       <c r="I21" s="22" t="n">
-        <f aca="false">[59]output_table!G16/100</f>
+        <f aca="false">[59]output_table!g16/100</f>
         <v>0.0789374127735619</v>
       </c>
       <c r="J21" s="23" t="n">
-        <f aca="false">[59]output_table!H16/100</f>
+        <f aca="false">[59]output_table!h16/100</f>
         <v>-0.102415384016597</v>
       </c>
     </row>
@@ -36571,39 +35260,39 @@
         <v>106</v>
       </c>
       <c r="B22" s="21" t="n">
-        <f aca="false">[57]output_table!F17/100</f>
+        <f aca="false">[57]output_table!f17/100</f>
         <v>-0.57387197878537</v>
       </c>
       <c r="C22" s="22" t="n">
-        <f aca="false">[57]output_table!G17/100</f>
+        <f aca="false">[57]output_table!g17/100</f>
         <v>-0.922595678112533</v>
       </c>
       <c r="D22" s="23" t="n">
-        <f aca="false">[57]output_table!H17/100</f>
+        <f aca="false">[57]output_table!h17/100</f>
         <v>0.348723699327163</v>
       </c>
       <c r="E22" s="21" t="n">
-        <f aca="false">[58]output_table!F17/100</f>
+        <f aca="false">[58]output_table!f17/100</f>
         <v>-0.575339775034237</v>
       </c>
       <c r="F22" s="22" t="n">
-        <f aca="false">[58]output_table!G17/100</f>
+        <f aca="false">[58]output_table!g17/100</f>
         <v>-0.916334069491596</v>
       </c>
       <c r="G22" s="23" t="n">
-        <f aca="false">[58]output_table!H17/100</f>
+        <f aca="false">[58]output_table!h17/100</f>
         <v>0.340994294457359</v>
       </c>
       <c r="H22" s="21" t="n">
-        <f aca="false">[59]output_table!F17/100</f>
+        <f aca="false">[59]output_table!f17/100</f>
         <v>-0.577253358017889</v>
       </c>
       <c r="I22" s="22" t="n">
-        <f aca="false">[59]output_table!G17/100</f>
+        <f aca="false">[59]output_table!g17/100</f>
         <v>-0.908134775945137</v>
       </c>
       <c r="J22" s="23" t="n">
-        <f aca="false">[59]output_table!H17/100</f>
+        <f aca="false">[59]output_table!h17/100</f>
         <v>0.330881417927248</v>
       </c>
     </row>
@@ -36612,39 +35301,39 @@
         <v>107</v>
       </c>
       <c r="B23" s="21" t="n">
-        <f aca="false">[57]output_table!F18/100</f>
+        <f aca="false">[57]output_table!f18/100</f>
         <v>-0.73082265505502</v>
       </c>
       <c r="C23" s="22" t="n">
-        <f aca="false">[57]output_table!G18/100</f>
+        <f aca="false">[57]output_table!g18/100</f>
         <v>-1.34726464586026</v>
       </c>
       <c r="D23" s="23" t="n">
-        <f aca="false">[57]output_table!H18/100</f>
+        <f aca="false">[57]output_table!h18/100</f>
         <v>0.616441990805245</v>
       </c>
       <c r="E23" s="21" t="n">
-        <f aca="false">[58]output_table!F18/100</f>
+        <f aca="false">[58]output_table!f18/100</f>
         <v>-0.732547826017017</v>
       </c>
       <c r="F23" s="22" t="n">
-        <f aca="false">[58]output_table!G18/100</f>
+        <f aca="false">[58]output_table!g18/100</f>
         <v>-1.35413838691376</v>
       </c>
       <c r="G23" s="23" t="n">
-        <f aca="false">[58]output_table!H18/100</f>
+        <f aca="false">[58]output_table!h18/100</f>
         <v>0.62159056089674</v>
       </c>
       <c r="H23" s="21" t="n">
-        <f aca="false">[59]output_table!F18/100</f>
+        <f aca="false">[59]output_table!f18/100</f>
         <v>-0.735000478088596</v>
       </c>
       <c r="I23" s="22" t="n">
-        <f aca="false">[59]output_table!G18/100</f>
+        <f aca="false">[59]output_table!g18/100</f>
         <v>-1.3663943771131</v>
       </c>
       <c r="J23" s="23" t="n">
-        <f aca="false">[59]output_table!H18/100</f>
+        <f aca="false">[59]output_table!h18/100</f>
         <v>0.631393899024499</v>
       </c>
     </row>
@@ -36653,39 +35342,39 @@
         <v>108</v>
       </c>
       <c r="B24" s="21" t="n">
-        <f aca="false">[57]output_table!F19/100</f>
+        <f aca="false">[57]output_table!f19/100</f>
         <v>-0.330584854903903</v>
       </c>
       <c r="C24" s="22" t="n">
-        <f aca="false">[57]output_table!G19/100</f>
+        <f aca="false">[57]output_table!g19/100</f>
         <v>-0.894279096554937</v>
       </c>
       <c r="D24" s="23" t="n">
-        <f aca="false">[57]output_table!H19/100</f>
+        <f aca="false">[57]output_table!h19/100</f>
         <v>0.563694241651034</v>
       </c>
       <c r="E24" s="21" t="n">
-        <f aca="false">[58]output_table!F19/100</f>
+        <f aca="false">[58]output_table!f19/100</f>
         <v>-0.328156536666663</v>
       </c>
       <c r="F24" s="22" t="n">
-        <f aca="false">[58]output_table!G19/100</f>
+        <f aca="false">[58]output_table!g19/100</f>
         <v>-0.893745717590195</v>
       </c>
       <c r="G24" s="23" t="n">
-        <f aca="false">[58]output_table!H19/100</f>
+        <f aca="false">[58]output_table!h19/100</f>
         <v>0.565589180923532</v>
       </c>
       <c r="H24" s="21" t="n">
-        <f aca="false">[59]output_table!F19/100</f>
+        <f aca="false">[59]output_table!f19/100</f>
         <v>-0.323932702011042</v>
       </c>
       <c r="I24" s="22" t="n">
-        <f aca="false">[59]output_table!G19/100</f>
+        <f aca="false">[59]output_table!g19/100</f>
         <v>-0.893562041085986</v>
       </c>
       <c r="J24" s="23" t="n">
-        <f aca="false">[59]output_table!H19/100</f>
+        <f aca="false">[59]output_table!h19/100</f>
         <v>0.569629339074944</v>
       </c>
     </row>
@@ -36694,39 +35383,39 @@
         <v>109</v>
       </c>
       <c r="B25" s="21" t="n">
-        <f aca="false">[57]output_table!F20/100</f>
+        <f aca="false">[57]output_table!f20/100</f>
         <v>-0.0748367451764845</v>
       </c>
       <c r="C25" s="22" t="n">
-        <f aca="false">[57]output_table!G20/100</f>
+        <f aca="false">[57]output_table!g20/100</f>
         <v>-0.591139309420336</v>
       </c>
       <c r="D25" s="23" t="n">
-        <f aca="false">[57]output_table!H20/100</f>
+        <f aca="false">[57]output_table!h20/100</f>
         <v>0.516302564243851</v>
       </c>
       <c r="E25" s="21" t="n">
-        <f aca="false">[58]output_table!F20/100</f>
+        <f aca="false">[58]output_table!f20/100</f>
         <v>-0.0849346386793083</v>
       </c>
       <c r="F25" s="22" t="n">
-        <f aca="false">[58]output_table!G20/100</f>
+        <f aca="false">[58]output_table!g20/100</f>
         <v>-0.585021528896952</v>
       </c>
       <c r="G25" s="23" t="n">
-        <f aca="false">[58]output_table!H20/100</f>
+        <f aca="false">[58]output_table!h20/100</f>
         <v>0.500086890217644</v>
       </c>
       <c r="H25" s="21" t="n">
-        <f aca="false">[59]output_table!F20/100</f>
+        <f aca="false">[59]output_table!f20/100</f>
         <v>-0.0968447652383792</v>
       </c>
       <c r="I25" s="22" t="n">
-        <f aca="false">[59]output_table!G20/100</f>
+        <f aca="false">[59]output_table!g20/100</f>
         <v>-0.57629064270503</v>
       </c>
       <c r="J25" s="23" t="n">
-        <f aca="false">[59]output_table!H20/100</f>
+        <f aca="false">[59]output_table!h20/100</f>
         <v>0.479445877466651</v>
       </c>
     </row>
@@ -36735,39 +35424,39 @@
         <v>110</v>
       </c>
       <c r="B26" s="21" t="n">
-        <f aca="false">[57]output_table!F21/100</f>
+        <f aca="false">[57]output_table!f21/100</f>
         <v>0.0104631235227064</v>
       </c>
       <c r="C26" s="22" t="n">
-        <f aca="false">[57]output_table!G21/100</f>
+        <f aca="false">[57]output_table!g21/100</f>
         <v>-0.0154217790478277</v>
       </c>
       <c r="D26" s="23" t="n">
-        <f aca="false">[57]output_table!H21/100</f>
+        <f aca="false">[57]output_table!h21/100</f>
         <v>0.0258849025705339</v>
       </c>
       <c r="E26" s="21" t="n">
-        <f aca="false">[58]output_table!F21/100</f>
+        <f aca="false">[58]output_table!f21/100</f>
         <v>0.0105872205223172</v>
       </c>
       <c r="F26" s="22" t="n">
-        <f aca="false">[58]output_table!G21/100</f>
+        <f aca="false">[58]output_table!g21/100</f>
         <v>-0.015583526201161</v>
       </c>
       <c r="G26" s="23" t="n">
-        <f aca="false">[58]output_table!H21/100</f>
+        <f aca="false">[58]output_table!h21/100</f>
         <v>0.0261707467234782</v>
       </c>
       <c r="H26" s="21" t="n">
-        <f aca="false">[59]output_table!F21/100</f>
+        <f aca="false">[59]output_table!f21/100</f>
         <v>0.0108166489614265</v>
       </c>
       <c r="I26" s="22" t="n">
-        <f aca="false">[59]output_table!G21/100</f>
+        <f aca="false">[59]output_table!g21/100</f>
         <v>-0.015461464723548</v>
       </c>
       <c r="J26" s="23" t="n">
-        <f aca="false">[59]output_table!H21/100</f>
+        <f aca="false">[59]output_table!h21/100</f>
         <v>0.0262781136849745</v>
       </c>
     </row>
@@ -36776,39 +35465,39 @@
         <v>111</v>
       </c>
       <c r="B27" s="21" t="n">
-        <f aca="false">[57]output_table!F22/100</f>
+        <f aca="false">[57]output_table!f22/100</f>
         <v>-0.0121344081220983</v>
       </c>
       <c r="C27" s="22" t="n">
-        <f aca="false">[57]output_table!G22/100</f>
+        <f aca="false">[57]output_table!g22/100</f>
         <v>-0.101015815948044</v>
       </c>
       <c r="D27" s="23" t="n">
-        <f aca="false">[57]output_table!H22/100</f>
+        <f aca="false">[57]output_table!h22/100</f>
         <v>0.0888814078259458</v>
       </c>
       <c r="E27" s="21" t="n">
-        <f aca="false">[58]output_table!F22/100</f>
+        <f aca="false">[58]output_table!f22/100</f>
         <v>-0.0131199274204832</v>
       </c>
       <c r="F27" s="22" t="n">
-        <f aca="false">[58]output_table!G22/100</f>
+        <f aca="false">[58]output_table!g22/100</f>
         <v>-0.103782494102396</v>
       </c>
       <c r="G27" s="23" t="n">
-        <f aca="false">[58]output_table!H22/100</f>
+        <f aca="false">[58]output_table!h22/100</f>
         <v>0.090662566681913</v>
       </c>
       <c r="H27" s="21" t="n">
-        <f aca="false">[59]output_table!F22/100</f>
+        <f aca="false">[59]output_table!f22/100</f>
         <v>-0.0153832946187769</v>
       </c>
       <c r="I27" s="22" t="n">
-        <f aca="false">[59]output_table!G22/100</f>
+        <f aca="false">[59]output_table!g22/100</f>
         <v>-0.108096533920477</v>
       </c>
       <c r="J27" s="23" t="n">
-        <f aca="false">[59]output_table!H22/100</f>
+        <f aca="false">[59]output_table!h22/100</f>
         <v>0.0927132393017006</v>
       </c>
     </row>
@@ -36817,39 +35506,39 @@
         <v>112</v>
       </c>
       <c r="B28" s="21" t="n">
-        <f aca="false">[57]output_table!F23/100</f>
+        <f aca="false">[57]output_table!f23/100</f>
         <v>-0.802690960492703</v>
       </c>
       <c r="C28" s="22" t="n">
-        <f aca="false">[57]output_table!G23/100</f>
+        <f aca="false">[57]output_table!g23/100</f>
         <v>-0.443171196163706</v>
       </c>
       <c r="D28" s="23" t="n">
-        <f aca="false">[57]output_table!H23/100</f>
+        <f aca="false">[57]output_table!h23/100</f>
         <v>-0.359519764328997</v>
       </c>
       <c r="E28" s="21" t="n">
-        <f aca="false">[58]output_table!F23/100</f>
+        <f aca="false">[58]output_table!f23/100</f>
         <v>-0.802349416073599</v>
       </c>
       <c r="F28" s="22" t="n">
-        <f aca="false">[58]output_table!G23/100</f>
+        <f aca="false">[58]output_table!g23/100</f>
         <v>-0.444392957738814</v>
       </c>
       <c r="G28" s="23" t="n">
-        <f aca="false">[58]output_table!H23/100</f>
+        <f aca="false">[58]output_table!h23/100</f>
         <v>-0.357956458334785</v>
       </c>
       <c r="H28" s="21" t="n">
-        <f aca="false">[59]output_table!F23/100</f>
+        <f aca="false">[59]output_table!f23/100</f>
         <v>-0.801868615933629</v>
       </c>
       <c r="I28" s="22" t="n">
-        <f aca="false">[59]output_table!G23/100</f>
+        <f aca="false">[59]output_table!g23/100</f>
         <v>-0.444836305416359</v>
       </c>
       <c r="J28" s="23" t="n">
-        <f aca="false">[59]output_table!H23/100</f>
+        <f aca="false">[59]output_table!h23/100</f>
         <v>-0.35703231051727</v>
       </c>
     </row>
@@ -36858,39 +35547,39 @@
         <v>113</v>
       </c>
       <c r="B29" s="21" t="n">
-        <f aca="false">[57]output_table!F24/100</f>
+        <f aca="false">[57]output_table!f24/100</f>
         <v>-0.415947037866013</v>
       </c>
       <c r="C29" s="22" t="n">
-        <f aca="false">[57]output_table!G24/100</f>
+        <f aca="false">[57]output_table!g24/100</f>
         <v>-0.276023537065248</v>
       </c>
       <c r="D29" s="23" t="n">
-        <f aca="false">[57]output_table!H24/100</f>
+        <f aca="false">[57]output_table!h24/100</f>
         <v>-0.139923500800765</v>
       </c>
       <c r="E29" s="21" t="n">
-        <f aca="false">[58]output_table!F24/100</f>
+        <f aca="false">[58]output_table!f24/100</f>
         <v>-0.418018057724757</v>
       </c>
       <c r="F29" s="22" t="n">
-        <f aca="false">[58]output_table!G24/100</f>
+        <f aca="false">[58]output_table!g24/100</f>
         <v>-0.278349429505291</v>
       </c>
       <c r="G29" s="23" t="n">
-        <f aca="false">[58]output_table!H24/100</f>
+        <f aca="false">[58]output_table!h24/100</f>
         <v>-0.139668628219466</v>
       </c>
       <c r="H29" s="21" t="n">
-        <f aca="false">[59]output_table!F24/100</f>
+        <f aca="false">[59]output_table!f24/100</f>
         <v>-0.421750672485887</v>
       </c>
       <c r="I29" s="22" t="n">
-        <f aca="false">[59]output_table!G24/100</f>
+        <f aca="false">[59]output_table!g24/100</f>
         <v>-0.283153005401949</v>
       </c>
       <c r="J29" s="23" t="n">
-        <f aca="false">[59]output_table!H24/100</f>
+        <f aca="false">[59]output_table!h24/100</f>
         <v>-0.138597667083937</v>
       </c>
     </row>
@@ -36899,39 +35588,39 @@
         <v>114</v>
       </c>
       <c r="B30" s="21" t="n">
-        <f aca="false">[57]output_table!F25/100</f>
+        <f aca="false">[57]output_table!f25/100</f>
         <v>-0.604609797549278</v>
       </c>
       <c r="C30" s="22" t="n">
-        <f aca="false">[57]output_table!G25/100</f>
+        <f aca="false">[57]output_table!g25/100</f>
         <v>-0.297485245646888</v>
       </c>
       <c r="D30" s="23" t="n">
-        <f aca="false">[57]output_table!H25/100</f>
+        <f aca="false">[57]output_table!h25/100</f>
         <v>-0.30712455190239</v>
       </c>
       <c r="E30" s="21" t="n">
-        <f aca="false">[58]output_table!F25/100</f>
+        <f aca="false">[58]output_table!f25/100</f>
         <v>-0.60623952948597</v>
       </c>
       <c r="F30" s="22" t="n">
-        <f aca="false">[58]output_table!G25/100</f>
+        <f aca="false">[58]output_table!g25/100</f>
         <v>-0.29600716188736</v>
       </c>
       <c r="G30" s="23" t="n">
-        <f aca="false">[58]output_table!H25/100</f>
+        <f aca="false">[58]output_table!h25/100</f>
         <v>-0.310232367598609</v>
       </c>
       <c r="H30" s="21" t="n">
-        <f aca="false">[59]output_table!F25/100</f>
+        <f aca="false">[59]output_table!f25/100</f>
         <v>-0.608560809304554</v>
       </c>
       <c r="I30" s="22" t="n">
-        <f aca="false">[59]output_table!G25/100</f>
+        <f aca="false">[59]output_table!g25/100</f>
         <v>-0.293896204931641</v>
       </c>
       <c r="J30" s="23" t="n">
-        <f aca="false">[59]output_table!H25/100</f>
+        <f aca="false">[59]output_table!h25/100</f>
         <v>-0.314664604372913</v>
       </c>
     </row>
@@ -36940,39 +35629,39 @@
         <v>115</v>
       </c>
       <c r="B31" s="25" t="n">
-        <f aca="false">[57]output_table!F26/100</f>
+        <f aca="false">[57]output_table!f26/100</f>
         <v>-0.00946425218031866</v>
       </c>
       <c r="C31" s="26" t="n">
-        <f aca="false">[57]output_table!G26/100</f>
+        <f aca="false">[57]output_table!g26/100</f>
         <v>0.0812454401088284</v>
       </c>
       <c r="D31" s="27" t="n">
-        <f aca="false">[57]output_table!H26/100</f>
+        <f aca="false">[57]output_table!h26/100</f>
         <v>-0.090709692289147</v>
       </c>
       <c r="E31" s="25" t="n">
-        <f aca="false">[58]output_table!F26/100</f>
+        <f aca="false">[58]output_table!f26/100</f>
         <v>-0.00944259896931242</v>
       </c>
       <c r="F31" s="26" t="n">
-        <f aca="false">[58]output_table!G26/100</f>
+        <f aca="false">[58]output_table!g26/100</f>
         <v>0.0836646025799701</v>
       </c>
       <c r="G31" s="27" t="n">
-        <f aca="false">[58]output_table!H26/100</f>
+        <f aca="false">[58]output_table!h26/100</f>
         <v>-0.0931072015492825</v>
       </c>
       <c r="H31" s="25" t="n">
-        <f aca="false">[59]output_table!F26/100</f>
+        <f aca="false">[59]output_table!f26/100</f>
         <v>-0.00936970689934603</v>
       </c>
       <c r="I31" s="26" t="n">
-        <f aca="false">[59]output_table!G26/100</f>
+        <f aca="false">[59]output_table!g26/100</f>
         <v>0.0878583211398073</v>
       </c>
       <c r="J31" s="27" t="n">
-        <f aca="false">[59]output_table!H26/100</f>
+        <f aca="false">[59]output_table!h26/100</f>
         <v>-0.0972280280391534</v>
       </c>
     </row>
@@ -37048,7 +35737,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -37109,27 +35798,27 @@
         <v>91</v>
       </c>
       <c r="B7" s="17" t="n">
-        <f aca="false">[60]output_table!F2/100</f>
+        <f aca="false">[60]output_table!f2/100</f>
         <v>-0.0216462979183204</v>
       </c>
       <c r="C7" s="18" t="n">
-        <f aca="false">[60]output_table!G2/100</f>
+        <f aca="false">[60]output_table!g2/100</f>
         <v>-0.00730568835833007</v>
       </c>
       <c r="D7" s="19" t="n">
-        <f aca="false">[60]output_table!H2/100</f>
+        <f aca="false">[60]output_table!h2/100</f>
         <v>-0.0143406095599903</v>
       </c>
       <c r="E7" s="17" t="n">
-        <f aca="false">[61]output_table!F2/100</f>
+        <f aca="false">[61]output_table!f2/100</f>
         <v>-0.019487495353045</v>
       </c>
       <c r="F7" s="18" t="n">
-        <f aca="false">[61]output_table!G2/100</f>
+        <f aca="false">[61]output_table!g2/100</f>
         <v>-0.00359579726253245</v>
       </c>
       <c r="G7" s="19" t="n">
-        <f aca="false">[61]output_table!H2/100</f>
+        <f aca="false">[61]output_table!h2/100</f>
         <v>-0.0158916980905126</v>
       </c>
     </row>
@@ -37138,27 +35827,27 @@
         <v>92</v>
       </c>
       <c r="B8" s="21" t="n">
-        <f aca="false">[60]output_table!F3/100</f>
+        <f aca="false">[60]output_table!f3/100</f>
         <v>-0.416432784928032</v>
       </c>
       <c r="C8" s="22" t="n">
-        <f aca="false">[60]output_table!G3/100</f>
+        <f aca="false">[60]output_table!g3/100</f>
         <v>-1.15233304462373</v>
       </c>
       <c r="D8" s="23" t="n">
-        <f aca="false">[60]output_table!H3/100</f>
+        <f aca="false">[60]output_table!h3/100</f>
         <v>0.735900259695695</v>
       </c>
       <c r="E8" s="21" t="n">
-        <f aca="false">[61]output_table!F3/100</f>
+        <f aca="false">[61]output_table!f3/100</f>
         <v>-0.438737473629632</v>
       </c>
       <c r="F8" s="22" t="n">
-        <f aca="false">[61]output_table!G3/100</f>
+        <f aca="false">[61]output_table!g3/100</f>
         <v>-1.12368225353914</v>
       </c>
       <c r="G8" s="23" t="n">
-        <f aca="false">[61]output_table!H3/100</f>
+        <f aca="false">[61]output_table!h3/100</f>
         <v>0.684944779909509</v>
       </c>
     </row>
@@ -37167,27 +35856,27 @@
         <v>93</v>
       </c>
       <c r="B9" s="21" t="n">
-        <f aca="false">[60]output_table!F4/100</f>
+        <f aca="false">[60]output_table!f4/100</f>
         <v>-0.654369619571696</v>
       </c>
       <c r="C9" s="22" t="n">
-        <f aca="false">[60]output_table!G4/100</f>
+        <f aca="false">[60]output_table!g4/100</f>
         <v>-1.05299629816857</v>
       </c>
       <c r="D9" s="23" t="n">
-        <f aca="false">[60]output_table!H4/100</f>
+        <f aca="false">[60]output_table!h4/100</f>
         <v>0.398626678596872</v>
       </c>
       <c r="E9" s="21" t="n">
-        <f aca="false">[61]output_table!F4/100</f>
+        <f aca="false">[61]output_table!f4/100</f>
         <v>-0.65417795082929</v>
       </c>
       <c r="F9" s="22" t="n">
-        <f aca="false">[61]output_table!G4/100</f>
+        <f aca="false">[61]output_table!g4/100</f>
         <v>-1.05855944430206</v>
       </c>
       <c r="G9" s="23" t="n">
-        <f aca="false">[61]output_table!H4/100</f>
+        <f aca="false">[61]output_table!h4/100</f>
         <v>0.404381493472768</v>
       </c>
     </row>
@@ -37196,27 +35885,27 @@
         <v>94</v>
       </c>
       <c r="B10" s="21" t="n">
-        <f aca="false">[60]output_table!F5/100</f>
+        <f aca="false">[60]output_table!f5/100</f>
         <v>-0.716030119317235</v>
       </c>
       <c r="C10" s="22" t="n">
-        <f aca="false">[60]output_table!G5/100</f>
+        <f aca="false">[60]output_table!g5/100</f>
         <v>-0.980890961716671</v>
       </c>
       <c r="D10" s="23" t="n">
-        <f aca="false">[60]output_table!H5/100</f>
+        <f aca="false">[60]output_table!h5/100</f>
         <v>0.264860842399436</v>
       </c>
       <c r="E10" s="21" t="n">
-        <f aca="false">[61]output_table!F5/100</f>
+        <f aca="false">[61]output_table!f5/100</f>
         <v>-0.715589037807655</v>
       </c>
       <c r="F10" s="22" t="n">
-        <f aca="false">[61]output_table!G5/100</f>
+        <f aca="false">[61]output_table!g5/100</f>
         <v>-0.981314816818074</v>
       </c>
       <c r="G10" s="23" t="n">
-        <f aca="false">[61]output_table!H5/100</f>
+        <f aca="false">[61]output_table!h5/100</f>
         <v>0.265725779010419</v>
       </c>
     </row>
@@ -37225,27 +35914,27 @@
         <v>95</v>
       </c>
       <c r="B11" s="21" t="n">
-        <f aca="false">[60]output_table!F6/100</f>
+        <f aca="false">[60]output_table!f6/100</f>
         <v>2.73063048366431E-005</v>
       </c>
       <c r="C11" s="22" t="n">
-        <f aca="false">[60]output_table!G6/100</f>
+        <f aca="false">[60]output_table!g6/100</f>
         <v>4.79970195546571E-005</v>
       </c>
       <c r="D11" s="23" t="n">
-        <f aca="false">[60]output_table!H6/100</f>
+        <f aca="false">[60]output_table!h6/100</f>
         <v>-2.0690714718014E-005</v>
       </c>
       <c r="E11" s="21" t="n">
-        <f aca="false">[61]output_table!F6/100</f>
+        <f aca="false">[61]output_table!f6/100</f>
         <v>0.00255508770405171</v>
       </c>
       <c r="F11" s="22" t="n">
-        <f aca="false">[61]output_table!G6/100</f>
+        <f aca="false">[61]output_table!g6/100</f>
         <v>-0.00377489598003948</v>
       </c>
       <c r="G11" s="23" t="n">
-        <f aca="false">[61]output_table!H6/100</f>
+        <f aca="false">[61]output_table!h6/100</f>
         <v>0.00632998368409119</v>
       </c>
     </row>
@@ -37254,27 +35943,27 @@
         <v>96</v>
       </c>
       <c r="B12" s="21" t="n">
-        <f aca="false">[60]output_table!F7/100</f>
+        <f aca="false">[60]output_table!f7/100</f>
         <v>-0.433100734517849</v>
       </c>
       <c r="C12" s="22" t="n">
-        <f aca="false">[60]output_table!G7/100</f>
+        <f aca="false">[60]output_table!g7/100</f>
         <v>-0.634671975470489</v>
       </c>
       <c r="D12" s="23" t="n">
-        <f aca="false">[60]output_table!H7/100</f>
+        <f aca="false">[60]output_table!h7/100</f>
         <v>0.20157124095264</v>
       </c>
       <c r="E12" s="21" t="n">
-        <f aca="false">[61]output_table!F7/100</f>
+        <f aca="false">[61]output_table!f7/100</f>
         <v>-0.425508910046436</v>
       </c>
       <c r="F12" s="22" t="n">
-        <f aca="false">[61]output_table!G7/100</f>
+        <f aca="false">[61]output_table!g7/100</f>
         <v>-0.635395050427986</v>
       </c>
       <c r="G12" s="23" t="n">
-        <f aca="false">[61]output_table!H7/100</f>
+        <f aca="false">[61]output_table!h7/100</f>
         <v>0.209886140381551</v>
       </c>
     </row>
@@ -37283,27 +35972,27 @@
         <v>97</v>
       </c>
       <c r="B13" s="21" t="n">
-        <f aca="false">[60]output_table!F8/100</f>
+        <f aca="false">[60]output_table!f8/100</f>
         <v>-0.771731324969192</v>
       </c>
       <c r="C13" s="22" t="n">
-        <f aca="false">[60]output_table!G8/100</f>
+        <f aca="false">[60]output_table!g8/100</f>
         <v>-0.427163506913475</v>
       </c>
       <c r="D13" s="23" t="n">
-        <f aca="false">[60]output_table!H8/100</f>
+        <f aca="false">[60]output_table!h8/100</f>
         <v>-0.344567818055717</v>
       </c>
       <c r="E13" s="21" t="n">
-        <f aca="false">[61]output_table!F8/100</f>
+        <f aca="false">[61]output_table!f8/100</f>
         <v>-0.779296102085384</v>
       </c>
       <c r="F13" s="22" t="n">
-        <f aca="false">[61]output_table!G8/100</f>
+        <f aca="false">[61]output_table!g8/100</f>
         <v>-0.416653755764344</v>
       </c>
       <c r="G13" s="23" t="n">
-        <f aca="false">[61]output_table!H8/100</f>
+        <f aca="false">[61]output_table!h8/100</f>
         <v>-0.362642346321039</v>
       </c>
     </row>
@@ -37312,27 +36001,27 @@
         <v>98</v>
       </c>
       <c r="B14" s="21" t="n">
-        <f aca="false">[60]output_table!F9/100</f>
+        <f aca="false">[60]output_table!f9/100</f>
         <v>-0.385873950410221</v>
       </c>
       <c r="C14" s="22" t="n">
-        <f aca="false">[60]output_table!G9/100</f>
+        <f aca="false">[60]output_table!g9/100</f>
         <v>-0.659092990382779</v>
       </c>
       <c r="D14" s="23" t="n">
-        <f aca="false">[60]output_table!H9/100</f>
+        <f aca="false">[60]output_table!h9/100</f>
         <v>0.273219039972558</v>
       </c>
       <c r="E14" s="21" t="n">
-        <f aca="false">[61]output_table!F9/100</f>
+        <f aca="false">[61]output_table!f9/100</f>
         <v>-0.385127340572659</v>
       </c>
       <c r="F14" s="22" t="n">
-        <f aca="false">[61]output_table!G9/100</f>
+        <f aca="false">[61]output_table!g9/100</f>
         <v>-0.658123513795964</v>
       </c>
       <c r="G14" s="23" t="n">
-        <f aca="false">[61]output_table!H9/100</f>
+        <f aca="false">[61]output_table!h9/100</f>
         <v>0.272996173223305</v>
       </c>
     </row>
@@ -37341,27 +36030,27 @@
         <v>99</v>
       </c>
       <c r="B15" s="21" t="n">
-        <f aca="false">[60]output_table!F10/100</f>
+        <f aca="false">[60]output_table!f10/100</f>
         <v>-0.245820271829083</v>
       </c>
       <c r="C15" s="22" t="n">
-        <f aca="false">[60]output_table!G10/100</f>
+        <f aca="false">[60]output_table!g10/100</f>
         <v>0.243602903563213</v>
       </c>
       <c r="D15" s="23" t="n">
-        <f aca="false">[60]output_table!H10/100</f>
+        <f aca="false">[60]output_table!h10/100</f>
         <v>-0.489423175392296</v>
       </c>
       <c r="E15" s="21" t="n">
-        <f aca="false">[61]output_table!F10/100</f>
+        <f aca="false">[61]output_table!f10/100</f>
         <v>-0.245413841295487</v>
       </c>
       <c r="F15" s="22" t="n">
-        <f aca="false">[61]output_table!G10/100</f>
+        <f aca="false">[61]output_table!g10/100</f>
         <v>0.234857322752109</v>
       </c>
       <c r="G15" s="23" t="n">
-        <f aca="false">[61]output_table!H10/100</f>
+        <f aca="false">[61]output_table!h10/100</f>
         <v>-0.480271164047596</v>
       </c>
     </row>
@@ -37370,27 +36059,27 @@
         <v>100</v>
       </c>
       <c r="B16" s="21" t="n">
-        <f aca="false">[60]output_table!F11/100</f>
+        <f aca="false">[60]output_table!f11/100</f>
         <v>-0.519788087782618</v>
       </c>
       <c r="C16" s="22" t="n">
-        <f aca="false">[60]output_table!G11/100</f>
+        <f aca="false">[60]output_table!g11/100</f>
         <v>-0.488383794634856</v>
       </c>
       <c r="D16" s="23" t="n">
-        <f aca="false">[60]output_table!H11/100</f>
+        <f aca="false">[60]output_table!h11/100</f>
         <v>-0.0314042931477619</v>
       </c>
       <c r="E16" s="21" t="n">
-        <f aca="false">[61]output_table!F11/100</f>
+        <f aca="false">[61]output_table!f11/100</f>
         <v>-0.519111552294809</v>
       </c>
       <c r="F16" s="22" t="n">
-        <f aca="false">[61]output_table!G11/100</f>
+        <f aca="false">[61]output_table!g11/100</f>
         <v>-0.495025197846148</v>
       </c>
       <c r="G16" s="23" t="n">
-        <f aca="false">[61]output_table!H11/100</f>
+        <f aca="false">[61]output_table!h11/100</f>
         <v>-0.0240863544486614</v>
       </c>
     </row>
@@ -37399,27 +36088,27 @@
         <v>101</v>
       </c>
       <c r="B17" s="21" t="n">
-        <f aca="false">[60]output_table!F12/100</f>
+        <f aca="false">[60]output_table!f12/100</f>
         <v>-0.223443517875965</v>
       </c>
       <c r="C17" s="22" t="n">
-        <f aca="false">[60]output_table!G12/100</f>
+        <f aca="false">[60]output_table!g12/100</f>
         <v>0.0879521237228266</v>
       </c>
       <c r="D17" s="23" t="n">
-        <f aca="false">[60]output_table!H12/100</f>
+        <f aca="false">[60]output_table!h12/100</f>
         <v>-0.311395641598791</v>
       </c>
       <c r="E17" s="21" t="n">
-        <f aca="false">[61]output_table!F12/100</f>
+        <f aca="false">[61]output_table!f12/100</f>
         <v>-0.20789192917663</v>
       </c>
       <c r="F17" s="22" t="n">
-        <f aca="false">[61]output_table!G12/100</f>
+        <f aca="false">[61]output_table!g12/100</f>
         <v>0.0958390193067775</v>
       </c>
       <c r="G17" s="23" t="n">
-        <f aca="false">[61]output_table!H12/100</f>
+        <f aca="false">[61]output_table!h12/100</f>
         <v>-0.303730948483407</v>
       </c>
     </row>
@@ -37428,27 +36117,27 @@
         <v>102</v>
       </c>
       <c r="B18" s="21" t="n">
-        <f aca="false">[60]output_table!F13/100</f>
+        <f aca="false">[60]output_table!f13/100</f>
         <v>-0.160404468379164</v>
       </c>
       <c r="C18" s="22" t="n">
-        <f aca="false">[60]output_table!G13/100</f>
+        <f aca="false">[60]output_table!g13/100</f>
         <v>-0.0660244643660178</v>
       </c>
       <c r="D18" s="23" t="n">
-        <f aca="false">[60]output_table!H13/100</f>
+        <f aca="false">[60]output_table!h13/100</f>
         <v>-0.0943800040131464</v>
       </c>
       <c r="E18" s="21" t="n">
-        <f aca="false">[61]output_table!F13/100</f>
+        <f aca="false">[61]output_table!f13/100</f>
         <v>-0.161193951053341</v>
       </c>
       <c r="F18" s="22" t="n">
-        <f aca="false">[61]output_table!G13/100</f>
+        <f aca="false">[61]output_table!g13/100</f>
         <v>-0.0601285417127902</v>
       </c>
       <c r="G18" s="23" t="n">
-        <f aca="false">[61]output_table!H13/100</f>
+        <f aca="false">[61]output_table!h13/100</f>
         <v>-0.101065409340551</v>
       </c>
     </row>
@@ -37457,27 +36146,27 @@
         <v>103</v>
       </c>
       <c r="B19" s="21" t="n">
-        <f aca="false">[60]output_table!F14/100</f>
+        <f aca="false">[60]output_table!f14/100</f>
         <v>-0.5726250324717</v>
       </c>
       <c r="C19" s="22" t="n">
-        <f aca="false">[60]output_table!G14/100</f>
+        <f aca="false">[60]output_table!g14/100</f>
         <v>-0.717199938213725</v>
       </c>
       <c r="D19" s="23" t="n">
-        <f aca="false">[60]output_table!H14/100</f>
+        <f aca="false">[60]output_table!h14/100</f>
         <v>0.144574905742025</v>
       </c>
       <c r="E19" s="21" t="n">
-        <f aca="false">[61]output_table!F14/100</f>
+        <f aca="false">[61]output_table!f14/100</f>
         <v>-0.607120833528711</v>
       </c>
       <c r="F19" s="22" t="n">
-        <f aca="false">[61]output_table!G14/100</f>
+        <f aca="false">[61]output_table!g14/100</f>
         <v>-0.643294715898929</v>
       </c>
       <c r="G19" s="23" t="n">
-        <f aca="false">[61]output_table!H14/100</f>
+        <f aca="false">[61]output_table!h14/100</f>
         <v>0.0361738823702175</v>
       </c>
     </row>
@@ -37486,27 +36175,27 @@
         <v>104</v>
       </c>
       <c r="B20" s="21" t="n">
-        <f aca="false">[60]output_table!F15/100</f>
+        <f aca="false">[60]output_table!f15/100</f>
         <v>-0.272590767176212</v>
       </c>
       <c r="C20" s="22" t="n">
-        <f aca="false">[60]output_table!G15/100</f>
+        <f aca="false">[60]output_table!g15/100</f>
         <v>0.211571191454877</v>
       </c>
       <c r="D20" s="23" t="n">
-        <f aca="false">[60]output_table!H15/100</f>
+        <f aca="false">[60]output_table!h15/100</f>
         <v>-0.484161958631089</v>
       </c>
       <c r="E20" s="21" t="n">
-        <f aca="false">[61]output_table!F15/100</f>
+        <f aca="false">[61]output_table!f15/100</f>
         <v>-0.27080574178765</v>
       </c>
       <c r="F20" s="22" t="n">
-        <f aca="false">[61]output_table!G15/100</f>
+        <f aca="false">[61]output_table!g15/100</f>
         <v>0.208203439040167</v>
       </c>
       <c r="G20" s="23" t="n">
-        <f aca="false">[61]output_table!H15/100</f>
+        <f aca="false">[61]output_table!h15/100</f>
         <v>-0.479009180827817</v>
       </c>
     </row>
@@ -37515,27 +36204,27 @@
         <v>105</v>
       </c>
       <c r="B21" s="21" t="n">
-        <f aca="false">[60]output_table!F16/100</f>
+        <f aca="false">[60]output_table!f16/100</f>
         <v>-0.0184093484682575</v>
       </c>
       <c r="C21" s="22" t="n">
-        <f aca="false">[60]output_table!G16/100</f>
+        <f aca="false">[60]output_table!g16/100</f>
         <v>0.0781062927747571</v>
       </c>
       <c r="D21" s="23" t="n">
-        <f aca="false">[60]output_table!H16/100</f>
+        <f aca="false">[60]output_table!h16/100</f>
         <v>-0.0965156412430146</v>
       </c>
       <c r="E21" s="21" t="n">
-        <f aca="false">[61]output_table!F16/100</f>
+        <f aca="false">[61]output_table!f16/100</f>
         <v>-0.0252203809491364</v>
       </c>
       <c r="F21" s="22" t="n">
-        <f aca="false">[61]output_table!G16/100</f>
+        <f aca="false">[61]output_table!g16/100</f>
         <v>0.0792364400202908</v>
       </c>
       <c r="G21" s="23" t="n">
-        <f aca="false">[61]output_table!H16/100</f>
+        <f aca="false">[61]output_table!h16/100</f>
         <v>-0.104456820969427</v>
       </c>
     </row>
@@ -37544,27 +36233,27 @@
         <v>106</v>
       </c>
       <c r="B22" s="21" t="n">
-        <f aca="false">[60]output_table!F17/100</f>
+        <f aca="false">[60]output_table!f17/100</f>
         <v>-0.561200756165894</v>
       </c>
       <c r="C22" s="22" t="n">
-        <f aca="false">[60]output_table!G17/100</f>
+        <f aca="false">[60]output_table!g17/100</f>
         <v>-0.926667572374652</v>
       </c>
       <c r="D22" s="23" t="n">
-        <f aca="false">[60]output_table!H17/100</f>
+        <f aca="false">[60]output_table!h17/100</f>
         <v>0.365466816208758</v>
       </c>
       <c r="E22" s="21" t="n">
-        <f aca="false">[61]output_table!F17/100</f>
+        <f aca="false">[61]output_table!f17/100</f>
         <v>-0.557974046684682</v>
       </c>
       <c r="F22" s="22" t="n">
-        <f aca="false">[61]output_table!G17/100</f>
+        <f aca="false">[61]output_table!g17/100</f>
         <v>-0.931882836343431</v>
       </c>
       <c r="G22" s="23" t="n">
-        <f aca="false">[61]output_table!H17/100</f>
+        <f aca="false">[61]output_table!h17/100</f>
         <v>0.37390878965875</v>
       </c>
     </row>
@@ -37573,27 +36262,27 @@
         <v>107</v>
       </c>
       <c r="B23" s="21" t="n">
-        <f aca="false">[60]output_table!F18/100</f>
+        <f aca="false">[60]output_table!f18/100</f>
         <v>-0.716498970068515</v>
       </c>
       <c r="C23" s="22" t="n">
-        <f aca="false">[60]output_table!G18/100</f>
+        <f aca="false">[60]output_table!g18/100</f>
         <v>-1.31089955444188</v>
       </c>
       <c r="D23" s="23" t="n">
-        <f aca="false">[60]output_table!H18/100</f>
+        <f aca="false">[60]output_table!h18/100</f>
         <v>0.594400584373364</v>
       </c>
       <c r="E23" s="21" t="n">
-        <f aca="false">[61]output_table!F18/100</f>
+        <f aca="false">[61]output_table!f18/100</f>
         <v>-0.716033181833539</v>
       </c>
       <c r="F23" s="22" t="n">
-        <f aca="false">[61]output_table!G18/100</f>
+        <f aca="false">[61]output_table!g18/100</f>
         <v>-1.3089321352533</v>
       </c>
       <c r="G23" s="23" t="n">
-        <f aca="false">[61]output_table!H18/100</f>
+        <f aca="false">[61]output_table!h18/100</f>
         <v>0.592898953419765</v>
       </c>
     </row>
@@ -37602,27 +36291,27 @@
         <v>108</v>
       </c>
       <c r="B24" s="21" t="n">
-        <f aca="false">[60]output_table!F19/100</f>
+        <f aca="false">[60]output_table!f19/100</f>
         <v>-0.344666914916347</v>
       </c>
       <c r="C24" s="22" t="n">
-        <f aca="false">[60]output_table!G19/100</f>
+        <f aca="false">[60]output_table!g19/100</f>
         <v>-0.856589393355806</v>
       </c>
       <c r="D24" s="23" t="n">
-        <f aca="false">[60]output_table!H19/100</f>
+        <f aca="false">[60]output_table!h19/100</f>
         <v>0.511922478439459</v>
       </c>
       <c r="E24" s="21" t="n">
-        <f aca="false">[61]output_table!F19/100</f>
+        <f aca="false">[61]output_table!f19/100</f>
         <v>-0.34742277174815</v>
       </c>
       <c r="F24" s="22" t="n">
-        <f aca="false">[61]output_table!G19/100</f>
+        <f aca="false">[61]output_table!g19/100</f>
         <v>-0.860494352814888</v>
       </c>
       <c r="G24" s="23" t="n">
-        <f aca="false">[61]output_table!H19/100</f>
+        <f aca="false">[61]output_table!h19/100</f>
         <v>0.513071581066738</v>
       </c>
     </row>
@@ -37631,27 +36320,27 @@
         <v>109</v>
       </c>
       <c r="B25" s="21" t="n">
-        <f aca="false">[60]output_table!F20/100</f>
+        <f aca="false">[60]output_table!f20/100</f>
         <v>-0.0814022054510633</v>
       </c>
       <c r="C25" s="22" t="n">
-        <f aca="false">[60]output_table!G20/100</f>
+        <f aca="false">[60]output_table!g20/100</f>
         <v>-0.57693971645835</v>
       </c>
       <c r="D25" s="23" t="n">
-        <f aca="false">[60]output_table!H20/100</f>
+        <f aca="false">[60]output_table!h20/100</f>
         <v>0.495537511007286</v>
       </c>
       <c r="E25" s="21" t="n">
-        <f aca="false">[61]output_table!F20/100</f>
+        <f aca="false">[61]output_table!f20/100</f>
         <v>-0.107483477327804</v>
       </c>
       <c r="F25" s="22" t="n">
-        <f aca="false">[61]output_table!G20/100</f>
+        <f aca="false">[61]output_table!g20/100</f>
         <v>-0.557357720573648</v>
       </c>
       <c r="G25" s="23" t="n">
-        <f aca="false">[61]output_table!H20/100</f>
+        <f aca="false">[61]output_table!h20/100</f>
         <v>0.449874243245845</v>
       </c>
     </row>
@@ -37660,27 +36349,27 @@
         <v>110</v>
       </c>
       <c r="B26" s="21" t="n">
-        <f aca="false">[60]output_table!F21/100</f>
+        <f aca="false">[60]output_table!f21/100</f>
         <v>0.00817878315020299</v>
       </c>
       <c r="C26" s="22" t="n">
-        <f aca="false">[60]output_table!G21/100</f>
+        <f aca="false">[60]output_table!g21/100</f>
         <v>-0.0152996208833592</v>
       </c>
       <c r="D26" s="23" t="n">
-        <f aca="false">[60]output_table!H21/100</f>
+        <f aca="false">[60]output_table!h21/100</f>
         <v>0.0234784040335623</v>
       </c>
       <c r="E26" s="21" t="n">
-        <f aca="false">[61]output_table!F21/100</f>
+        <f aca="false">[61]output_table!f21/100</f>
         <v>0.0118351892475977</v>
       </c>
       <c r="F26" s="22" t="n">
-        <f aca="false">[61]output_table!G21/100</f>
+        <f aca="false">[61]output_table!g21/100</f>
         <v>-0.0133687464886814</v>
       </c>
       <c r="G26" s="23" t="n">
-        <f aca="false">[61]output_table!H21/100</f>
+        <f aca="false">[61]output_table!h21/100</f>
         <v>0.0252039357362789</v>
       </c>
     </row>
@@ -37689,27 +36378,27 @@
         <v>111</v>
       </c>
       <c r="B27" s="21" t="n">
-        <f aca="false">[60]output_table!F22/100</f>
+        <f aca="false">[60]output_table!f22/100</f>
         <v>-0.0131041768563223</v>
       </c>
       <c r="C27" s="22" t="n">
-        <f aca="false">[60]output_table!G22/100</f>
+        <f aca="false">[60]output_table!g22/100</f>
         <v>-0.0876416025930815</v>
       </c>
       <c r="D27" s="23" t="n">
-        <f aca="false">[60]output_table!H22/100</f>
+        <f aca="false">[60]output_table!h22/100</f>
         <v>0.0745374257367591</v>
       </c>
       <c r="E27" s="21" t="n">
-        <f aca="false">[61]output_table!F22/100</f>
+        <f aca="false">[61]output_table!f22/100</f>
         <v>-0.0147488043987843</v>
       </c>
       <c r="F27" s="22" t="n">
-        <f aca="false">[61]output_table!G22/100</f>
+        <f aca="false">[61]output_table!g22/100</f>
         <v>-0.0757091741201434</v>
       </c>
       <c r="G27" s="23" t="n">
-        <f aca="false">[61]output_table!H22/100</f>
+        <f aca="false">[61]output_table!h22/100</f>
         <v>0.0609603697213591</v>
       </c>
     </row>
@@ -37718,27 +36407,27 @@
         <v>112</v>
       </c>
       <c r="B28" s="21" t="n">
-        <f aca="false">[60]output_table!F23/100</f>
+        <f aca="false">[60]output_table!f23/100</f>
         <v>-0.793912040549661</v>
       </c>
       <c r="C28" s="22" t="n">
-        <f aca="false">[60]output_table!G23/100</f>
+        <f aca="false">[60]output_table!g23/100</f>
         <v>-0.436580214316245</v>
       </c>
       <c r="D28" s="23" t="n">
-        <f aca="false">[60]output_table!H23/100</f>
+        <f aca="false">[60]output_table!h23/100</f>
         <v>-0.357331826233415</v>
       </c>
       <c r="E28" s="21" t="n">
-        <f aca="false">[61]output_table!F23/100</f>
+        <f aca="false">[61]output_table!f23/100</f>
         <v>-0.793246334914702</v>
       </c>
       <c r="F28" s="22" t="n">
-        <f aca="false">[61]output_table!G23/100</f>
+        <f aca="false">[61]output_table!g23/100</f>
         <v>-0.43580688194134</v>
       </c>
       <c r="G28" s="23" t="n">
-        <f aca="false">[61]output_table!H23/100</f>
+        <f aca="false">[61]output_table!h23/100</f>
         <v>-0.357439452973362</v>
       </c>
     </row>
@@ -37747,27 +36436,27 @@
         <v>113</v>
       </c>
       <c r="B29" s="21" t="n">
-        <f aca="false">[60]output_table!F24/100</f>
+        <f aca="false">[60]output_table!f24/100</f>
         <v>-0.391836056593749</v>
       </c>
       <c r="C29" s="22" t="n">
-        <f aca="false">[60]output_table!G24/100</f>
+        <f aca="false">[60]output_table!g24/100</f>
         <v>-0.251445037044437</v>
       </c>
       <c r="D29" s="23" t="n">
-        <f aca="false">[60]output_table!H24/100</f>
+        <f aca="false">[60]output_table!h24/100</f>
         <v>-0.140391019549312</v>
       </c>
       <c r="E29" s="21" t="n">
-        <f aca="false">[61]output_table!F24/100</f>
+        <f aca="false">[61]output_table!f24/100</f>
         <v>-0.402127163504486</v>
       </c>
       <c r="F29" s="22" t="n">
-        <f aca="false">[61]output_table!G24/100</f>
+        <f aca="false">[61]output_table!g24/100</f>
         <v>-0.259154586975651</v>
       </c>
       <c r="G29" s="23" t="n">
-        <f aca="false">[61]output_table!H24/100</f>
+        <f aca="false">[61]output_table!h24/100</f>
         <v>-0.142972576528835</v>
       </c>
     </row>
@@ -37776,27 +36465,27 @@
         <v>114</v>
       </c>
       <c r="B30" s="21" t="n">
-        <f aca="false">[60]output_table!F25/100</f>
+        <f aca="false">[60]output_table!f25/100</f>
         <v>-0.58249089911704</v>
       </c>
       <c r="C30" s="22" t="n">
-        <f aca="false">[60]output_table!G25/100</f>
+        <f aca="false">[60]output_table!g25/100</f>
         <v>-0.298848568326819</v>
       </c>
       <c r="D30" s="23" t="n">
-        <f aca="false">[60]output_table!H25/100</f>
+        <f aca="false">[60]output_table!h25/100</f>
         <v>-0.283642330790221</v>
       </c>
       <c r="E30" s="21" t="n">
-        <f aca="false">[61]output_table!F25/100</f>
+        <f aca="false">[61]output_table!f25/100</f>
         <v>-0.582719409585421</v>
       </c>
       <c r="F30" s="22" t="n">
-        <f aca="false">[61]output_table!G25/100</f>
+        <f aca="false">[61]output_table!g25/100</f>
         <v>-0.299635787487777</v>
       </c>
       <c r="G30" s="23" t="n">
-        <f aca="false">[61]output_table!H25/100</f>
+        <f aca="false">[61]output_table!h25/100</f>
         <v>-0.283083622097645</v>
       </c>
     </row>
@@ -37805,27 +36494,27 @@
         <v>115</v>
       </c>
       <c r="B31" s="25" t="n">
-        <f aca="false">[60]output_table!F26/100</f>
+        <f aca="false">[60]output_table!f26/100</f>
         <v>-0.0131555247829673</v>
       </c>
       <c r="C31" s="26" t="n">
-        <f aca="false">[60]output_table!G26/100</f>
+        <f aca="false">[60]output_table!g26/100</f>
         <v>0.0714987036344115</v>
       </c>
       <c r="D31" s="27" t="n">
-        <f aca="false">[60]output_table!H26/100</f>
+        <f aca="false">[60]output_table!h26/100</f>
         <v>-0.0846542284173788</v>
       </c>
       <c r="E31" s="25" t="n">
-        <f aca="false">[61]output_table!F26/100</f>
+        <f aca="false">[61]output_table!f26/100</f>
         <v>-0.0199376084328604</v>
       </c>
       <c r="F31" s="26" t="n">
-        <f aca="false">[61]output_table!G26/100</f>
+        <f aca="false">[61]output_table!g26/100</f>
         <v>0.0591943697617517</v>
       </c>
       <c r="G31" s="27" t="n">
-        <f aca="false">[61]output_table!H26/100</f>
+        <f aca="false">[61]output_table!h26/100</f>
         <v>-0.0791319781946122</v>
       </c>
     </row>
@@ -37926,15 +36615,15 @@
         <v>119</v>
       </c>
       <c r="B6" s="17" t="n">
-        <f aca="false">[62]volatility_by_decade!B2/100</f>
+        <f aca="false">[62]volatility_by_decade!b2/100</f>
         <v>-0.0346318979006214</v>
       </c>
       <c r="C6" s="18" t="n">
-        <f aca="false">[62]volatility_by_decade!C2/100</f>
+        <f aca="false">[62]volatility_by_decade!c2/100</f>
         <v>-0.157427284615131</v>
       </c>
       <c r="D6" s="19" t="n">
-        <f aca="false">[62]volatility_by_decade!D2/100</f>
+        <f aca="false">[62]volatility_by_decade!d2/100</f>
         <v>0.12279538671451</v>
       </c>
     </row>
@@ -37943,15 +36632,15 @@
         <v>120</v>
       </c>
       <c r="B7" s="21" t="n">
-        <f aca="false">[62]volatility_by_decade!B3/100</f>
+        <f aca="false">[62]volatility_by_decade!b3/100</f>
         <v>-0.122884893934008</v>
       </c>
       <c r="C7" s="22" t="n">
-        <f aca="false">[62]volatility_by_decade!C3/100</f>
+        <f aca="false">[62]volatility_by_decade!c3/100</f>
         <v>-0.359600542589178</v>
       </c>
       <c r="D7" s="23" t="n">
-        <f aca="false">[62]volatility_by_decade!D3/100</f>
+        <f aca="false">[62]volatility_by_decade!d3/100</f>
         <v>0.23671564865517</v>
       </c>
     </row>
@@ -37960,15 +36649,15 @@
         <v>121</v>
       </c>
       <c r="B8" s="21" t="n">
-        <f aca="false">[62]volatility_by_decade!B4/100</f>
+        <f aca="false">[62]volatility_by_decade!b4/100</f>
         <v>-0.34026437043474</v>
       </c>
       <c r="C8" s="22" t="n">
-        <f aca="false">[62]volatility_by_decade!C4/100</f>
+        <f aca="false">[62]volatility_by_decade!c4/100</f>
         <v>-0.661273971941935</v>
       </c>
       <c r="D8" s="23" t="n">
-        <f aca="false">[62]volatility_by_decade!D4/100</f>
+        <f aca="false">[62]volatility_by_decade!d4/100</f>
         <v>0.321009601507195</v>
       </c>
     </row>
@@ -37977,15 +36666,15 @@
         <v>122</v>
       </c>
       <c r="B9" s="25" t="n">
-        <f aca="false">[62]volatility_by_decade!B5/100</f>
+        <f aca="false">[62]volatility_by_decade!b5/100</f>
         <v>-0.668434581128015</v>
       </c>
       <c r="C9" s="26" t="n">
-        <f aca="false">[62]volatility_by_decade!C5/100</f>
+        <f aca="false">[62]volatility_by_decade!c5/100</f>
         <v>-0.650011112564255</v>
       </c>
       <c r="D9" s="27" t="n">
-        <f aca="false">[62]volatility_by_decade!D5/100</f>
+        <f aca="false">[62]volatility_by_decade!d5/100</f>
         <v>-0.0184234685637596</v>
       </c>
     </row>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -632,7 +632,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -689,8 +689,15 @@
       <family val="1"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCE181E"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -701,6 +708,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF200"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -843,7 +856,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -988,6 +1001,14 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1045,10 +1066,10 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFFF200"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -1104,7 +1125,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1114,277 +1135,277 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="F2">
-            <v>-0.871995016938059</v>
+            <v>-10.5774800004832</v>
           </cell>
           <cell r="G2">
-            <v>-4.78527761838807</v>
+            <v>11.9157011202646</v>
           </cell>
           <cell r="H2">
-            <v>3.91328260145002</v>
+            <v>-22.4931811207477</v>
           </cell>
         </row>
         <row r="3">
           <cell r="F3">
-            <v>-24.4374821423859</v>
+            <v>-50.2702420863422</v>
           </cell>
           <cell r="G3">
-            <v>-54.3372392480144</v>
+            <v>-58.8402847932354</v>
           </cell>
           <cell r="H3">
-            <v>29.8997571056286</v>
+            <v>8.57004270689324</v>
           </cell>
         </row>
         <row r="4">
           <cell r="F4">
-            <v>-51.9067343614722</v>
+            <v>-75.4604247091419</v>
           </cell>
           <cell r="G4">
-            <v>-120.014431542971</v>
+            <v>-32.7713766296395</v>
           </cell>
           <cell r="H4">
-            <v>68.1076971814993</v>
+            <v>-42.6890480795024</v>
           </cell>
         </row>
         <row r="5">
           <cell r="F5">
-            <v>-58.0690718007581</v>
+            <v>-76.9039646345329</v>
           </cell>
           <cell r="G5">
-            <v>-79.9086805784265</v>
+            <v>-54.9844897443001</v>
           </cell>
           <cell r="H5">
-            <v>21.8396087776684</v>
+            <v>-21.9194748902328</v>
           </cell>
         </row>
         <row r="6">
           <cell r="F6">
-            <v>0.148798216700991</v>
+            <v>1.82813106553456</v>
           </cell>
           <cell r="G6">
-            <v>-0.517503332565823</v>
+            <v>-6.84938272436293</v>
           </cell>
           <cell r="H6">
-            <v>0.666301549266814</v>
+            <v>8.67751378989749</v>
           </cell>
         </row>
         <row r="7">
           <cell r="F7">
-            <v>-14.2564850715132</v>
+            <v>-56.6601441804896</v>
           </cell>
           <cell r="G7">
-            <v>-53.0229168922839</v>
+            <v>-190.321986540188</v>
           </cell>
           <cell r="H7">
-            <v>38.7664318207707</v>
+            <v>133.661842359698</v>
           </cell>
         </row>
         <row r="8">
           <cell r="F8">
-            <v>-49.2452883411108</v>
+            <v>-80.0138856686181</v>
           </cell>
           <cell r="G8">
-            <v>-37.966738886339</v>
+            <v>-11.8707034251192</v>
           </cell>
           <cell r="H8">
-            <v>-11.2785494547718</v>
+            <v>-68.1431822434988</v>
           </cell>
         </row>
         <row r="9">
           <cell r="F9">
-            <v>-27.7226086616764</v>
+            <v>-41.6616411332547</v>
           </cell>
           <cell r="G9">
-            <v>-54.5526515343252</v>
+            <v>-23.4405608368549</v>
           </cell>
           <cell r="H9">
-            <v>26.8300428726488</v>
+            <v>-18.2210802963999</v>
           </cell>
         </row>
         <row r="10">
           <cell r="F10">
-            <v>-11.3835253898429</v>
+            <v>-27.6058793004082</v>
           </cell>
           <cell r="G10">
-            <v>4.10072534058516</v>
+            <v>56.1379934275976</v>
           </cell>
           <cell r="H10">
-            <v>-15.484250730428</v>
+            <v>-83.7438727280057</v>
           </cell>
         </row>
         <row r="11">
           <cell r="F11">
-            <v>-19.3471852953465</v>
+            <v>-52.7757329740792</v>
           </cell>
           <cell r="G11">
-            <v>-25.5467838279911</v>
+            <v>-5.18258098908403</v>
           </cell>
           <cell r="H11">
-            <v>6.19959853264459</v>
+            <v>-47.5931519849952</v>
           </cell>
         </row>
         <row r="12">
           <cell r="F12">
-            <v>-19.6861749866989</v>
+            <v>-42.1403214905773</v>
           </cell>
           <cell r="G12">
-            <v>-2.33002931491005</v>
+            <v>69.9629814316786</v>
           </cell>
           <cell r="H12">
-            <v>-17.3561456717888</v>
+            <v>-112.103302922256</v>
           </cell>
         </row>
         <row r="13">
           <cell r="F13">
-            <v>-17.4660605201418</v>
+            <v>-39.0602773113667</v>
           </cell>
           <cell r="G13">
-            <v>-6.36371613876475</v>
+            <v>-18.4949753724605</v>
           </cell>
           <cell r="H13">
-            <v>-11.102344381377</v>
+            <v>-20.5653019389062</v>
           </cell>
         </row>
         <row r="14">
           <cell r="F14">
-            <v>-42.3678389613345</v>
+            <v>-60.3826540757764</v>
           </cell>
           <cell r="G14">
-            <v>-50.9302170187423</v>
+            <v>-22.6213245775179</v>
           </cell>
           <cell r="H14">
-            <v>8.56237805740784</v>
+            <v>-37.7613294982585</v>
           </cell>
         </row>
         <row r="15">
           <cell r="F15">
-            <v>-10.6176015864681</v>
+            <v>-31.1829960577724</v>
           </cell>
           <cell r="G15">
-            <v>3.04484286407378</v>
+            <v>55.3170195400885</v>
           </cell>
           <cell r="H15">
-            <v>-13.6624444505419</v>
+            <v>-86.5000155978609</v>
           </cell>
         </row>
         <row r="16">
           <cell r="F16">
-            <v>2.96940293156509</v>
+            <v>-2.39769981678716</v>
           </cell>
           <cell r="G16">
-            <v>0.754191321264443</v>
+            <v>16.4710157286001</v>
           </cell>
           <cell r="H16">
-            <v>2.21521161030064</v>
+            <v>-18.8687155453873</v>
           </cell>
         </row>
         <row r="17">
           <cell r="F17">
-            <v>-46.7974722117531</v>
+            <v>-71.4490451736532</v>
           </cell>
           <cell r="G17">
-            <v>-57.8010968696742</v>
+            <v>-27.5872663100018</v>
           </cell>
           <cell r="H17">
-            <v>11.0036246579211</v>
+            <v>-43.8617788636514</v>
           </cell>
         </row>
         <row r="18">
           <cell r="F18">
-            <v>-39.8552026477866</v>
+            <v>-77.7242558035879</v>
           </cell>
           <cell r="G18">
-            <v>-91.2143662445799</v>
+            <v>-37.9692833960334</v>
           </cell>
           <cell r="H18">
-            <v>51.3591635967933</v>
+            <v>-39.7549724075545</v>
           </cell>
         </row>
         <row r="19">
           <cell r="F19">
-            <v>-20.5316753152855</v>
+            <v>-32.8139110095778</v>
           </cell>
           <cell r="G19">
-            <v>-88.9409467706447</v>
+            <v>-54.693192934407</v>
           </cell>
           <cell r="H19">
-            <v>68.4092714553592</v>
+            <v>21.8792819248292</v>
           </cell>
         </row>
         <row r="20">
           <cell r="F20">
-            <v>-4.48722535326793</v>
+            <v>-20.1935445388272</v>
           </cell>
           <cell r="G20">
-            <v>-49.6369095325512</v>
+            <v>-7.0205522438127</v>
           </cell>
           <cell r="H20">
-            <v>45.1496841792833</v>
+            <v>-13.1729922950144</v>
           </cell>
         </row>
         <row r="21">
           <cell r="F21">
-            <v>2.42106592073112</v>
+            <v>4.05489812284114</v>
           </cell>
           <cell r="G21">
-            <v>-4.58193011121156</v>
+            <v>-5.7669814061569</v>
           </cell>
           <cell r="H21">
-            <v>7.00299603194268</v>
+            <v>9.82187952899806</v>
           </cell>
         </row>
         <row r="22">
           <cell r="F22">
-            <v>-1.45737451200485</v>
+            <v>1.24804916893947</v>
           </cell>
           <cell r="G22">
-            <v>-7.98375863200927</v>
+            <v>-1393.65629943119</v>
           </cell>
           <cell r="H22">
-            <v>6.52638412000442</v>
+            <v>1394.90434860013</v>
           </cell>
         </row>
         <row r="23">
           <cell r="F23">
-            <v>-38.0717854226395</v>
+            <v>-84.4632238182775</v>
           </cell>
           <cell r="G23">
-            <v>-24.5862184231078</v>
+            <v>-27.6165975484058</v>
           </cell>
           <cell r="H23">
-            <v>-13.4855669995317</v>
+            <v>-56.8466262698718</v>
           </cell>
         </row>
         <row r="24">
           <cell r="F24">
-            <v>-30.7753648851186</v>
+            <v>-48.2109191480942</v>
           </cell>
           <cell r="G24">
-            <v>-35.6293815819547</v>
+            <v>26.3421457661312</v>
           </cell>
           <cell r="H24">
-            <v>4.85401669683606</v>
+            <v>-74.5530649142253</v>
           </cell>
         </row>
         <row r="25">
           <cell r="F25">
-            <v>-28.2944435893703</v>
+            <v>-65.9916346739683</v>
           </cell>
           <cell r="G25">
-            <v>-20.9917282784647</v>
+            <v>9.14574639988598</v>
           </cell>
           <cell r="H25">
-            <v>-7.30271531090558</v>
+            <v>-75.1373810738542</v>
           </cell>
         </row>
         <row r="26">
           <cell r="F26">
-            <v>0.274887888504036</v>
+            <v>-1.3417262111894</v>
           </cell>
           <cell r="G26">
-            <v>0.483104676231486</v>
+            <v>14.9561161589925</v>
           </cell>
           <cell r="H26">
-            <v>-0.20821678772745</v>
+            <v>-16.2978423701819</v>
           </cell>
         </row>
       </sheetData>
@@ -1393,7 +1414,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1403,277 +1424,277 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="F2">
-            <v>-7.23492731217544</v>
+            <v>-0.803760370503652</v>
           </cell>
           <cell r="G2">
-            <v>23.7645038137774</v>
+            <v>-1.49140452596171</v>
           </cell>
           <cell r="H2">
-            <v>-30.9994311259528</v>
+            <v>0.68764415545807</v>
           </cell>
         </row>
         <row r="3">
           <cell r="F3">
-            <v>-22.8230753231275</v>
+            <v>-41.6684080682788</v>
           </cell>
           <cell r="G3">
-            <v>15.6385428602272</v>
+            <v>-80.6512346701537</v>
           </cell>
           <cell r="H3">
-            <v>-38.4616181833547</v>
+            <v>38.9828266018749</v>
           </cell>
         </row>
         <row r="4">
           <cell r="F4">
-            <v>-77.417062133289</v>
+            <v>-61.8351738247193</v>
           </cell>
           <cell r="G4">
-            <v>37.6039161400117</v>
+            <v>-68.5256528686372</v>
           </cell>
           <cell r="H4">
-            <v>-115.020978273301</v>
+            <v>6.69047904391785</v>
           </cell>
         </row>
         <row r="5">
           <cell r="F5">
-            <v>-81.3742436866602</v>
+            <v>-67.8704614714606</v>
           </cell>
           <cell r="G5">
-            <v>-114.810123085594</v>
+            <v>-75.5850938906485</v>
           </cell>
           <cell r="H5">
-            <v>33.4358793989334</v>
+            <v>7.71463241918783</v>
           </cell>
         </row>
         <row r="6">
           <cell r="F6">
-            <v>-0.227964164184585</v>
+            <v>0.761017944259593</v>
           </cell>
           <cell r="G6">
-            <v>1.88861176725159</v>
+            <v>0.151865848969158</v>
           </cell>
           <cell r="H6">
-            <v>-2.11657593143618</v>
+            <v>0.609152095290436</v>
           </cell>
         </row>
         <row r="7">
           <cell r="F7">
-            <v>-60.3481275834134</v>
+            <v>-32.2614192993616</v>
           </cell>
           <cell r="G7">
-            <v>-42.4098633842026</v>
+            <v>-33.4786565384342</v>
           </cell>
           <cell r="H7">
-            <v>-17.9382641992108</v>
+            <v>1.21723723907263</v>
           </cell>
         </row>
         <row r="8">
           <cell r="F8">
-            <v>-80.5623863063795</v>
+            <v>-73.9941720766543</v>
           </cell>
           <cell r="G8">
-            <v>22.2387408478649</v>
+            <v>-44.1657827097308</v>
           </cell>
           <cell r="H8">
-            <v>-102.801127154244</v>
+            <v>-29.8283893669235</v>
           </cell>
         </row>
         <row r="9">
           <cell r="F9">
-            <v>-10.2549710959205</v>
+            <v>-36.2862348876865</v>
           </cell>
           <cell r="G9">
-            <v>-2.19850232691694</v>
+            <v>-43.9959968702868</v>
           </cell>
           <cell r="H9">
-            <v>-8.05646876900356</v>
+            <v>7.70976198260029</v>
           </cell>
         </row>
         <row r="10">
           <cell r="F10">
-            <v>19.9010897848067</v>
+            <v>-19.5022920583921</v>
           </cell>
           <cell r="G10">
-            <v>83.7714983171599</v>
+            <v>22.9354732647409</v>
           </cell>
           <cell r="H10">
-            <v>-63.8704085323531</v>
+            <v>-42.437765323133</v>
           </cell>
         </row>
         <row r="11">
           <cell r="F11">
-            <v>157.632433295042</v>
+            <v>-50.2685713897412</v>
           </cell>
           <cell r="G11">
-            <v>47.9272941067823</v>
+            <v>-59.5439688399256</v>
           </cell>
           <cell r="H11">
-            <v>109.70513918826</v>
+            <v>9.2753974501844</v>
           </cell>
         </row>
         <row r="12">
           <cell r="F12">
-            <v>-15.8048493772097</v>
+            <v>-4.18007322504184</v>
           </cell>
           <cell r="G12">
-            <v>19.6454646122422</v>
+            <v>17.6776699242765</v>
           </cell>
           <cell r="H12">
-            <v>-35.4503139894519</v>
+            <v>-21.8577431493184</v>
           </cell>
         </row>
         <row r="13">
           <cell r="F13">
-            <v>-7.49476493598397</v>
+            <v>-6.22459164831054</v>
           </cell>
           <cell r="G13">
-            <v>-0.779280541311926</v>
+            <v>-2.02188255754279</v>
           </cell>
           <cell r="H13">
-            <v>-6.71548439467204</v>
+            <v>-4.20270909076775</v>
           </cell>
         </row>
         <row r="14">
           <cell r="F14">
-            <v>-31.5300992401331</v>
+            <v>-59.3220758737135</v>
           </cell>
           <cell r="G14">
-            <v>-23.7501064971338</v>
+            <v>-51.8659697057861</v>
           </cell>
           <cell r="H14">
-            <v>-7.77999274299929</v>
+            <v>-7.4561061679274</v>
           </cell>
         </row>
         <row r="15">
           <cell r="F15">
-            <v>-5.49753947063335</v>
+            <v>-21.1747256800595</v>
           </cell>
           <cell r="G15">
-            <v>65.937894183685</v>
+            <v>20.6559022504728</v>
           </cell>
           <cell r="H15">
-            <v>-71.4354336543184</v>
+            <v>-41.8306279305323</v>
           </cell>
         </row>
         <row r="16">
           <cell r="F16">
-            <v>7.9719948086892</v>
+            <v>-1.08342431981264</v>
           </cell>
           <cell r="G16">
-            <v>17.3708435483298</v>
+            <v>4.68465218392612</v>
           </cell>
           <cell r="H16">
-            <v>-9.39884873964065</v>
+            <v>-5.76807650373878</v>
           </cell>
         </row>
         <row r="17">
           <cell r="F17">
-            <v>-33.1043806473291</v>
+            <v>-45.5866497568974</v>
           </cell>
           <cell r="G17">
-            <v>-65.5061779791485</v>
+            <v>-48.8027441113953</v>
           </cell>
           <cell r="H17">
-            <v>32.4017973318194</v>
+            <v>3.21609435449784</v>
           </cell>
         </row>
         <row r="18">
           <cell r="F18">
-            <v>-34.7105652883372</v>
+            <v>-68.9380336386343</v>
           </cell>
           <cell r="G18">
-            <v>-18.8868133215729</v>
+            <v>-88.9750248849365</v>
           </cell>
           <cell r="H18">
-            <v>-15.8237519667643</v>
+            <v>20.0369912463023</v>
           </cell>
         </row>
         <row r="19">
           <cell r="F19">
-            <v>-38.2826257083383</v>
+            <v>-36.0600107403677</v>
           </cell>
           <cell r="G19">
-            <v>-37.7981614204648</v>
+            <v>-62.9796204238378</v>
           </cell>
           <cell r="H19">
-            <v>-0.484464287873454</v>
+            <v>26.9196096834701</v>
           </cell>
         </row>
         <row r="20">
           <cell r="F20">
-            <v>-5.82872078297532</v>
+            <v>-0.34493809491938</v>
           </cell>
           <cell r="G20">
-            <v>166.23371979197</v>
+            <v>-42.3712662360076</v>
           </cell>
           <cell r="H20">
-            <v>-172.062440574945</v>
+            <v>42.0263281410882</v>
           </cell>
         </row>
         <row r="21">
           <cell r="F21">
-            <v>2.64858142588495</v>
+            <v>-0.272427443717159</v>
           </cell>
           <cell r="G21">
-            <v>10.6312081109899</v>
+            <v>-3.47716281465467</v>
           </cell>
           <cell r="H21">
-            <v>-7.98262668510493</v>
+            <v>3.20473537093751</v>
           </cell>
         </row>
         <row r="22">
           <cell r="F22">
-            <v>79.2225852507143</v>
+            <v>0.624883185251995</v>
           </cell>
           <cell r="G22">
-            <v>80.7671138129608</v>
+            <v>-1.56291315252097</v>
           </cell>
           <cell r="H22">
-            <v>-1.54452856224645</v>
+            <v>2.18779633777296</v>
           </cell>
         </row>
         <row r="23">
           <cell r="F23">
-            <v>-53.3366574083791</v>
+            <v>-73.3969487507731</v>
           </cell>
           <cell r="G23">
-            <v>33.9166529569355</v>
+            <v>-47.9863715239884</v>
           </cell>
           <cell r="H23">
-            <v>-87.2533103653146</v>
+            <v>-25.4105772267847</v>
           </cell>
         </row>
         <row r="24">
           <cell r="F24">
-            <v>34.0016562998975</v>
+            <v>-38.1263086841299</v>
           </cell>
           <cell r="G24">
-            <v>46.5582311452327</v>
+            <v>-0.413882276424571</v>
           </cell>
           <cell r="H24">
-            <v>-12.5565748453352</v>
+            <v>-37.7124264077053</v>
           </cell>
         </row>
         <row r="25">
           <cell r="F25">
-            <v>-0.387560202024685</v>
+            <v>-53.6629909352087</v>
           </cell>
           <cell r="G25">
-            <v>114.323422022419</v>
+            <v>-27.9887122120898</v>
           </cell>
           <cell r="H25">
-            <v>-114.710982224443</v>
+            <v>-25.674278723119</v>
           </cell>
         </row>
         <row r="26">
           <cell r="F26">
-            <v>21.0206312128304</v>
+            <v>-0.550271986507331</v>
           </cell>
           <cell r="G26">
-            <v>35.9960903355552</v>
+            <v>0.487407204935892</v>
           </cell>
           <cell r="H26">
-            <v>-14.9754591227248</v>
+            <v>-1.03767919144322</v>
           </cell>
         </row>
       </sheetData>
@@ -30138,7 +30159,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30167,8 +30188,8 @@
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
       <c r="E5" s="30" t="str">
-        <f aca="false">CONCATENATE(_xlfn.UNICHAR(963)," = 2")</f>
-        <v>σ = 2</v>
+        <f aca="false">CONCATENATE(_xlfn.UNICHAR(963)," = 1.3")</f>
+        <v>σ = 1.3</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
@@ -30199,28 +30220,28 @@
         <v>91</v>
       </c>
       <c r="B7" s="17" t="n">
-        <f aca="false">[29]output_table!F2/100</f>
-        <v>-0.00871995016938059</v>
+        <f aca="false">[17]output_table!F2/100</f>
+        <v>-0.105774800004832</v>
       </c>
       <c r="C7" s="18" t="n">
-        <f aca="false">[29]output_table!G2/100</f>
-        <v>-0.0478527761838807</v>
+        <f aca="false">[17]output_table!G2/100</f>
+        <v>0.119157011202646</v>
       </c>
       <c r="D7" s="19" t="n">
-        <f aca="false">[29]output_table!H2/100</f>
-        <v>0.0391328260145002</v>
+        <f aca="false">[17]output_table!H2/100</f>
+        <v>-0.224931811207477</v>
       </c>
       <c r="E7" s="17" t="n">
-        <f aca="false">[30]output_table!F2/100</f>
-        <v>-0.0723492731217544</v>
+        <f aca="false">[18]output_table!F2/100</f>
+        <v>-0.00803760370503652</v>
       </c>
       <c r="F7" s="18" t="n">
-        <f aca="false">[30]output_table!G2/100</f>
-        <v>0.237645038137774</v>
+        <f aca="false">[18]output_table!G2/100</f>
+        <v>-0.0149140452596171</v>
       </c>
       <c r="G7" s="19" t="n">
-        <f aca="false">[30]output_table!H2/100</f>
-        <v>-0.309994311259528</v>
+        <f aca="false">[18]output_table!H2/100</f>
+        <v>0.0068764415545807</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30228,28 +30249,28 @@
         <v>92</v>
       </c>
       <c r="B8" s="21" t="n">
-        <f aca="false">[29]output_table!F3/100</f>
-        <v>-0.244374821423859</v>
+        <f aca="false">[17]output_table!F3/100</f>
+        <v>-0.502702420863422</v>
       </c>
       <c r="C8" s="22" t="n">
-        <f aca="false">[29]output_table!G3/100</f>
-        <v>-0.543372392480144</v>
+        <f aca="false">[17]output_table!G3/100</f>
+        <v>-0.588402847932354</v>
       </c>
       <c r="D8" s="23" t="n">
-        <f aca="false">[29]output_table!H3/100</f>
-        <v>0.298997571056286</v>
+        <f aca="false">[17]output_table!H3/100</f>
+        <v>0.0857004270689324</v>
       </c>
       <c r="E8" s="21" t="n">
-        <f aca="false">[30]output_table!F3/100</f>
-        <v>-0.228230753231275</v>
+        <f aca="false">[18]output_table!F3/100</f>
+        <v>-0.416684080682788</v>
       </c>
       <c r="F8" s="22" t="n">
-        <f aca="false">[30]output_table!G3/100</f>
-        <v>0.156385428602272</v>
+        <f aca="false">[18]output_table!G3/100</f>
+        <v>-0.806512346701537</v>
       </c>
       <c r="G8" s="23" t="n">
-        <f aca="false">[30]output_table!H3/100</f>
-        <v>-0.384616181833547</v>
+        <f aca="false">[18]output_table!H3/100</f>
+        <v>0.389828266018749</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30257,28 +30278,28 @@
         <v>93</v>
       </c>
       <c r="B9" s="21" t="n">
-        <f aca="false">[29]output_table!F4/100</f>
-        <v>-0.519067343614722</v>
+        <f aca="false">[17]output_table!F4/100</f>
+        <v>-0.754604247091419</v>
       </c>
       <c r="C9" s="22" t="n">
-        <f aca="false">[29]output_table!G4/100</f>
-        <v>-1.20014431542971</v>
+        <f aca="false">[17]output_table!G4/100</f>
+        <v>-0.327713766296395</v>
       </c>
       <c r="D9" s="23" t="n">
-        <f aca="false">[29]output_table!H4/100</f>
-        <v>0.681076971814993</v>
+        <f aca="false">[17]output_table!H4/100</f>
+        <v>-0.426890480795024</v>
       </c>
       <c r="E9" s="21" t="n">
-        <f aca="false">[30]output_table!F4/100</f>
-        <v>-0.77417062133289</v>
+        <f aca="false">[18]output_table!F4/100</f>
+        <v>-0.618351738247193</v>
       </c>
       <c r="F9" s="22" t="n">
-        <f aca="false">[30]output_table!G4/100</f>
-        <v>0.376039161400117</v>
+        <f aca="false">[18]output_table!G4/100</f>
+        <v>-0.685256528686372</v>
       </c>
       <c r="G9" s="23" t="n">
-        <f aca="false">[30]output_table!H4/100</f>
-        <v>-1.15020978273301</v>
+        <f aca="false">[18]output_table!H4/100</f>
+        <v>0.0669047904391785</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30286,28 +30307,28 @@
         <v>94</v>
       </c>
       <c r="B10" s="21" t="n">
-        <f aca="false">[29]output_table!F5/100</f>
-        <v>-0.580690718007581</v>
+        <f aca="false">[17]output_table!F5/100</f>
+        <v>-0.769039646345329</v>
       </c>
       <c r="C10" s="22" t="n">
-        <f aca="false">[29]output_table!G5/100</f>
-        <v>-0.799086805784265</v>
+        <f aca="false">[17]output_table!G5/100</f>
+        <v>-0.549844897443001</v>
       </c>
       <c r="D10" s="23" t="n">
-        <f aca="false">[29]output_table!H5/100</f>
-        <v>0.218396087776684</v>
+        <f aca="false">[17]output_table!H5/100</f>
+        <v>-0.219194748902328</v>
       </c>
       <c r="E10" s="21" t="n">
-        <f aca="false">[30]output_table!F5/100</f>
-        <v>-0.813742436866602</v>
+        <f aca="false">[18]output_table!F5/100</f>
+        <v>-0.678704614714606</v>
       </c>
       <c r="F10" s="22" t="n">
-        <f aca="false">[30]output_table!G5/100</f>
-        <v>-1.14810123085594</v>
+        <f aca="false">[18]output_table!G5/100</f>
+        <v>-0.755850938906485</v>
       </c>
       <c r="G10" s="23" t="n">
-        <f aca="false">[30]output_table!H5/100</f>
-        <v>0.334358793989334</v>
+        <f aca="false">[18]output_table!H5/100</f>
+        <v>0.0771463241918783</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30315,28 +30336,28 @@
         <v>95</v>
       </c>
       <c r="B11" s="21" t="n">
-        <f aca="false">[29]output_table!F6/100</f>
-        <v>0.00148798216700991</v>
+        <f aca="false">[17]output_table!F6/100</f>
+        <v>0.0182813106553456</v>
       </c>
       <c r="C11" s="22" t="n">
-        <f aca="false">[29]output_table!G6/100</f>
-        <v>-0.00517503332565823</v>
+        <f aca="false">[17]output_table!G6/100</f>
+        <v>-0.0684938272436293</v>
       </c>
       <c r="D11" s="23" t="n">
-        <f aca="false">[29]output_table!H6/100</f>
-        <v>0.00666301549266814</v>
+        <f aca="false">[17]output_table!H6/100</f>
+        <v>0.0867751378989749</v>
       </c>
       <c r="E11" s="21" t="n">
-        <f aca="false">[30]output_table!F6/100</f>
-        <v>-0.00227964164184585</v>
+        <f aca="false">[18]output_table!F6/100</f>
+        <v>0.00761017944259593</v>
       </c>
       <c r="F11" s="22" t="n">
-        <f aca="false">[30]output_table!G6/100</f>
-        <v>0.0188861176725159</v>
+        <f aca="false">[18]output_table!G6/100</f>
+        <v>0.00151865848969158</v>
       </c>
       <c r="G11" s="23" t="n">
-        <f aca="false">[30]output_table!H6/100</f>
-        <v>-0.0211657593143618</v>
+        <f aca="false">[18]output_table!H6/100</f>
+        <v>0.00609152095290436</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30344,28 +30365,28 @@
         <v>96</v>
       </c>
       <c r="B12" s="21" t="n">
-        <f aca="false">[29]output_table!F7/100</f>
-        <v>-0.142564850715132</v>
+        <f aca="false">[17]output_table!F7/100</f>
+        <v>-0.566601441804896</v>
       </c>
       <c r="C12" s="22" t="n">
-        <f aca="false">[29]output_table!G7/100</f>
-        <v>-0.530229168922839</v>
+        <f aca="false">[17]output_table!G7/100</f>
+        <v>-1.90321986540188</v>
       </c>
       <c r="D12" s="23" t="n">
-        <f aca="false">[29]output_table!H7/100</f>
-        <v>0.387664318207707</v>
+        <f aca="false">[17]output_table!H7/100</f>
+        <v>1.33661842359698</v>
       </c>
       <c r="E12" s="21" t="n">
-        <f aca="false">[30]output_table!F7/100</f>
-        <v>-0.603481275834134</v>
+        <f aca="false">[18]output_table!F7/100</f>
+        <v>-0.322614192993616</v>
       </c>
       <c r="F12" s="22" t="n">
-        <f aca="false">[30]output_table!G7/100</f>
-        <v>-0.424098633842026</v>
+        <f aca="false">[18]output_table!G7/100</f>
+        <v>-0.334786565384342</v>
       </c>
       <c r="G12" s="23" t="n">
-        <f aca="false">[30]output_table!H7/100</f>
-        <v>-0.179382641992108</v>
+        <f aca="false">[18]output_table!H7/100</f>
+        <v>0.0121723723907263</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30373,28 +30394,28 @@
         <v>97</v>
       </c>
       <c r="B13" s="21" t="n">
-        <f aca="false">[29]output_table!F8/100</f>
-        <v>-0.492452883411108</v>
+        <f aca="false">[17]output_table!F8/100</f>
+        <v>-0.800138856686181</v>
       </c>
       <c r="C13" s="22" t="n">
-        <f aca="false">[29]output_table!G8/100</f>
-        <v>-0.37966738886339</v>
+        <f aca="false">[17]output_table!G8/100</f>
+        <v>-0.118707034251192</v>
       </c>
       <c r="D13" s="23" t="n">
-        <f aca="false">[29]output_table!H8/100</f>
-        <v>-0.112785494547718</v>
+        <f aca="false">[17]output_table!H8/100</f>
+        <v>-0.681431822434988</v>
       </c>
       <c r="E13" s="21" t="n">
-        <f aca="false">[30]output_table!F8/100</f>
-        <v>-0.805623863063795</v>
+        <f aca="false">[18]output_table!F8/100</f>
+        <v>-0.739941720766543</v>
       </c>
       <c r="F13" s="22" t="n">
-        <f aca="false">[30]output_table!G8/100</f>
-        <v>0.222387408478649</v>
+        <f aca="false">[18]output_table!G8/100</f>
+        <v>-0.441657827097308</v>
       </c>
       <c r="G13" s="23" t="n">
-        <f aca="false">[30]output_table!H8/100</f>
-        <v>-1.02801127154244</v>
+        <f aca="false">[18]output_table!H8/100</f>
+        <v>-0.298283893669235</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30402,28 +30423,28 @@
         <v>98</v>
       </c>
       <c r="B14" s="21" t="n">
-        <f aca="false">[29]output_table!F9/100</f>
-        <v>-0.277226086616764</v>
+        <f aca="false">[17]output_table!F9/100</f>
+        <v>-0.416616411332547</v>
       </c>
       <c r="C14" s="22" t="n">
-        <f aca="false">[29]output_table!G9/100</f>
-        <v>-0.545526515343252</v>
+        <f aca="false">[17]output_table!G9/100</f>
+        <v>-0.234405608368549</v>
       </c>
       <c r="D14" s="23" t="n">
-        <f aca="false">[29]output_table!H9/100</f>
-        <v>0.268300428726488</v>
+        <f aca="false">[17]output_table!H9/100</f>
+        <v>-0.182210802963999</v>
       </c>
       <c r="E14" s="21" t="n">
-        <f aca="false">[30]output_table!F9/100</f>
-        <v>-0.102549710959205</v>
+        <f aca="false">[18]output_table!F9/100</f>
+        <v>-0.362862348876865</v>
       </c>
       <c r="F14" s="22" t="n">
-        <f aca="false">[30]output_table!G9/100</f>
-        <v>-0.0219850232691694</v>
+        <f aca="false">[18]output_table!G9/100</f>
+        <v>-0.439959968702868</v>
       </c>
       <c r="G14" s="23" t="n">
-        <f aca="false">[30]output_table!H9/100</f>
-        <v>-0.0805646876900356</v>
+        <f aca="false">[18]output_table!H9/100</f>
+        <v>0.0770976198260029</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30431,28 +30452,28 @@
         <v>99</v>
       </c>
       <c r="B15" s="21" t="n">
-        <f aca="false">[29]output_table!F10/100</f>
-        <v>-0.113835253898429</v>
+        <f aca="false">[17]output_table!F10/100</f>
+        <v>-0.276058793004082</v>
       </c>
       <c r="C15" s="22" t="n">
-        <f aca="false">[29]output_table!G10/100</f>
-        <v>0.0410072534058516</v>
+        <f aca="false">[17]output_table!G10/100</f>
+        <v>0.561379934275976</v>
       </c>
       <c r="D15" s="23" t="n">
-        <f aca="false">[29]output_table!H10/100</f>
-        <v>-0.15484250730428</v>
+        <f aca="false">[17]output_table!H10/100</f>
+        <v>-0.837438727280057</v>
       </c>
       <c r="E15" s="21" t="n">
-        <f aca="false">[30]output_table!F10/100</f>
-        <v>0.199010897848067</v>
+        <f aca="false">[18]output_table!F10/100</f>
+        <v>-0.195022920583921</v>
       </c>
       <c r="F15" s="22" t="n">
-        <f aca="false">[30]output_table!G10/100</f>
-        <v>0.837714983171599</v>
+        <f aca="false">[18]output_table!G10/100</f>
+        <v>0.229354732647409</v>
       </c>
       <c r="G15" s="23" t="n">
-        <f aca="false">[30]output_table!H10/100</f>
-        <v>-0.638704085323531</v>
+        <f aca="false">[18]output_table!H10/100</f>
+        <v>-0.42437765323133</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30460,28 +30481,28 @@
         <v>100</v>
       </c>
       <c r="B16" s="21" t="n">
-        <f aca="false">[29]output_table!F11/100</f>
-        <v>-0.193471852953465</v>
+        <f aca="false">[17]output_table!F11/100</f>
+        <v>-0.527757329740792</v>
       </c>
       <c r="C16" s="22" t="n">
-        <f aca="false">[29]output_table!G11/100</f>
-        <v>-0.255467838279911</v>
+        <f aca="false">[17]output_table!G11/100</f>
+        <v>-0.0518258098908403</v>
       </c>
       <c r="D16" s="23" t="n">
-        <f aca="false">[29]output_table!H11/100</f>
-        <v>0.0619959853264459</v>
+        <f aca="false">[17]output_table!H11/100</f>
+        <v>-0.475931519849952</v>
       </c>
       <c r="E16" s="21" t="n">
-        <f aca="false">[30]output_table!F11/100</f>
-        <v>1.57632433295042</v>
+        <f aca="false">[18]output_table!F11/100</f>
+        <v>-0.502685713897412</v>
       </c>
       <c r="F16" s="22" t="n">
-        <f aca="false">[30]output_table!G11/100</f>
-        <v>0.479272941067823</v>
+        <f aca="false">[18]output_table!G11/100</f>
+        <v>-0.595439688399256</v>
       </c>
       <c r="G16" s="23" t="n">
-        <f aca="false">[30]output_table!H11/100</f>
-        <v>1.0970513918826</v>
+        <f aca="false">[18]output_table!H11/100</f>
+        <v>0.092753974501844</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30489,28 +30510,28 @@
         <v>101</v>
       </c>
       <c r="B17" s="21" t="n">
-        <f aca="false">[29]output_table!F12/100</f>
-        <v>-0.196861749866989</v>
+        <f aca="false">[17]output_table!F12/100</f>
+        <v>-0.421403214905773</v>
       </c>
       <c r="C17" s="22" t="n">
-        <f aca="false">[29]output_table!G12/100</f>
-        <v>-0.0233002931491005</v>
+        <f aca="false">[17]output_table!G12/100</f>
+        <v>0.699629814316786</v>
       </c>
       <c r="D17" s="23" t="n">
-        <f aca="false">[29]output_table!H12/100</f>
-        <v>-0.173561456717888</v>
+        <f aca="false">[17]output_table!H12/100</f>
+        <v>-1.12103302922256</v>
       </c>
       <c r="E17" s="21" t="n">
-        <f aca="false">[30]output_table!F12/100</f>
-        <v>-0.158048493772097</v>
+        <f aca="false">[18]output_table!F12/100</f>
+        <v>-0.0418007322504184</v>
       </c>
       <c r="F17" s="22" t="n">
-        <f aca="false">[30]output_table!G12/100</f>
-        <v>0.196454646122422</v>
+        <f aca="false">[18]output_table!G12/100</f>
+        <v>0.176776699242765</v>
       </c>
       <c r="G17" s="23" t="n">
-        <f aca="false">[30]output_table!H12/100</f>
-        <v>-0.354503139894518</v>
+        <f aca="false">[18]output_table!H12/100</f>
+        <v>-0.218577431493184</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30518,28 +30539,28 @@
         <v>102</v>
       </c>
       <c r="B18" s="21" t="n">
-        <f aca="false">[29]output_table!F13/100</f>
-        <v>-0.174660605201418</v>
+        <f aca="false">[17]output_table!F13/100</f>
+        <v>-0.390602773113667</v>
       </c>
       <c r="C18" s="22" t="n">
-        <f aca="false">[29]output_table!G13/100</f>
-        <v>-0.0636371613876475</v>
+        <f aca="false">[17]output_table!G13/100</f>
+        <v>-0.184949753724605</v>
       </c>
       <c r="D18" s="23" t="n">
-        <f aca="false">[29]output_table!H13/100</f>
-        <v>-0.11102344381377</v>
+        <f aca="false">[17]output_table!H13/100</f>
+        <v>-0.205653019389062</v>
       </c>
       <c r="E18" s="21" t="n">
-        <f aca="false">[30]output_table!F13/100</f>
-        <v>-0.0749476493598397</v>
+        <f aca="false">[18]output_table!F13/100</f>
+        <v>-0.0622459164831054</v>
       </c>
       <c r="F18" s="22" t="n">
-        <f aca="false">[30]output_table!G13/100</f>
-        <v>-0.00779280541311926</v>
+        <f aca="false">[18]output_table!G13/100</f>
+        <v>-0.0202188255754279</v>
       </c>
       <c r="G18" s="23" t="n">
-        <f aca="false">[30]output_table!H13/100</f>
-        <v>-0.0671548439467204</v>
+        <f aca="false">[18]output_table!H13/100</f>
+        <v>-0.0420270909076775</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30547,28 +30568,28 @@
         <v>103</v>
       </c>
       <c r="B19" s="21" t="n">
-        <f aca="false">[29]output_table!F14/100</f>
-        <v>-0.423678389613345</v>
+        <f aca="false">[17]output_table!F14/100</f>
+        <v>-0.603826540757764</v>
       </c>
       <c r="C19" s="22" t="n">
-        <f aca="false">[29]output_table!G14/100</f>
-        <v>-0.509302170187423</v>
+        <f aca="false">[17]output_table!G14/100</f>
+        <v>-0.226213245775179</v>
       </c>
       <c r="D19" s="23" t="n">
-        <f aca="false">[29]output_table!H14/100</f>
-        <v>0.0856237805740784</v>
+        <f aca="false">[17]output_table!H14/100</f>
+        <v>-0.377613294982585</v>
       </c>
       <c r="E19" s="21" t="n">
-        <f aca="false">[30]output_table!F14/100</f>
-        <v>-0.315300992401331</v>
+        <f aca="false">[18]output_table!F14/100</f>
+        <v>-0.593220758737135</v>
       </c>
       <c r="F19" s="22" t="n">
-        <f aca="false">[30]output_table!G14/100</f>
-        <v>-0.237501064971338</v>
+        <f aca="false">[18]output_table!G14/100</f>
+        <v>-0.518659697057861</v>
       </c>
       <c r="G19" s="23" t="n">
-        <f aca="false">[30]output_table!H14/100</f>
-        <v>-0.0777999274299929</v>
+        <f aca="false">[18]output_table!H14/100</f>
+        <v>-0.074561061679274</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30576,28 +30597,28 @@
         <v>104</v>
       </c>
       <c r="B20" s="21" t="n">
-        <f aca="false">[29]output_table!F15/100</f>
-        <v>-0.106176015864681</v>
+        <f aca="false">[17]output_table!F15/100</f>
+        <v>-0.311829960577724</v>
       </c>
       <c r="C20" s="22" t="n">
-        <f aca="false">[29]output_table!G15/100</f>
-        <v>0.0304484286407378</v>
+        <f aca="false">[17]output_table!G15/100</f>
+        <v>0.553170195400885</v>
       </c>
       <c r="D20" s="23" t="n">
-        <f aca="false">[29]output_table!H15/100</f>
-        <v>-0.136624444505419</v>
+        <f aca="false">[17]output_table!H15/100</f>
+        <v>-0.865000155978609</v>
       </c>
       <c r="E20" s="21" t="n">
-        <f aca="false">[30]output_table!F15/100</f>
-        <v>-0.0549753947063335</v>
+        <f aca="false">[18]output_table!F15/100</f>
+        <v>-0.211747256800595</v>
       </c>
       <c r="F20" s="22" t="n">
-        <f aca="false">[30]output_table!G15/100</f>
-        <v>0.65937894183685</v>
+        <f aca="false">[18]output_table!G15/100</f>
+        <v>0.206559022504728</v>
       </c>
       <c r="G20" s="23" t="n">
-        <f aca="false">[30]output_table!H15/100</f>
-        <v>-0.714354336543184</v>
+        <f aca="false">[18]output_table!H15/100</f>
+        <v>-0.418306279305323</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30605,28 +30626,28 @@
         <v>105</v>
       </c>
       <c r="B21" s="21" t="n">
-        <f aca="false">[29]output_table!F16/100</f>
-        <v>0.0296940293156509</v>
+        <f aca="false">[17]output_table!F16/100</f>
+        <v>-0.0239769981678716</v>
       </c>
       <c r="C21" s="22" t="n">
-        <f aca="false">[29]output_table!G16/100</f>
-        <v>0.00754191321264443</v>
+        <f aca="false">[17]output_table!G16/100</f>
+        <v>0.164710157286001</v>
       </c>
       <c r="D21" s="23" t="n">
-        <f aca="false">[29]output_table!H16/100</f>
-        <v>0.0221521161030064</v>
+        <f aca="false">[17]output_table!H16/100</f>
+        <v>-0.188687155453873</v>
       </c>
       <c r="E21" s="21" t="n">
-        <f aca="false">[30]output_table!F16/100</f>
-        <v>0.079719948086892</v>
+        <f aca="false">[18]output_table!F16/100</f>
+        <v>-0.0108342431981264</v>
       </c>
       <c r="F21" s="22" t="n">
-        <f aca="false">[30]output_table!G16/100</f>
-        <v>0.173708435483298</v>
+        <f aca="false">[18]output_table!G16/100</f>
+        <v>0.0468465218392612</v>
       </c>
       <c r="G21" s="23" t="n">
-        <f aca="false">[30]output_table!H16/100</f>
-        <v>-0.0939884873964065</v>
+        <f aca="false">[18]output_table!H16/100</f>
+        <v>-0.0576807650373878</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30634,28 +30655,28 @@
         <v>106</v>
       </c>
       <c r="B22" s="21" t="n">
-        <f aca="false">[29]output_table!F17/100</f>
-        <v>-0.467974722117531</v>
+        <f aca="false">[17]output_table!F17/100</f>
+        <v>-0.714490451736532</v>
       </c>
       <c r="C22" s="22" t="n">
-        <f aca="false">[29]output_table!G17/100</f>
-        <v>-0.578010968696742</v>
+        <f aca="false">[17]output_table!G17/100</f>
+        <v>-0.275872663100018</v>
       </c>
       <c r="D22" s="23" t="n">
-        <f aca="false">[29]output_table!H17/100</f>
-        <v>0.110036246579211</v>
+        <f aca="false">[17]output_table!H17/100</f>
+        <v>-0.438617788636514</v>
       </c>
       <c r="E22" s="21" t="n">
-        <f aca="false">[30]output_table!F17/100</f>
-        <v>-0.331043806473291</v>
+        <f aca="false">[18]output_table!F17/100</f>
+        <v>-0.455866497568974</v>
       </c>
       <c r="F22" s="22" t="n">
-        <f aca="false">[30]output_table!G17/100</f>
-        <v>-0.655061779791485</v>
+        <f aca="false">[18]output_table!G17/100</f>
+        <v>-0.488027441113953</v>
       </c>
       <c r="G22" s="23" t="n">
-        <f aca="false">[30]output_table!H17/100</f>
-        <v>0.324017973318194</v>
+        <f aca="false">[18]output_table!H17/100</f>
+        <v>0.0321609435449784</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30663,28 +30684,28 @@
         <v>107</v>
       </c>
       <c r="B23" s="21" t="n">
-        <f aca="false">[29]output_table!F18/100</f>
-        <v>-0.398552026477866</v>
+        <f aca="false">[17]output_table!F18/100</f>
+        <v>-0.777242558035879</v>
       </c>
       <c r="C23" s="22" t="n">
-        <f aca="false">[29]output_table!G18/100</f>
-        <v>-0.912143662445799</v>
+        <f aca="false">[17]output_table!G18/100</f>
+        <v>-0.379692833960334</v>
       </c>
       <c r="D23" s="23" t="n">
-        <f aca="false">[29]output_table!H18/100</f>
-        <v>0.513591635967933</v>
+        <f aca="false">[17]output_table!H18/100</f>
+        <v>-0.397549724075545</v>
       </c>
       <c r="E23" s="21" t="n">
-        <f aca="false">[30]output_table!F18/100</f>
-        <v>-0.347105652883372</v>
+        <f aca="false">[18]output_table!F18/100</f>
+        <v>-0.689380336386343</v>
       </c>
       <c r="F23" s="22" t="n">
-        <f aca="false">[30]output_table!G18/100</f>
-        <v>-0.188868133215729</v>
+        <f aca="false">[18]output_table!G18/100</f>
+        <v>-0.889750248849365</v>
       </c>
       <c r="G23" s="23" t="n">
-        <f aca="false">[30]output_table!H18/100</f>
-        <v>-0.158237519667643</v>
+        <f aca="false">[18]output_table!H18/100</f>
+        <v>0.200369912463023</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30692,28 +30713,28 @@
         <v>108</v>
       </c>
       <c r="B24" s="21" t="n">
-        <f aca="false">[29]output_table!F19/100</f>
-        <v>-0.205316753152855</v>
+        <f aca="false">[17]output_table!F19/100</f>
+        <v>-0.328139110095778</v>
       </c>
       <c r="C24" s="22" t="n">
-        <f aca="false">[29]output_table!G19/100</f>
-        <v>-0.889409467706447</v>
+        <f aca="false">[17]output_table!G19/100</f>
+        <v>-0.54693192934407</v>
       </c>
       <c r="D24" s="23" t="n">
-        <f aca="false">[29]output_table!H19/100</f>
-        <v>0.684092714553592</v>
+        <f aca="false">[17]output_table!H19/100</f>
+        <v>0.218792819248292</v>
       </c>
       <c r="E24" s="21" t="n">
-        <f aca="false">[30]output_table!F19/100</f>
-        <v>-0.382826257083383</v>
+        <f aca="false">[18]output_table!F19/100</f>
+        <v>-0.360600107403677</v>
       </c>
       <c r="F24" s="22" t="n">
-        <f aca="false">[30]output_table!G19/100</f>
-        <v>-0.377981614204648</v>
+        <f aca="false">[18]output_table!G19/100</f>
+        <v>-0.629796204238378</v>
       </c>
       <c r="G24" s="23" t="n">
-        <f aca="false">[30]output_table!H19/100</f>
-        <v>-0.00484464287873454</v>
+        <f aca="false">[18]output_table!H19/100</f>
+        <v>0.269196096834701</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30721,28 +30742,28 @@
         <v>109</v>
       </c>
       <c r="B25" s="21" t="n">
-        <f aca="false">[29]output_table!F20/100</f>
-        <v>-0.0448722535326793</v>
+        <f aca="false">[17]output_table!F20/100</f>
+        <v>-0.201935445388272</v>
       </c>
       <c r="C25" s="22" t="n">
-        <f aca="false">[29]output_table!G20/100</f>
-        <v>-0.496369095325512</v>
+        <f aca="false">[17]output_table!G20/100</f>
+        <v>-0.070205522438127</v>
       </c>
       <c r="D25" s="23" t="n">
-        <f aca="false">[29]output_table!H20/100</f>
-        <v>0.451496841792833</v>
+        <f aca="false">[17]output_table!H20/100</f>
+        <v>-0.131729922950144</v>
       </c>
       <c r="E25" s="21" t="n">
-        <f aca="false">[30]output_table!F20/100</f>
-        <v>-0.0582872078297532</v>
+        <f aca="false">[18]output_table!F20/100</f>
+        <v>-0.0034493809491938</v>
       </c>
       <c r="F25" s="22" t="n">
-        <f aca="false">[30]output_table!G20/100</f>
-        <v>1.6623371979197</v>
+        <f aca="false">[18]output_table!G20/100</f>
+        <v>-0.423712662360076</v>
       </c>
       <c r="G25" s="23" t="n">
-        <f aca="false">[30]output_table!H20/100</f>
-        <v>-1.72062440574945</v>
+        <f aca="false">[18]output_table!H20/100</f>
+        <v>0.420263281410882</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30750,28 +30771,28 @@
         <v>110</v>
       </c>
       <c r="B26" s="21" t="n">
-        <f aca="false">[29]output_table!F21/100</f>
-        <v>0.0242106592073112</v>
+        <f aca="false">[17]output_table!F21/100</f>
+        <v>0.0405489812284114</v>
       </c>
       <c r="C26" s="22" t="n">
-        <f aca="false">[29]output_table!G21/100</f>
-        <v>-0.0458193011121156</v>
+        <f aca="false">[17]output_table!G21/100</f>
+        <v>-0.057669814061569</v>
       </c>
       <c r="D26" s="23" t="n">
-        <f aca="false">[29]output_table!H21/100</f>
-        <v>0.0700299603194268</v>
+        <f aca="false">[17]output_table!H21/100</f>
+        <v>0.0982187952899806</v>
       </c>
       <c r="E26" s="21" t="n">
-        <f aca="false">[30]output_table!F21/100</f>
-        <v>0.0264858142588495</v>
+        <f aca="false">[18]output_table!F21/100</f>
+        <v>-0.00272427443717159</v>
       </c>
       <c r="F26" s="22" t="n">
-        <f aca="false">[30]output_table!G21/100</f>
-        <v>0.106312081109899</v>
+        <f aca="false">[18]output_table!G21/100</f>
+        <v>-0.0347716281465467</v>
       </c>
       <c r="G26" s="23" t="n">
-        <f aca="false">[30]output_table!H21/100</f>
-        <v>-0.0798262668510493</v>
+        <f aca="false">[18]output_table!H21/100</f>
+        <v>0.0320473537093751</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30779,28 +30800,28 @@
         <v>111</v>
       </c>
       <c r="B27" s="21" t="n">
-        <f aca="false">[29]output_table!F22/100</f>
-        <v>-0.0145737451200485</v>
-      </c>
-      <c r="C27" s="22" t="n">
-        <f aca="false">[29]output_table!G22/100</f>
-        <v>-0.0798375863200927</v>
-      </c>
-      <c r="D27" s="23" t="n">
-        <f aca="false">[29]output_table!H22/100</f>
-        <v>0.0652638412000442</v>
+        <f aca="false">[17]output_table!F22/100</f>
+        <v>0.0124804916893947</v>
+      </c>
+      <c r="C27" s="36" t="n">
+        <f aca="false">[17]output_table!G22/100</f>
+        <v>-13.9365629943119</v>
+      </c>
+      <c r="D27" s="37" t="n">
+        <f aca="false">[17]output_table!H22/100</f>
+        <v>13.9490434860013</v>
       </c>
       <c r="E27" s="21" t="n">
-        <f aca="false">[30]output_table!F22/100</f>
-        <v>0.792225852507143</v>
+        <f aca="false">[18]output_table!F22/100</f>
+        <v>0.00624883185251995</v>
       </c>
       <c r="F27" s="22" t="n">
-        <f aca="false">[30]output_table!G22/100</f>
-        <v>0.807671138129608</v>
+        <f aca="false">[18]output_table!G22/100</f>
+        <v>-0.0156291315252097</v>
       </c>
       <c r="G27" s="23" t="n">
-        <f aca="false">[30]output_table!H22/100</f>
-        <v>-0.0154452856224645</v>
+        <f aca="false">[18]output_table!H22/100</f>
+        <v>0.0218779633777296</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30808,28 +30829,28 @@
         <v>112</v>
       </c>
       <c r="B28" s="21" t="n">
-        <f aca="false">[29]output_table!F23/100</f>
-        <v>-0.380717854226395</v>
+        <f aca="false">[17]output_table!F23/100</f>
+        <v>-0.844632238182775</v>
       </c>
       <c r="C28" s="22" t="n">
-        <f aca="false">[29]output_table!G23/100</f>
-        <v>-0.245862184231078</v>
+        <f aca="false">[17]output_table!G23/100</f>
+        <v>-0.276165975484058</v>
       </c>
       <c r="D28" s="23" t="n">
-        <f aca="false">[29]output_table!H23/100</f>
-        <v>-0.134855669995317</v>
+        <f aca="false">[17]output_table!H23/100</f>
+        <v>-0.568466262698718</v>
       </c>
       <c r="E28" s="21" t="n">
-        <f aca="false">[30]output_table!F23/100</f>
-        <v>-0.533366574083791</v>
+        <f aca="false">[18]output_table!F23/100</f>
+        <v>-0.733969487507731</v>
       </c>
       <c r="F28" s="22" t="n">
-        <f aca="false">[30]output_table!G23/100</f>
-        <v>0.339166529569355</v>
+        <f aca="false">[18]output_table!G23/100</f>
+        <v>-0.479863715239884</v>
       </c>
       <c r="G28" s="23" t="n">
-        <f aca="false">[30]output_table!H23/100</f>
-        <v>-0.872533103653146</v>
+        <f aca="false">[18]output_table!H23/100</f>
+        <v>-0.254105772267847</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30837,28 +30858,28 @@
         <v>113</v>
       </c>
       <c r="B29" s="21" t="n">
-        <f aca="false">[29]output_table!F24/100</f>
-        <v>-0.307753648851186</v>
+        <f aca="false">[17]output_table!F24/100</f>
+        <v>-0.482109191480942</v>
       </c>
       <c r="C29" s="22" t="n">
-        <f aca="false">[29]output_table!G24/100</f>
-        <v>-0.356293815819547</v>
+        <f aca="false">[17]output_table!G24/100</f>
+        <v>0.263421457661312</v>
       </c>
       <c r="D29" s="23" t="n">
-        <f aca="false">[29]output_table!H24/100</f>
-        <v>0.0485401669683606</v>
+        <f aca="false">[17]output_table!H24/100</f>
+        <v>-0.745530649142253</v>
       </c>
       <c r="E29" s="21" t="n">
-        <f aca="false">[30]output_table!F24/100</f>
-        <v>0.340016562998975</v>
+        <f aca="false">[18]output_table!F24/100</f>
+        <v>-0.381263086841299</v>
       </c>
       <c r="F29" s="22" t="n">
-        <f aca="false">[30]output_table!G24/100</f>
-        <v>0.465582311452327</v>
+        <f aca="false">[18]output_table!G24/100</f>
+        <v>-0.00413882276424571</v>
       </c>
       <c r="G29" s="23" t="n">
-        <f aca="false">[30]output_table!H24/100</f>
-        <v>-0.125565748453352</v>
+        <f aca="false">[18]output_table!H24/100</f>
+        <v>-0.377124264077053</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30866,28 +30887,28 @@
         <v>114</v>
       </c>
       <c r="B30" s="21" t="n">
-        <f aca="false">[29]output_table!F25/100</f>
-        <v>-0.282944435893703</v>
+        <f aca="false">[17]output_table!F25/100</f>
+        <v>-0.659916346739682</v>
       </c>
       <c r="C30" s="22" t="n">
-        <f aca="false">[29]output_table!G25/100</f>
-        <v>-0.209917282784647</v>
+        <f aca="false">[17]output_table!G25/100</f>
+        <v>0.0914574639988598</v>
       </c>
       <c r="D30" s="23" t="n">
-        <f aca="false">[29]output_table!H25/100</f>
-        <v>-0.0730271531090558</v>
+        <f aca="false">[17]output_table!H25/100</f>
+        <v>-0.751373810738542</v>
       </c>
       <c r="E30" s="21" t="n">
-        <f aca="false">[30]output_table!F25/100</f>
-        <v>-0.00387560202024685</v>
+        <f aca="false">[18]output_table!F25/100</f>
+        <v>-0.536629909352087</v>
       </c>
       <c r="F30" s="22" t="n">
-        <f aca="false">[30]output_table!G25/100</f>
-        <v>1.14323422022419</v>
+        <f aca="false">[18]output_table!G25/100</f>
+        <v>-0.279887122120898</v>
       </c>
       <c r="G30" s="23" t="n">
-        <f aca="false">[30]output_table!H25/100</f>
-        <v>-1.14710982224443</v>
+        <f aca="false">[18]output_table!H25/100</f>
+        <v>-0.25674278723119</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30895,28 +30916,28 @@
         <v>115</v>
       </c>
       <c r="B31" s="25" t="n">
-        <f aca="false">[29]output_table!F26/100</f>
-        <v>0.00274887888504036</v>
+        <f aca="false">[17]output_table!F26/100</f>
+        <v>-0.013417262111894</v>
       </c>
       <c r="C31" s="26" t="n">
-        <f aca="false">[29]output_table!G26/100</f>
-        <v>0.00483104676231486</v>
+        <f aca="false">[17]output_table!G26/100</f>
+        <v>0.149561161589925</v>
       </c>
       <c r="D31" s="27" t="n">
-        <f aca="false">[29]output_table!H26/100</f>
-        <v>-0.0020821678772745</v>
+        <f aca="false">[17]output_table!H26/100</f>
+        <v>-0.162978423701819</v>
       </c>
       <c r="E31" s="25" t="n">
-        <f aca="false">[30]output_table!F26/100</f>
-        <v>0.210206312128304</v>
+        <f aca="false">[18]output_table!F26/100</f>
+        <v>-0.00550271986507331</v>
       </c>
       <c r="F31" s="26" t="n">
-        <f aca="false">[30]output_table!G26/100</f>
-        <v>0.359960903355552</v>
+        <f aca="false">[18]output_table!G26/100</f>
+        <v>0.00487407204935892</v>
       </c>
       <c r="G31" s="27" t="n">
-        <f aca="false">[30]output_table!H26/100</f>
-        <v>-0.149754591227248</v>
+        <f aca="false">[18]output_table!H26/100</f>
+        <v>-0.0103767919144322</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30925,27 +30946,27 @@
       </c>
       <c r="B32" s="28" t="n">
         <f aca="false">AVERAGE(B7:B31)</f>
-        <v>-0.220733776446165</v>
+        <v>-0.416860210183796</v>
       </c>
       <c r="C32" s="28" t="n">
         <f aca="false">AVERAGE(C7:C31)</f>
-        <v>-0.345303863270306</v>
+        <v>-0.687775647731814</v>
       </c>
       <c r="D32" s="28" t="n">
         <f aca="false">AVERAGE(D7:D31)</f>
-        <v>0.124570086824141</v>
+        <v>0.270915437548018</v>
       </c>
       <c r="E32" s="28" t="n">
         <f aca="false">AVERAGE(E7:E31)</f>
-        <v>-0.0975286194354516</v>
+        <v>-0.316811225238152</v>
       </c>
       <c r="F32" s="28" t="n">
         <f aca="false">AVERAGE(F7:F31)</f>
-        <v>0.20722988792682</v>
+        <v>-0.287716148054257</v>
       </c>
       <c r="G32" s="28" t="n">
         <f aca="false">AVERAGE(G7:G31)</f>
-        <v>-0.304758507362271</v>
+        <v>-0.0290950771838952</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -31024,19 +31045,19 @@
       <c r="A6" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="36" t="n">
+      <c r="B6" s="38" t="n">
         <f aca="false">ROUND([53]output_table!b2,6)</f>
         <v>0.000902</v>
       </c>
-      <c r="C6" s="37" t="n">
+      <c r="C6" s="39" t="n">
         <f aca="false">ROUND([53]output_table!d2,6)</f>
         <v>0.001047</v>
       </c>
-      <c r="D6" s="37" t="n">
+      <c r="D6" s="39" t="n">
         <f aca="false">ROUND([53]output_table!c2,6)</f>
         <v>0.000923</v>
       </c>
-      <c r="E6" s="38" t="n">
+      <c r="E6" s="40" t="n">
         <f aca="false">ROUND([53]output_table!e2,6)</f>
         <v>0.001056</v>
       </c>
@@ -31045,19 +31066,19 @@
       <c r="A7" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="39" t="n">
+      <c r="B7" s="41" t="n">
         <f aca="false">ROUND([53]output_table!b3,6)</f>
         <v>0.000537</v>
       </c>
-      <c r="C7" s="40" t="n">
+      <c r="C7" s="42" t="n">
         <f aca="false">ROUND([53]output_table!d3,6)</f>
         <v>0.00069</v>
       </c>
-      <c r="D7" s="40" t="n">
+      <c r="D7" s="42" t="n">
         <f aca="false">ROUND([53]output_table!c3,6)</f>
         <v>0.000948</v>
       </c>
-      <c r="E7" s="41" t="n">
+      <c r="E7" s="43" t="n">
         <f aca="false">ROUND([53]output_table!e3,6)</f>
         <v>0.001807</v>
       </c>
@@ -31066,19 +31087,19 @@
       <c r="A8" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="39" t="n">
+      <c r="B8" s="41" t="n">
         <f aca="false">ROUND([53]output_table!b4,6)</f>
         <v>0.001022</v>
       </c>
-      <c r="C8" s="40" t="n">
+      <c r="C8" s="42" t="n">
         <f aca="false">ROUND([53]output_table!d4,6)</f>
         <v>0.001122</v>
       </c>
-      <c r="D8" s="40" t="n">
+      <c r="D8" s="42" t="n">
         <f aca="false">ROUND([53]output_table!c4,6)</f>
         <v>0.00301</v>
       </c>
-      <c r="E8" s="41" t="n">
+      <c r="E8" s="43" t="n">
         <f aca="false">ROUND([53]output_table!e4,6)</f>
         <v>0.00435</v>
       </c>
@@ -31087,19 +31108,19 @@
       <c r="A9" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="39" t="n">
+      <c r="B9" s="41" t="n">
         <f aca="false">ROUND([53]output_table!b5,6)</f>
         <v>0.000592</v>
       </c>
-      <c r="C9" s="40" t="n">
+      <c r="C9" s="42" t="n">
         <f aca="false">ROUND([53]output_table!d5,6)</f>
         <v>0.001075</v>
       </c>
-      <c r="D9" s="40" t="n">
+      <c r="D9" s="42" t="n">
         <f aca="false">ROUND([53]output_table!c5,6)</f>
         <v>0.002177</v>
       </c>
-      <c r="E9" s="41" t="n">
+      <c r="E9" s="43" t="n">
         <f aca="false">ROUND([53]output_table!e5,6)</f>
         <v>0.003263</v>
       </c>
@@ -31108,19 +31129,19 @@
       <c r="A10" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="39" t="n">
+      <c r="B10" s="41" t="n">
         <f aca="false">ROUND([53]output_table!b6,6)</f>
         <v>0.006239</v>
       </c>
-      <c r="C10" s="40" t="n">
+      <c r="C10" s="42" t="n">
         <f aca="false">ROUND([53]output_table!d6,6)</f>
         <v>0.007006</v>
       </c>
-      <c r="D10" s="40" t="n">
+      <c r="D10" s="42" t="n">
         <f aca="false">ROUND([53]output_table!c6,6)</f>
         <v>0.006153</v>
       </c>
-      <c r="E10" s="41" t="n">
+      <c r="E10" s="43" t="n">
         <f aca="false">ROUND([53]output_table!e6,6)</f>
         <v>0.006978</v>
       </c>
@@ -31129,19 +31150,19 @@
       <c r="A11" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="39" t="n">
+      <c r="B11" s="41" t="n">
         <f aca="false">ROUND([53]output_table!b7,6)</f>
         <v>0.0011</v>
       </c>
-      <c r="C11" s="40" t="n">
+      <c r="C11" s="42" t="n">
         <f aca="false">ROUND([53]output_table!d7,6)</f>
         <v>0.002508</v>
       </c>
-      <c r="D11" s="40" t="n">
+      <c r="D11" s="42" t="n">
         <f aca="false">ROUND([53]output_table!c7,6)</f>
         <v>0.001943</v>
       </c>
-      <c r="E11" s="41" t="n">
+      <c r="E11" s="43" t="n">
         <f aca="false">ROUND([53]output_table!e7,6)</f>
         <v>0.003776</v>
       </c>
@@ -31150,19 +31171,19 @@
       <c r="A12" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="39" t="n">
+      <c r="B12" s="41" t="n">
         <f aca="false">ROUND([53]output_table!b8,6)</f>
         <v>0.000442</v>
       </c>
-      <c r="C12" s="40" t="n">
+      <c r="C12" s="42" t="n">
         <f aca="false">ROUND([53]output_table!d8,6)</f>
         <v>0.000479</v>
       </c>
-      <c r="D12" s="40" t="n">
+      <c r="D12" s="42" t="n">
         <f aca="false">ROUND([53]output_table!c8,6)</f>
         <v>0.00201</v>
       </c>
-      <c r="E12" s="41" t="n">
+      <c r="E12" s="43" t="n">
         <f aca="false">ROUND([53]output_table!e8,6)</f>
         <v>0.001285</v>
       </c>
@@ -31171,19 +31192,19 @@
       <c r="A13" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="39" t="n">
+      <c r="B13" s="41" t="n">
         <f aca="false">ROUND([53]output_table!b9,6)</f>
         <v>0.000618</v>
       </c>
-      <c r="C13" s="40" t="n">
+      <c r="C13" s="42" t="n">
         <f aca="false">ROUND([53]output_table!d9,6)</f>
         <v>0.001</v>
       </c>
-      <c r="D13" s="40" t="n">
+      <c r="D13" s="42" t="n">
         <f aca="false">ROUND([53]output_table!c9,6)</f>
         <v>0.000992</v>
       </c>
-      <c r="E13" s="41" t="n">
+      <c r="E13" s="43" t="n">
         <f aca="false">ROUND([53]output_table!e9,6)</f>
         <v>0.001661</v>
       </c>
@@ -31192,19 +31213,19 @@
       <c r="A14" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="39" t="n">
+      <c r="B14" s="41" t="n">
         <f aca="false">ROUND([53]output_table!b10,6)</f>
         <v>0.000196</v>
       </c>
-      <c r="C14" s="40" t="n">
+      <c r="C14" s="42" t="n">
         <f aca="false">ROUND([53]output_table!d10,6)</f>
         <v>0.000257</v>
       </c>
-      <c r="D14" s="40" t="n">
+      <c r="D14" s="42" t="n">
         <f aca="false">ROUND([53]output_table!c10,6)</f>
         <v>0.000262</v>
       </c>
-      <c r="E14" s="41" t="n">
+      <c r="E14" s="43" t="n">
         <f aca="false">ROUND([53]output_table!e10,6)</f>
         <v>0.000189</v>
       </c>
@@ -31213,19 +31234,19 @@
       <c r="A15" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="39" t="n">
+      <c r="B15" s="41" t="n">
         <f aca="false">ROUND([53]output_table!b11,6)</f>
         <v>0.000244</v>
       </c>
-      <c r="C15" s="40" t="n">
+      <c r="C15" s="42" t="n">
         <f aca="false">ROUND([53]output_table!d11,6)</f>
         <v>0.000428</v>
       </c>
-      <c r="D15" s="40" t="n">
+      <c r="D15" s="42" t="n">
         <f aca="false">ROUND([53]output_table!c11,6)</f>
         <v>0.00052</v>
       </c>
-      <c r="E15" s="41" t="n">
+      <c r="E15" s="43" t="n">
         <f aca="false">ROUND([53]output_table!e11,6)</f>
         <v>0.000687</v>
       </c>
@@ -31234,19 +31255,19 @@
       <c r="A16" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="39" t="n">
+      <c r="B16" s="41" t="n">
         <f aca="false">ROUND([53]output_table!b12,6)</f>
         <v>0.000298</v>
       </c>
-      <c r="C16" s="40" t="n">
+      <c r="C16" s="42" t="n">
         <f aca="false">ROUND([53]output_table!d12,6)</f>
         <v>0.00044</v>
       </c>
-      <c r="D16" s="40" t="n">
+      <c r="D16" s="42" t="n">
         <f aca="false">ROUND([53]output_table!c12,6)</f>
         <v>0.000379</v>
       </c>
-      <c r="E16" s="41" t="n">
+      <c r="E16" s="43" t="n">
         <f aca="false">ROUND([53]output_table!e12,6)</f>
         <v>0.000409</v>
       </c>
@@ -31255,19 +31276,19 @@
       <c r="A17" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="39" t="n">
+      <c r="B17" s="41" t="n">
         <f aca="false">ROUND([53]output_table!b13,6)</f>
         <v>0.001019</v>
       </c>
-      <c r="C17" s="40" t="n">
+      <c r="C17" s="42" t="n">
         <f aca="false">ROUND([53]output_table!d13,6)</f>
         <v>0.000861</v>
       </c>
-      <c r="D17" s="40" t="n">
+      <c r="D17" s="42" t="n">
         <f aca="false">ROUND([53]output_table!c13,6)</f>
         <v>0.001213</v>
       </c>
-      <c r="E17" s="41" t="n">
+      <c r="E17" s="43" t="n">
         <f aca="false">ROUND([53]output_table!e13,6)</f>
         <v>0.000936</v>
       </c>
@@ -31276,19 +31297,19 @@
       <c r="A18" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="39" t="n">
+      <c r="B18" s="41" t="n">
         <f aca="false">ROUND([53]output_table!b14,6)</f>
         <v>0.001048</v>
       </c>
-      <c r="C18" s="40" t="n">
+      <c r="C18" s="42" t="n">
         <f aca="false">ROUND([53]output_table!d14,6)</f>
         <v>0.002048</v>
       </c>
-      <c r="D18" s="40" t="n">
+      <c r="D18" s="42" t="n">
         <f aca="false">ROUND([53]output_table!c14,6)</f>
         <v>0.002557</v>
       </c>
-      <c r="E18" s="41" t="n">
+      <c r="E18" s="43" t="n">
         <f aca="false">ROUND([53]output_table!e14,6)</f>
         <v>0.003812</v>
       </c>
@@ -31297,19 +31318,19 @@
       <c r="A19" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="B19" s="39" t="n">
+      <c r="B19" s="41" t="n">
         <f aca="false">ROUND([53]output_table!b15,6)</f>
         <v>0.00019</v>
       </c>
-      <c r="C19" s="42" t="n">
+      <c r="C19" s="44" t="n">
         <f aca="false">ROUND([53]output_table!d15,6)</f>
         <v>0.000182</v>
       </c>
-      <c r="D19" s="40" t="n">
+      <c r="D19" s="42" t="n">
         <f aca="false">ROUND([53]output_table!c15,6)</f>
         <v>0.000262</v>
       </c>
-      <c r="E19" s="41" t="n">
+      <c r="E19" s="43" t="n">
         <f aca="false">ROUND([53]output_table!e15,6)</f>
         <v>0.000126</v>
       </c>
@@ -31318,19 +31339,19 @@
       <c r="A20" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B20" s="39" t="n">
+      <c r="B20" s="41" t="n">
         <f aca="false">ROUND([53]output_table!b16,6)</f>
         <v>0.000296</v>
       </c>
-      <c r="C20" s="40" t="n">
+      <c r="C20" s="42" t="n">
         <f aca="false">ROUND([53]output_table!d16,6)</f>
         <v>0.000223</v>
       </c>
-      <c r="D20" s="40" t="n">
+      <c r="D20" s="42" t="n">
         <f aca="false">ROUND([53]output_table!c16,6)</f>
         <v>0.000305</v>
       </c>
-      <c r="E20" s="41" t="n">
+      <c r="E20" s="43" t="n">
         <f aca="false">ROUND([53]output_table!e16,6)</f>
         <v>0.000199</v>
       </c>
@@ -31339,19 +31360,19 @@
       <c r="A21" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B21" s="39" t="n">
+      <c r="B21" s="41" t="n">
         <f aca="false">ROUND([53]output_table!b17,6)</f>
         <v>0.001049</v>
       </c>
-      <c r="C21" s="40" t="n">
+      <c r="C21" s="42" t="n">
         <f aca="false">ROUND([53]output_table!d17,6)</f>
         <v>0.005222</v>
       </c>
-      <c r="D21" s="40" t="n">
+      <c r="D21" s="42" t="n">
         <f aca="false">ROUND([53]output_table!c17,6)</f>
         <v>0.002422</v>
       </c>
-      <c r="E21" s="41" t="n">
+      <c r="E21" s="43" t="n">
         <f aca="false">ROUND([53]output_table!e17,6)</f>
         <v>0.007472</v>
       </c>
@@ -31360,19 +31381,19 @@
       <c r="A22" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="39" t="n">
+      <c r="B22" s="41" t="n">
         <f aca="false">ROUND([53]output_table!b18,6)</f>
         <v>0.000336</v>
       </c>
-      <c r="C22" s="40" t="n">
+      <c r="C22" s="42" t="n">
         <f aca="false">ROUND([53]output_table!d18,6)</f>
         <v>0.000658</v>
       </c>
-      <c r="D22" s="40" t="n">
+      <c r="D22" s="42" t="n">
         <f aca="false">ROUND([53]output_table!c18,6)</f>
         <v>0.001236</v>
       </c>
-      <c r="E22" s="41" t="n">
+      <c r="E22" s="43" t="n">
         <f aca="false">ROUND([53]output_table!e18,6)</f>
         <v>0.002313</v>
       </c>
@@ -31381,19 +31402,19 @@
       <c r="A23" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="39" t="n">
+      <c r="B23" s="41" t="n">
         <f aca="false">ROUND([53]output_table!b19,6)</f>
         <v>0.000842</v>
       </c>
-      <c r="C23" s="40" t="n">
+      <c r="C23" s="42" t="n">
         <f aca="false">ROUND([53]output_table!d19,6)</f>
         <v>0.002089</v>
       </c>
-      <c r="D23" s="40" t="n">
+      <c r="D23" s="42" t="n">
         <f aca="false">ROUND([53]output_table!c19,6)</f>
         <v>0.001259</v>
       </c>
-      <c r="E23" s="41" t="n">
+      <c r="E23" s="43" t="n">
         <f aca="false">ROUND([53]output_table!e19,6)</f>
         <v>0.003225</v>
       </c>
@@ -31402,19 +31423,19 @@
       <c r="A24" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B24" s="39" t="n">
+      <c r="B24" s="41" t="n">
         <f aca="false">ROUND([53]output_table!b20,6)</f>
         <v>0.00156</v>
       </c>
-      <c r="C24" s="40" t="n">
+      <c r="C24" s="42" t="n">
         <f aca="false">ROUND([53]output_table!d20,6)</f>
         <v>0.001711</v>
       </c>
-      <c r="D24" s="40" t="n">
+      <c r="D24" s="42" t="n">
         <f aca="false">ROUND([53]output_table!c20,6)</f>
         <v>0.001661</v>
       </c>
-      <c r="E24" s="41" t="n">
+      <c r="E24" s="43" t="n">
         <f aca="false">ROUND([53]output_table!e20,6)</f>
         <v>0.002715</v>
       </c>
@@ -31423,19 +31444,19 @@
       <c r="A25" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="39" t="n">
+      <c r="B25" s="41" t="n">
         <f aca="false">ROUND([53]output_table!b21,6)</f>
         <v>0.00165</v>
       </c>
-      <c r="C25" s="40" t="n">
+      <c r="C25" s="42" t="n">
         <f aca="false">ROUND([53]output_table!d21,6)</f>
         <v>0.002388</v>
       </c>
-      <c r="D25" s="40" t="n">
+      <c r="D25" s="42" t="n">
         <f aca="false">ROUND([53]output_table!c21,6)</f>
         <v>0.001631</v>
       </c>
-      <c r="E25" s="41" t="n">
+      <c r="E25" s="43" t="n">
         <f aca="false">ROUND([53]output_table!e21,6)</f>
         <v>0.002413</v>
       </c>
@@ -31444,19 +31465,19 @@
       <c r="A26" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B26" s="39" t="n">
+      <c r="B26" s="41" t="n">
         <f aca="false">ROUND([53]output_table!b22,6)</f>
         <v>0.000853</v>
       </c>
-      <c r="C26" s="40" t="n">
+      <c r="C26" s="42" t="n">
         <f aca="false">ROUND([53]output_table!d22,6)</f>
         <v>0.000793</v>
       </c>
-      <c r="D26" s="40" t="n">
+      <c r="D26" s="42" t="n">
         <f aca="false">ROUND([53]output_table!c22,6)</f>
         <v>0.000863</v>
       </c>
-      <c r="E26" s="41" t="n">
+      <c r="E26" s="43" t="n">
         <f aca="false">ROUND([53]output_table!e22,6)</f>
         <v>0.000877</v>
       </c>
@@ -31465,19 +31486,19 @@
       <c r="A27" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="39" t="n">
+      <c r="B27" s="41" t="n">
         <f aca="false">ROUND([53]output_table!b23,6)</f>
         <v>0.000241</v>
       </c>
-      <c r="C27" s="40" t="n">
+      <c r="C27" s="42" t="n">
         <f aca="false">ROUND([53]output_table!d23,6)</f>
         <v>0.000252</v>
       </c>
-      <c r="D27" s="40" t="n">
+      <c r="D27" s="42" t="n">
         <f aca="false">ROUND([53]output_table!c23,6)</f>
         <v>0.001229</v>
       </c>
-      <c r="E27" s="41" t="n">
+      <c r="E27" s="43" t="n">
         <f aca="false">ROUND([53]output_table!e23,6)</f>
         <v>0.000793</v>
       </c>
@@ -31486,19 +31507,19 @@
       <c r="A28" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="39" t="n">
+      <c r="B28" s="41" t="n">
         <f aca="false">ROUND([53]output_table!b24,6)</f>
         <v>0.000346</v>
       </c>
-      <c r="C28" s="40" t="n">
+      <c r="C28" s="42" t="n">
         <f aca="false">ROUND([53]output_table!d24,6)</f>
         <v>0.000526</v>
       </c>
-      <c r="D28" s="40" t="n">
+      <c r="D28" s="42" t="n">
         <f aca="false">ROUND([53]output_table!c24,6)</f>
         <v>0.000592</v>
       </c>
-      <c r="E28" s="41" t="n">
+      <c r="E28" s="43" t="n">
         <f aca="false">ROUND([53]output_table!e24,6)</f>
         <v>0.000688</v>
       </c>
@@ -31507,19 +31528,19 @@
       <c r="A29" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="39" t="n">
+      <c r="B29" s="41" t="n">
         <f aca="false">ROUND([53]output_table!b25,6)</f>
         <v>0.000236</v>
       </c>
-      <c r="C29" s="40" t="n">
+      <c r="C29" s="42" t="n">
         <f aca="false">ROUND([53]output_table!d25,6)</f>
         <v>0.000184</v>
       </c>
-      <c r="D29" s="40" t="n">
+      <c r="D29" s="42" t="n">
         <f aca="false">ROUND([53]output_table!c25,6)</f>
         <v>0.000595</v>
       </c>
-      <c r="E29" s="41" t="n">
+      <c r="E29" s="43" t="n">
         <f aca="false">ROUND([53]output_table!e25,6)</f>
         <v>0.000362</v>
       </c>
@@ -31528,19 +31549,19 @@
       <c r="A30" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="43" t="n">
+      <c r="B30" s="45" t="n">
         <f aca="false">ROUND([53]output_table!b26,6)</f>
         <v>0.000262</v>
       </c>
-      <c r="C30" s="44" t="n">
+      <c r="C30" s="46" t="n">
         <f aca="false">ROUND([53]output_table!d26,6)</f>
         <v>0.000358</v>
       </c>
-      <c r="D30" s="44" t="n">
+      <c r="D30" s="46" t="n">
         <f aca="false">ROUND([53]output_table!c26,6)</f>
         <v>0.000266</v>
       </c>
-      <c r="E30" s="45" t="n">
+      <c r="E30" s="47" t="n">
         <f aca="false">ROUND([53]output_table!e26,6)</f>
         <v>0.000337</v>
       </c>
@@ -31598,7 +31619,7 @@
       <c r="C2" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="48" t="s">
         <v>132</v>
       </c>
       <c r="K2" s="0" t="s">
@@ -31676,22 +31697,22 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="46"/>
+      <c r="B9" s="48"/>
       <c r="K9" s="0" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="46"/>
+      <c r="B10" s="48"/>
       <c r="K10" s="0" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="46"/>
+      <c r="B11" s="48"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="46"/>
+      <c r="B12" s="48"/>
       <c r="K12" s="0" t="s">
         <v>144</v>
       </c>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="basic" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,18 +23,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId14"/>
-    <externalReference r:id="rId15"/>
-    <externalReference r:id="rId16"/>
-    <externalReference r:id="rId17"/>
-    <externalReference r:id="rId18"/>
-    <externalReference r:id="rId19"/>
-    <externalReference r:id="rId20"/>
-    <externalReference r:id="rId21"/>
-    <externalReference r:id="rId22"/>
-    <externalReference r:id="rId23"/>
-    <externalReference r:id="rId24"/>
-    <externalReference r:id="rId25"/>
-    <externalReference r:id="rId26"/>
   </externalReferences>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1115,3254 +1103,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="output_table"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2">
-            <v>0.000901942775695546</v>
-          </cell>
-          <cell r="C2">
-            <v>0.000922506144755621</v>
-          </cell>
-          <cell r="D2">
-            <v>0.00104803084019014</v>
-          </cell>
-          <cell r="E2">
-            <v>0.00105358784800313</v>
-          </cell>
-          <cell r="F2">
-            <v>-2.22907664918837</v>
-          </cell>
-          <cell r="G2">
-            <v>-0.602381658331743</v>
-          </cell>
-          <cell r="H2">
-            <v>-1.62669499085662</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>0.000537635959176888</v>
-          </cell>
-          <cell r="C3">
-            <v>0.000948228793949682</v>
-          </cell>
-          <cell r="D3">
-            <v>0.000694403791409934</v>
-          </cell>
-          <cell r="E3">
-            <v>0.00180966529099243</v>
-          </cell>
-          <cell r="F3">
-            <v>-43.3010300248889</v>
-          </cell>
-          <cell r="G3">
-            <v>-117.615232388912</v>
-          </cell>
-          <cell r="H3">
-            <v>74.3142023640233</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>0.00102264424093961</v>
-          </cell>
-          <cell r="C4">
-            <v>0.00301413374727766</v>
-          </cell>
-          <cell r="D4">
-            <v>0.00112084730177949</v>
-          </cell>
-          <cell r="E4">
-            <v>0.00433593636254305</v>
-          </cell>
-          <cell r="F4">
-            <v>-66.071703292422</v>
-          </cell>
-          <cell r="G4">
-            <v>-106.667100080326</v>
-          </cell>
-          <cell r="H4">
-            <v>40.5953967879044</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>0.000593783644813335</v>
-          </cell>
-          <cell r="C5">
-            <v>0.00219282480405942</v>
-          </cell>
-          <cell r="D5">
-            <v>0.00107087725823956</v>
-          </cell>
-          <cell r="E5">
-            <v>0.00326982617874154</v>
-          </cell>
-          <cell r="F5">
-            <v>-72.9215191421538</v>
-          </cell>
-          <cell r="G5">
-            <v>-100.279279787023</v>
-          </cell>
-          <cell r="H5">
-            <v>27.3577606448693</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.00623977431719456</v>
-          </cell>
-          <cell r="C6">
-            <v>0.00615514241315341</v>
-          </cell>
-          <cell r="D6">
-            <v>0.00701022172255124</v>
-          </cell>
-          <cell r="E6">
-            <v>0.00698166687946612</v>
-          </cell>
-          <cell r="F6">
-            <v>1.3749788121929</v>
-          </cell>
-          <cell r="G6">
-            <v>0.463918479353159</v>
-          </cell>
-          <cell r="H6">
-            <v>0.911060332839737</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>0.00110105936710417</v>
-          </cell>
-          <cell r="C7">
-            <v>0.00195403047719594</v>
-          </cell>
-          <cell r="D7">
-            <v>0.00250644708363799</v>
-          </cell>
-          <cell r="E7">
-            <v>0.00377858488193049</v>
-          </cell>
-          <cell r="F7">
-            <v>-43.651883634681</v>
-          </cell>
-          <cell r="G7">
-            <v>-65.1032731136325</v>
-          </cell>
-          <cell r="H7">
-            <v>21.4513894789516</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>0.000442946465664111</v>
-          </cell>
-          <cell r="C8">
-            <v>0.00200924841398352</v>
-          </cell>
-          <cell r="D8">
-            <v>0.000480901143154098</v>
-          </cell>
-          <cell r="E8">
-            <v>0.00128740367639692</v>
-          </cell>
-          <cell r="F8">
-            <v>-77.9546191211903</v>
-          </cell>
-          <cell r="G8">
-            <v>-40.1395132443505</v>
-          </cell>
-          <cell r="H8">
-            <v>-37.8151058768398</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>0.000618587046923147</v>
-          </cell>
-          <cell r="C9">
-            <v>0.000996266875388787</v>
-          </cell>
-          <cell r="D9">
-            <v>0.00100047597325986</v>
-          </cell>
-          <cell r="E9">
-            <v>0.00166390061257777</v>
-          </cell>
-          <cell r="F9">
-            <v>-37.9095037480046</v>
-          </cell>
-          <cell r="G9">
-            <v>-66.5910566442366</v>
-          </cell>
-          <cell r="H9">
-            <v>28.681552896232</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>0.000195809453720154</v>
-          </cell>
-          <cell r="C10">
-            <v>0.000262782583830665</v>
-          </cell>
-          <cell r="D10">
-            <v>0.000259324378636601</v>
-          </cell>
-          <cell r="E10">
-            <v>0.000189734643258949</v>
-          </cell>
-          <cell r="F10">
-            <v>-25.4861372980744</v>
-          </cell>
-          <cell r="G10">
-            <v>26.4818673913698</v>
-          </cell>
-          <cell r="H10">
-            <v>-51.9680046894441</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>0.000243145442619801</v>
-          </cell>
-          <cell r="C11">
-            <v>0.000521167976960093</v>
-          </cell>
-          <cell r="D11">
-            <v>0.000430856830695775</v>
-          </cell>
-          <cell r="E11">
-            <v>0.000686005587733103</v>
-          </cell>
-          <cell r="F11">
-            <v>-53.3460509147093</v>
-          </cell>
-          <cell r="G11">
-            <v>-48.9571056390645</v>
-          </cell>
-          <cell r="H11">
-            <v>-4.38894527564481</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>0.000299020437897784</v>
-          </cell>
-          <cell r="C12">
-            <v>0.000382989029136599</v>
-          </cell>
-          <cell r="D12">
-            <v>0.000441925663269252</v>
-          </cell>
-          <cell r="E12">
-            <v>0.00040788574488398</v>
-          </cell>
-          <cell r="F12">
-            <v>-21.924542180258</v>
-          </cell>
-          <cell r="G12">
-            <v>8.88796174188341</v>
-          </cell>
-          <cell r="H12">
-            <v>-30.8125039221414</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>0.00102000855880939</v>
-          </cell>
-          <cell r="C13">
-            <v>0.00121711157711116</v>
-          </cell>
-          <cell r="D13">
-            <v>0.000864048013051492</v>
-          </cell>
-          <cell r="E13">
-            <v>0.000938025527106572</v>
-          </cell>
-          <cell r="F13">
-            <v>-16.1943261413715</v>
-          </cell>
-          <cell r="G13">
-            <v>-6.0781209747974</v>
-          </cell>
-          <cell r="H13">
-            <v>-10.1162051665741</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>0.00104757817229763</v>
-          </cell>
-          <cell r="C14">
-            <v>0.00255480458806164</v>
-          </cell>
-          <cell r="D14">
-            <v>0.00205322121463545</v>
-          </cell>
-          <cell r="E14">
-            <v>0.00381700866452876</v>
-          </cell>
-          <cell r="F14">
-            <v>-58.9957612729811</v>
-          </cell>
-          <cell r="G14">
-            <v>-69.0380570841046</v>
-          </cell>
-          <cell r="H14">
-            <v>10.0422958111235</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>0.000190296896478319</v>
-          </cell>
-          <cell r="C15">
-            <v>0.000263198563487931</v>
-          </cell>
-          <cell r="D15">
-            <v>0.000184265663612801</v>
-          </cell>
-          <cell r="E15">
-            <v>0.000126776988545682</v>
-          </cell>
-          <cell r="F15">
-            <v>-27.6983529254539</v>
-          </cell>
-          <cell r="G15">
-            <v>21.8423209858268</v>
-          </cell>
-          <cell r="H15">
-            <v>-49.5406739112808</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>0.000295994717054014</v>
-          </cell>
-          <cell r="C16">
-            <v>0.000305358821735074</v>
-          </cell>
-          <cell r="D16">
-            <v>0.00022318085171573</v>
-          </cell>
-          <cell r="E16">
-            <v>0.000198772137678812</v>
-          </cell>
-          <cell r="F16">
-            <v>-3.06659052057271</v>
-          </cell>
-          <cell r="G16">
-            <v>7.99345304590389</v>
-          </cell>
-          <cell r="H16">
-            <v>-11.0600435664766</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>0.00105024996105716</v>
-          </cell>
-          <cell r="C17">
-            <v>0.00242950222807756</v>
-          </cell>
-          <cell r="D17">
-            <v>0.00522886810834881</v>
-          </cell>
-          <cell r="E17">
-            <v>0.00748512426094133</v>
-          </cell>
-          <cell r="F17">
-            <v>-56.7709817706892</v>
-          </cell>
-          <cell r="G17">
-            <v>-92.869071142111</v>
-          </cell>
-          <cell r="H17">
-            <v>36.0980893714218</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>0.000336490537215481</v>
-          </cell>
-          <cell r="C18">
-            <v>0.00124148122350794</v>
-          </cell>
-          <cell r="D18">
-            <v>0.000661532666295829</v>
-          </cell>
-          <cell r="E18">
-            <v>0.00231565286527091</v>
-          </cell>
-          <cell r="F18">
-            <v>-72.896042981247</v>
-          </cell>
-          <cell r="G18">
-            <v>-133.237633212139</v>
-          </cell>
-          <cell r="H18">
-            <v>60.3415902308917</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>0.000840733434692357</v>
-          </cell>
-          <cell r="C19">
-            <v>0.00125639364575451</v>
-          </cell>
-          <cell r="D19">
-            <v>0.00209522122214339</v>
-          </cell>
-          <cell r="E19">
-            <v>0.0032261621534937</v>
-          </cell>
-          <cell r="F19">
-            <v>-33.0835970451391</v>
-          </cell>
-          <cell r="G19">
-            <v>-90.0148560263634</v>
-          </cell>
-          <cell r="H19">
-            <v>56.9312589812242</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>0.00156170817402549</v>
-          </cell>
-          <cell r="C20">
-            <v>0.00166449920464206</v>
-          </cell>
-          <cell r="D20">
-            <v>0.00171545146226222</v>
-          </cell>
-          <cell r="E20">
-            <v>0.00271974547359438</v>
-          </cell>
-          <cell r="F20">
-            <v>-6.1754929248328</v>
-          </cell>
-          <cell r="G20">
-            <v>-60.3361064115457</v>
-          </cell>
-          <cell r="H20">
-            <v>54.1606134867129</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>0.00164980704562269</v>
-          </cell>
-          <cell r="C21">
-            <v>0.00163132347227275</v>
-          </cell>
-          <cell r="D21">
-            <v>0.00238995755382042</v>
-          </cell>
-          <cell r="E21">
-            <v>0.00241401590619076</v>
-          </cell>
-          <cell r="F21">
-            <v>1.13304158642382</v>
-          </cell>
-          <cell r="G21">
-            <v>-1.47477510004919</v>
-          </cell>
-          <cell r="H21">
-            <v>2.60781668647301</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>0.000852855663416553</v>
-          </cell>
-          <cell r="C22">
-            <v>0.000863846876239507</v>
-          </cell>
-          <cell r="D22">
-            <v>0.00079289068185225</v>
-          </cell>
-          <cell r="E22">
-            <v>0.000877294318541606</v>
-          </cell>
-          <cell r="F22">
-            <v>-1.27235660917139</v>
-          </cell>
-          <cell r="G22">
-            <v>-9.77067105420136</v>
-          </cell>
-          <cell r="H22">
-            <v>8.49831444502997</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>0.000241604222761696</v>
-          </cell>
-          <cell r="C23">
-            <v>0.00123753971899635</v>
-          </cell>
-          <cell r="D23">
-            <v>0.000253294586925759</v>
-          </cell>
-          <cell r="E23">
-            <v>0.000795073121127181</v>
-          </cell>
-          <cell r="F23">
-            <v>-80.477053055102</v>
-          </cell>
-          <cell r="G23">
-            <v>-43.7786784444225</v>
-          </cell>
-          <cell r="H23">
-            <v>-36.6983746106796</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>0.000346159380999865</v>
-          </cell>
-          <cell r="C24">
-            <v>0.000592327952993193</v>
-          </cell>
-          <cell r="D24">
-            <v>0.000530996037514885</v>
-          </cell>
-          <cell r="E24">
-            <v>0.000691129586373074</v>
-          </cell>
-          <cell r="F24">
-            <v>-41.5595061400313</v>
-          </cell>
-          <cell r="G24">
-            <v>-27.0346094674396</v>
-          </cell>
-          <cell r="H24">
-            <v>-14.5248966725917</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>0.000236407675673844</v>
-          </cell>
-          <cell r="C25">
-            <v>0.000600182168414035</v>
-          </cell>
-          <cell r="D25">
-            <v>0.000183170833736748</v>
-          </cell>
-          <cell r="E25">
-            <v>0.00036093134978895</v>
-          </cell>
-          <cell r="F25">
-            <v>-60.610679870989</v>
-          </cell>
-          <cell r="G25">
-            <v>-29.6177603079961</v>
-          </cell>
-          <cell r="H25">
-            <v>-30.9929195629929</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>0.000261762573356451</v>
-          </cell>
-          <cell r="C26">
-            <v>0.000266192095183177</v>
-          </cell>
-          <cell r="D26">
-            <v>0.000359518686927971</v>
-          </cell>
-          <cell r="E26">
-            <v>0.000337773188841264</v>
-          </cell>
-          <cell r="F26">
-            <v>-1.6640320681489</v>
-          </cell>
-          <cell r="G26">
-            <v>8.16909986442043</v>
-          </cell>
-          <cell r="H26">
-            <v>-9.83313193256933</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="output_table"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="F2">
-            <v>-3.68446868671443</v>
-          </cell>
-          <cell r="G2">
-            <v>-1.74656241676815</v>
-          </cell>
-          <cell r="H2">
-            <v>-1.93790626994626</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>-44.0031464514687</v>
-          </cell>
-          <cell r="G3">
-            <v>-119.477849437964</v>
-          </cell>
-          <cell r="H3">
-            <v>75.4747029864956</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>-65.471850809175</v>
-          </cell>
-          <cell r="G4">
-            <v>-113.144500882172</v>
-          </cell>
-          <cell r="H4">
-            <v>47.672650072997</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>-74.0981009189681</v>
-          </cell>
-          <cell r="G5">
-            <v>-100.706297262462</v>
-          </cell>
-          <cell r="H5">
-            <v>26.6081963434938</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>1.73478985611457</v>
-          </cell>
-          <cell r="G6">
-            <v>1.59298913880027</v>
-          </cell>
-          <cell r="H6">
-            <v>0.141800717314296</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>-44.3985164989434</v>
-          </cell>
-          <cell r="G7">
-            <v>-66.8087547496246</v>
-          </cell>
-          <cell r="H7">
-            <v>22.4102382506812</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>-75.9836987311246</v>
-          </cell>
-          <cell r="G8">
-            <v>-41.9258607367088</v>
-          </cell>
-          <cell r="H8">
-            <v>-34.0578379944157</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>-36.5522892683822</v>
-          </cell>
-          <cell r="G9">
-            <v>-65.0994308739387</v>
-          </cell>
-          <cell r="H9">
-            <v>28.5471416055564</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>-25.0917593720215</v>
-          </cell>
-          <cell r="G10">
-            <v>25.5183984376721</v>
-          </cell>
-          <cell r="H10">
-            <v>-50.6101578096936</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>-52.8222766505924</v>
-          </cell>
-          <cell r="G11">
-            <v>-49.4796291696242</v>
-          </cell>
-          <cell r="H11">
-            <v>-3.34264748096826</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>-24.755687743927</v>
-          </cell>
-          <cell r="G12">
-            <v>2.36952158886753</v>
-          </cell>
-          <cell r="H12">
-            <v>-27.1252093327945</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>-15.6424473722344</v>
-          </cell>
-          <cell r="G13">
-            <v>-7.26777370056549</v>
-          </cell>
-          <cell r="H13">
-            <v>-8.37467367166889</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>-55.1850295413998</v>
-          </cell>
-          <cell r="G14">
-            <v>-67.5679778062228</v>
-          </cell>
-          <cell r="H14">
-            <v>12.3829482648229</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>-26.7487835690827</v>
-          </cell>
-          <cell r="G15">
-            <v>21.2139561635796</v>
-          </cell>
-          <cell r="H15">
-            <v>-47.9627397326623</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>-0.440332907420678</v>
-          </cell>
-          <cell r="G16">
-            <v>7.38191669455638</v>
-          </cell>
-          <cell r="H16">
-            <v>-7.82224960197706</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>-55.4546070843232</v>
-          </cell>
-          <cell r="G17">
-            <v>-93.2922001718677</v>
-          </cell>
-          <cell r="H17">
-            <v>37.8375930875445</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>-73.6781343929775</v>
-          </cell>
-          <cell r="G18">
-            <v>-131.303368987624</v>
-          </cell>
-          <cell r="H18">
-            <v>57.6252345946464</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>-33.7270827711637</v>
-          </cell>
-          <cell r="G19">
-            <v>-89.5397696913853</v>
-          </cell>
-          <cell r="H19">
-            <v>55.8126869202217</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>-6.76005737182877</v>
-          </cell>
-          <cell r="G20">
-            <v>-60.7427671345438</v>
-          </cell>
-          <cell r="H20">
-            <v>53.982709762715</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>0.749995432915063</v>
-          </cell>
-          <cell r="G21">
-            <v>-1.32784115643864</v>
-          </cell>
-          <cell r="H21">
-            <v>2.0778365893537</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>-0.281106904340066</v>
-          </cell>
-          <cell r="G22">
-            <v>-7.78661439446388</v>
-          </cell>
-          <cell r="H22">
-            <v>7.50550749012382</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>-80.0799467427782</v>
-          </cell>
-          <cell r="G23">
-            <v>-43.6875986809105</v>
-          </cell>
-          <cell r="H23">
-            <v>-36.3923480618676</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>-41.1098142677442</v>
-          </cell>
-          <cell r="G24">
-            <v>-27.8683478208008</v>
-          </cell>
-          <cell r="H24">
-            <v>-13.2414664469434</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>-59.3390559518351</v>
-          </cell>
-          <cell r="G25">
-            <v>-29.896357017374</v>
-          </cell>
-          <cell r="H25">
-            <v>-29.442698934461</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>-2.18408570597907</v>
-          </cell>
-          <cell r="G26">
-            <v>6.82119619903455</v>
-          </cell>
-          <cell r="H26">
-            <v>-9.00528190501362</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="output_table"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="F2">
-            <v>-19.5456012822419</v>
-          </cell>
-          <cell r="G2">
-            <v>-7.62939628969471</v>
-          </cell>
-          <cell r="H2">
-            <v>-11.9162049925472</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>-66.3497525928458</v>
-          </cell>
-          <cell r="G3">
-            <v>-144.223979988593</v>
-          </cell>
-          <cell r="H3">
-            <v>77.8742273957467</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>-78.2912436444313</v>
-          </cell>
-          <cell r="G4">
-            <v>-128.989865407605</v>
-          </cell>
-          <cell r="H4">
-            <v>50.6986217631734</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>-79.6424673540579</v>
-          </cell>
-          <cell r="G5">
-            <v>-111.658211278846</v>
-          </cell>
-          <cell r="H5">
-            <v>32.0157439247883</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>1.18147506297511</v>
-          </cell>
-          <cell r="G6">
-            <v>1.07233371200198</v>
-          </cell>
-          <cell r="H6">
-            <v>0.109141350973133</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>-69.7124497986615</v>
-          </cell>
-          <cell r="G7">
-            <v>-104.716197208135</v>
-          </cell>
-          <cell r="H7">
-            <v>35.0037474094737</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>-87.6804814705405</v>
-          </cell>
-          <cell r="G8">
-            <v>-54.5393880311105</v>
-          </cell>
-          <cell r="H8">
-            <v>-33.1410934394299</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>-60.1000597381984</v>
-          </cell>
-          <cell r="G9">
-            <v>-119.966010491884</v>
-          </cell>
-          <cell r="H9">
-            <v>59.8659507536854</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>-44.0729376971928</v>
-          </cell>
-          <cell r="G10">
-            <v>60.7493158770242</v>
-          </cell>
-          <cell r="H10">
-            <v>-104.822253574217</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>-73.7023429198587</v>
-          </cell>
-          <cell r="G11">
-            <v>-84.8297605512319</v>
-          </cell>
-          <cell r="H11">
-            <v>11.1274176313733</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>-57.2204796265069</v>
-          </cell>
-          <cell r="G12">
-            <v>-16.4903768410556</v>
-          </cell>
-          <cell r="H12">
-            <v>-40.7301027854513</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>-37.5614780513543</v>
-          </cell>
-          <cell r="G13">
-            <v>-18.4025144664517</v>
-          </cell>
-          <cell r="H13">
-            <v>-19.1589635849026</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>-70.5228351811284</v>
-          </cell>
-          <cell r="G14">
-            <v>-102.207096908014</v>
-          </cell>
-          <cell r="H14">
-            <v>31.6842617268854</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>-49.2743193053915</v>
-          </cell>
-          <cell r="G15">
-            <v>43.8417697433374</v>
-          </cell>
-          <cell r="H15">
-            <v>-93.1160890487289</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>-10.6458130617246</v>
-          </cell>
-          <cell r="G16">
-            <v>10.8250990620459</v>
-          </cell>
-          <cell r="H16">
-            <v>-21.4709121237704</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>-74.1620260727143</v>
-          </cell>
-          <cell r="G17">
-            <v>-144.533013441091</v>
-          </cell>
-          <cell r="H17">
-            <v>70.370987368377</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>-85.1609608469503</v>
-          </cell>
-          <cell r="G18">
-            <v>-151.05840779276</v>
-          </cell>
-          <cell r="H18">
-            <v>65.89744694581</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>-61.0070513183542</v>
-          </cell>
-          <cell r="G19">
-            <v>-137.311494986684</v>
-          </cell>
-          <cell r="H19">
-            <v>76.3044436683298</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>-43.7814440177531</v>
-          </cell>
-          <cell r="G20">
-            <v>-116.664143357821</v>
-          </cell>
-          <cell r="H20">
-            <v>72.8826993400676</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>0.968325866410428</v>
-          </cell>
-          <cell r="G21">
-            <v>-1.04735658795994</v>
-          </cell>
-          <cell r="H21">
-            <v>2.01568245437038</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>-22.0810716978395</v>
-          </cell>
-          <cell r="G22">
-            <v>-55.2488165375405</v>
-          </cell>
-          <cell r="H22">
-            <v>33.167744839701</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>-90.9874733627549</v>
-          </cell>
-          <cell r="G23">
-            <v>-59.2772806178479</v>
-          </cell>
-          <cell r="H23">
-            <v>-31.710192744907</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>-56.6623809066274</v>
-          </cell>
-          <cell r="G24">
-            <v>-64.2269152495543</v>
-          </cell>
-          <cell r="H24">
-            <v>7.56453434292696</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>-78.8381487923293</v>
-          </cell>
-          <cell r="G25">
-            <v>-48.6513689800799</v>
-          </cell>
-          <cell r="H25">
-            <v>-30.1867798122494</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>-1.17552108666758</v>
-          </cell>
-          <cell r="G26">
-            <v>17.795681256227</v>
-          </cell>
-          <cell r="H26">
-            <v>-18.9712023428946</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="output_table"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="F2">
-            <v>0.689109365527442</v>
-          </cell>
-          <cell r="G2">
-            <v>0.649997889022571</v>
-          </cell>
-          <cell r="H2">
-            <v>0.0391114765048712</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>-31.3171540115281</v>
-          </cell>
-          <cell r="G3">
-            <v>-71.2327728032718</v>
-          </cell>
-          <cell r="H3">
-            <v>39.9156187917438</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>-53.8721161130041</v>
-          </cell>
-          <cell r="G4">
-            <v>-73.5719274033354</v>
-          </cell>
-          <cell r="H4">
-            <v>19.6998112903313</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>-55.9552404428891</v>
-          </cell>
-          <cell r="G5">
-            <v>-71.5760071188871</v>
-          </cell>
-          <cell r="H5">
-            <v>15.620766675998</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>0.674530741769233</v>
-          </cell>
-          <cell r="G6">
-            <v>-0.170259971230099</v>
-          </cell>
-          <cell r="H6">
-            <v>0.844790712999332</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>-18.7215870935943</v>
-          </cell>
-          <cell r="G7">
-            <v>-25.4076018552826</v>
-          </cell>
-          <cell r="H7">
-            <v>6.68601476168835</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>-56.4364469747559</v>
-          </cell>
-          <cell r="G8">
-            <v>-27.1575102571685</v>
-          </cell>
-          <cell r="H8">
-            <v>-29.2789367175874</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>-22.3215887104248</v>
-          </cell>
-          <cell r="G9">
-            <v>-30.9373823066148</v>
-          </cell>
-          <cell r="H9">
-            <v>8.61579359619005</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>-13.9107569968002</v>
-          </cell>
-          <cell r="G10">
-            <v>10.7590057264539</v>
-          </cell>
-          <cell r="H10">
-            <v>-24.6697627232541</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>-28.7549032597503</v>
-          </cell>
-          <cell r="G11">
-            <v>-18.8341965059064</v>
-          </cell>
-          <cell r="H11">
-            <v>-9.92070675384384</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>-6.30451195688967</v>
-          </cell>
-          <cell r="G12">
-            <v>15.9116842533011</v>
-          </cell>
-          <cell r="H12">
-            <v>-22.2161962101908</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>-5.30721568729032</v>
-          </cell>
-          <cell r="G13">
-            <v>-0.536179475885627</v>
-          </cell>
-          <cell r="H13">
-            <v>-4.77103621140469</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>-45.5306500805499</v>
-          </cell>
-          <cell r="G14">
-            <v>-29.2600700045955</v>
-          </cell>
-          <cell r="H14">
-            <v>-16.2705800759545</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>-15.5849285066986</v>
-          </cell>
-          <cell r="G15">
-            <v>9.30473107126945</v>
-          </cell>
-          <cell r="H15">
-            <v>-24.889659577968</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>1.17428870272304</v>
-          </cell>
-          <cell r="G16">
-            <v>4.824560668534</v>
-          </cell>
-          <cell r="H16">
-            <v>-3.65027196581096</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>-33.211260518518</v>
-          </cell>
-          <cell r="G17">
-            <v>-43.9250071405402</v>
-          </cell>
-          <cell r="H17">
-            <v>10.7137466220221</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>-53.5107507452821</v>
-          </cell>
-          <cell r="G18">
-            <v>-89.268452806336</v>
-          </cell>
-          <cell r="H18">
-            <v>35.7577020610539</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>-11.849046924393</v>
-          </cell>
-          <cell r="G19">
-            <v>-35.9745296759972</v>
-          </cell>
-          <cell r="H19">
-            <v>24.1254827516042</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>4.96377618023485</v>
-          </cell>
-          <cell r="G20">
-            <v>-18.3307558482055</v>
-          </cell>
-          <cell r="H20">
-            <v>23.2945320284404</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>0.187923026933303</v>
-          </cell>
-          <cell r="G21">
-            <v>-1.72433734555682</v>
-          </cell>
-          <cell r="H21">
-            <v>1.91226037249013</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>3.54073107289638</v>
-          </cell>
-          <cell r="G22">
-            <v>4.43955176120062</v>
-          </cell>
-          <cell r="H22">
-            <v>-0.89882068830424</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>-59.6075693660874</v>
-          </cell>
-          <cell r="G23">
-            <v>-22.2149497081964</v>
-          </cell>
-          <cell r="H23">
-            <v>-37.392619657891</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>-27.4418913455943</v>
-          </cell>
-          <cell r="G24">
-            <v>-8.99329271276991</v>
-          </cell>
-          <cell r="H24">
-            <v>-18.4485986328244</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>-35.6155129591483</v>
-          </cell>
-          <cell r="G25">
-            <v>-10.944183178049</v>
-          </cell>
-          <cell r="H25">
-            <v>-24.6713297810993</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>0.437861192894168</v>
-          </cell>
-          <cell r="G26">
-            <v>3.92232174977365</v>
-          </cell>
-          <cell r="H26">
-            <v>-3.48446055687948</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="output_table"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="F2">
-            <v>1.71733170200066</v>
-          </cell>
-          <cell r="G2">
-            <v>-0.316481324847722</v>
-          </cell>
-          <cell r="H2">
-            <v>2.03381302684838</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>-3.811201726764</v>
-          </cell>
-          <cell r="G3">
-            <v>-9.17105508244128</v>
-          </cell>
-          <cell r="H3">
-            <v>5.35985335567728</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>-10.6208555204002</v>
-          </cell>
-          <cell r="G4">
-            <v>-34.1773603300516</v>
-          </cell>
-          <cell r="H4">
-            <v>23.5565048096514</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>-7.96398178567803</v>
-          </cell>
-          <cell r="G5">
-            <v>-9.56037908708673</v>
-          </cell>
-          <cell r="H5">
-            <v>1.59639730140869</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>0.84305877277066</v>
-          </cell>
-          <cell r="G6">
-            <v>0.242848321938052</v>
-          </cell>
-          <cell r="H6">
-            <v>0.600210450832608</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>-5.13418517459719</v>
-          </cell>
-          <cell r="G7">
-            <v>-5.20344913675101</v>
-          </cell>
-          <cell r="H7">
-            <v>0.0692639621538276</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>-11.9667287487995</v>
-          </cell>
-          <cell r="G8">
-            <v>-10.4707824217086</v>
-          </cell>
-          <cell r="H8">
-            <v>-1.49594632709089</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>-3.13088170251485</v>
-          </cell>
-          <cell r="G9">
-            <v>-10.7178497673489</v>
-          </cell>
-          <cell r="H9">
-            <v>7.58696806483407</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>0.635331066913522</v>
-          </cell>
-          <cell r="G10">
-            <v>0.0718107311003328</v>
-          </cell>
-          <cell r="H10">
-            <v>0.563520335813189</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>-0.38909365338811</v>
-          </cell>
-          <cell r="G11">
-            <v>-1.0496032918241</v>
-          </cell>
-          <cell r="H11">
-            <v>0.660509638435986</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>3.9334362967529</v>
-          </cell>
-          <cell r="G12">
-            <v>-0.291771675960291</v>
-          </cell>
-          <cell r="H12">
-            <v>4.2252079727132</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>0.839604642091084</v>
-          </cell>
-          <cell r="G13">
-            <v>0.000168935392510633</v>
-          </cell>
-          <cell r="H13">
-            <v>0.839435706698573</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>-13.6883714073982</v>
-          </cell>
-          <cell r="G14">
-            <v>-13.1740126998184</v>
-          </cell>
-          <cell r="H14">
-            <v>-0.51435870757986</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>0.325968119240197</v>
-          </cell>
-          <cell r="G15">
-            <v>-0.328152435850879</v>
-          </cell>
-          <cell r="H15">
-            <v>0.654120555091076</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>1.24155168393402</v>
-          </cell>
-          <cell r="G16">
-            <v>0.0525160870830255</v>
-          </cell>
-          <cell r="H16">
-            <v>1.189035596851</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>-21.1043125163187</v>
-          </cell>
-          <cell r="G17">
-            <v>-36.9113474129628</v>
-          </cell>
-          <cell r="H17">
-            <v>15.8070348966441</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>-4.7847557478251</v>
-          </cell>
-          <cell r="G18">
-            <v>-12.7095892293388</v>
-          </cell>
-          <cell r="H18">
-            <v>7.92483348151372</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>-7.04635294258179</v>
-          </cell>
-          <cell r="G19">
-            <v>-9.13963109681612</v>
-          </cell>
-          <cell r="H19">
-            <v>2.09327815423433</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>2.49313115976838</v>
-          </cell>
-          <cell r="G20">
-            <v>-9.38287492871244</v>
-          </cell>
-          <cell r="H20">
-            <v>11.8760060884808</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>0.224070108171718</v>
-          </cell>
-          <cell r="G21">
-            <v>-0.309614693762422</v>
-          </cell>
-          <cell r="H21">
-            <v>0.533684801934141</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>-2.32394302138938</v>
-          </cell>
-          <cell r="G22">
-            <v>-1.83858750280081</v>
-          </cell>
-          <cell r="H22">
-            <v>-0.485355518588569</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>-6.1076640400111</v>
-          </cell>
-          <cell r="G23">
-            <v>-3.24732459558318</v>
-          </cell>
-          <cell r="H23">
-            <v>-2.86033944442792</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>0.388630733752689</v>
-          </cell>
-          <cell r="G24">
-            <v>-4.44118846054129</v>
-          </cell>
-          <cell r="H24">
-            <v>4.82981919429398</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>-1.77962541884038</v>
-          </cell>
-          <cell r="G25">
-            <v>-2.60381343923937</v>
-          </cell>
-          <cell r="H25">
-            <v>0.824188020398988</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>0.35216979484502</v>
-          </cell>
-          <cell r="G26">
-            <v>0.1172941236904</v>
-          </cell>
-          <cell r="H26">
-            <v>0.23487567115462</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="output_table"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="F2">
-            <v>-2.5552001380833</v>
-          </cell>
-          <cell r="G2">
-            <v>-0.577986459155564</v>
-          </cell>
-          <cell r="H2">
-            <v>-1.97721367892773</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>-42.3322726561705</v>
-          </cell>
-          <cell r="G3">
-            <v>-118.593872095676</v>
-          </cell>
-          <cell r="H3">
-            <v>76.2615994395055</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>-66.0721614182489</v>
-          </cell>
-          <cell r="G4">
-            <v>-107.039705230357</v>
-          </cell>
-          <cell r="H4">
-            <v>40.9675438121084</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>-73.0538243118469</v>
-          </cell>
-          <cell r="G5">
-            <v>-100.247297285294</v>
-          </cell>
-          <cell r="H5">
-            <v>27.193472973447</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>1.35255339468982</v>
-          </cell>
-          <cell r="G6">
-            <v>0.462363401250637</v>
-          </cell>
-          <cell r="H6">
-            <v>0.890189993439181</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>-43.9714344259867</v>
-          </cell>
-          <cell r="G7">
-            <v>-61.2623403774383</v>
-          </cell>
-          <cell r="H7">
-            <v>17.2909059514516</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>-78.0313000443816</v>
-          </cell>
-          <cell r="G8">
-            <v>-40.7839669737209</v>
-          </cell>
-          <cell r="H8">
-            <v>-37.2473330706607</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>-37.970001814326</v>
-          </cell>
-          <cell r="G9">
-            <v>-66.2810447292442</v>
-          </cell>
-          <cell r="H9">
-            <v>28.3110429149182</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>-25.2255465433841</v>
-          </cell>
-          <cell r="G10">
-            <v>27.6354755409549</v>
-          </cell>
-          <cell r="H10">
-            <v>-52.861022084339</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>-53.5701667842644</v>
-          </cell>
-          <cell r="G11">
-            <v>-49.0406779266455</v>
-          </cell>
-          <cell r="H11">
-            <v>-4.52948885761888</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>-21.3434550111925</v>
-          </cell>
-          <cell r="G12">
-            <v>7.99203007605658</v>
-          </cell>
-          <cell r="H12">
-            <v>-29.3354850872491</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>-16.0745719211399</v>
-          </cell>
-          <cell r="G13">
-            <v>-6.08383884646459</v>
-          </cell>
-          <cell r="H13">
-            <v>-9.99073307467527</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>-58.9555049068939</v>
-          </cell>
-          <cell r="G14">
-            <v>-69.3737135158804</v>
-          </cell>
-          <cell r="H14">
-            <v>10.4182086089865</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>-27.3676531286215</v>
-          </cell>
-          <cell r="G15">
-            <v>23.1814008507476</v>
-          </cell>
-          <cell r="H15">
-            <v>-50.5490539793691</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>-2.38067998254113</v>
-          </cell>
-          <cell r="G16">
-            <v>7.98960817550755</v>
-          </cell>
-          <cell r="H16">
-            <v>-10.3702881580487</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>-57.4718087284225</v>
-          </cell>
-          <cell r="G17">
-            <v>-92.2399959868402</v>
-          </cell>
-          <cell r="H17">
-            <v>34.7681872584177</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>-73.1877550459867</v>
-          </cell>
-          <cell r="G18">
-            <v>-134.055286709446</v>
-          </cell>
-          <cell r="H18">
-            <v>60.8675316634588</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>-33.0230940947804</v>
-          </cell>
-          <cell r="G19">
-            <v>-89.2621756855797</v>
-          </cell>
-          <cell r="H19">
-            <v>56.2390815907993</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>-7.62539677951164</v>
-          </cell>
-          <cell r="G20">
-            <v>-58.9563871507255</v>
-          </cell>
-          <cell r="H20">
-            <v>51.3309903712138</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>1.06301545352257</v>
-          </cell>
-          <cell r="G21">
-            <v>-1.45281328423382</v>
-          </cell>
-          <cell r="H21">
-            <v>2.51582873775639</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>-1.3086472455515</v>
-          </cell>
-          <cell r="G22">
-            <v>-10.1268754956323</v>
-          </cell>
-          <cell r="H22">
-            <v>8.81822825008079</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>-80.3831917051109</v>
-          </cell>
-          <cell r="G23">
-            <v>-44.0779988838245</v>
-          </cell>
-          <cell r="H23">
-            <v>-36.3051928212864</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>-41.5841597751872</v>
-          </cell>
-          <cell r="G24">
-            <v>-27.2369041405237</v>
-          </cell>
-          <cell r="H24">
-            <v>-14.3472556346635</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>-60.7002249263205</v>
-          </cell>
-          <cell r="G25">
-            <v>-29.4360048840776</v>
-          </cell>
-          <cell r="H25">
-            <v>-31.2642200422429</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>-0.941277411164548</v>
-          </cell>
-          <cell r="G26">
-            <v>8.43301489970976</v>
-          </cell>
-          <cell r="H26">
-            <v>-9.3742923108743</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="output_table"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="F2">
-            <v>-2.66796931843565</v>
-          </cell>
-          <cell r="G2">
-            <v>-0.61144094824339</v>
-          </cell>
-          <cell r="H2">
-            <v>-2.05652837019225</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>-42.3629574590959</v>
-          </cell>
-          <cell r="G3">
-            <v>-118.328123849958</v>
-          </cell>
-          <cell r="H3">
-            <v>75.9651663908626</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>-66.1302748346941</v>
-          </cell>
-          <cell r="G4">
-            <v>-107.351354140696</v>
-          </cell>
-          <cell r="H4">
-            <v>41.2210793060017</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>-73.1839132125132</v>
-          </cell>
-          <cell r="G5">
-            <v>-100.028564093028</v>
-          </cell>
-          <cell r="H5">
-            <v>26.8446508805149</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>1.3771798050067</v>
-          </cell>
-          <cell r="G6">
-            <v>0.461735350361208</v>
-          </cell>
-          <cell r="H6">
-            <v>0.915444454645491</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>-44.0095238236493</v>
-          </cell>
-          <cell r="G7">
-            <v>-60.8026615739014</v>
-          </cell>
-          <cell r="H7">
-            <v>16.7931377502521</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>-78.137408364807</v>
-          </cell>
-          <cell r="G8">
-            <v>-40.9119086406024</v>
-          </cell>
-          <cell r="H8">
-            <v>-37.2254997242046</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>-38.0258357325712</v>
-          </cell>
-          <cell r="G9">
-            <v>-66.5569562441252</v>
-          </cell>
-          <cell r="H9">
-            <v>28.531120511554</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>-25.1590361285561</v>
-          </cell>
-          <cell r="G10">
-            <v>27.9607171319945</v>
-          </cell>
-          <cell r="H10">
-            <v>-53.1197532605506</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>-53.7817977989666</v>
-          </cell>
-          <cell r="G11">
-            <v>-49.1325183079783</v>
-          </cell>
-          <cell r="H11">
-            <v>-4.64927949098829</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>-20.414643219966</v>
-          </cell>
-          <cell r="G12">
-            <v>8.43740837265675</v>
-          </cell>
-          <cell r="H12">
-            <v>-28.8520515926227</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>-16.0271986068322</v>
-          </cell>
-          <cell r="G13">
-            <v>-6.09851311585413</v>
-          </cell>
-          <cell r="H13">
-            <v>-9.92868549097809</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>-58.8349819612927</v>
-          </cell>
-          <cell r="G14">
-            <v>-69.8904405704207</v>
-          </cell>
-          <cell r="H14">
-            <v>11.0554586091279</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>-27.1906329424986</v>
-          </cell>
-          <cell r="G15">
-            <v>23.826779871052</v>
-          </cell>
-          <cell r="H15">
-            <v>-51.0174128135506</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>-2.36959204737678</v>
-          </cell>
-          <cell r="G16">
-            <v>7.98856305026664</v>
-          </cell>
-          <cell r="H16">
-            <v>-10.3581550976434</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>-57.6189595295001</v>
-          </cell>
-          <cell r="G17">
-            <v>-91.6976093204253</v>
-          </cell>
-          <cell r="H17">
-            <v>34.0786497909252</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>-73.3596143807629</v>
-          </cell>
-          <cell r="G18">
-            <v>-134.742140023648</v>
-          </cell>
-          <cell r="H18">
-            <v>61.3825256428847</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>-32.7771606885922</v>
-          </cell>
-          <cell r="G19">
-            <v>-89.2087236513379</v>
-          </cell>
-          <cell r="H19">
-            <v>56.4315629627457</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>-8.64855681434859</v>
-          </cell>
-          <cell r="G20">
-            <v>-58.3372010262255</v>
-          </cell>
-          <cell r="H20">
-            <v>49.6886442118769</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>1.07432419056741</v>
-          </cell>
-          <cell r="G21">
-            <v>-1.44101563222107</v>
-          </cell>
-          <cell r="H21">
-            <v>2.51533982278848</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>-1.4116695618217</v>
-          </cell>
-          <cell r="G22">
-            <v>-10.4083586046464</v>
-          </cell>
-          <cell r="H22">
-            <v>8.99668904282466</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>-80.3495747189472</v>
-          </cell>
-          <cell r="G23">
-            <v>-44.1998044039949</v>
-          </cell>
-          <cell r="H23">
-            <v>-36.1497703149523</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>-41.7920665467754</v>
-          </cell>
-          <cell r="G24">
-            <v>-27.4718271378962</v>
-          </cell>
-          <cell r="H24">
-            <v>-14.3202394088792</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>-60.8634495586778</v>
-          </cell>
-          <cell r="G25">
-            <v>-29.2838093239146</v>
-          </cell>
-          <cell r="H25">
-            <v>-31.5796402347632</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>-0.938430820136792</v>
-          </cell>
-          <cell r="G26">
-            <v>8.6806142477422</v>
-          </cell>
-          <cell r="H26">
-            <v>-9.61904506787899</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="output_table"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="F2">
-            <v>-2.89341326976549</v>
-          </cell>
-          <cell r="G2">
-            <v>-0.711778118024133</v>
-          </cell>
-          <cell r="H2">
-            <v>-2.18163515174136</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>-41.8988774416205</v>
-          </cell>
-          <cell r="G3">
-            <v>-119.236454127509</v>
-          </cell>
-          <cell r="H3">
-            <v>77.3375766858883</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>-66.230965983515</v>
-          </cell>
-          <cell r="G4">
-            <v>-107.947873636971</v>
-          </cell>
-          <cell r="H4">
-            <v>41.7169076534563</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>-73.367520295894</v>
-          </cell>
-          <cell r="G5">
-            <v>-99.3360455270193</v>
-          </cell>
-          <cell r="H5">
-            <v>25.9685252311253</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>1.38367398806146</v>
-          </cell>
-          <cell r="G6">
-            <v>0.46009372282509</v>
-          </cell>
-          <cell r="H6">
-            <v>0.923580265236368</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>-44.0870898401464</v>
-          </cell>
-          <cell r="G7">
-            <v>-60.6699925659237</v>
-          </cell>
-          <cell r="H7">
-            <v>16.5829027257773</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>-78.2930140840132</v>
-          </cell>
-          <cell r="G8">
-            <v>-41.1907579835277</v>
-          </cell>
-          <cell r="H8">
-            <v>-37.1022561004855</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>-38.1329195249578</v>
-          </cell>
-          <cell r="G9">
-            <v>-67.1639228775687</v>
-          </cell>
-          <cell r="H9">
-            <v>29.0310033526109</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>-25.0841145098243</v>
-          </cell>
-          <cell r="G10">
-            <v>28.4011882824115</v>
-          </cell>
-          <cell r="H10">
-            <v>-53.4853027922359</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>-54.1282273245165</v>
-          </cell>
-          <cell r="G11">
-            <v>-49.2812924441901</v>
-          </cell>
-          <cell r="H11">
-            <v>-4.84693488032648</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>-19.5320075227053</v>
-          </cell>
-          <cell r="G12">
-            <v>8.64541593663815</v>
-          </cell>
-          <cell r="H12">
-            <v>-28.1774234593434</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>-15.9580868234849</v>
-          </cell>
-          <cell r="G13">
-            <v>-6.09895636514533</v>
-          </cell>
-          <cell r="H13">
-            <v>-9.85913045833956</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>-58.6396824130472</v>
-          </cell>
-          <cell r="G14">
-            <v>-70.7144652781309</v>
-          </cell>
-          <cell r="H14">
-            <v>12.0747828650838</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>-27.1168634423718</v>
-          </cell>
-          <cell r="G15">
-            <v>24.4700836737262</v>
-          </cell>
-          <cell r="H15">
-            <v>-51.586947116098</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>-2.45949777444653</v>
-          </cell>
-          <cell r="G16">
-            <v>8.0370253598561</v>
-          </cell>
-          <cell r="H16">
-            <v>-10.4965231343026</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>-57.8099220380614</v>
-          </cell>
-          <cell r="G17">
-            <v>-90.7875991351932</v>
-          </cell>
-          <cell r="H17">
-            <v>32.9776770971319</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>-73.6029512250811</v>
-          </cell>
-          <cell r="G18">
-            <v>-135.947788331968</v>
-          </cell>
-          <cell r="H18">
-            <v>62.344837106887</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>-32.3509608770828</v>
-          </cell>
-          <cell r="G19">
-            <v>-89.1915450523876</v>
-          </cell>
-          <cell r="H19">
-            <v>56.8405841753048</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>-9.84920481366926</v>
-          </cell>
-          <cell r="G20">
-            <v>-57.469682441449</v>
-          </cell>
-          <cell r="H20">
-            <v>47.6204776277797</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>1.09700442906916</v>
-          </cell>
-          <cell r="G21">
-            <v>-1.45832120477589</v>
-          </cell>
-          <cell r="H21">
-            <v>2.55532563384503</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>-1.6438257304013</v>
-          </cell>
-          <cell r="G22">
-            <v>-10.8393338960519</v>
-          </cell>
-          <cell r="H22">
-            <v>9.19550816565064</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>-80.3018919032221</v>
-          </cell>
-          <cell r="G23">
-            <v>-44.2463820138538</v>
-          </cell>
-          <cell r="H23">
-            <v>-36.0555098893683</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>-42.1668677089906</v>
-          </cell>
-          <cell r="G24">
-            <v>-27.9343695591198</v>
-          </cell>
-          <cell r="H24">
-            <v>-14.2324981498708</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>-61.0958974822392</v>
-          </cell>
-          <cell r="G25">
-            <v>-29.0659258936552</v>
-          </cell>
-          <cell r="H25">
-            <v>-32.029971588584</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>-0.932692139599974</v>
-          </cell>
-          <cell r="G26">
-            <v>9.10492750169509</v>
-          </cell>
-          <cell r="H26">
-            <v>-10.0376196412951</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="output_table"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="F2">
-            <v>-2.18961029636711</v>
-          </cell>
-          <cell r="G2">
-            <v>-0.440237369734908</v>
-          </cell>
-          <cell r="H2">
-            <v>-1.74937292663219</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>-41.648486992002</v>
-          </cell>
-          <cell r="G3">
-            <v>-115.056013308243</v>
-          </cell>
-          <cell r="H3">
-            <v>73.4075263162409</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>-65.4595263814363</v>
-          </cell>
-          <cell r="G4">
-            <v>-104.751881056035</v>
-          </cell>
-          <cell r="H4">
-            <v>39.2923546745983</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>-71.6929951620671</v>
-          </cell>
-          <cell r="G5">
-            <v>-97.8810169054883</v>
-          </cell>
-          <cell r="H5">
-            <v>26.1880217434211</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>0.00273923120533303</v>
-          </cell>
-          <cell r="G6">
-            <v>0.00478307631060547</v>
-          </cell>
-          <cell r="H6">
-            <v>-0.00204384510527244</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>-43.5903117898321</v>
-          </cell>
-          <cell r="G7">
-            <v>-63.368168521974</v>
-          </cell>
-          <cell r="H7">
-            <v>19.7778567321419</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>-77.0954706709294</v>
-          </cell>
-          <cell r="G8">
-            <v>-42.8034805219064</v>
-          </cell>
-          <cell r="H8">
-            <v>-34.291990149023</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>-38.8229578507826</v>
-          </cell>
-          <cell r="G9">
-            <v>-65.8891459885723</v>
-          </cell>
-          <cell r="H9">
-            <v>27.0661881377897</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>-24.8405632282291</v>
-          </cell>
-          <cell r="G10">
-            <v>24.9972611444312</v>
-          </cell>
-          <cell r="H10">
-            <v>-49.8378243726603</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>-52.1363706544546</v>
-          </cell>
-          <cell r="G11">
-            <v>-48.1038007966281</v>
-          </cell>
-          <cell r="H11">
-            <v>-4.03256985782658</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>-22.9686680672435</v>
-          </cell>
-          <cell r="G12">
-            <v>9.34007705040011</v>
-          </cell>
-          <cell r="H12">
-            <v>-32.3087451176436</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>-16.2320228157664</v>
-          </cell>
-          <cell r="G13">
-            <v>-6.49248925702922</v>
-          </cell>
-          <cell r="H13">
-            <v>-9.73953355873719</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>-57.2234290540782</v>
-          </cell>
-          <cell r="G14">
-            <v>-71.7544203940489</v>
-          </cell>
-          <cell r="H14">
-            <v>14.5309913399707</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>-27.5626703339957</v>
-          </cell>
-          <cell r="G15">
-            <v>21.6736233561073</v>
-          </cell>
-          <cell r="H15">
-            <v>-49.236293690103</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>-1.96492130557775</v>
-          </cell>
-          <cell r="G16">
-            <v>7.92783947811649</v>
-          </cell>
-          <cell r="H16">
-            <v>-9.89276078369423</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>-56.2124480503203</v>
-          </cell>
-          <cell r="G17">
-            <v>-92.6392039717878</v>
-          </cell>
-          <cell r="H17">
-            <v>36.4267559214674</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>-71.7567826706369</v>
-          </cell>
-          <cell r="G18">
-            <v>-130.43861933879</v>
-          </cell>
-          <cell r="H18">
-            <v>58.6818366681528</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>-34.4530468483963</v>
-          </cell>
-          <cell r="G19">
-            <v>-85.4873800312538</v>
-          </cell>
-          <cell r="H19">
-            <v>51.0343331828575</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>-8.25415086838592</v>
-          </cell>
-          <cell r="G20">
-            <v>-57.5642040295559</v>
-          </cell>
-          <cell r="H20">
-            <v>49.31005316117</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>0.847387195541128</v>
-          </cell>
-          <cell r="G21">
-            <v>-1.44986046286064</v>
-          </cell>
-          <cell r="H21">
-            <v>2.29724765840178</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>-1.40012883534573</v>
-          </cell>
-          <cell r="G22">
-            <v>-8.7977961290577</v>
-          </cell>
-          <cell r="H22">
-            <v>7.39766729371197</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>-79.5038422104811</v>
-          </cell>
-          <cell r="G23">
-            <v>-43.4322136532216</v>
-          </cell>
-          <cell r="H23">
-            <v>-36.0716285572595</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>-39.1711879818646</v>
-          </cell>
-          <cell r="G24">
-            <v>-24.7755656892051</v>
-          </cell>
-          <cell r="H24">
-            <v>-14.3956222926596</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>-58.484269971657</v>
-          </cell>
-          <cell r="G25">
-            <v>-29.606684989844</v>
-          </cell>
-          <cell r="H25">
-            <v>-28.877584981813</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>-1.30572483666685</v>
-          </cell>
-          <cell r="G26">
-            <v>7.44121762426056</v>
-          </cell>
-          <cell r="H26">
-            <v>-8.74694246092741</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="output_table"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="F2">
-            <v>-1.96678831532851</v>
-          </cell>
-          <cell r="G2">
-            <v>-0.0595931538534878</v>
-          </cell>
-          <cell r="H2">
-            <v>-1.90719516147501</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>-43.8932550639296</v>
-          </cell>
-          <cell r="G3">
-            <v>-112.206838074573</v>
-          </cell>
-          <cell r="H3">
-            <v>68.3135830106435</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>-65.4423897175633</v>
-          </cell>
-          <cell r="G4">
-            <v>-105.299157867993</v>
-          </cell>
-          <cell r="H4">
-            <v>39.8567681504301</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>-71.6481217952849</v>
-          </cell>
-          <cell r="G5">
-            <v>-97.923600228885</v>
-          </cell>
-          <cell r="H5">
-            <v>26.2754784336002</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>0.245531141892646</v>
-          </cell>
-          <cell r="G6">
-            <v>-0.382964160244466</v>
-          </cell>
-          <cell r="H6">
-            <v>0.628495302137112</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>-42.8421419801463</v>
-          </cell>
-          <cell r="G7">
-            <v>-63.4034088439061</v>
-          </cell>
-          <cell r="H7">
-            <v>20.5612668637599</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>-77.8714435055737</v>
-          </cell>
-          <cell r="G8">
-            <v>-41.7364272153668</v>
-          </cell>
-          <cell r="H8">
-            <v>-36.1350162902069</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>-38.7519691476728</v>
-          </cell>
-          <cell r="G9">
-            <v>-65.7950602379068</v>
-          </cell>
-          <cell r="H9">
-            <v>27.0430910902339</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>-24.7958126099335</v>
-          </cell>
-          <cell r="G10">
-            <v>24.1179656306079</v>
-          </cell>
-          <cell r="H10">
-            <v>-48.9137782405414</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>-52.0628648565271</v>
-          </cell>
-          <cell r="G11">
-            <v>-48.7751519095866</v>
-          </cell>
-          <cell r="H11">
-            <v>-3.2877129469405</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>-21.4489416083624</v>
-          </cell>
-          <cell r="G12">
-            <v>10.1053667069775</v>
-          </cell>
-          <cell r="H12">
-            <v>-31.5543083153399</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>-16.3369871788357</v>
-          </cell>
-          <cell r="G13">
-            <v>-5.88669951801949</v>
-          </cell>
-          <cell r="H13">
-            <v>-10.4502876608163</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>-60.7198009765161</v>
-          </cell>
-          <cell r="G14">
-            <v>-64.3800622631151</v>
-          </cell>
-          <cell r="H14">
-            <v>3.66026128659904</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>-27.3992020153306</v>
-          </cell>
-          <cell r="G15">
-            <v>21.3340664630145</v>
-          </cell>
-          <cell r="H15">
-            <v>-48.7332684783452</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>-2.59630486114502</v>
-          </cell>
-          <cell r="G16">
-            <v>8.06183713348829</v>
-          </cell>
-          <cell r="H16">
-            <v>-10.6581419946333</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>-55.8880151079416</v>
-          </cell>
-          <cell r="G17">
-            <v>-93.1708514942454</v>
-          </cell>
-          <cell r="H17">
-            <v>37.2828363863037</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>-71.7178736194171</v>
-          </cell>
-          <cell r="G18">
-            <v>-130.255913537213</v>
-          </cell>
-          <cell r="H18">
-            <v>58.5380399177961</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>-34.7218389839025</v>
-          </cell>
-          <cell r="G19">
-            <v>-85.877631009168</v>
-          </cell>
-          <cell r="H19">
-            <v>51.1557920252655</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>-10.8909262585042</v>
-          </cell>
-          <cell r="G20">
-            <v>-55.6016424413042</v>
-          </cell>
-          <cell r="H20">
-            <v>44.7107161828</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>1.19385396272565</v>
-          </cell>
-          <cell r="G21">
-            <v>-1.2435310262334</v>
-          </cell>
-          <cell r="H21">
-            <v>2.43738498895905</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>-1.56782100041967</v>
-          </cell>
-          <cell r="G22">
-            <v>-7.60873529718931</v>
-          </cell>
-          <cell r="H22">
-            <v>6.04091429676965</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>-79.4449683715988</v>
-          </cell>
-          <cell r="G23">
-            <v>-43.3570763990323</v>
-          </cell>
-          <cell r="H23">
-            <v>-36.0878919725665</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>-40.1931912672231</v>
-          </cell>
-          <cell r="G24">
-            <v>-25.5587326493613</v>
-          </cell>
-          <cell r="H24">
-            <v>-14.6344586178618</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>-58.5095549231333</v>
-          </cell>
-          <cell r="G25">
-            <v>-29.6901418553679</v>
-          </cell>
-          <cell r="H25">
-            <v>-28.8194130677655</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>-1.98658557905298</v>
-          </cell>
-          <cell r="G26">
-            <v>6.2011706232672</v>
-          </cell>
-          <cell r="H26">
-            <v>-8.18775620232018</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="volatility_by_decade"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2">
-            <v>-3.46454117791853</v>
-          </cell>
-          <cell r="C2">
-            <v>-15.7728637070534</v>
-          </cell>
-          <cell r="D2">
-            <v>12.3083225291349</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>-12.2605649647202</v>
-          </cell>
-          <cell r="C3">
-            <v>-35.8976211246128</v>
-          </cell>
-          <cell r="D3">
-            <v>23.6370561598926</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>-33.9882118161683</v>
-          </cell>
-          <cell r="C4">
-            <v>-66.1571142567296</v>
-          </cell>
-          <cell r="D4">
-            <v>32.1689024405613</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>-66.9616225478105</v>
-          </cell>
-          <cell r="C5">
-            <v>-64.5586016994561</v>
-          </cell>
-          <cell r="D5">
-            <v>-2.40302084835442</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -4373,566 +1113,277 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="F2">
-            <v>-4.37331057212242</v>
+            <v>-4.24700584377045</v>
           </cell>
           <cell r="G2">
-            <v>0.21949184856248</v>
+            <v>-3.22610856623628</v>
           </cell>
           <cell r="H2">
-            <v>-4.5928024206849</v>
+            <v>-1.02089727753415</v>
           </cell>
         </row>
         <row r="3">
           <cell r="F3">
-            <v>-51.3099050414287</v>
+            <v>-52.9324518043044</v>
           </cell>
           <cell r="G3">
-            <v>-59.4441644736992</v>
+            <v>-52.5684229312778</v>
           </cell>
           <cell r="H3">
-            <v>8.13425943227054</v>
+            <v>-0.364028873026663</v>
           </cell>
         </row>
         <row r="4">
           <cell r="F4">
-            <v>-72.2214345607101</v>
+            <v>-73.0967524165371</v>
           </cell>
           <cell r="G4">
-            <v>-48.4993181771023</v>
+            <v>-59.8153703442266</v>
           </cell>
           <cell r="H4">
-            <v>-23.7221163836077</v>
+            <v>-13.2813820723105</v>
           </cell>
         </row>
         <row r="5">
           <cell r="F5">
-            <v>-74.5255934972134</v>
+            <v>-74.5232982923199</v>
           </cell>
           <cell r="G5">
-            <v>-52.3223241407493</v>
+            <v>-48.1591100675098</v>
           </cell>
           <cell r="H5">
-            <v>-22.2032693564641</v>
+            <v>-26.3641882248101</v>
           </cell>
         </row>
         <row r="6">
           <cell r="F6">
-            <v>2.58721911279002</v>
+            <v>2.23985746888382</v>
           </cell>
           <cell r="G6">
-            <v>-4.94567543537128</v>
+            <v>-9.50799908540213</v>
           </cell>
           <cell r="H6">
-            <v>7.53289454816127</v>
+            <v>11.747856554286</v>
           </cell>
         </row>
         <row r="7">
           <cell r="F7">
-            <v>-37.0915028133695</v>
+            <v>-31.7588698120711</v>
           </cell>
           <cell r="G7">
-            <v>-130.91611222525</v>
+            <v>-128.44176558061</v>
           </cell>
           <cell r="H7">
-            <v>93.8246094118801</v>
+            <v>96.6828957685386</v>
           </cell>
         </row>
         <row r="8">
           <cell r="F8">
-            <v>-80.2448798269329</v>
+            <v>-80.3567379627799</v>
           </cell>
           <cell r="G8">
-            <v>-13.5050976462384</v>
+            <v>-9.97227752337863</v>
           </cell>
           <cell r="H8">
-            <v>-66.7397821806945</v>
+            <v>-70.3844604394012</v>
           </cell>
         </row>
         <row r="9">
           <cell r="F9">
-            <v>-38.551485474784</v>
+            <v>-38.2407366147895</v>
           </cell>
           <cell r="G9">
-            <v>-28.6298828956188</v>
+            <v>-30.8356913932688</v>
           </cell>
           <cell r="H9">
-            <v>-9.92160257916519</v>
+            <v>-7.40504522152075</v>
           </cell>
         </row>
         <row r="10">
           <cell r="F10">
-            <v>-21.9039232776394</v>
+            <v>-20.6210356016845</v>
           </cell>
           <cell r="G10">
-            <v>37.8334681910329</v>
+            <v>31.1083040428914</v>
           </cell>
           <cell r="H10">
-            <v>-59.7373914686722</v>
+            <v>-51.729339644576</v>
           </cell>
         </row>
         <row r="11">
           <cell r="F11">
-            <v>-43.6721162441733</v>
+            <v>-41.3753993163408</v>
           </cell>
           <cell r="G11">
-            <v>-8.70472459793691</v>
+            <v>-1.69281500344195</v>
           </cell>
           <cell r="H11">
-            <v>-34.9673916462364</v>
+            <v>-39.6825843128989</v>
           </cell>
         </row>
         <row r="12">
           <cell r="F12">
-            <v>-30.1542399704959</v>
+            <v>-42.4498684100269</v>
           </cell>
           <cell r="G12">
-            <v>31.3868745623727</v>
+            <v>-26.7806346707347</v>
           </cell>
           <cell r="H12">
-            <v>-61.5411145328686</v>
+            <v>-15.6692337392926</v>
           </cell>
         </row>
         <row r="13">
           <cell r="F13">
-            <v>-32.8391702315125</v>
+            <v>-35.0449390197793</v>
           </cell>
           <cell r="G13">
-            <v>-29.3304594133641</v>
+            <v>-46.3869105352978</v>
           </cell>
           <cell r="H13">
-            <v>-3.50871081814841</v>
+            <v>11.3419715155185</v>
           </cell>
         </row>
         <row r="14">
           <cell r="F14">
-            <v>-58.2340883173942</v>
+            <v>-57.3673515037132</v>
           </cell>
           <cell r="G14">
-            <v>-29.7507633068765</v>
+            <v>-0.48314377495887</v>
           </cell>
           <cell r="H14">
-            <v>-28.4833250105177</v>
+            <v>-56.8842077287543</v>
           </cell>
         </row>
         <row r="15">
           <cell r="F15">
-            <v>-26.9383213720629</v>
+            <v>-25.8494667697873</v>
           </cell>
           <cell r="G15">
-            <v>37.648985254093</v>
+            <v>46.0021152751505</v>
           </cell>
           <cell r="H15">
-            <v>-64.5873066261559</v>
+            <v>-71.8515820449378</v>
           </cell>
         </row>
         <row r="16">
           <cell r="F16">
-            <v>-3.60386504403561</v>
+            <v>-1.61594426556377</v>
           </cell>
           <cell r="G16">
-            <v>4.69963427020947</v>
+            <v>-5.88306081812264</v>
           </cell>
           <cell r="H16">
-            <v>-8.30349931424506</v>
+            <v>4.26711655255885</v>
           </cell>
         </row>
         <row r="17">
           <cell r="F17">
-            <v>-69.0387027150459</v>
+            <v>-70.9495607886844</v>
           </cell>
           <cell r="G17">
-            <v>-29.3274092603577</v>
+            <v>-43.5065162688841</v>
           </cell>
           <cell r="H17">
-            <v>-39.7112934546882</v>
+            <v>-27.4430445198004</v>
           </cell>
         </row>
         <row r="18">
           <cell r="F18">
-            <v>-74.2295154959689</v>
+            <v>-74.2024908691538</v>
           </cell>
           <cell r="G18">
-            <v>-47.4839954214155</v>
+            <v>-51.7202514740215</v>
           </cell>
           <cell r="H18">
-            <v>-26.7455200745534</v>
+            <v>-22.4822393951322</v>
           </cell>
         </row>
         <row r="19">
           <cell r="F19">
-            <v>-30.4808561362157</v>
+            <v>-29.0808287638034</v>
           </cell>
           <cell r="G19">
-            <v>-65.2388925426207</v>
+            <v>-77.1306982466794</v>
           </cell>
           <cell r="H19">
-            <v>34.758036406405</v>
+            <v>48.049869482876</v>
           </cell>
         </row>
         <row r="20">
           <cell r="F20">
-            <v>-14.1161374258826</v>
+            <v>-13.606161287555</v>
           </cell>
           <cell r="G20">
-            <v>-14.3998539480107</v>
+            <v>-7.49759418631569</v>
           </cell>
           <cell r="H20">
-            <v>0.283716522128082</v>
+            <v>-6.10856710123939</v>
           </cell>
         </row>
         <row r="21">
           <cell r="F21">
-            <v>3.489981441953</v>
+            <v>3.84977636789347</v>
           </cell>
           <cell r="G21">
-            <v>-7.6898003621075</v>
+            <v>-8.97500143405787</v>
           </cell>
           <cell r="H21">
-            <v>11.1797818040605</v>
+            <v>12.8247778019513</v>
           </cell>
         </row>
         <row r="22">
           <cell r="F22">
-            <v>3.12192397724355</v>
+            <v>2.80313079055405</v>
           </cell>
           <cell r="G22">
-            <v>-25.0600070513189</v>
+            <v>-228.517426773814</v>
           </cell>
           <cell r="H22">
-            <v>28.1819310285625</v>
+            <v>231.320557564368</v>
           </cell>
         </row>
         <row r="23">
           <cell r="F23">
-            <v>-81.3859372391022</v>
+            <v>-81.732145531497</v>
           </cell>
           <cell r="G23">
-            <v>-28.6303682633693</v>
+            <v>-26.5044535611909</v>
           </cell>
           <cell r="H23">
-            <v>-52.7555689757329</v>
+            <v>-55.227691970306</v>
           </cell>
         </row>
         <row r="24">
           <cell r="F24">
-            <v>-46.4623838746426</v>
+            <v>-45.6163092023758</v>
           </cell>
           <cell r="G24">
-            <v>13.1848326449393</v>
+            <v>-7.11657566882191</v>
           </cell>
           <cell r="H24">
-            <v>-59.6472165195818</v>
+            <v>-38.4997335335539</v>
           </cell>
         </row>
         <row r="25">
           <cell r="F25">
-            <v>-59.79706852728</v>
+            <v>-59.0402947071121</v>
           </cell>
           <cell r="G25">
-            <v>5.25656223697922</v>
+            <v>5.68946935205537</v>
           </cell>
           <cell r="H25">
-            <v>-65.0536307642592</v>
+            <v>-64.7297640591674</v>
           </cell>
         </row>
         <row r="26">
           <cell r="F26">
-            <v>0.117395300848192</v>
+            <v>-0.351835440384865</v>
           </cell>
           <cell r="G26">
-            <v>7.53718047506602</v>
+            <v>3.58040250822731</v>
           </cell>
           <cell r="H26">
-            <v>-7.41978517421784</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="output_table"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="F2">
-            <v>-2.26841459627221</v>
-          </cell>
-          <cell r="G2">
-            <v>-0.358432184359962</v>
-          </cell>
-          <cell r="H2">
-            <v>-1.90998241191224</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>-40.5949974462572</v>
-          </cell>
-          <cell r="G3">
-            <v>-95.8247076304075</v>
-          </cell>
-          <cell r="H3">
-            <v>55.2297101841503</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>-65.2522753856963</v>
-          </cell>
-          <cell r="G4">
-            <v>-64.2326951122213</v>
-          </cell>
-          <cell r="H4">
-            <v>-1.019580273475</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>-70.0915836976509</v>
-          </cell>
-          <cell r="G5">
-            <v>-76.5091950206227</v>
-          </cell>
-          <cell r="H5">
-            <v>6.41761132297187</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>0.634566883199406</v>
-          </cell>
-          <cell r="G6">
-            <v>-0.0891236308778796</v>
-          </cell>
-          <cell r="H6">
-            <v>0.723690514077286</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>-38.4695455364029</v>
-          </cell>
-          <cell r="G7">
-            <v>-39.7098475070796</v>
-          </cell>
-          <cell r="H7">
-            <v>1.24030197067676</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>-81.3419436809039</v>
-          </cell>
-          <cell r="G8">
-            <v>-34.8895516108597</v>
-          </cell>
-          <cell r="H8">
-            <v>-46.4523920700442</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>-38.4804139596221</v>
-          </cell>
-          <cell r="G9">
-            <v>-43.5369783333816</v>
-          </cell>
-          <cell r="H9">
-            <v>5.0565643737595</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>-23.4523959421473</v>
-          </cell>
-          <cell r="G10">
-            <v>23.455844346093</v>
-          </cell>
-          <cell r="H10">
-            <v>-46.9082402882403</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>-58.7461029005024</v>
-          </cell>
-          <cell r="G11">
-            <v>-69.8822002943098</v>
-          </cell>
-          <cell r="H11">
-            <v>11.1360973938074</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>-18.1133296014505</v>
-          </cell>
-          <cell r="G12">
-            <v>20.9230382439203</v>
-          </cell>
-          <cell r="H12">
-            <v>-39.0363678453708</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>-10.4202007484901</v>
-          </cell>
-          <cell r="G13">
-            <v>-4.00271634864455</v>
-          </cell>
-          <cell r="H13">
-            <v>-6.41748439984555</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>-60.4010098896906</v>
-          </cell>
-          <cell r="G14">
-            <v>-47.2987068150296</v>
-          </cell>
-          <cell r="H14">
-            <v>-13.102303074661</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>-25.125356500322</v>
-          </cell>
-          <cell r="G15">
-            <v>22.6995332003587</v>
-          </cell>
-          <cell r="H15">
-            <v>-47.8248897006807</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>-5.50849136631305</v>
-          </cell>
-          <cell r="G16">
-            <v>2.65979324750983</v>
-          </cell>
-          <cell r="H16">
-            <v>-8.16828461382288</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>-49.4343386533971</v>
-          </cell>
-          <cell r="G17">
-            <v>-47.6337769409249</v>
-          </cell>
-          <cell r="H17">
-            <v>-1.80056171247219</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>-72.7835555843657</v>
-          </cell>
-          <cell r="G18">
-            <v>-87.2918428432005</v>
-          </cell>
-          <cell r="H18">
-            <v>14.5082872588347</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>-38.845609988043</v>
-          </cell>
-          <cell r="G19">
-            <v>-59.7967373471684</v>
-          </cell>
-          <cell r="H19">
-            <v>20.9511273591255</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>-1.23949114354937</v>
-          </cell>
-          <cell r="G20">
-            <v>-52.532574988439</v>
-          </cell>
-          <cell r="H20">
-            <v>51.2930838448897</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>-0.197237766447248</v>
-          </cell>
-          <cell r="G21">
-            <v>-3.01179003694763</v>
-          </cell>
-          <cell r="H21">
-            <v>2.8145522705004</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>-0.605341011763756</v>
-          </cell>
-          <cell r="G22">
-            <v>2.55358539475986</v>
-          </cell>
-          <cell r="H22">
-            <v>-3.15892640652362</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>-78.6782026307128</v>
-          </cell>
-          <cell r="G23">
-            <v>-51.3190138184122</v>
-          </cell>
-          <cell r="H23">
-            <v>-27.3591888123006</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>-36.0806126968098</v>
-          </cell>
-          <cell r="G24">
-            <v>3.65352092382855</v>
-          </cell>
-          <cell r="H24">
-            <v>-39.7341336206383</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>-60.4260852771997</v>
-          </cell>
-          <cell r="G25">
-            <v>-33.0674228555407</v>
-          </cell>
-          <cell r="H25">
-            <v>-27.3586624216589</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>-1.00340647875241</v>
-          </cell>
-          <cell r="G26">
-            <v>3.27454604153869</v>
-          </cell>
-          <cell r="H26">
-            <v>-4.2779525202911</v>
+            <v>-3.93223794861215</v>
           </cell>
         </row>
       </sheetData>
@@ -33396,8 +29847,8 @@
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33414,14 +29865,14 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="str">
-        <f aca="false">CONCATENATE("Title: Changes in average volatility due to measured changes in trade barriers, alternative calibrations (",_xlfn.UNICHAR(963), " = 0.5 and ",_xlfn.UNICHAR(963), " = 1.3)")</f>
-        <v>Title: Changes in average volatility due to measured changes in trade barriers, alternative calibrations (σ = 0.5 and σ = 1.3)</v>
+        <f aca="false">CONCATENATE("Title: Changes in average volatility due to measured changes in trade barriers, alternative calibrations (",_xlfn.UNICHAR(963), " = 0.4 and ",_xlfn.UNICHAR(963), " = 1.3)")</f>
+        <v>Title: Changes in average volatility due to measured changes in trade barriers, alternative calibrations (σ = 0.4 and σ = 1.3)</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="30" t="str">
-        <f aca="false">CONCATENATE(_xlfn.UNICHAR(963)," = 0.5")</f>
-        <v>σ = 0.5</v>
+        <f aca="false">CONCATENATE(_xlfn.UNICHAR(963)," = 0.4")</f>
+        <v>σ = 0.4</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -33459,26 +29910,26 @@
       </c>
       <c r="B7" s="17" t="n">
         <f aca="false">[27]output_table!F2/100</f>
-        <v>-0.0437331057212242</v>
+        <v>-0.0424700584377045</v>
       </c>
       <c r="C7" s="18" t="n">
         <f aca="false">[27]output_table!G2/100</f>
-        <v>0.0021949184856248</v>
+        <v>-0.0322610856623628</v>
       </c>
       <c r="D7" s="19" t="n">
         <f aca="false">[27]output_table!H2/100</f>
-        <v>-0.045928024206849</v>
+        <v>-0.0102089727753415</v>
       </c>
       <c r="E7" s="17" t="n">
-        <f aca="false">[28]output_table!F2/100</f>
+        <f aca="false">[28]output_table!f2/100</f>
         <v>-0.0226841459627221</v>
       </c>
       <c r="F7" s="18" t="n">
-        <f aca="false">[28]output_table!G2/100</f>
+        <f aca="false">[28]output_table!g2/100</f>
         <v>-0.00358432184359962</v>
       </c>
       <c r="G7" s="19" t="n">
-        <f aca="false">[28]output_table!H2/100</f>
+        <f aca="false">[28]output_table!h2/100</f>
         <v>-0.0190998241191224</v>
       </c>
     </row>
@@ -33488,26 +29939,26 @@
       </c>
       <c r="B8" s="21" t="n">
         <f aca="false">[27]output_table!F3/100</f>
-        <v>-0.513099050414287</v>
+        <v>-0.529324518043044</v>
       </c>
       <c r="C8" s="22" t="n">
         <f aca="false">[27]output_table!G3/100</f>
-        <v>-0.594441644736992</v>
+        <v>-0.525684229312778</v>
       </c>
       <c r="D8" s="23" t="n">
         <f aca="false">[27]output_table!H3/100</f>
-        <v>0.0813425943227054</v>
+        <v>-0.00364028873026663</v>
       </c>
       <c r="E8" s="21" t="n">
-        <f aca="false">[28]output_table!F3/100</f>
+        <f aca="false">[28]output_table!f3/100</f>
         <v>-0.405949974462572</v>
       </c>
       <c r="F8" s="22" t="n">
-        <f aca="false">[28]output_table!G3/100</f>
+        <f aca="false">[28]output_table!g3/100</f>
         <v>-0.958247076304075</v>
       </c>
       <c r="G8" s="23" t="n">
-        <f aca="false">[28]output_table!H3/100</f>
+        <f aca="false">[28]output_table!h3/100</f>
         <v>0.552297101841503</v>
       </c>
     </row>
@@ -33517,26 +29968,26 @@
       </c>
       <c r="B9" s="21" t="n">
         <f aca="false">[27]output_table!F4/100</f>
-        <v>-0.722214345607101</v>
+        <v>-0.730967524165371</v>
       </c>
       <c r="C9" s="22" t="n">
         <f aca="false">[27]output_table!G4/100</f>
-        <v>-0.484993181771023</v>
+        <v>-0.598153703442266</v>
       </c>
       <c r="D9" s="23" t="n">
         <f aca="false">[27]output_table!H4/100</f>
-        <v>-0.237221163836077</v>
+        <v>-0.132813820723105</v>
       </c>
       <c r="E9" s="21" t="n">
-        <f aca="false">[28]output_table!F4/100</f>
+        <f aca="false">[28]output_table!f4/100</f>
         <v>-0.652522753856962</v>
       </c>
       <c r="F9" s="22" t="n">
-        <f aca="false">[28]output_table!G4/100</f>
+        <f aca="false">[28]output_table!g4/100</f>
         <v>-0.642326951122212</v>
       </c>
       <c r="G9" s="23" t="n">
-        <f aca="false">[28]output_table!H4/100</f>
+        <f aca="false">[28]output_table!h4/100</f>
         <v>-0.01019580273475</v>
       </c>
     </row>
@@ -33546,26 +29997,26 @@
       </c>
       <c r="B10" s="21" t="n">
         <f aca="false">[27]output_table!F5/100</f>
-        <v>-0.745255934972134</v>
+        <v>-0.745232982923199</v>
       </c>
       <c r="C10" s="22" t="n">
         <f aca="false">[27]output_table!G5/100</f>
-        <v>-0.523223241407493</v>
+        <v>-0.481591100675098</v>
       </c>
       <c r="D10" s="23" t="n">
         <f aca="false">[27]output_table!H5/100</f>
-        <v>-0.222032693564641</v>
+        <v>-0.263641882248101</v>
       </c>
       <c r="E10" s="21" t="n">
-        <f aca="false">[28]output_table!F5/100</f>
+        <f aca="false">[28]output_table!f5/100</f>
         <v>-0.700915836976509</v>
       </c>
       <c r="F10" s="22" t="n">
-        <f aca="false">[28]output_table!G5/100</f>
+        <f aca="false">[28]output_table!g5/100</f>
         <v>-0.765091950206227</v>
       </c>
       <c r="G10" s="23" t="n">
-        <f aca="false">[28]output_table!H5/100</f>
+        <f aca="false">[28]output_table!h5/100</f>
         <v>0.0641761132297187</v>
       </c>
     </row>
@@ -33575,26 +30026,26 @@
       </c>
       <c r="B11" s="21" t="n">
         <f aca="false">[27]output_table!F6/100</f>
-        <v>0.0258721911279002</v>
+        <v>0.0223985746888382</v>
       </c>
       <c r="C11" s="22" t="n">
         <f aca="false">[27]output_table!G6/100</f>
-        <v>-0.0494567543537128</v>
+        <v>-0.0950799908540213</v>
       </c>
       <c r="D11" s="23" t="n">
         <f aca="false">[27]output_table!H6/100</f>
-        <v>0.0753289454816127</v>
+        <v>0.11747856554286</v>
       </c>
       <c r="E11" s="21" t="n">
-        <f aca="false">[28]output_table!F6/100</f>
+        <f aca="false">[28]output_table!f6/100</f>
         <v>0.00634566883199406</v>
       </c>
       <c r="F11" s="22" t="n">
-        <f aca="false">[28]output_table!G6/100</f>
+        <f aca="false">[28]output_table!g6/100</f>
         <v>-0.000891236308778796</v>
       </c>
       <c r="G11" s="23" t="n">
-        <f aca="false">[28]output_table!H6/100</f>
+        <f aca="false">[28]output_table!h6/100</f>
         <v>0.00723690514077286</v>
       </c>
     </row>
@@ -33604,26 +30055,26 @@
       </c>
       <c r="B12" s="21" t="n">
         <f aca="false">[27]output_table!F7/100</f>
-        <v>-0.370915028133695</v>
+        <v>-0.317588698120711</v>
       </c>
       <c r="C12" s="22" t="n">
         <f aca="false">[27]output_table!G7/100</f>
-        <v>-1.3091611222525</v>
+        <v>-1.2844176558061</v>
       </c>
       <c r="D12" s="23" t="n">
         <f aca="false">[27]output_table!H7/100</f>
-        <v>0.938246094118801</v>
+        <v>0.966828957685386</v>
       </c>
       <c r="E12" s="21" t="n">
-        <f aca="false">[28]output_table!F7/100</f>
+        <f aca="false">[28]output_table!f7/100</f>
         <v>-0.384695455364029</v>
       </c>
       <c r="F12" s="22" t="n">
-        <f aca="false">[28]output_table!G7/100</f>
+        <f aca="false">[28]output_table!g7/100</f>
         <v>-0.397098475070796</v>
       </c>
       <c r="G12" s="23" t="n">
-        <f aca="false">[28]output_table!H7/100</f>
+        <f aca="false">[28]output_table!h7/100</f>
         <v>0.0124030197067676</v>
       </c>
     </row>
@@ -33633,26 +30084,26 @@
       </c>
       <c r="B13" s="21" t="n">
         <f aca="false">[27]output_table!F8/100</f>
-        <v>-0.802448798269329</v>
+        <v>-0.803567379627799</v>
       </c>
       <c r="C13" s="22" t="n">
         <f aca="false">[27]output_table!G8/100</f>
-        <v>-0.135050976462384</v>
+        <v>-0.0997227752337863</v>
       </c>
       <c r="D13" s="23" t="n">
         <f aca="false">[27]output_table!H8/100</f>
-        <v>-0.667397821806945</v>
+        <v>-0.703844604394012</v>
       </c>
       <c r="E13" s="21" t="n">
-        <f aca="false">[28]output_table!F8/100</f>
+        <f aca="false">[28]output_table!f8/100</f>
         <v>-0.813419436809039</v>
       </c>
       <c r="F13" s="22" t="n">
-        <f aca="false">[28]output_table!G8/100</f>
+        <f aca="false">[28]output_table!g8/100</f>
         <v>-0.348895516108597</v>
       </c>
       <c r="G13" s="23" t="n">
-        <f aca="false">[28]output_table!H8/100</f>
+        <f aca="false">[28]output_table!h8/100</f>
         <v>-0.464523920700442</v>
       </c>
     </row>
@@ -33662,26 +30113,26 @@
       </c>
       <c r="B14" s="21" t="n">
         <f aca="false">[27]output_table!F9/100</f>
-        <v>-0.38551485474784</v>
+        <v>-0.382407366147895</v>
       </c>
       <c r="C14" s="22" t="n">
         <f aca="false">[27]output_table!G9/100</f>
-        <v>-0.286298828956188</v>
+        <v>-0.308356913932688</v>
       </c>
       <c r="D14" s="23" t="n">
         <f aca="false">[27]output_table!H9/100</f>
-        <v>-0.0992160257916519</v>
+        <v>-0.0740504522152075</v>
       </c>
       <c r="E14" s="21" t="n">
-        <f aca="false">[28]output_table!F9/100</f>
+        <f aca="false">[28]output_table!f9/100</f>
         <v>-0.384804139596221</v>
       </c>
       <c r="F14" s="22" t="n">
-        <f aca="false">[28]output_table!G9/100</f>
+        <f aca="false">[28]output_table!g9/100</f>
         <v>-0.435369783333816</v>
       </c>
       <c r="G14" s="23" t="n">
-        <f aca="false">[28]output_table!H9/100</f>
+        <f aca="false">[28]output_table!h9/100</f>
         <v>0.050565643737595</v>
       </c>
     </row>
@@ -33691,26 +30142,26 @@
       </c>
       <c r="B15" s="21" t="n">
         <f aca="false">[27]output_table!F10/100</f>
-        <v>-0.219039232776394</v>
+        <v>-0.206210356016845</v>
       </c>
       <c r="C15" s="22" t="n">
         <f aca="false">[27]output_table!G10/100</f>
-        <v>0.378334681910329</v>
+        <v>0.311083040428914</v>
       </c>
       <c r="D15" s="23" t="n">
         <f aca="false">[27]output_table!H10/100</f>
-        <v>-0.597373914686722</v>
+        <v>-0.51729339644576</v>
       </c>
       <c r="E15" s="21" t="n">
-        <f aca="false">[28]output_table!F10/100</f>
+        <f aca="false">[28]output_table!f10/100</f>
         <v>-0.234523959421473</v>
       </c>
       <c r="F15" s="22" t="n">
-        <f aca="false">[28]output_table!G10/100</f>
+        <f aca="false">[28]output_table!g10/100</f>
         <v>0.23455844346093</v>
       </c>
       <c r="G15" s="23" t="n">
-        <f aca="false">[28]output_table!H10/100</f>
+        <f aca="false">[28]output_table!h10/100</f>
         <v>-0.469082402882403</v>
       </c>
     </row>
@@ -33720,26 +30171,26 @@
       </c>
       <c r="B16" s="21" t="n">
         <f aca="false">[27]output_table!F11/100</f>
-        <v>-0.436721162441733</v>
+        <v>-0.413753993163408</v>
       </c>
       <c r="C16" s="22" t="n">
         <f aca="false">[27]output_table!G11/100</f>
-        <v>-0.0870472459793691</v>
+        <v>-0.0169281500344195</v>
       </c>
       <c r="D16" s="23" t="n">
         <f aca="false">[27]output_table!H11/100</f>
-        <v>-0.349673916462364</v>
+        <v>-0.396825843128989</v>
       </c>
       <c r="E16" s="21" t="n">
-        <f aca="false">[28]output_table!F11/100</f>
+        <f aca="false">[28]output_table!f11/100</f>
         <v>-0.587461029005024</v>
       </c>
       <c r="F16" s="22" t="n">
-        <f aca="false">[28]output_table!G11/100</f>
+        <f aca="false">[28]output_table!g11/100</f>
         <v>-0.698822002943098</v>
       </c>
       <c r="G16" s="23" t="n">
-        <f aca="false">[28]output_table!H11/100</f>
+        <f aca="false">[28]output_table!h11/100</f>
         <v>0.111360973938074</v>
       </c>
     </row>
@@ -33749,26 +30200,26 @@
       </c>
       <c r="B17" s="21" t="n">
         <f aca="false">[27]output_table!F12/100</f>
-        <v>-0.301542399704959</v>
+        <v>-0.424498684100269</v>
       </c>
       <c r="C17" s="22" t="n">
         <f aca="false">[27]output_table!G12/100</f>
-        <v>0.313868745623727</v>
+        <v>-0.267806346707347</v>
       </c>
       <c r="D17" s="23" t="n">
         <f aca="false">[27]output_table!H12/100</f>
-        <v>-0.615411145328686</v>
+        <v>-0.156692337392926</v>
       </c>
       <c r="E17" s="21" t="n">
-        <f aca="false">[28]output_table!F12/100</f>
+        <f aca="false">[28]output_table!f12/100</f>
         <v>-0.181133296014505</v>
       </c>
       <c r="F17" s="22" t="n">
-        <f aca="false">[28]output_table!G12/100</f>
+        <f aca="false">[28]output_table!g12/100</f>
         <v>0.209230382439203</v>
       </c>
       <c r="G17" s="23" t="n">
-        <f aca="false">[28]output_table!H12/100</f>
+        <f aca="false">[28]output_table!h12/100</f>
         <v>-0.390363678453708</v>
       </c>
     </row>
@@ -33778,26 +30229,26 @@
       </c>
       <c r="B18" s="21" t="n">
         <f aca="false">[27]output_table!F13/100</f>
-        <v>-0.328391702315125</v>
+        <v>-0.350449390197793</v>
       </c>
       <c r="C18" s="22" t="n">
         <f aca="false">[27]output_table!G13/100</f>
-        <v>-0.293304594133641</v>
+        <v>-0.463869105352978</v>
       </c>
       <c r="D18" s="23" t="n">
         <f aca="false">[27]output_table!H13/100</f>
-        <v>-0.0350871081814841</v>
+        <v>0.113419715155185</v>
       </c>
       <c r="E18" s="21" t="n">
-        <f aca="false">[28]output_table!F13/100</f>
+        <f aca="false">[28]output_table!f13/100</f>
         <v>-0.104202007484901</v>
       </c>
       <c r="F18" s="22" t="n">
-        <f aca="false">[28]output_table!G13/100</f>
+        <f aca="false">[28]output_table!g13/100</f>
         <v>-0.0400271634864455</v>
       </c>
       <c r="G18" s="23" t="n">
-        <f aca="false">[28]output_table!H13/100</f>
+        <f aca="false">[28]output_table!h13/100</f>
         <v>-0.0641748439984555</v>
       </c>
     </row>
@@ -33807,26 +30258,26 @@
       </c>
       <c r="B19" s="21" t="n">
         <f aca="false">[27]output_table!F14/100</f>
-        <v>-0.582340883173942</v>
+        <v>-0.573673515037132</v>
       </c>
       <c r="C19" s="22" t="n">
         <f aca="false">[27]output_table!G14/100</f>
-        <v>-0.297507633068765</v>
+        <v>-0.0048314377495887</v>
       </c>
       <c r="D19" s="23" t="n">
         <f aca="false">[27]output_table!H14/100</f>
-        <v>-0.284833250105177</v>
+        <v>-0.568842077287542</v>
       </c>
       <c r="E19" s="21" t="n">
-        <f aca="false">[28]output_table!F14/100</f>
+        <f aca="false">[28]output_table!f14/100</f>
         <v>-0.604010098896906</v>
       </c>
       <c r="F19" s="22" t="n">
-        <f aca="false">[28]output_table!G14/100</f>
+        <f aca="false">[28]output_table!g14/100</f>
         <v>-0.472987068150296</v>
       </c>
       <c r="G19" s="23" t="n">
-        <f aca="false">[28]output_table!H14/100</f>
+        <f aca="false">[28]output_table!h14/100</f>
         <v>-0.13102303074661</v>
       </c>
     </row>
@@ -33836,26 +30287,26 @@
       </c>
       <c r="B20" s="21" t="n">
         <f aca="false">[27]output_table!F15/100</f>
-        <v>-0.269383213720629</v>
+        <v>-0.258494667697873</v>
       </c>
       <c r="C20" s="22" t="n">
         <f aca="false">[27]output_table!G15/100</f>
-        <v>0.37648985254093</v>
+        <v>0.460021152751505</v>
       </c>
       <c r="D20" s="23" t="n">
         <f aca="false">[27]output_table!H15/100</f>
-        <v>-0.645873066261559</v>
+        <v>-0.718515820449378</v>
       </c>
       <c r="E20" s="21" t="n">
-        <f aca="false">[28]output_table!F15/100</f>
+        <f aca="false">[28]output_table!f15/100</f>
         <v>-0.25125356500322</v>
       </c>
       <c r="F20" s="22" t="n">
-        <f aca="false">[28]output_table!G15/100</f>
+        <f aca="false">[28]output_table!g15/100</f>
         <v>0.226995332003587</v>
       </c>
       <c r="G20" s="23" t="n">
-        <f aca="false">[28]output_table!H15/100</f>
+        <f aca="false">[28]output_table!h15/100</f>
         <v>-0.478248897006807</v>
       </c>
     </row>
@@ -33865,26 +30316,26 @@
       </c>
       <c r="B21" s="21" t="n">
         <f aca="false">[27]output_table!F16/100</f>
-        <v>-0.0360386504403561</v>
+        <v>-0.0161594426556377</v>
       </c>
       <c r="C21" s="22" t="n">
         <f aca="false">[27]output_table!G16/100</f>
-        <v>0.0469963427020947</v>
+        <v>-0.0588306081812264</v>
       </c>
       <c r="D21" s="23" t="n">
         <f aca="false">[27]output_table!H16/100</f>
-        <v>-0.0830349931424506</v>
+        <v>0.0426711655255885</v>
       </c>
       <c r="E21" s="21" t="n">
-        <f aca="false">[28]output_table!F16/100</f>
+        <f aca="false">[28]output_table!f16/100</f>
         <v>-0.0550849136631305</v>
       </c>
       <c r="F21" s="22" t="n">
-        <f aca="false">[28]output_table!G16/100</f>
+        <f aca="false">[28]output_table!g16/100</f>
         <v>0.0265979324750983</v>
       </c>
       <c r="G21" s="23" t="n">
-        <f aca="false">[28]output_table!H16/100</f>
+        <f aca="false">[28]output_table!h16/100</f>
         <v>-0.0816828461382288</v>
       </c>
     </row>
@@ -33894,26 +30345,26 @@
       </c>
       <c r="B22" s="21" t="n">
         <f aca="false">[27]output_table!F17/100</f>
-        <v>-0.690387027150459</v>
+        <v>-0.709495607886844</v>
       </c>
       <c r="C22" s="22" t="n">
         <f aca="false">[27]output_table!G17/100</f>
-        <v>-0.293274092603577</v>
+        <v>-0.43506516268884</v>
       </c>
       <c r="D22" s="23" t="n">
         <f aca="false">[27]output_table!H17/100</f>
-        <v>-0.397112934546882</v>
+        <v>-0.274430445198004</v>
       </c>
       <c r="E22" s="21" t="n">
-        <f aca="false">[28]output_table!F17/100</f>
+        <f aca="false">[28]output_table!f17/100</f>
         <v>-0.494343386533971</v>
       </c>
       <c r="F22" s="22" t="n">
-        <f aca="false">[28]output_table!G17/100</f>
+        <f aca="false">[28]output_table!g17/100</f>
         <v>-0.476337769409249</v>
       </c>
       <c r="G22" s="23" t="n">
-        <f aca="false">[28]output_table!H17/100</f>
+        <f aca="false">[28]output_table!h17/100</f>
         <v>-0.0180056171247219</v>
       </c>
     </row>
@@ -33923,26 +30374,26 @@
       </c>
       <c r="B23" s="21" t="n">
         <f aca="false">[27]output_table!F18/100</f>
-        <v>-0.742295154959689</v>
+        <v>-0.742024908691538</v>
       </c>
       <c r="C23" s="22" t="n">
         <f aca="false">[27]output_table!G18/100</f>
-        <v>-0.474839954214155</v>
+        <v>-0.517202514740216</v>
       </c>
       <c r="D23" s="23" t="n">
         <f aca="false">[27]output_table!H18/100</f>
-        <v>-0.267455200745534</v>
+        <v>-0.224822393951322</v>
       </c>
       <c r="E23" s="21" t="n">
-        <f aca="false">[28]output_table!F18/100</f>
+        <f aca="false">[28]output_table!f18/100</f>
         <v>-0.727835555843657</v>
       </c>
       <c r="F23" s="22" t="n">
-        <f aca="false">[28]output_table!G18/100</f>
+        <f aca="false">[28]output_table!g18/100</f>
         <v>-0.872918428432004</v>
       </c>
       <c r="G23" s="23" t="n">
-        <f aca="false">[28]output_table!H18/100</f>
+        <f aca="false">[28]output_table!h18/100</f>
         <v>0.145082872588347</v>
       </c>
     </row>
@@ -33952,26 +30403,26 @@
       </c>
       <c r="B24" s="21" t="n">
         <f aca="false">[27]output_table!F19/100</f>
-        <v>-0.304808561362157</v>
+        <v>-0.290808287638034</v>
       </c>
       <c r="C24" s="22" t="n">
         <f aca="false">[27]output_table!G19/100</f>
-        <v>-0.652388925426207</v>
+        <v>-0.771306982466794</v>
       </c>
       <c r="D24" s="23" t="n">
         <f aca="false">[27]output_table!H19/100</f>
-        <v>0.34758036406405</v>
+        <v>0.48049869482876</v>
       </c>
       <c r="E24" s="21" t="n">
-        <f aca="false">[28]output_table!F19/100</f>
+        <f aca="false">[28]output_table!f19/100</f>
         <v>-0.38845609988043</v>
       </c>
       <c r="F24" s="22" t="n">
-        <f aca="false">[28]output_table!G19/100</f>
+        <f aca="false">[28]output_table!g19/100</f>
         <v>-0.597967373471684</v>
       </c>
       <c r="G24" s="23" t="n">
-        <f aca="false">[28]output_table!H19/100</f>
+        <f aca="false">[28]output_table!h19/100</f>
         <v>0.209511273591255</v>
       </c>
     </row>
@@ -33981,26 +30432,26 @@
       </c>
       <c r="B25" s="21" t="n">
         <f aca="false">[27]output_table!F20/100</f>
-        <v>-0.141161374258826</v>
+        <v>-0.13606161287555</v>
       </c>
       <c r="C25" s="22" t="n">
         <f aca="false">[27]output_table!G20/100</f>
-        <v>-0.143998539480106</v>
+        <v>-0.0749759418631569</v>
       </c>
       <c r="D25" s="23" t="n">
         <f aca="false">[27]output_table!H20/100</f>
-        <v>0.00283716522128082</v>
+        <v>-0.0610856710123939</v>
       </c>
       <c r="E25" s="21" t="n">
-        <f aca="false">[28]output_table!F20/100</f>
+        <f aca="false">[28]output_table!f20/100</f>
         <v>-0.0123949114354937</v>
       </c>
       <c r="F25" s="22" t="n">
-        <f aca="false">[28]output_table!G20/100</f>
+        <f aca="false">[28]output_table!g20/100</f>
         <v>-0.52532574988439</v>
       </c>
       <c r="G25" s="23" t="n">
-        <f aca="false">[28]output_table!H20/100</f>
+        <f aca="false">[28]output_table!h20/100</f>
         <v>0.512930838448897</v>
       </c>
     </row>
@@ -34010,26 +30461,26 @@
       </c>
       <c r="B26" s="21" t="n">
         <f aca="false">[27]output_table!F21/100</f>
-        <v>0.03489981441953</v>
+        <v>0.0384977636789347</v>
       </c>
       <c r="C26" s="22" t="n">
         <f aca="false">[27]output_table!G21/100</f>
-        <v>-0.076898003621075</v>
+        <v>-0.0897500143405787</v>
       </c>
       <c r="D26" s="23" t="n">
         <f aca="false">[27]output_table!H21/100</f>
-        <v>0.111797818040605</v>
+        <v>0.128247778019513</v>
       </c>
       <c r="E26" s="21" t="n">
-        <f aca="false">[28]output_table!F21/100</f>
+        <f aca="false">[28]output_table!f21/100</f>
         <v>-0.00197237766447248</v>
       </c>
       <c r="F26" s="22" t="n">
-        <f aca="false">[28]output_table!G21/100</f>
+        <f aca="false">[28]output_table!g21/100</f>
         <v>-0.0301179003694763</v>
       </c>
       <c r="G26" s="23" t="n">
-        <f aca="false">[28]output_table!H21/100</f>
+        <f aca="false">[28]output_table!h21/100</f>
         <v>0.028145522705004</v>
       </c>
     </row>
@@ -34039,26 +30490,26 @@
       </c>
       <c r="B27" s="21" t="n">
         <f aca="false">[27]output_table!F22/100</f>
-        <v>0.0312192397724355</v>
+        <v>0.0280313079055405</v>
       </c>
       <c r="C27" s="22" t="n">
         <f aca="false">[27]output_table!G22/100</f>
-        <v>-0.250600070513189</v>
+        <v>-2.28517426773814</v>
       </c>
       <c r="D27" s="23" t="n">
         <f aca="false">[27]output_table!H22/100</f>
-        <v>0.281819310285625</v>
+        <v>2.31320557564368</v>
       </c>
       <c r="E27" s="21" t="n">
-        <f aca="false">[28]output_table!F22/100</f>
+        <f aca="false">[28]output_table!f22/100</f>
         <v>-0.00605341011763756</v>
       </c>
       <c r="F27" s="22" t="n">
-        <f aca="false">[28]output_table!G22/100</f>
+        <f aca="false">[28]output_table!g22/100</f>
         <v>0.0255358539475986</v>
       </c>
       <c r="G27" s="23" t="n">
-        <f aca="false">[28]output_table!H22/100</f>
+        <f aca="false">[28]output_table!h22/100</f>
         <v>-0.0315892640652362</v>
       </c>
     </row>
@@ -34068,26 +30519,26 @@
       </c>
       <c r="B28" s="21" t="n">
         <f aca="false">[27]output_table!F23/100</f>
-        <v>-0.813859372391022</v>
+        <v>-0.81732145531497</v>
       </c>
       <c r="C28" s="22" t="n">
         <f aca="false">[27]output_table!G23/100</f>
-        <v>-0.286303682633693</v>
+        <v>-0.265044535611909</v>
       </c>
       <c r="D28" s="23" t="n">
         <f aca="false">[27]output_table!H23/100</f>
-        <v>-0.527555689757329</v>
+        <v>-0.55227691970306</v>
       </c>
       <c r="E28" s="21" t="n">
-        <f aca="false">[28]output_table!F23/100</f>
+        <f aca="false">[28]output_table!f23/100</f>
         <v>-0.786782026307128</v>
       </c>
       <c r="F28" s="22" t="n">
-        <f aca="false">[28]output_table!G23/100</f>
+        <f aca="false">[28]output_table!g23/100</f>
         <v>-0.513190138184122</v>
       </c>
       <c r="G28" s="23" t="n">
-        <f aca="false">[28]output_table!H23/100</f>
+        <f aca="false">[28]output_table!h23/100</f>
         <v>-0.273591888123006</v>
       </c>
     </row>
@@ -34097,26 +30548,26 @@
       </c>
       <c r="B29" s="21" t="n">
         <f aca="false">[27]output_table!F24/100</f>
-        <v>-0.464623838746426</v>
+        <v>-0.456163092023758</v>
       </c>
       <c r="C29" s="22" t="n">
         <f aca="false">[27]output_table!G24/100</f>
-        <v>0.131848326449393</v>
+        <v>-0.0711657566882191</v>
       </c>
       <c r="D29" s="23" t="n">
         <f aca="false">[27]output_table!H24/100</f>
-        <v>-0.596472165195818</v>
+        <v>-0.384997335335539</v>
       </c>
       <c r="E29" s="21" t="n">
-        <f aca="false">[28]output_table!F24/100</f>
+        <f aca="false">[28]output_table!f24/100</f>
         <v>-0.360806126968098</v>
       </c>
       <c r="F29" s="22" t="n">
-        <f aca="false">[28]output_table!G24/100</f>
+        <f aca="false">[28]output_table!g24/100</f>
         <v>0.0365352092382854</v>
       </c>
       <c r="G29" s="23" t="n">
-        <f aca="false">[28]output_table!H24/100</f>
+        <f aca="false">[28]output_table!h24/100</f>
         <v>-0.397341336206383</v>
       </c>
     </row>
@@ -34126,26 +30577,26 @@
       </c>
       <c r="B30" s="21" t="n">
         <f aca="false">[27]output_table!F25/100</f>
-        <v>-0.5979706852728</v>
+        <v>-0.590402947071121</v>
       </c>
       <c r="C30" s="22" t="n">
         <f aca="false">[27]output_table!G25/100</f>
-        <v>0.0525656223697922</v>
+        <v>0.0568946935205537</v>
       </c>
       <c r="D30" s="23" t="n">
         <f aca="false">[27]output_table!H25/100</f>
-        <v>-0.650536307642592</v>
+        <v>-0.647297640591674</v>
       </c>
       <c r="E30" s="21" t="n">
-        <f aca="false">[28]output_table!F25/100</f>
+        <f aca="false">[28]output_table!f25/100</f>
         <v>-0.604260852771997</v>
       </c>
       <c r="F30" s="22" t="n">
-        <f aca="false">[28]output_table!G25/100</f>
+        <f aca="false">[28]output_table!g25/100</f>
         <v>-0.330674228555407</v>
       </c>
       <c r="G30" s="23" t="n">
-        <f aca="false">[28]output_table!H25/100</f>
+        <f aca="false">[28]output_table!h25/100</f>
         <v>-0.273586624216589</v>
       </c>
     </row>
@@ -34155,26 +30606,26 @@
       </c>
       <c r="B31" s="25" t="n">
         <f aca="false">[27]output_table!F26/100</f>
-        <v>0.00117395300848192</v>
+        <v>-0.00351835440384865</v>
       </c>
       <c r="C31" s="26" t="n">
         <f aca="false">[27]output_table!G26/100</f>
-        <v>0.0753718047506602</v>
+        <v>0.0358040250822731</v>
       </c>
       <c r="D31" s="27" t="n">
         <f aca="false">[27]output_table!H26/100</f>
-        <v>-0.0741978517421784</v>
+        <v>-0.0393223794861215</v>
       </c>
       <c r="E31" s="25" t="n">
-        <f aca="false">[28]output_table!F26/100</f>
+        <f aca="false">[28]output_table!f26/100</f>
         <v>-0.0100340647875241</v>
       </c>
       <c r="F31" s="26" t="n">
-        <f aca="false">[28]output_table!G26/100</f>
+        <f aca="false">[28]output_table!g26/100</f>
         <v>0.0327454604153869</v>
       </c>
       <c r="G31" s="27" t="n">
-        <f aca="false">[28]output_table!H26/100</f>
+        <f aca="false">[28]output_table!h26/100</f>
         <v>-0.042779525202911</v>
       </c>
     </row>
@@ -34184,15 +30635,15 @@
       </c>
       <c r="B32" s="28" t="n">
         <f aca="false">AVERAGE(B7:B31)</f>
-        <v>-0.376743167130071</v>
+        <v>-0.378066687838681</v>
       </c>
       <c r="C32" s="28" t="n">
         <f aca="false">AVERAGE(C7:C31)</f>
-        <v>-0.194444727871261</v>
+        <v>-0.31533661469197</v>
       </c>
       <c r="D32" s="28" t="n">
         <f aca="false">AVERAGE(D7:D31)</f>
-        <v>-0.18229843925881</v>
+        <v>-0.0627300731467108</v>
       </c>
       <c r="E32" s="28" t="n">
         <f aca="false">AVERAGE(E7:E31)</f>
@@ -34284,19 +30735,19 @@
         <v>91</v>
       </c>
       <c r="B6" s="36" t="n">
-        <f aca="false">[16]output_table!B2</f>
+        <f aca="false">[16]output_table!b2</f>
         <v>0.000901942775695546</v>
       </c>
       <c r="C6" s="37" t="n">
-        <f aca="false">[16]output_table!D2</f>
+        <f aca="false">[16]output_table!d2</f>
         <v>0.00104803084019014</v>
       </c>
       <c r="D6" s="37" t="n">
-        <f aca="false">[16]output_table!C2</f>
+        <f aca="false">[16]output_table!c2</f>
         <v>0.000922506144755621</v>
       </c>
       <c r="E6" s="38" t="n">
-        <f aca="false">[16]output_table!E2</f>
+        <f aca="false">[16]output_table!e2</f>
         <v>0.00105358784800313</v>
       </c>
     </row>
@@ -34305,19 +30756,19 @@
         <v>92</v>
       </c>
       <c r="B7" s="39" t="n">
-        <f aca="false">[16]output_table!B3</f>
+        <f aca="false">[16]output_table!b3</f>
         <v>0.000537635959176888</v>
       </c>
       <c r="C7" s="40" t="n">
-        <f aca="false">[16]output_table!D3</f>
+        <f aca="false">[16]output_table!d3</f>
         <v>0.000694403791409934</v>
       </c>
       <c r="D7" s="40" t="n">
-        <f aca="false">[16]output_table!C3</f>
+        <f aca="false">[16]output_table!c3</f>
         <v>0.000948228793949682</v>
       </c>
       <c r="E7" s="41" t="n">
-        <f aca="false">[16]output_table!E3</f>
+        <f aca="false">[16]output_table!e3</f>
         <v>0.00180966529099243</v>
       </c>
     </row>
@@ -34326,19 +30777,19 @@
         <v>93</v>
       </c>
       <c r="B8" s="39" t="n">
-        <f aca="false">[16]output_table!B4</f>
+        <f aca="false">[16]output_table!b4</f>
         <v>0.00102264424093961</v>
       </c>
       <c r="C8" s="40" t="n">
-        <f aca="false">[16]output_table!D4</f>
+        <f aca="false">[16]output_table!d4</f>
         <v>0.00112084730177949</v>
       </c>
       <c r="D8" s="40" t="n">
-        <f aca="false">[16]output_table!C4</f>
+        <f aca="false">[16]output_table!c4</f>
         <v>0.00301413374727766</v>
       </c>
       <c r="E8" s="41" t="n">
-        <f aca="false">[16]output_table!E4</f>
+        <f aca="false">[16]output_table!e4</f>
         <v>0.00433593636254305</v>
       </c>
     </row>
@@ -34347,19 +30798,19 @@
         <v>94</v>
       </c>
       <c r="B9" s="39" t="n">
-        <f aca="false">[16]output_table!B5</f>
+        <f aca="false">[16]output_table!b5</f>
         <v>0.000593783644813335</v>
       </c>
       <c r="C9" s="40" t="n">
-        <f aca="false">[16]output_table!D5</f>
+        <f aca="false">[16]output_table!d5</f>
         <v>0.00107087725823956</v>
       </c>
       <c r="D9" s="40" t="n">
-        <f aca="false">[16]output_table!C5</f>
+        <f aca="false">[16]output_table!c5</f>
         <v>0.00219282480405942</v>
       </c>
       <c r="E9" s="41" t="n">
-        <f aca="false">[16]output_table!E5</f>
+        <f aca="false">[16]output_table!e5</f>
         <v>0.00326982617874154</v>
       </c>
     </row>
@@ -34368,19 +30819,19 @@
         <v>95</v>
       </c>
       <c r="B10" s="39" t="n">
-        <f aca="false">[16]output_table!B6</f>
+        <f aca="false">[16]output_table!b6</f>
         <v>0.00623977431719456</v>
       </c>
       <c r="C10" s="40" t="n">
-        <f aca="false">[16]output_table!D6</f>
+        <f aca="false">[16]output_table!d6</f>
         <v>0.00701022172255124</v>
       </c>
       <c r="D10" s="40" t="n">
-        <f aca="false">[16]output_table!C6</f>
+        <f aca="false">[16]output_table!c6</f>
         <v>0.00615514241315341</v>
       </c>
       <c r="E10" s="41" t="n">
-        <f aca="false">[16]output_table!E6</f>
+        <f aca="false">[16]output_table!e6</f>
         <v>0.00698166687946612</v>
       </c>
     </row>
@@ -34389,19 +30840,19 @@
         <v>96</v>
       </c>
       <c r="B11" s="39" t="n">
-        <f aca="false">[16]output_table!B7</f>
+        <f aca="false">[16]output_table!b7</f>
         <v>0.00110105936710417</v>
       </c>
       <c r="C11" s="40" t="n">
-        <f aca="false">[16]output_table!D7</f>
+        <f aca="false">[16]output_table!d7</f>
         <v>0.00250644708363799</v>
       </c>
       <c r="D11" s="40" t="n">
-        <f aca="false">[16]output_table!C7</f>
+        <f aca="false">[16]output_table!c7</f>
         <v>0.00195403047719594</v>
       </c>
       <c r="E11" s="41" t="n">
-        <f aca="false">[16]output_table!E7</f>
+        <f aca="false">[16]output_table!e7</f>
         <v>0.00377858488193049</v>
       </c>
     </row>
@@ -34410,19 +30861,19 @@
         <v>97</v>
       </c>
       <c r="B12" s="39" t="n">
-        <f aca="false">[16]output_table!B8</f>
+        <f aca="false">[16]output_table!b8</f>
         <v>0.000442946465664111</v>
       </c>
       <c r="C12" s="40" t="n">
-        <f aca="false">[16]output_table!D8</f>
+        <f aca="false">[16]output_table!d8</f>
         <v>0.000480901143154098</v>
       </c>
       <c r="D12" s="40" t="n">
-        <f aca="false">[16]output_table!C8</f>
+        <f aca="false">[16]output_table!c8</f>
         <v>0.00200924841398352</v>
       </c>
       <c r="E12" s="41" t="n">
-        <f aca="false">[16]output_table!E8</f>
+        <f aca="false">[16]output_table!e8</f>
         <v>0.00128740367639692</v>
       </c>
     </row>
@@ -34431,19 +30882,19 @@
         <v>98</v>
       </c>
       <c r="B13" s="39" t="n">
-        <f aca="false">[16]output_table!B9</f>
+        <f aca="false">[16]output_table!b9</f>
         <v>0.000618587046923147</v>
       </c>
       <c r="C13" s="40" t="n">
-        <f aca="false">[16]output_table!D9</f>
+        <f aca="false">[16]output_table!d9</f>
         <v>0.00100047597325986</v>
       </c>
       <c r="D13" s="40" t="n">
-        <f aca="false">[16]output_table!C9</f>
+        <f aca="false">[16]output_table!c9</f>
         <v>0.000996266875388787</v>
       </c>
       <c r="E13" s="41" t="n">
-        <f aca="false">[16]output_table!E9</f>
+        <f aca="false">[16]output_table!e9</f>
         <v>0.00166390061257777</v>
       </c>
     </row>
@@ -34452,19 +30903,19 @@
         <v>99</v>
       </c>
       <c r="B14" s="39" t="n">
-        <f aca="false">[16]output_table!B10</f>
+        <f aca="false">[16]output_table!b10</f>
         <v>0.000195809453720154</v>
       </c>
       <c r="C14" s="40" t="n">
-        <f aca="false">[16]output_table!D10</f>
+        <f aca="false">[16]output_table!d10</f>
         <v>0.000259324378636601</v>
       </c>
       <c r="D14" s="40" t="n">
-        <f aca="false">[16]output_table!C10</f>
+        <f aca="false">[16]output_table!c10</f>
         <v>0.000262782583830665</v>
       </c>
       <c r="E14" s="41" t="n">
-        <f aca="false">[16]output_table!E10</f>
+        <f aca="false">[16]output_table!e10</f>
         <v>0.000189734643258949</v>
       </c>
     </row>
@@ -34473,19 +30924,19 @@
         <v>100</v>
       </c>
       <c r="B15" s="39" t="n">
-        <f aca="false">[16]output_table!B11</f>
+        <f aca="false">[16]output_table!b11</f>
         <v>0.000243145442619801</v>
       </c>
       <c r="C15" s="40" t="n">
-        <f aca="false">[16]output_table!D11</f>
+        <f aca="false">[16]output_table!d11</f>
         <v>0.000430856830695775</v>
       </c>
       <c r="D15" s="40" t="n">
-        <f aca="false">[16]output_table!C11</f>
+        <f aca="false">[16]output_table!c11</f>
         <v>0.000521167976960093</v>
       </c>
       <c r="E15" s="41" t="n">
-        <f aca="false">[16]output_table!E11</f>
+        <f aca="false">[16]output_table!e11</f>
         <v>0.000686005587733103</v>
       </c>
     </row>
@@ -34494,19 +30945,19 @@
         <v>101</v>
       </c>
       <c r="B16" s="39" t="n">
-        <f aca="false">[16]output_table!B12</f>
+        <f aca="false">[16]output_table!b12</f>
         <v>0.000299020437897784</v>
       </c>
       <c r="C16" s="40" t="n">
-        <f aca="false">[16]output_table!D12</f>
+        <f aca="false">[16]output_table!d12</f>
         <v>0.000441925663269252</v>
       </c>
       <c r="D16" s="40" t="n">
-        <f aca="false">[16]output_table!C12</f>
+        <f aca="false">[16]output_table!c12</f>
         <v>0.000382989029136599</v>
       </c>
       <c r="E16" s="41" t="n">
-        <f aca="false">[16]output_table!E12</f>
+        <f aca="false">[16]output_table!e12</f>
         <v>0.00040788574488398</v>
       </c>
     </row>
@@ -34515,19 +30966,19 @@
         <v>102</v>
       </c>
       <c r="B17" s="39" t="n">
-        <f aca="false">[16]output_table!B13</f>
+        <f aca="false">[16]output_table!b13</f>
         <v>0.00102000855880939</v>
       </c>
       <c r="C17" s="40" t="n">
-        <f aca="false">[16]output_table!D13</f>
+        <f aca="false">[16]output_table!d13</f>
         <v>0.000864048013051492</v>
       </c>
       <c r="D17" s="40" t="n">
-        <f aca="false">[16]output_table!C13</f>
+        <f aca="false">[16]output_table!c13</f>
         <v>0.00121711157711116</v>
       </c>
       <c r="E17" s="41" t="n">
-        <f aca="false">[16]output_table!E13</f>
+        <f aca="false">[16]output_table!e13</f>
         <v>0.000938025527106572</v>
       </c>
     </row>
@@ -34536,19 +30987,19 @@
         <v>103</v>
       </c>
       <c r="B18" s="39" t="n">
-        <f aca="false">[16]output_table!B14</f>
+        <f aca="false">[16]output_table!b14</f>
         <v>0.00104757817229763</v>
       </c>
       <c r="C18" s="40" t="n">
-        <f aca="false">[16]output_table!D14</f>
+        <f aca="false">[16]output_table!d14</f>
         <v>0.00205322121463545</v>
       </c>
       <c r="D18" s="40" t="n">
-        <f aca="false">[16]output_table!C14</f>
+        <f aca="false">[16]output_table!c14</f>
         <v>0.00255480458806164</v>
       </c>
       <c r="E18" s="41" t="n">
-        <f aca="false">[16]output_table!E14</f>
+        <f aca="false">[16]output_table!e14</f>
         <v>0.00381700866452876</v>
       </c>
     </row>
@@ -34557,19 +31008,19 @@
         <v>104</v>
       </c>
       <c r="B19" s="39" t="n">
-        <f aca="false">[16]output_table!B15</f>
+        <f aca="false">[16]output_table!b15</f>
         <v>0.000190296896478319</v>
       </c>
       <c r="C19" s="42" t="n">
-        <f aca="false">[16]output_table!D15</f>
+        <f aca="false">[16]output_table!d15</f>
         <v>0.000184265663612801</v>
       </c>
       <c r="D19" s="40" t="n">
-        <f aca="false">[16]output_table!C15</f>
+        <f aca="false">[16]output_table!c15</f>
         <v>0.000263198563487931</v>
       </c>
       <c r="E19" s="41" t="n">
-        <f aca="false">[16]output_table!E15</f>
+        <f aca="false">[16]output_table!e15</f>
         <v>0.000126776988545682</v>
       </c>
     </row>
@@ -34578,19 +31029,19 @@
         <v>105</v>
       </c>
       <c r="B20" s="39" t="n">
-        <f aca="false">[16]output_table!B16</f>
+        <f aca="false">[16]output_table!b16</f>
         <v>0.000295994717054014</v>
       </c>
       <c r="C20" s="40" t="n">
-        <f aca="false">[16]output_table!D16</f>
+        <f aca="false">[16]output_table!d16</f>
         <v>0.00022318085171573</v>
       </c>
       <c r="D20" s="40" t="n">
-        <f aca="false">[16]output_table!C16</f>
+        <f aca="false">[16]output_table!c16</f>
         <v>0.000305358821735074</v>
       </c>
       <c r="E20" s="41" t="n">
-        <f aca="false">[16]output_table!E16</f>
+        <f aca="false">[16]output_table!e16</f>
         <v>0.000198772137678812</v>
       </c>
     </row>
@@ -34599,19 +31050,19 @@
         <v>106</v>
       </c>
       <c r="B21" s="39" t="n">
-        <f aca="false">[16]output_table!B17</f>
+        <f aca="false">[16]output_table!b17</f>
         <v>0.00105024996105716</v>
       </c>
       <c r="C21" s="40" t="n">
-        <f aca="false">[16]output_table!D17</f>
+        <f aca="false">[16]output_table!d17</f>
         <v>0.00522886810834881</v>
       </c>
       <c r="D21" s="40" t="n">
-        <f aca="false">[16]output_table!C17</f>
+        <f aca="false">[16]output_table!c17</f>
         <v>0.00242950222807756</v>
       </c>
       <c r="E21" s="41" t="n">
-        <f aca="false">[16]output_table!E17</f>
+        <f aca="false">[16]output_table!e17</f>
         <v>0.00748512426094133</v>
       </c>
     </row>
@@ -34620,19 +31071,19 @@
         <v>107</v>
       </c>
       <c r="B22" s="39" t="n">
-        <f aca="false">[16]output_table!B18</f>
+        <f aca="false">[16]output_table!b18</f>
         <v>0.000336490537215481</v>
       </c>
       <c r="C22" s="40" t="n">
-        <f aca="false">[16]output_table!D18</f>
+        <f aca="false">[16]output_table!d18</f>
         <v>0.000661532666295829</v>
       </c>
       <c r="D22" s="40" t="n">
-        <f aca="false">[16]output_table!C18</f>
+        <f aca="false">[16]output_table!c18</f>
         <v>0.00124148122350794</v>
       </c>
       <c r="E22" s="41" t="n">
-        <f aca="false">[16]output_table!E18</f>
+        <f aca="false">[16]output_table!e18</f>
         <v>0.00231565286527091</v>
       </c>
     </row>
@@ -34641,19 +31092,19 @@
         <v>108</v>
       </c>
       <c r="B23" s="39" t="n">
-        <f aca="false">[16]output_table!B19</f>
+        <f aca="false">[16]output_table!b19</f>
         <v>0.000840733434692357</v>
       </c>
       <c r="C23" s="40" t="n">
-        <f aca="false">[16]output_table!D19</f>
+        <f aca="false">[16]output_table!d19</f>
         <v>0.00209522122214339</v>
       </c>
       <c r="D23" s="40" t="n">
-        <f aca="false">[16]output_table!C19</f>
+        <f aca="false">[16]output_table!c19</f>
         <v>0.00125639364575451</v>
       </c>
       <c r="E23" s="41" t="n">
-        <f aca="false">[16]output_table!E19</f>
+        <f aca="false">[16]output_table!e19</f>
         <v>0.0032261621534937</v>
       </c>
     </row>
@@ -34662,19 +31113,19 @@
         <v>109</v>
       </c>
       <c r="B24" s="39" t="n">
-        <f aca="false">[16]output_table!B20</f>
+        <f aca="false">[16]output_table!b20</f>
         <v>0.00156170817402549</v>
       </c>
       <c r="C24" s="40" t="n">
-        <f aca="false">[16]output_table!D20</f>
+        <f aca="false">[16]output_table!d20</f>
         <v>0.00171545146226222</v>
       </c>
       <c r="D24" s="40" t="n">
-        <f aca="false">[16]output_table!C20</f>
+        <f aca="false">[16]output_table!c20</f>
         <v>0.00166449920464206</v>
       </c>
       <c r="E24" s="41" t="n">
-        <f aca="false">[16]output_table!E20</f>
+        <f aca="false">[16]output_table!e20</f>
         <v>0.00271974547359438</v>
       </c>
     </row>
@@ -34683,19 +31134,19 @@
         <v>110</v>
       </c>
       <c r="B25" s="39" t="n">
-        <f aca="false">[16]output_table!B21</f>
+        <f aca="false">[16]output_table!b21</f>
         <v>0.00164980704562269</v>
       </c>
       <c r="C25" s="40" t="n">
-        <f aca="false">[16]output_table!D21</f>
+        <f aca="false">[16]output_table!d21</f>
         <v>0.00238995755382042</v>
       </c>
       <c r="D25" s="40" t="n">
-        <f aca="false">[16]output_table!C21</f>
+        <f aca="false">[16]output_table!c21</f>
         <v>0.00163132347227275</v>
       </c>
       <c r="E25" s="41" t="n">
-        <f aca="false">[16]output_table!E21</f>
+        <f aca="false">[16]output_table!e21</f>
         <v>0.00241401590619076</v>
       </c>
     </row>
@@ -34704,19 +31155,19 @@
         <v>111</v>
       </c>
       <c r="B26" s="39" t="n">
-        <f aca="false">[16]output_table!B22</f>
+        <f aca="false">[16]output_table!b22</f>
         <v>0.000852855663416553</v>
       </c>
       <c r="C26" s="40" t="n">
-        <f aca="false">[16]output_table!D22</f>
+        <f aca="false">[16]output_table!d22</f>
         <v>0.00079289068185225</v>
       </c>
       <c r="D26" s="40" t="n">
-        <f aca="false">[16]output_table!C22</f>
+        <f aca="false">[16]output_table!c22</f>
         <v>0.000863846876239507</v>
       </c>
       <c r="E26" s="41" t="n">
-        <f aca="false">[16]output_table!E22</f>
+        <f aca="false">[16]output_table!e22</f>
         <v>0.000877294318541606</v>
       </c>
     </row>
@@ -34725,19 +31176,19 @@
         <v>112</v>
       </c>
       <c r="B27" s="39" t="n">
-        <f aca="false">[16]output_table!B23</f>
+        <f aca="false">[16]output_table!b23</f>
         <v>0.000241604222761696</v>
       </c>
       <c r="C27" s="40" t="n">
-        <f aca="false">[16]output_table!D23</f>
+        <f aca="false">[16]output_table!d23</f>
         <v>0.000253294586925759</v>
       </c>
       <c r="D27" s="40" t="n">
-        <f aca="false">[16]output_table!C23</f>
+        <f aca="false">[16]output_table!c23</f>
         <v>0.00123753971899635</v>
       </c>
       <c r="E27" s="41" t="n">
-        <f aca="false">[16]output_table!E23</f>
+        <f aca="false">[16]output_table!e23</f>
         <v>0.000795073121127181</v>
       </c>
     </row>
@@ -34746,19 +31197,19 @@
         <v>113</v>
       </c>
       <c r="B28" s="39" t="n">
-        <f aca="false">[16]output_table!B24</f>
+        <f aca="false">[16]output_table!b24</f>
         <v>0.000346159380999865</v>
       </c>
       <c r="C28" s="40" t="n">
-        <f aca="false">[16]output_table!D24</f>
+        <f aca="false">[16]output_table!d24</f>
         <v>0.000530996037514885</v>
       </c>
       <c r="D28" s="40" t="n">
-        <f aca="false">[16]output_table!C24</f>
+        <f aca="false">[16]output_table!c24</f>
         <v>0.000592327952993193</v>
       </c>
       <c r="E28" s="41" t="n">
-        <f aca="false">[16]output_table!E24</f>
+        <f aca="false">[16]output_table!e24</f>
         <v>0.000691129586373074</v>
       </c>
     </row>
@@ -34767,19 +31218,19 @@
         <v>114</v>
       </c>
       <c r="B29" s="39" t="n">
-        <f aca="false">[16]output_table!B25</f>
+        <f aca="false">[16]output_table!b25</f>
         <v>0.000236407675673844</v>
       </c>
       <c r="C29" s="40" t="n">
-        <f aca="false">[16]output_table!D25</f>
+        <f aca="false">[16]output_table!d25</f>
         <v>0.000183170833736748</v>
       </c>
       <c r="D29" s="40" t="n">
-        <f aca="false">[16]output_table!C25</f>
+        <f aca="false">[16]output_table!c25</f>
         <v>0.000600182168414035</v>
       </c>
       <c r="E29" s="41" t="n">
-        <f aca="false">[16]output_table!E25</f>
+        <f aca="false">[16]output_table!e25</f>
         <v>0.00036093134978895</v>
       </c>
     </row>
@@ -34788,19 +31239,19 @@
         <v>115</v>
       </c>
       <c r="B30" s="43" t="n">
-        <f aca="false">[16]output_table!B26</f>
+        <f aca="false">[16]output_table!b26</f>
         <v>0.000261762573356451</v>
       </c>
       <c r="C30" s="44" t="n">
-        <f aca="false">[16]output_table!D26</f>
+        <f aca="false">[16]output_table!d26</f>
         <v>0.000359518686927971</v>
       </c>
       <c r="D30" s="44" t="n">
-        <f aca="false">[16]output_table!C26</f>
+        <f aca="false">[16]output_table!c26</f>
         <v>0.000266192095183177</v>
       </c>
       <c r="E30" s="45" t="n">
-        <f aca="false">[16]output_table!E26</f>
+        <f aca="false">[16]output_table!e26</f>
         <v>0.000337773188841264</v>
       </c>
     </row>
@@ -34835,7 +31286,7 @@
   </sheetPr>
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -35487,15 +31938,15 @@
         <v>91</v>
       </c>
       <c r="B6" s="17" t="n">
-        <f aca="false">[16]output_table!F2/100</f>
+        <f aca="false">[16]output_table!f2/100</f>
         <v>-0.0222907664918837</v>
       </c>
       <c r="C6" s="18" t="n">
-        <f aca="false">[16]output_table!G2/100</f>
+        <f aca="false">[16]output_table!g2/100</f>
         <v>-0.00602381658331743</v>
       </c>
       <c r="D6" s="19" t="n">
-        <f aca="false">[16]output_table!H2/100</f>
+        <f aca="false">[16]output_table!h2/100</f>
         <v>-0.0162669499085662</v>
       </c>
     </row>
@@ -35504,15 +31955,15 @@
         <v>92</v>
       </c>
       <c r="B7" s="21" t="n">
-        <f aca="false">[16]output_table!F3/100</f>
+        <f aca="false">[16]output_table!f3/100</f>
         <v>-0.433010300248889</v>
       </c>
       <c r="C7" s="22" t="n">
-        <f aca="false">[16]output_table!G3/100</f>
+        <f aca="false">[16]output_table!g3/100</f>
         <v>-1.17615232388912</v>
       </c>
       <c r="D7" s="23" t="n">
-        <f aca="false">[16]output_table!H3/100</f>
+        <f aca="false">[16]output_table!h3/100</f>
         <v>0.743142023640233</v>
       </c>
     </row>
@@ -35521,15 +31972,15 @@
         <v>93</v>
       </c>
       <c r="B8" s="21" t="n">
-        <f aca="false">[16]output_table!F4/100</f>
+        <f aca="false">[16]output_table!f4/100</f>
         <v>-0.66071703292422</v>
       </c>
       <c r="C8" s="22" t="n">
-        <f aca="false">[16]output_table!G4/100</f>
+        <f aca="false">[16]output_table!g4/100</f>
         <v>-1.06667100080326</v>
       </c>
       <c r="D8" s="23" t="n">
-        <f aca="false">[16]output_table!H4/100</f>
+        <f aca="false">[16]output_table!h4/100</f>
         <v>0.405953967879044</v>
       </c>
     </row>
@@ -35538,15 +31989,15 @@
         <v>94</v>
       </c>
       <c r="B9" s="21" t="n">
-        <f aca="false">[16]output_table!F5/100</f>
+        <f aca="false">[16]output_table!f5/100</f>
         <v>-0.729215191421538</v>
       </c>
       <c r="C9" s="22" t="n">
-        <f aca="false">[16]output_table!G5/100</f>
+        <f aca="false">[16]output_table!g5/100</f>
         <v>-1.00279279787023</v>
       </c>
       <c r="D9" s="23" t="n">
-        <f aca="false">[16]output_table!H5/100</f>
+        <f aca="false">[16]output_table!h5/100</f>
         <v>0.273577606448693</v>
       </c>
     </row>
@@ -35555,15 +32006,15 @@
         <v>95</v>
       </c>
       <c r="B10" s="21" t="n">
-        <f aca="false">[16]output_table!F6/100</f>
+        <f aca="false">[16]output_table!f6/100</f>
         <v>0.013749788121929</v>
       </c>
       <c r="C10" s="22" t="n">
-        <f aca="false">[16]output_table!G6/100</f>
+        <f aca="false">[16]output_table!g6/100</f>
         <v>0.00463918479353159</v>
       </c>
       <c r="D10" s="23" t="n">
-        <f aca="false">[16]output_table!H6/100</f>
+        <f aca="false">[16]output_table!h6/100</f>
         <v>0.00911060332839737</v>
       </c>
     </row>
@@ -35572,15 +32023,15 @@
         <v>96</v>
       </c>
       <c r="B11" s="21" t="n">
-        <f aca="false">[16]output_table!F7/100</f>
+        <f aca="false">[16]output_table!f7/100</f>
         <v>-0.43651883634681</v>
       </c>
       <c r="C11" s="22" t="n">
-        <f aca="false">[16]output_table!G7/100</f>
+        <f aca="false">[16]output_table!g7/100</f>
         <v>-0.651032731136325</v>
       </c>
       <c r="D11" s="23" t="n">
-        <f aca="false">[16]output_table!H7/100</f>
+        <f aca="false">[16]output_table!h7/100</f>
         <v>0.214513894789516</v>
       </c>
       <c r="G11" s="10" t="n">
@@ -35593,15 +32044,15 @@
         <v>97</v>
       </c>
       <c r="B12" s="21" t="n">
-        <f aca="false">[16]output_table!F8/100</f>
+        <f aca="false">[16]output_table!f8/100</f>
         <v>-0.779546191211903</v>
       </c>
       <c r="C12" s="22" t="n">
-        <f aca="false">[16]output_table!G8/100</f>
+        <f aca="false">[16]output_table!g8/100</f>
         <v>-0.401395132443505</v>
       </c>
       <c r="D12" s="23" t="n">
-        <f aca="false">[16]output_table!H8/100</f>
+        <f aca="false">[16]output_table!h8/100</f>
         <v>-0.378151058768398</v>
       </c>
     </row>
@@ -35610,15 +32061,15 @@
         <v>98</v>
       </c>
       <c r="B13" s="21" t="n">
-        <f aca="false">[16]output_table!F9/100</f>
+        <f aca="false">[16]output_table!f9/100</f>
         <v>-0.379095037480046</v>
       </c>
       <c r="C13" s="22" t="n">
-        <f aca="false">[16]output_table!G9/100</f>
+        <f aca="false">[16]output_table!g9/100</f>
         <v>-0.665910566442366</v>
       </c>
       <c r="D13" s="23" t="n">
-        <f aca="false">[16]output_table!H9/100</f>
+        <f aca="false">[16]output_table!h9/100</f>
         <v>0.28681552896232</v>
       </c>
     </row>
@@ -35627,15 +32078,15 @@
         <v>99</v>
       </c>
       <c r="B14" s="21" t="n">
-        <f aca="false">[16]output_table!F10/100</f>
+        <f aca="false">[16]output_table!f10/100</f>
         <v>-0.254861372980744</v>
       </c>
       <c r="C14" s="22" t="n">
-        <f aca="false">[16]output_table!G10/100</f>
+        <f aca="false">[16]output_table!g10/100</f>
         <v>0.264818673913698</v>
       </c>
       <c r="D14" s="23" t="n">
-        <f aca="false">[16]output_table!H10/100</f>
+        <f aca="false">[16]output_table!h10/100</f>
         <v>-0.519680046894441</v>
       </c>
     </row>
@@ -35644,15 +32095,15 @@
         <v>100</v>
       </c>
       <c r="B15" s="21" t="n">
-        <f aca="false">[16]output_table!F11/100</f>
+        <f aca="false">[16]output_table!f11/100</f>
         <v>-0.533460509147093</v>
       </c>
       <c r="C15" s="22" t="n">
-        <f aca="false">[16]output_table!G11/100</f>
+        <f aca="false">[16]output_table!g11/100</f>
         <v>-0.489571056390645</v>
       </c>
       <c r="D15" s="23" t="n">
-        <f aca="false">[16]output_table!H11/100</f>
+        <f aca="false">[16]output_table!h11/100</f>
         <v>-0.0438894527564481</v>
       </c>
     </row>
@@ -35661,15 +32112,15 @@
         <v>101</v>
       </c>
       <c r="B16" s="21" t="n">
-        <f aca="false">[16]output_table!F12/100</f>
+        <f aca="false">[16]output_table!f12/100</f>
         <v>-0.21924542180258</v>
       </c>
       <c r="C16" s="22" t="n">
-        <f aca="false">[16]output_table!G12/100</f>
+        <f aca="false">[16]output_table!g12/100</f>
         <v>0.0888796174188341</v>
       </c>
       <c r="D16" s="23" t="n">
-        <f aca="false">[16]output_table!H12/100</f>
+        <f aca="false">[16]output_table!h12/100</f>
         <v>-0.308125039221414</v>
       </c>
     </row>
@@ -35678,15 +32129,15 @@
         <v>102</v>
       </c>
       <c r="B17" s="21" t="n">
-        <f aca="false">[16]output_table!F13/100</f>
+        <f aca="false">[16]output_table!f13/100</f>
         <v>-0.161943261413715</v>
       </c>
       <c r="C17" s="22" t="n">
-        <f aca="false">[16]output_table!G13/100</f>
+        <f aca="false">[16]output_table!g13/100</f>
         <v>-0.060781209747974</v>
       </c>
       <c r="D17" s="23" t="n">
-        <f aca="false">[16]output_table!H13/100</f>
+        <f aca="false">[16]output_table!h13/100</f>
         <v>-0.101162051665741</v>
       </c>
     </row>
@@ -35695,15 +32146,15 @@
         <v>103</v>
       </c>
       <c r="B18" s="21" t="n">
-        <f aca="false">[16]output_table!F14/100</f>
+        <f aca="false">[16]output_table!f14/100</f>
         <v>-0.589957612729811</v>
       </c>
       <c r="C18" s="22" t="n">
-        <f aca="false">[16]output_table!G14/100</f>
+        <f aca="false">[16]output_table!g14/100</f>
         <v>-0.690380570841046</v>
       </c>
       <c r="D18" s="23" t="n">
-        <f aca="false">[16]output_table!H14/100</f>
+        <f aca="false">[16]output_table!h14/100</f>
         <v>0.100422958111235</v>
       </c>
     </row>
@@ -35712,15 +32163,15 @@
         <v>104</v>
       </c>
       <c r="B19" s="21" t="n">
-        <f aca="false">[16]output_table!F15/100</f>
+        <f aca="false">[16]output_table!f15/100</f>
         <v>-0.276983529254539</v>
       </c>
       <c r="C19" s="22" t="n">
-        <f aca="false">[16]output_table!G15/100</f>
+        <f aca="false">[16]output_table!g15/100</f>
         <v>0.218423209858268</v>
       </c>
       <c r="D19" s="23" t="n">
-        <f aca="false">[16]output_table!H15/100</f>
+        <f aca="false">[16]output_table!h15/100</f>
         <v>-0.495406739112808</v>
       </c>
     </row>
@@ -35729,15 +32180,15 @@
         <v>105</v>
       </c>
       <c r="B20" s="21" t="n">
-        <f aca="false">[16]output_table!F16/100</f>
+        <f aca="false">[16]output_table!f16/100</f>
         <v>-0.0306659052057271</v>
       </c>
       <c r="C20" s="22" t="n">
-        <f aca="false">[16]output_table!G16/100</f>
+        <f aca="false">[16]output_table!g16/100</f>
         <v>0.0799345304590389</v>
       </c>
       <c r="D20" s="23" t="n">
-        <f aca="false">[16]output_table!H16/100</f>
+        <f aca="false">[16]output_table!h16/100</f>
         <v>-0.110600435664766</v>
       </c>
     </row>
@@ -35746,15 +32197,15 @@
         <v>106</v>
       </c>
       <c r="B21" s="21" t="n">
-        <f aca="false">[16]output_table!F17/100</f>
+        <f aca="false">[16]output_table!f17/100</f>
         <v>-0.567709817706892</v>
       </c>
       <c r="C21" s="22" t="n">
-        <f aca="false">[16]output_table!G17/100</f>
+        <f aca="false">[16]output_table!g17/100</f>
         <v>-0.92869071142111</v>
       </c>
       <c r="D21" s="23" t="n">
-        <f aca="false">[16]output_table!H17/100</f>
+        <f aca="false">[16]output_table!h17/100</f>
         <v>0.360980893714218</v>
       </c>
     </row>
@@ -35763,15 +32214,15 @@
         <v>107</v>
       </c>
       <c r="B22" s="21" t="n">
-        <f aca="false">[16]output_table!F18/100</f>
+        <f aca="false">[16]output_table!f18/100</f>
         <v>-0.728960429812469</v>
       </c>
       <c r="C22" s="22" t="n">
-        <f aca="false">[16]output_table!G18/100</f>
+        <f aca="false">[16]output_table!g18/100</f>
         <v>-1.33237633212139</v>
       </c>
       <c r="D22" s="23" t="n">
-        <f aca="false">[16]output_table!H18/100</f>
+        <f aca="false">[16]output_table!h18/100</f>
         <v>0.603415902308917</v>
       </c>
     </row>
@@ -35780,15 +32231,15 @@
         <v>108</v>
       </c>
       <c r="B23" s="21" t="n">
-        <f aca="false">[16]output_table!F19/100</f>
+        <f aca="false">[16]output_table!f19/100</f>
         <v>-0.330835970451391</v>
       </c>
       <c r="C23" s="22" t="n">
-        <f aca="false">[16]output_table!G19/100</f>
+        <f aca="false">[16]output_table!g19/100</f>
         <v>-0.900148560263634</v>
       </c>
       <c r="D23" s="23" t="n">
-        <f aca="false">[16]output_table!H19/100</f>
+        <f aca="false">[16]output_table!h19/100</f>
         <v>0.569312589812242</v>
       </c>
     </row>
@@ -35797,15 +32248,15 @@
         <v>109</v>
       </c>
       <c r="B24" s="21" t="n">
-        <f aca="false">[16]output_table!F20/100</f>
+        <f aca="false">[16]output_table!f20/100</f>
         <v>-0.061754929248328</v>
       </c>
       <c r="C24" s="22" t="n">
-        <f aca="false">[16]output_table!G20/100</f>
+        <f aca="false">[16]output_table!g20/100</f>
         <v>-0.603361064115457</v>
       </c>
       <c r="D24" s="23" t="n">
-        <f aca="false">[16]output_table!H20/100</f>
+        <f aca="false">[16]output_table!h20/100</f>
         <v>0.541606134867129</v>
       </c>
     </row>
@@ -35814,15 +32265,15 @@
         <v>110</v>
       </c>
       <c r="B25" s="21" t="n">
-        <f aca="false">[16]output_table!F21/100</f>
+        <f aca="false">[16]output_table!f21/100</f>
         <v>0.0113304158642382</v>
       </c>
       <c r="C25" s="22" t="n">
-        <f aca="false">[16]output_table!G21/100</f>
+        <f aca="false">[16]output_table!g21/100</f>
         <v>-0.0147477510004919</v>
       </c>
       <c r="D25" s="23" t="n">
-        <f aca="false">[16]output_table!H21/100</f>
+        <f aca="false">[16]output_table!h21/100</f>
         <v>0.0260781668647301</v>
       </c>
     </row>
@@ -35831,15 +32282,15 @@
         <v>111</v>
       </c>
       <c r="B26" s="21" t="n">
-        <f aca="false">[16]output_table!F22/100</f>
+        <f aca="false">[16]output_table!f22/100</f>
         <v>-0.0127235660917139</v>
       </c>
       <c r="C26" s="22" t="n">
-        <f aca="false">[16]output_table!G22/100</f>
+        <f aca="false">[16]output_table!g22/100</f>
         <v>-0.0977067105420136</v>
       </c>
       <c r="D26" s="23" t="n">
-        <f aca="false">[16]output_table!H22/100</f>
+        <f aca="false">[16]output_table!h22/100</f>
         <v>0.0849831444502997</v>
       </c>
     </row>
@@ -35848,15 +32299,15 @@
         <v>112</v>
       </c>
       <c r="B27" s="21" t="n">
-        <f aca="false">[16]output_table!F23/100</f>
+        <f aca="false">[16]output_table!f23/100</f>
         <v>-0.80477053055102</v>
       </c>
       <c r="C27" s="22" t="n">
-        <f aca="false">[16]output_table!G23/100</f>
+        <f aca="false">[16]output_table!g23/100</f>
         <v>-0.437786784444225</v>
       </c>
       <c r="D27" s="23" t="n">
-        <f aca="false">[16]output_table!H23/100</f>
+        <f aca="false">[16]output_table!h23/100</f>
         <v>-0.366983746106796</v>
       </c>
     </row>
@@ -35865,15 +32316,15 @@
         <v>113</v>
       </c>
       <c r="B28" s="21" t="n">
-        <f aca="false">[16]output_table!F24/100</f>
+        <f aca="false">[16]output_table!f24/100</f>
         <v>-0.415595061400313</v>
       </c>
       <c r="C28" s="22" t="n">
-        <f aca="false">[16]output_table!G24/100</f>
+        <f aca="false">[16]output_table!g24/100</f>
         <v>-0.270346094674396</v>
       </c>
       <c r="D28" s="23" t="n">
-        <f aca="false">[16]output_table!H24/100</f>
+        <f aca="false">[16]output_table!h24/100</f>
         <v>-0.145248966725917</v>
       </c>
     </row>
@@ -35882,15 +32333,15 @@
         <v>114</v>
       </c>
       <c r="B29" s="21" t="n">
-        <f aca="false">[16]output_table!F25/100</f>
+        <f aca="false">[16]output_table!f25/100</f>
         <v>-0.60610679870989</v>
       </c>
       <c r="C29" s="22" t="n">
-        <f aca="false">[16]output_table!G25/100</f>
+        <f aca="false">[16]output_table!g25/100</f>
         <v>-0.296177603079961</v>
       </c>
       <c r="D29" s="23" t="n">
-        <f aca="false">[16]output_table!H25/100</f>
+        <f aca="false">[16]output_table!h25/100</f>
         <v>-0.309929195629929</v>
       </c>
     </row>
@@ -35899,15 +32350,15 @@
         <v>115</v>
       </c>
       <c r="B30" s="25" t="n">
-        <f aca="false">[16]output_table!F26/100</f>
+        <f aca="false">[16]output_table!f26/100</f>
         <v>-0.016640320681489</v>
       </c>
       <c r="C30" s="26" t="n">
-        <f aca="false">[16]output_table!G26/100</f>
+        <f aca="false">[16]output_table!g26/100</f>
         <v>0.0816909986442043</v>
       </c>
       <c r="D30" s="27" t="n">
-        <f aca="false">[16]output_table!H26/100</f>
+        <f aca="false">[16]output_table!h26/100</f>
         <v>-0.0983313193256933</v>
       </c>
     </row>
@@ -36005,15 +32456,15 @@
         <v>91</v>
       </c>
       <c r="B6" s="17" t="n">
-        <f aca="false">[17]output_table!F2/100</f>
+        <f aca="false">[17]output_table!f2/100</f>
         <v>-0.0368446868671443</v>
       </c>
       <c r="C6" s="18" t="n">
-        <f aca="false">[17]output_table!G2/100</f>
+        <f aca="false">[17]output_table!g2/100</f>
         <v>-0.0174656241676815</v>
       </c>
       <c r="D6" s="19" t="n">
-        <f aca="false">[17]output_table!H2/100</f>
+        <f aca="false">[17]output_table!h2/100</f>
         <v>-0.0193790626994626</v>
       </c>
     </row>
@@ -36022,15 +32473,15 @@
         <v>92</v>
       </c>
       <c r="B7" s="21" t="n">
-        <f aca="false">[17]output_table!F3/100</f>
+        <f aca="false">[17]output_table!f3/100</f>
         <v>-0.440031464514686</v>
       </c>
       <c r="C7" s="22" t="n">
-        <f aca="false">[17]output_table!G3/100</f>
+        <f aca="false">[17]output_table!g3/100</f>
         <v>-1.19477849437964</v>
       </c>
       <c r="D7" s="23" t="n">
-        <f aca="false">[17]output_table!H3/100</f>
+        <f aca="false">[17]output_table!h3/100</f>
         <v>0.754747029864956</v>
       </c>
     </row>
@@ -36039,15 +32490,15 @@
         <v>93</v>
       </c>
       <c r="B8" s="21" t="n">
-        <f aca="false">[17]output_table!F4/100</f>
+        <f aca="false">[17]output_table!f4/100</f>
         <v>-0.65471850809175</v>
       </c>
       <c r="C8" s="22" t="n">
-        <f aca="false">[17]output_table!G4/100</f>
+        <f aca="false">[17]output_table!g4/100</f>
         <v>-1.13144500882172</v>
       </c>
       <c r="D8" s="23" t="n">
-        <f aca="false">[17]output_table!H4/100</f>
+        <f aca="false">[17]output_table!h4/100</f>
         <v>0.47672650072997</v>
       </c>
     </row>
@@ -36056,15 +32507,15 @@
         <v>94</v>
       </c>
       <c r="B9" s="21" t="n">
-        <f aca="false">[17]output_table!F5/100</f>
+        <f aca="false">[17]output_table!f5/100</f>
         <v>-0.740981009189681</v>
       </c>
       <c r="C9" s="22" t="n">
-        <f aca="false">[17]output_table!G5/100</f>
+        <f aca="false">[17]output_table!g5/100</f>
         <v>-1.00706297262462</v>
       </c>
       <c r="D9" s="23" t="n">
-        <f aca="false">[17]output_table!H5/100</f>
+        <f aca="false">[17]output_table!h5/100</f>
         <v>0.266081963434938</v>
       </c>
     </row>
@@ -36073,15 +32524,15 @@
         <v>95</v>
       </c>
       <c r="B10" s="21" t="n">
-        <f aca="false">[17]output_table!F6/100</f>
+        <f aca="false">[17]output_table!f6/100</f>
         <v>0.0173478985611457</v>
       </c>
       <c r="C10" s="22" t="n">
-        <f aca="false">[17]output_table!G6/100</f>
+        <f aca="false">[17]output_table!g6/100</f>
         <v>0.0159298913880027</v>
       </c>
       <c r="D10" s="23" t="n">
-        <f aca="false">[17]output_table!H6/100</f>
+        <f aca="false">[17]output_table!h6/100</f>
         <v>0.00141800717314296</v>
       </c>
     </row>
@@ -36090,15 +32541,15 @@
         <v>96</v>
       </c>
       <c r="B11" s="21" t="n">
-        <f aca="false">[17]output_table!F7/100</f>
+        <f aca="false">[17]output_table!f7/100</f>
         <v>-0.443985164989434</v>
       </c>
       <c r="C11" s="22" t="n">
-        <f aca="false">[17]output_table!G7/100</f>
+        <f aca="false">[17]output_table!g7/100</f>
         <v>-0.668087547496246</v>
       </c>
       <c r="D11" s="23" t="n">
-        <f aca="false">[17]output_table!H7/100</f>
+        <f aca="false">[17]output_table!h7/100</f>
         <v>0.224102382506812</v>
       </c>
     </row>
@@ -36107,15 +32558,15 @@
         <v>97</v>
       </c>
       <c r="B12" s="21" t="n">
-        <f aca="false">[17]output_table!F8/100</f>
+        <f aca="false">[17]output_table!f8/100</f>
         <v>-0.759836987311245</v>
       </c>
       <c r="C12" s="22" t="n">
-        <f aca="false">[17]output_table!G8/100</f>
+        <f aca="false">[17]output_table!g8/100</f>
         <v>-0.419258607367088</v>
       </c>
       <c r="D12" s="23" t="n">
-        <f aca="false">[17]output_table!H8/100</f>
+        <f aca="false">[17]output_table!h8/100</f>
         <v>-0.340578379944157</v>
       </c>
     </row>
@@ -36124,15 +32575,15 @@
         <v>98</v>
       </c>
       <c r="B13" s="21" t="n">
-        <f aca="false">[17]output_table!F9/100</f>
+        <f aca="false">[17]output_table!f9/100</f>
         <v>-0.365522892683822</v>
       </c>
       <c r="C13" s="22" t="n">
-        <f aca="false">[17]output_table!G9/100</f>
+        <f aca="false">[17]output_table!g9/100</f>
         <v>-0.650994308739387</v>
       </c>
       <c r="D13" s="23" t="n">
-        <f aca="false">[17]output_table!H9/100</f>
+        <f aca="false">[17]output_table!h9/100</f>
         <v>0.285471416055564</v>
       </c>
     </row>
@@ -36141,15 +32592,15 @@
         <v>99</v>
       </c>
       <c r="B14" s="21" t="n">
-        <f aca="false">[17]output_table!F10/100</f>
+        <f aca="false">[17]output_table!f10/100</f>
         <v>-0.250917593720215</v>
       </c>
       <c r="C14" s="22" t="n">
-        <f aca="false">[17]output_table!G10/100</f>
+        <f aca="false">[17]output_table!g10/100</f>
         <v>0.255183984376721</v>
       </c>
       <c r="D14" s="23" t="n">
-        <f aca="false">[17]output_table!H10/100</f>
+        <f aca="false">[17]output_table!h10/100</f>
         <v>-0.506101578096936</v>
       </c>
     </row>
@@ -36158,15 +32609,15 @@
         <v>100</v>
       </c>
       <c r="B15" s="21" t="n">
-        <f aca="false">[17]output_table!F11/100</f>
+        <f aca="false">[17]output_table!f11/100</f>
         <v>-0.528222766505924</v>
       </c>
       <c r="C15" s="22" t="n">
-        <f aca="false">[17]output_table!G11/100</f>
+        <f aca="false">[17]output_table!g11/100</f>
         <v>-0.494796291696242</v>
       </c>
       <c r="D15" s="23" t="n">
-        <f aca="false">[17]output_table!H11/100</f>
+        <f aca="false">[17]output_table!h11/100</f>
         <v>-0.0334264748096826</v>
       </c>
     </row>
@@ -36175,15 +32626,15 @@
         <v>101</v>
       </c>
       <c r="B16" s="21" t="n">
-        <f aca="false">[17]output_table!F12/100</f>
+        <f aca="false">[17]output_table!f12/100</f>
         <v>-0.24755687743927</v>
       </c>
       <c r="C16" s="22" t="n">
-        <f aca="false">[17]output_table!G12/100</f>
+        <f aca="false">[17]output_table!g12/100</f>
         <v>0.0236952158886753</v>
       </c>
       <c r="D16" s="23" t="n">
-        <f aca="false">[17]output_table!H12/100</f>
+        <f aca="false">[17]output_table!h12/100</f>
         <v>-0.271252093327945</v>
       </c>
     </row>
@@ -36192,15 +32643,15 @@
         <v>102</v>
       </c>
       <c r="B17" s="21" t="n">
-        <f aca="false">[17]output_table!F13/100</f>
+        <f aca="false">[17]output_table!f13/100</f>
         <v>-0.156424473722344</v>
       </c>
       <c r="C17" s="22" t="n">
-        <f aca="false">[17]output_table!G13/100</f>
+        <f aca="false">[17]output_table!g13/100</f>
         <v>-0.0726777370056549</v>
       </c>
       <c r="D17" s="23" t="n">
-        <f aca="false">[17]output_table!H13/100</f>
+        <f aca="false">[17]output_table!h13/100</f>
         <v>-0.0837467367166889</v>
       </c>
     </row>
@@ -36209,15 +32660,15 @@
         <v>103</v>
       </c>
       <c r="B18" s="21" t="n">
-        <f aca="false">[17]output_table!F14/100</f>
+        <f aca="false">[17]output_table!f14/100</f>
         <v>-0.551850295413999</v>
       </c>
       <c r="C18" s="22" t="n">
-        <f aca="false">[17]output_table!G14/100</f>
+        <f aca="false">[17]output_table!g14/100</f>
         <v>-0.675679778062228</v>
       </c>
       <c r="D18" s="23" t="n">
-        <f aca="false">[17]output_table!H14/100</f>
+        <f aca="false">[17]output_table!h14/100</f>
         <v>0.123829482648229</v>
       </c>
     </row>
@@ -36226,15 +32677,15 @@
         <v>104</v>
       </c>
       <c r="B19" s="21" t="n">
-        <f aca="false">[17]output_table!F15/100</f>
+        <f aca="false">[17]output_table!f15/100</f>
         <v>-0.267487835690827</v>
       </c>
       <c r="C19" s="22" t="n">
-        <f aca="false">[17]output_table!G15/100</f>
+        <f aca="false">[17]output_table!g15/100</f>
         <v>0.212139561635796</v>
       </c>
       <c r="D19" s="23" t="n">
-        <f aca="false">[17]output_table!H15/100</f>
+        <f aca="false">[17]output_table!h15/100</f>
         <v>-0.479627397326623</v>
       </c>
     </row>
@@ -36243,15 +32694,15 @@
         <v>105</v>
       </c>
       <c r="B20" s="21" t="n">
-        <f aca="false">[17]output_table!F16/100</f>
+        <f aca="false">[17]output_table!f16/100</f>
         <v>-0.00440332907420678</v>
       </c>
       <c r="C20" s="22" t="n">
-        <f aca="false">[17]output_table!G16/100</f>
+        <f aca="false">[17]output_table!g16/100</f>
         <v>0.0738191669455638</v>
       </c>
       <c r="D20" s="23" t="n">
-        <f aca="false">[17]output_table!H16/100</f>
+        <f aca="false">[17]output_table!h16/100</f>
         <v>-0.0782224960197706</v>
       </c>
     </row>
@@ -36260,15 +32711,15 @@
         <v>106</v>
       </c>
       <c r="B21" s="21" t="n">
-        <f aca="false">[17]output_table!F17/100</f>
+        <f aca="false">[17]output_table!f17/100</f>
         <v>-0.554546070843232</v>
       </c>
       <c r="C21" s="22" t="n">
-        <f aca="false">[17]output_table!G17/100</f>
+        <f aca="false">[17]output_table!g17/100</f>
         <v>-0.932922001718677</v>
       </c>
       <c r="D21" s="23" t="n">
-        <f aca="false">[17]output_table!H17/100</f>
+        <f aca="false">[17]output_table!h17/100</f>
         <v>0.378375930875445</v>
       </c>
     </row>
@@ -36277,15 +32728,15 @@
         <v>107</v>
       </c>
       <c r="B22" s="21" t="n">
-        <f aca="false">[17]output_table!F18/100</f>
+        <f aca="false">[17]output_table!f18/100</f>
         <v>-0.736781343929775</v>
       </c>
       <c r="C22" s="22" t="n">
-        <f aca="false">[17]output_table!G18/100</f>
+        <f aca="false">[17]output_table!g18/100</f>
         <v>-1.31303368987624</v>
       </c>
       <c r="D22" s="23" t="n">
-        <f aca="false">[17]output_table!H18/100</f>
+        <f aca="false">[17]output_table!h18/100</f>
         <v>0.576252345946464</v>
       </c>
     </row>
@@ -36294,15 +32745,15 @@
         <v>108</v>
       </c>
       <c r="B23" s="21" t="n">
-        <f aca="false">[17]output_table!F19/100</f>
+        <f aca="false">[17]output_table!f19/100</f>
         <v>-0.337270827711637</v>
       </c>
       <c r="C23" s="22" t="n">
-        <f aca="false">[17]output_table!G19/100</f>
+        <f aca="false">[17]output_table!g19/100</f>
         <v>-0.895397696913853</v>
       </c>
       <c r="D23" s="23" t="n">
-        <f aca="false">[17]output_table!H19/100</f>
+        <f aca="false">[17]output_table!h19/100</f>
         <v>0.558126869202217</v>
       </c>
     </row>
@@ -36311,15 +32762,15 @@
         <v>109</v>
       </c>
       <c r="B24" s="21" t="n">
-        <f aca="false">[17]output_table!F20/100</f>
+        <f aca="false">[17]output_table!f20/100</f>
         <v>-0.0676005737182877</v>
       </c>
       <c r="C24" s="22" t="n">
-        <f aca="false">[17]output_table!G20/100</f>
+        <f aca="false">[17]output_table!g20/100</f>
         <v>-0.607427671345438</v>
       </c>
       <c r="D24" s="23" t="n">
-        <f aca="false">[17]output_table!H20/100</f>
+        <f aca="false">[17]output_table!h20/100</f>
         <v>0.53982709762715</v>
       </c>
     </row>
@@ -36328,15 +32779,15 @@
         <v>110</v>
       </c>
       <c r="B25" s="21" t="n">
-        <f aca="false">[17]output_table!F21/100</f>
+        <f aca="false">[17]output_table!f21/100</f>
         <v>0.00749995432915063</v>
       </c>
       <c r="C25" s="22" t="n">
-        <f aca="false">[17]output_table!G21/100</f>
+        <f aca="false">[17]output_table!g21/100</f>
         <v>-0.0132784115643864</v>
       </c>
       <c r="D25" s="23" t="n">
-        <f aca="false">[17]output_table!H21/100</f>
+        <f aca="false">[17]output_table!h21/100</f>
         <v>0.020778365893537</v>
       </c>
     </row>
@@ -36345,15 +32796,15 @@
         <v>111</v>
       </c>
       <c r="B26" s="21" t="n">
-        <f aca="false">[17]output_table!F22/100</f>
+        <f aca="false">[17]output_table!f22/100</f>
         <v>-0.00281106904340066</v>
       </c>
       <c r="C26" s="22" t="n">
-        <f aca="false">[17]output_table!G22/100</f>
+        <f aca="false">[17]output_table!g22/100</f>
         <v>-0.0778661439446388</v>
       </c>
       <c r="D26" s="23" t="n">
-        <f aca="false">[17]output_table!H22/100</f>
+        <f aca="false">[17]output_table!h22/100</f>
         <v>0.0750550749012382</v>
       </c>
     </row>
@@ -36362,15 +32813,15 @@
         <v>112</v>
       </c>
       <c r="B27" s="21" t="n">
-        <f aca="false">[17]output_table!F23/100</f>
+        <f aca="false">[17]output_table!f23/100</f>
         <v>-0.800799467427782</v>
       </c>
       <c r="C27" s="22" t="n">
-        <f aca="false">[17]output_table!G23/100</f>
+        <f aca="false">[17]output_table!g23/100</f>
         <v>-0.436875986809105</v>
       </c>
       <c r="D27" s="23" t="n">
-        <f aca="false">[17]output_table!H23/100</f>
+        <f aca="false">[17]output_table!h23/100</f>
         <v>-0.363923480618676</v>
       </c>
     </row>
@@ -36379,15 +32830,15 @@
         <v>113</v>
       </c>
       <c r="B28" s="21" t="n">
-        <f aca="false">[17]output_table!F24/100</f>
+        <f aca="false">[17]output_table!f24/100</f>
         <v>-0.411098142677442</v>
       </c>
       <c r="C28" s="22" t="n">
-        <f aca="false">[17]output_table!G24/100</f>
+        <f aca="false">[17]output_table!g24/100</f>
         <v>-0.278683478208008</v>
       </c>
       <c r="D28" s="23" t="n">
-        <f aca="false">[17]output_table!H24/100</f>
+        <f aca="false">[17]output_table!h24/100</f>
         <v>-0.132414664469434</v>
       </c>
     </row>
@@ -36396,15 +32847,15 @@
         <v>114</v>
       </c>
       <c r="B29" s="21" t="n">
-        <f aca="false">[17]output_table!F25/100</f>
+        <f aca="false">[17]output_table!f25/100</f>
         <v>-0.59339055951835</v>
       </c>
       <c r="C29" s="22" t="n">
-        <f aca="false">[17]output_table!G25/100</f>
+        <f aca="false">[17]output_table!g25/100</f>
         <v>-0.29896357017374</v>
       </c>
       <c r="D29" s="23" t="n">
-        <f aca="false">[17]output_table!H25/100</f>
+        <f aca="false">[17]output_table!h25/100</f>
         <v>-0.29442698934461</v>
       </c>
     </row>
@@ -36413,15 +32864,15 @@
         <v>115</v>
       </c>
       <c r="B30" s="25" t="n">
-        <f aca="false">[17]output_table!F26/100</f>
+        <f aca="false">[17]output_table!f26/100</f>
         <v>-0.0218408570597907</v>
       </c>
       <c r="C30" s="26" t="n">
-        <f aca="false">[17]output_table!G26/100</f>
+        <f aca="false">[17]output_table!g26/100</f>
         <v>0.0682119619903455</v>
       </c>
       <c r="D30" s="27" t="n">
-        <f aca="false">[17]output_table!H26/100</f>
+        <f aca="false">[17]output_table!h26/100</f>
         <v>-0.0900528190501362</v>
       </c>
     </row>
@@ -36535,27 +32986,27 @@
         <v>91</v>
       </c>
       <c r="B7" s="17" t="n">
-        <f aca="false">[18]output_table!F2/100</f>
+        <f aca="false">[18]output_table!f2/100</f>
         <v>-0.195456012822419</v>
       </c>
       <c r="C7" s="18" t="n">
-        <f aca="false">[18]output_table!G2/100</f>
+        <f aca="false">[18]output_table!g2/100</f>
         <v>-0.0762939628969471</v>
       </c>
       <c r="D7" s="19" t="n">
-        <f aca="false">[18]output_table!H2/100</f>
+        <f aca="false">[18]output_table!h2/100</f>
         <v>-0.119162049925472</v>
       </c>
       <c r="E7" s="17" t="n">
-        <f aca="false">[19]output_table!F2/100</f>
+        <f aca="false">[19]output_table!f2/100</f>
         <v>0.00689109365527442</v>
       </c>
       <c r="F7" s="18" t="n">
-        <f aca="false">[19]output_table!G2/100</f>
+        <f aca="false">[19]output_table!g2/100</f>
         <v>0.00649997889022571</v>
       </c>
       <c r="G7" s="19" t="n">
-        <f aca="false">[19]output_table!H2/100</f>
+        <f aca="false">[19]output_table!h2/100</f>
         <v>0.000391114765048712</v>
       </c>
     </row>
@@ -36564,27 +33015,27 @@
         <v>92</v>
       </c>
       <c r="B8" s="21" t="n">
-        <f aca="false">[18]output_table!F3/100</f>
+        <f aca="false">[18]output_table!f3/100</f>
         <v>-0.663497525928458</v>
       </c>
       <c r="C8" s="22" t="n">
-        <f aca="false">[18]output_table!G3/100</f>
+        <f aca="false">[18]output_table!g3/100</f>
         <v>-1.44223979988593</v>
       </c>
       <c r="D8" s="23" t="n">
-        <f aca="false">[18]output_table!H3/100</f>
+        <f aca="false">[18]output_table!h3/100</f>
         <v>0.778742273957467</v>
       </c>
       <c r="E8" s="21" t="n">
-        <f aca="false">[19]output_table!F3/100</f>
+        <f aca="false">[19]output_table!f3/100</f>
         <v>-0.313171540115281</v>
       </c>
       <c r="F8" s="22" t="n">
-        <f aca="false">[19]output_table!G3/100</f>
+        <f aca="false">[19]output_table!g3/100</f>
         <v>-0.712327728032718</v>
       </c>
       <c r="G8" s="23" t="n">
-        <f aca="false">[19]output_table!H3/100</f>
+        <f aca="false">[19]output_table!h3/100</f>
         <v>0.399156187917438</v>
       </c>
     </row>
@@ -36593,27 +33044,27 @@
         <v>93</v>
       </c>
       <c r="B9" s="21" t="n">
-        <f aca="false">[18]output_table!F4/100</f>
+        <f aca="false">[18]output_table!f4/100</f>
         <v>-0.782912436444313</v>
       </c>
       <c r="C9" s="22" t="n">
-        <f aca="false">[18]output_table!G4/100</f>
+        <f aca="false">[18]output_table!g4/100</f>
         <v>-1.28989865407605</v>
       </c>
       <c r="D9" s="23" t="n">
-        <f aca="false">[18]output_table!H4/100</f>
+        <f aca="false">[18]output_table!h4/100</f>
         <v>0.506986217631734</v>
       </c>
       <c r="E9" s="21" t="n">
-        <f aca="false">[19]output_table!F4/100</f>
+        <f aca="false">[19]output_table!f4/100</f>
         <v>-0.538721161130041</v>
       </c>
       <c r="F9" s="22" t="n">
-        <f aca="false">[19]output_table!G4/100</f>
+        <f aca="false">[19]output_table!g4/100</f>
         <v>-0.735719274033354</v>
       </c>
       <c r="G9" s="23" t="n">
-        <f aca="false">[19]output_table!H4/100</f>
+        <f aca="false">[19]output_table!h4/100</f>
         <v>0.196998112903313</v>
       </c>
     </row>
@@ -36622,27 +33073,27 @@
         <v>94</v>
       </c>
       <c r="B10" s="21" t="n">
-        <f aca="false">[18]output_table!F5/100</f>
+        <f aca="false">[18]output_table!f5/100</f>
         <v>-0.796424673540579</v>
       </c>
       <c r="C10" s="22" t="n">
-        <f aca="false">[18]output_table!G5/100</f>
+        <f aca="false">[18]output_table!g5/100</f>
         <v>-1.11658211278846</v>
       </c>
       <c r="D10" s="23" t="n">
-        <f aca="false">[18]output_table!H5/100</f>
+        <f aca="false">[18]output_table!h5/100</f>
         <v>0.320157439247883</v>
       </c>
       <c r="E10" s="21" t="n">
-        <f aca="false">[19]output_table!F5/100</f>
+        <f aca="false">[19]output_table!f5/100</f>
         <v>-0.559552404428891</v>
       </c>
       <c r="F10" s="22" t="n">
-        <f aca="false">[19]output_table!G5/100</f>
+        <f aca="false">[19]output_table!g5/100</f>
         <v>-0.715760071188871</v>
       </c>
       <c r="G10" s="23" t="n">
-        <f aca="false">[19]output_table!H5/100</f>
+        <f aca="false">[19]output_table!h5/100</f>
         <v>0.15620766675998</v>
       </c>
     </row>
@@ -36651,27 +33102,27 @@
         <v>95</v>
       </c>
       <c r="B11" s="21" t="n">
-        <f aca="false">[18]output_table!F6/100</f>
+        <f aca="false">[18]output_table!f6/100</f>
         <v>0.0118147506297511</v>
       </c>
       <c r="C11" s="22" t="n">
-        <f aca="false">[18]output_table!G6/100</f>
+        <f aca="false">[18]output_table!g6/100</f>
         <v>0.0107233371200198</v>
       </c>
       <c r="D11" s="23" t="n">
-        <f aca="false">[18]output_table!H6/100</f>
+        <f aca="false">[18]output_table!h6/100</f>
         <v>0.00109141350973133</v>
       </c>
       <c r="E11" s="21" t="n">
-        <f aca="false">[19]output_table!F6/100</f>
+        <f aca="false">[19]output_table!f6/100</f>
         <v>0.00674530741769233</v>
       </c>
       <c r="F11" s="22" t="n">
-        <f aca="false">[19]output_table!G6/100</f>
+        <f aca="false">[19]output_table!g6/100</f>
         <v>-0.00170259971230099</v>
       </c>
       <c r="G11" s="23" t="n">
-        <f aca="false">[19]output_table!H6/100</f>
+        <f aca="false">[19]output_table!h6/100</f>
         <v>0.00844790712999332</v>
       </c>
     </row>
@@ -36680,27 +33131,27 @@
         <v>96</v>
       </c>
       <c r="B12" s="21" t="n">
-        <f aca="false">[18]output_table!F7/100</f>
+        <f aca="false">[18]output_table!f7/100</f>
         <v>-0.697124497986615</v>
       </c>
       <c r="C12" s="22" t="n">
-        <f aca="false">[18]output_table!G7/100</f>
+        <f aca="false">[18]output_table!g7/100</f>
         <v>-1.04716197208135</v>
       </c>
       <c r="D12" s="23" t="n">
-        <f aca="false">[18]output_table!H7/100</f>
+        <f aca="false">[18]output_table!h7/100</f>
         <v>0.350037474094737</v>
       </c>
       <c r="E12" s="21" t="n">
-        <f aca="false">[19]output_table!F7/100</f>
+        <f aca="false">[19]output_table!f7/100</f>
         <v>-0.187215870935943</v>
       </c>
       <c r="F12" s="22" t="n">
-        <f aca="false">[19]output_table!G7/100</f>
+        <f aca="false">[19]output_table!g7/100</f>
         <v>-0.254076018552826</v>
       </c>
       <c r="G12" s="23" t="n">
-        <f aca="false">[19]output_table!H7/100</f>
+        <f aca="false">[19]output_table!h7/100</f>
         <v>0.0668601476168835</v>
       </c>
     </row>
@@ -36709,27 +33160,27 @@
         <v>97</v>
       </c>
       <c r="B13" s="21" t="n">
-        <f aca="false">[18]output_table!F8/100</f>
+        <f aca="false">[18]output_table!f8/100</f>
         <v>-0.876804814705405</v>
       </c>
       <c r="C13" s="22" t="n">
-        <f aca="false">[18]output_table!G8/100</f>
+        <f aca="false">[18]output_table!g8/100</f>
         <v>-0.545393880311105</v>
       </c>
       <c r="D13" s="23" t="n">
-        <f aca="false">[18]output_table!H8/100</f>
+        <f aca="false">[18]output_table!h8/100</f>
         <v>-0.331410934394299</v>
       </c>
       <c r="E13" s="21" t="n">
-        <f aca="false">[19]output_table!F8/100</f>
+        <f aca="false">[19]output_table!f8/100</f>
         <v>-0.564364469747559</v>
       </c>
       <c r="F13" s="22" t="n">
-        <f aca="false">[19]output_table!G8/100</f>
+        <f aca="false">[19]output_table!g8/100</f>
         <v>-0.271575102571685</v>
       </c>
       <c r="G13" s="23" t="n">
-        <f aca="false">[19]output_table!H8/100</f>
+        <f aca="false">[19]output_table!h8/100</f>
         <v>-0.292789367175874</v>
       </c>
     </row>
@@ -36738,27 +33189,27 @@
         <v>98</v>
       </c>
       <c r="B14" s="21" t="n">
-        <f aca="false">[18]output_table!F9/100</f>
+        <f aca="false">[18]output_table!f9/100</f>
         <v>-0.601000597381984</v>
       </c>
       <c r="C14" s="22" t="n">
-        <f aca="false">[18]output_table!G9/100</f>
+        <f aca="false">[18]output_table!g9/100</f>
         <v>-1.19966010491884</v>
       </c>
       <c r="D14" s="23" t="n">
-        <f aca="false">[18]output_table!H9/100</f>
+        <f aca="false">[18]output_table!h9/100</f>
         <v>0.598659507536854</v>
       </c>
       <c r="E14" s="21" t="n">
-        <f aca="false">[19]output_table!F9/100</f>
+        <f aca="false">[19]output_table!f9/100</f>
         <v>-0.223215887104248</v>
       </c>
       <c r="F14" s="22" t="n">
-        <f aca="false">[19]output_table!G9/100</f>
+        <f aca="false">[19]output_table!g9/100</f>
         <v>-0.309373823066148</v>
       </c>
       <c r="G14" s="23" t="n">
-        <f aca="false">[19]output_table!H9/100</f>
+        <f aca="false">[19]output_table!h9/100</f>
         <v>0.0861579359619005</v>
       </c>
     </row>
@@ -36767,27 +33218,27 @@
         <v>99</v>
       </c>
       <c r="B15" s="21" t="n">
-        <f aca="false">[18]output_table!F10/100</f>
+        <f aca="false">[18]output_table!f10/100</f>
         <v>-0.440729376971928</v>
       </c>
       <c r="C15" s="22" t="n">
-        <f aca="false">[18]output_table!G10/100</f>
+        <f aca="false">[18]output_table!g10/100</f>
         <v>0.607493158770242</v>
       </c>
       <c r="D15" s="23" t="n">
-        <f aca="false">[18]output_table!H10/100</f>
+        <f aca="false">[18]output_table!h10/100</f>
         <v>-1.04822253574217</v>
       </c>
       <c r="E15" s="21" t="n">
-        <f aca="false">[19]output_table!F10/100</f>
+        <f aca="false">[19]output_table!f10/100</f>
         <v>-0.139107569968002</v>
       </c>
       <c r="F15" s="22" t="n">
-        <f aca="false">[19]output_table!G10/100</f>
+        <f aca="false">[19]output_table!g10/100</f>
         <v>0.107590057264539</v>
       </c>
       <c r="G15" s="23" t="n">
-        <f aca="false">[19]output_table!H10/100</f>
+        <f aca="false">[19]output_table!h10/100</f>
         <v>-0.246697627232541</v>
       </c>
     </row>
@@ -36796,27 +33247,27 @@
         <v>100</v>
       </c>
       <c r="B16" s="21" t="n">
-        <f aca="false">[18]output_table!F11/100</f>
+        <f aca="false">[18]output_table!f11/100</f>
         <v>-0.737023429198587</v>
       </c>
       <c r="C16" s="22" t="n">
-        <f aca="false">[18]output_table!G11/100</f>
+        <f aca="false">[18]output_table!g11/100</f>
         <v>-0.848297605512319</v>
       </c>
       <c r="D16" s="23" t="n">
-        <f aca="false">[18]output_table!H11/100</f>
+        <f aca="false">[18]output_table!h11/100</f>
         <v>0.111274176313733</v>
       </c>
       <c r="E16" s="21" t="n">
-        <f aca="false">[19]output_table!F11/100</f>
+        <f aca="false">[19]output_table!f11/100</f>
         <v>-0.287549032597503</v>
       </c>
       <c r="F16" s="22" t="n">
-        <f aca="false">[19]output_table!G11/100</f>
+        <f aca="false">[19]output_table!g11/100</f>
         <v>-0.188341965059064</v>
       </c>
       <c r="G16" s="23" t="n">
-        <f aca="false">[19]output_table!H11/100</f>
+        <f aca="false">[19]output_table!h11/100</f>
         <v>-0.0992070675384384</v>
       </c>
     </row>
@@ -36825,27 +33276,27 @@
         <v>101</v>
       </c>
       <c r="B17" s="21" t="n">
-        <f aca="false">[18]output_table!F12/100</f>
+        <f aca="false">[18]output_table!f12/100</f>
         <v>-0.572204796265069</v>
       </c>
       <c r="C17" s="22" t="n">
-        <f aca="false">[18]output_table!G12/100</f>
+        <f aca="false">[18]output_table!g12/100</f>
         <v>-0.164903768410556</v>
       </c>
       <c r="D17" s="23" t="n">
-        <f aca="false">[18]output_table!H12/100</f>
+        <f aca="false">[18]output_table!h12/100</f>
         <v>-0.407301027854513</v>
       </c>
       <c r="E17" s="21" t="n">
-        <f aca="false">[19]output_table!F12/100</f>
+        <f aca="false">[19]output_table!f12/100</f>
         <v>-0.0630451195688968</v>
       </c>
       <c r="F17" s="22" t="n">
-        <f aca="false">[19]output_table!G12/100</f>
+        <f aca="false">[19]output_table!g12/100</f>
         <v>0.159116842533011</v>
       </c>
       <c r="G17" s="23" t="n">
-        <f aca="false">[19]output_table!H12/100</f>
+        <f aca="false">[19]output_table!h12/100</f>
         <v>-0.222161962101908</v>
       </c>
     </row>
@@ -36854,27 +33305,27 @@
         <v>102</v>
       </c>
       <c r="B18" s="21" t="n">
-        <f aca="false">[18]output_table!F13/100</f>
+        <f aca="false">[18]output_table!f13/100</f>
         <v>-0.375614780513543</v>
       </c>
       <c r="C18" s="22" t="n">
-        <f aca="false">[18]output_table!G13/100</f>
+        <f aca="false">[18]output_table!g13/100</f>
         <v>-0.184025144664517</v>
       </c>
       <c r="D18" s="23" t="n">
-        <f aca="false">[18]output_table!H13/100</f>
+        <f aca="false">[18]output_table!h13/100</f>
         <v>-0.191589635849026</v>
       </c>
       <c r="E18" s="21" t="n">
-        <f aca="false">[19]output_table!F13/100</f>
+        <f aca="false">[19]output_table!f13/100</f>
         <v>-0.0530721568729032</v>
       </c>
       <c r="F18" s="22" t="n">
-        <f aca="false">[19]output_table!G13/100</f>
+        <f aca="false">[19]output_table!g13/100</f>
         <v>-0.00536179475885627</v>
       </c>
       <c r="G18" s="23" t="n">
-        <f aca="false">[19]output_table!H13/100</f>
+        <f aca="false">[19]output_table!h13/100</f>
         <v>-0.0477103621140469</v>
       </c>
     </row>
@@ -36883,27 +33334,27 @@
         <v>103</v>
       </c>
       <c r="B19" s="21" t="n">
-        <f aca="false">[18]output_table!F14/100</f>
+        <f aca="false">[18]output_table!f14/100</f>
         <v>-0.705228351811284</v>
       </c>
       <c r="C19" s="22" t="n">
-        <f aca="false">[18]output_table!G14/100</f>
+        <f aca="false">[18]output_table!g14/100</f>
         <v>-1.02207096908014</v>
       </c>
       <c r="D19" s="23" t="n">
-        <f aca="false">[18]output_table!H14/100</f>
+        <f aca="false">[18]output_table!h14/100</f>
         <v>0.316842617268854</v>
       </c>
       <c r="E19" s="21" t="n">
-        <f aca="false">[19]output_table!F14/100</f>
+        <f aca="false">[19]output_table!f14/100</f>
         <v>-0.455306500805499</v>
       </c>
       <c r="F19" s="22" t="n">
-        <f aca="false">[19]output_table!G14/100</f>
+        <f aca="false">[19]output_table!g14/100</f>
         <v>-0.292600700045955</v>
       </c>
       <c r="G19" s="23" t="n">
-        <f aca="false">[19]output_table!H14/100</f>
+        <f aca="false">[19]output_table!h14/100</f>
         <v>-0.162705800759545</v>
       </c>
     </row>
@@ -36912,27 +33363,27 @@
         <v>104</v>
       </c>
       <c r="B20" s="21" t="n">
-        <f aca="false">[18]output_table!F15/100</f>
+        <f aca="false">[18]output_table!f15/100</f>
         <v>-0.492743193053915</v>
       </c>
       <c r="C20" s="22" t="n">
-        <f aca="false">[18]output_table!G15/100</f>
+        <f aca="false">[18]output_table!g15/100</f>
         <v>0.438417697433374</v>
       </c>
       <c r="D20" s="23" t="n">
-        <f aca="false">[18]output_table!H15/100</f>
+        <f aca="false">[18]output_table!h15/100</f>
         <v>-0.931160890487289</v>
       </c>
       <c r="E20" s="21" t="n">
-        <f aca="false">[19]output_table!F15/100</f>
+        <f aca="false">[19]output_table!f15/100</f>
         <v>-0.155849285066986</v>
       </c>
       <c r="F20" s="22" t="n">
-        <f aca="false">[19]output_table!G15/100</f>
+        <f aca="false">[19]output_table!g15/100</f>
         <v>0.0930473107126945</v>
       </c>
       <c r="G20" s="23" t="n">
-        <f aca="false">[19]output_table!H15/100</f>
+        <f aca="false">[19]output_table!h15/100</f>
         <v>-0.24889659577968</v>
       </c>
     </row>
@@ -36941,27 +33392,27 @@
         <v>105</v>
       </c>
       <c r="B21" s="21" t="n">
-        <f aca="false">[18]output_table!F16/100</f>
+        <f aca="false">[18]output_table!f16/100</f>
         <v>-0.106458130617246</v>
       </c>
       <c r="C21" s="22" t="n">
-        <f aca="false">[18]output_table!G16/100</f>
+        <f aca="false">[18]output_table!g16/100</f>
         <v>0.108250990620459</v>
       </c>
       <c r="D21" s="23" t="n">
-        <f aca="false">[18]output_table!H16/100</f>
+        <f aca="false">[18]output_table!h16/100</f>
         <v>-0.214709121237704</v>
       </c>
       <c r="E21" s="21" t="n">
-        <f aca="false">[19]output_table!F16/100</f>
+        <f aca="false">[19]output_table!f16/100</f>
         <v>0.0117428870272304</v>
       </c>
       <c r="F21" s="22" t="n">
-        <f aca="false">[19]output_table!G16/100</f>
+        <f aca="false">[19]output_table!g16/100</f>
         <v>0.04824560668534</v>
       </c>
       <c r="G21" s="23" t="n">
-        <f aca="false">[19]output_table!H16/100</f>
+        <f aca="false">[19]output_table!h16/100</f>
         <v>-0.0365027196581096</v>
       </c>
     </row>
@@ -36970,27 +33421,27 @@
         <v>106</v>
       </c>
       <c r="B22" s="21" t="n">
-        <f aca="false">[18]output_table!F17/100</f>
+        <f aca="false">[18]output_table!f17/100</f>
         <v>-0.741620260727143</v>
       </c>
       <c r="C22" s="22" t="n">
-        <f aca="false">[18]output_table!G17/100</f>
+        <f aca="false">[18]output_table!g17/100</f>
         <v>-1.44533013441091</v>
       </c>
       <c r="D22" s="23" t="n">
-        <f aca="false">[18]output_table!H17/100</f>
+        <f aca="false">[18]output_table!h17/100</f>
         <v>0.70370987368377</v>
       </c>
       <c r="E22" s="21" t="n">
-        <f aca="false">[19]output_table!F17/100</f>
+        <f aca="false">[19]output_table!f17/100</f>
         <v>-0.33211260518518</v>
       </c>
       <c r="F22" s="22" t="n">
-        <f aca="false">[19]output_table!G17/100</f>
+        <f aca="false">[19]output_table!g17/100</f>
         <v>-0.439250071405402</v>
       </c>
       <c r="G22" s="23" t="n">
-        <f aca="false">[19]output_table!H17/100</f>
+        <f aca="false">[19]output_table!h17/100</f>
         <v>0.107137466220221</v>
       </c>
     </row>
@@ -36999,27 +33450,27 @@
         <v>107</v>
       </c>
       <c r="B23" s="21" t="n">
-        <f aca="false">[18]output_table!F18/100</f>
+        <f aca="false">[18]output_table!f18/100</f>
         <v>-0.851609608469503</v>
       </c>
       <c r="C23" s="22" t="n">
-        <f aca="false">[18]output_table!G18/100</f>
+        <f aca="false">[18]output_table!g18/100</f>
         <v>-1.5105840779276</v>
       </c>
       <c r="D23" s="23" t="n">
-        <f aca="false">[18]output_table!H18/100</f>
+        <f aca="false">[18]output_table!h18/100</f>
         <v>0.6589744694581</v>
       </c>
       <c r="E23" s="21" t="n">
-        <f aca="false">[19]output_table!F18/100</f>
+        <f aca="false">[19]output_table!f18/100</f>
         <v>-0.535107507452821</v>
       </c>
       <c r="F23" s="22" t="n">
-        <f aca="false">[19]output_table!G18/100</f>
+        <f aca="false">[19]output_table!g18/100</f>
         <v>-0.89268452806336</v>
       </c>
       <c r="G23" s="23" t="n">
-        <f aca="false">[19]output_table!H18/100</f>
+        <f aca="false">[19]output_table!h18/100</f>
         <v>0.357577020610538</v>
       </c>
     </row>
@@ -37028,27 +33479,27 @@
         <v>108</v>
       </c>
       <c r="B24" s="21" t="n">
-        <f aca="false">[18]output_table!F19/100</f>
+        <f aca="false">[18]output_table!f19/100</f>
         <v>-0.610070513183542</v>
       </c>
       <c r="C24" s="22" t="n">
-        <f aca="false">[18]output_table!G19/100</f>
+        <f aca="false">[18]output_table!g19/100</f>
         <v>-1.37311494986684</v>
       </c>
       <c r="D24" s="23" t="n">
-        <f aca="false">[18]output_table!H19/100</f>
+        <f aca="false">[18]output_table!h19/100</f>
         <v>0.763044436683298</v>
       </c>
       <c r="E24" s="21" t="n">
-        <f aca="false">[19]output_table!F19/100</f>
+        <f aca="false">[19]output_table!f19/100</f>
         <v>-0.11849046924393</v>
       </c>
       <c r="F24" s="22" t="n">
-        <f aca="false">[19]output_table!G19/100</f>
+        <f aca="false">[19]output_table!g19/100</f>
         <v>-0.359745296759972</v>
       </c>
       <c r="G24" s="23" t="n">
-        <f aca="false">[19]output_table!H19/100</f>
+        <f aca="false">[19]output_table!h19/100</f>
         <v>0.241254827516042</v>
       </c>
     </row>
@@ -37057,27 +33508,27 @@
         <v>109</v>
       </c>
       <c r="B25" s="21" t="n">
-        <f aca="false">[18]output_table!F20/100</f>
+        <f aca="false">[18]output_table!f20/100</f>
         <v>-0.437814440177531</v>
       </c>
       <c r="C25" s="22" t="n">
-        <f aca="false">[18]output_table!G20/100</f>
+        <f aca="false">[18]output_table!g20/100</f>
         <v>-1.16664143357821</v>
       </c>
       <c r="D25" s="23" t="n">
-        <f aca="false">[18]output_table!H20/100</f>
+        <f aca="false">[18]output_table!h20/100</f>
         <v>0.728826993400676</v>
       </c>
       <c r="E25" s="21" t="n">
-        <f aca="false">[19]output_table!F20/100</f>
+        <f aca="false">[19]output_table!f20/100</f>
         <v>0.0496377618023485</v>
       </c>
       <c r="F25" s="22" t="n">
-        <f aca="false">[19]output_table!G20/100</f>
+        <f aca="false">[19]output_table!g20/100</f>
         <v>-0.183307558482055</v>
       </c>
       <c r="G25" s="23" t="n">
-        <f aca="false">[19]output_table!H20/100</f>
+        <f aca="false">[19]output_table!h20/100</f>
         <v>0.232945320284404</v>
       </c>
     </row>
@@ -37086,27 +33537,27 @@
         <v>110</v>
       </c>
       <c r="B26" s="21" t="n">
-        <f aca="false">[18]output_table!F21/100</f>
+        <f aca="false">[18]output_table!f21/100</f>
         <v>0.00968325866410428</v>
       </c>
       <c r="C26" s="22" t="n">
-        <f aca="false">[18]output_table!G21/100</f>
+        <f aca="false">[18]output_table!g21/100</f>
         <v>-0.0104735658795994</v>
       </c>
       <c r="D26" s="23" t="n">
-        <f aca="false">[18]output_table!H21/100</f>
+        <f aca="false">[18]output_table!h21/100</f>
         <v>0.0201568245437038</v>
       </c>
       <c r="E26" s="21" t="n">
-        <f aca="false">[19]output_table!F21/100</f>
+        <f aca="false">[19]output_table!f21/100</f>
         <v>0.00187923026933303</v>
       </c>
       <c r="F26" s="22" t="n">
-        <f aca="false">[19]output_table!G21/100</f>
+        <f aca="false">[19]output_table!g21/100</f>
         <v>-0.0172433734555682</v>
       </c>
       <c r="G26" s="23" t="n">
-        <f aca="false">[19]output_table!H21/100</f>
+        <f aca="false">[19]output_table!h21/100</f>
         <v>0.0191226037249013</v>
       </c>
     </row>
@@ -37115,27 +33566,27 @@
         <v>111</v>
       </c>
       <c r="B27" s="21" t="n">
-        <f aca="false">[18]output_table!F22/100</f>
+        <f aca="false">[18]output_table!f22/100</f>
         <v>-0.220810716978395</v>
       </c>
       <c r="C27" s="22" t="n">
-        <f aca="false">[18]output_table!G22/100</f>
+        <f aca="false">[18]output_table!g22/100</f>
         <v>-0.552488165375405</v>
       </c>
       <c r="D27" s="23" t="n">
-        <f aca="false">[18]output_table!H22/100</f>
+        <f aca="false">[18]output_table!h22/100</f>
         <v>0.33167744839701</v>
       </c>
       <c r="E27" s="21" t="n">
-        <f aca="false">[19]output_table!F22/100</f>
+        <f aca="false">[19]output_table!f22/100</f>
         <v>0.0354073107289638</v>
       </c>
       <c r="F27" s="22" t="n">
-        <f aca="false">[19]output_table!G22/100</f>
+        <f aca="false">[19]output_table!g22/100</f>
         <v>0.0443955176120062</v>
       </c>
       <c r="G27" s="23" t="n">
-        <f aca="false">[19]output_table!H22/100</f>
+        <f aca="false">[19]output_table!h22/100</f>
         <v>-0.0089882068830424</v>
       </c>
     </row>
@@ -37144,27 +33595,27 @@
         <v>112</v>
       </c>
       <c r="B28" s="21" t="n">
-        <f aca="false">[18]output_table!F23/100</f>
+        <f aca="false">[18]output_table!f23/100</f>
         <v>-0.909874733627549</v>
       </c>
       <c r="C28" s="22" t="n">
-        <f aca="false">[18]output_table!G23/100</f>
+        <f aca="false">[18]output_table!g23/100</f>
         <v>-0.592772806178478</v>
       </c>
       <c r="D28" s="23" t="n">
-        <f aca="false">[18]output_table!H23/100</f>
+        <f aca="false">[18]output_table!h23/100</f>
         <v>-0.31710192744907</v>
       </c>
       <c r="E28" s="21" t="n">
-        <f aca="false">[19]output_table!F23/100</f>
+        <f aca="false">[19]output_table!f23/100</f>
         <v>-0.596075693660874</v>
       </c>
       <c r="F28" s="22" t="n">
-        <f aca="false">[19]output_table!G23/100</f>
+        <f aca="false">[19]output_table!g23/100</f>
         <v>-0.222149497081964</v>
       </c>
       <c r="G28" s="23" t="n">
-        <f aca="false">[19]output_table!H23/100</f>
+        <f aca="false">[19]output_table!h23/100</f>
         <v>-0.373926196578909</v>
       </c>
     </row>
@@ -37173,27 +33624,27 @@
         <v>113</v>
       </c>
       <c r="B29" s="21" t="n">
-        <f aca="false">[18]output_table!F24/100</f>
+        <f aca="false">[18]output_table!f24/100</f>
         <v>-0.566623809066274</v>
       </c>
       <c r="C29" s="22" t="n">
-        <f aca="false">[18]output_table!G24/100</f>
+        <f aca="false">[18]output_table!g24/100</f>
         <v>-0.642269152495543</v>
       </c>
       <c r="D29" s="23" t="n">
-        <f aca="false">[18]output_table!H24/100</f>
+        <f aca="false">[18]output_table!h24/100</f>
         <v>0.0756453434292696</v>
       </c>
       <c r="E29" s="21" t="n">
-        <f aca="false">[19]output_table!F24/100</f>
+        <f aca="false">[19]output_table!f24/100</f>
         <v>-0.274418913455943</v>
       </c>
       <c r="F29" s="22" t="n">
-        <f aca="false">[19]output_table!G24/100</f>
+        <f aca="false">[19]output_table!g24/100</f>
         <v>-0.0899329271276991</v>
       </c>
       <c r="G29" s="23" t="n">
-        <f aca="false">[19]output_table!H24/100</f>
+        <f aca="false">[19]output_table!h24/100</f>
         <v>-0.184485986328244</v>
       </c>
     </row>
@@ -37202,27 +33653,27 @@
         <v>114</v>
       </c>
       <c r="B30" s="21" t="n">
-        <f aca="false">[18]output_table!F25/100</f>
+        <f aca="false">[18]output_table!f25/100</f>
         <v>-0.788381487923293</v>
       </c>
       <c r="C30" s="22" t="n">
-        <f aca="false">[18]output_table!G25/100</f>
+        <f aca="false">[18]output_table!g25/100</f>
         <v>-0.486513689800799</v>
       </c>
       <c r="D30" s="23" t="n">
-        <f aca="false">[18]output_table!H25/100</f>
+        <f aca="false">[18]output_table!h25/100</f>
         <v>-0.301867798122494</v>
       </c>
       <c r="E30" s="21" t="n">
-        <f aca="false">[19]output_table!F25/100</f>
+        <f aca="false">[19]output_table!f25/100</f>
         <v>-0.356155129591483</v>
       </c>
       <c r="F30" s="22" t="n">
-        <f aca="false">[19]output_table!G25/100</f>
+        <f aca="false">[19]output_table!g25/100</f>
         <v>-0.10944183178049</v>
       </c>
       <c r="G30" s="23" t="n">
-        <f aca="false">[19]output_table!H25/100</f>
+        <f aca="false">[19]output_table!h25/100</f>
         <v>-0.246713297810993</v>
       </c>
     </row>
@@ -37231,27 +33682,27 @@
         <v>115</v>
       </c>
       <c r="B31" s="25" t="n">
-        <f aca="false">[18]output_table!F26/100</f>
+        <f aca="false">[18]output_table!f26/100</f>
         <v>-0.0117552108666758</v>
       </c>
       <c r="C31" s="26" t="n">
-        <f aca="false">[18]output_table!G26/100</f>
+        <f aca="false">[18]output_table!g26/100</f>
         <v>0.17795681256227</v>
       </c>
       <c r="D31" s="27" t="n">
-        <f aca="false">[18]output_table!H26/100</f>
+        <f aca="false">[18]output_table!h26/100</f>
         <v>-0.189712023428946</v>
       </c>
       <c r="E31" s="25" t="n">
-        <f aca="false">[19]output_table!F26/100</f>
+        <f aca="false">[19]output_table!f26/100</f>
         <v>0.00437861192894168</v>
       </c>
       <c r="F31" s="26" t="n">
-        <f aca="false">[19]output_table!G26/100</f>
+        <f aca="false">[19]output_table!g26/100</f>
         <v>0.0392232174977365</v>
       </c>
       <c r="G31" s="27" t="n">
-        <f aca="false">[19]output_table!H26/100</f>
+        <f aca="false">[19]output_table!h26/100</f>
         <v>-0.0348446055687948</v>
       </c>
     </row>
@@ -37359,15 +33810,15 @@
         <v>91</v>
       </c>
       <c r="B6" s="17" t="n">
-        <f aca="false">[20]output_table!F2/100</f>
+        <f aca="false">[20]output_table!f2/100</f>
         <v>0.0171733170200066</v>
       </c>
       <c r="C6" s="18" t="n">
-        <f aca="false">[20]output_table!G2/100</f>
+        <f aca="false">[20]output_table!g2/100</f>
         <v>-0.00316481324847722</v>
       </c>
       <c r="D6" s="19" t="n">
-        <f aca="false">[20]output_table!H2/100</f>
+        <f aca="false">[20]output_table!h2/100</f>
         <v>0.0203381302684838</v>
       </c>
     </row>
@@ -37376,15 +33827,15 @@
         <v>92</v>
       </c>
       <c r="B7" s="21" t="n">
-        <f aca="false">[20]output_table!F3/100</f>
+        <f aca="false">[20]output_table!f3/100</f>
         <v>-0.03811201726764</v>
       </c>
       <c r="C7" s="22" t="n">
-        <f aca="false">[20]output_table!G3/100</f>
+        <f aca="false">[20]output_table!g3/100</f>
         <v>-0.0917105508244128</v>
       </c>
       <c r="D7" s="23" t="n">
-        <f aca="false">[20]output_table!H3/100</f>
+        <f aca="false">[20]output_table!h3/100</f>
         <v>0.0535985335567728</v>
       </c>
     </row>
@@ -37393,15 +33844,15 @@
         <v>93</v>
       </c>
       <c r="B8" s="21" t="n">
-        <f aca="false">[20]output_table!F4/100</f>
+        <f aca="false">[20]output_table!f4/100</f>
         <v>-0.106208555204002</v>
       </c>
       <c r="C8" s="22" t="n">
-        <f aca="false">[20]output_table!G4/100</f>
+        <f aca="false">[20]output_table!g4/100</f>
         <v>-0.341773603300516</v>
       </c>
       <c r="D8" s="23" t="n">
-        <f aca="false">[20]output_table!H4/100</f>
+        <f aca="false">[20]output_table!h4/100</f>
         <v>0.235565048096514</v>
       </c>
     </row>
@@ -37410,15 +33861,15 @@
         <v>94</v>
       </c>
       <c r="B9" s="21" t="n">
-        <f aca="false">[20]output_table!F5/100</f>
+        <f aca="false">[20]output_table!f5/100</f>
         <v>-0.0796398178567803</v>
       </c>
       <c r="C9" s="22" t="n">
-        <f aca="false">[20]output_table!G5/100</f>
+        <f aca="false">[20]output_table!g5/100</f>
         <v>-0.0956037908708673</v>
       </c>
       <c r="D9" s="23" t="n">
-        <f aca="false">[20]output_table!H5/100</f>
+        <f aca="false">[20]output_table!h5/100</f>
         <v>0.0159639730140869</v>
       </c>
     </row>
@@ -37427,15 +33878,15 @@
         <v>95</v>
       </c>
       <c r="B10" s="21" t="n">
-        <f aca="false">[20]output_table!F6/100</f>
+        <f aca="false">[20]output_table!f6/100</f>
         <v>0.0084305877277066</v>
       </c>
       <c r="C10" s="22" t="n">
-        <f aca="false">[20]output_table!G6/100</f>
+        <f aca="false">[20]output_table!g6/100</f>
         <v>0.00242848321938052</v>
       </c>
       <c r="D10" s="23" t="n">
-        <f aca="false">[20]output_table!H6/100</f>
+        <f aca="false">[20]output_table!h6/100</f>
         <v>0.00600210450832608</v>
       </c>
     </row>
@@ -37444,15 +33895,15 @@
         <v>96</v>
       </c>
       <c r="B11" s="21" t="n">
-        <f aca="false">[20]output_table!F7/100</f>
+        <f aca="false">[20]output_table!f7/100</f>
         <v>-0.0513418517459719</v>
       </c>
       <c r="C11" s="22" t="n">
-        <f aca="false">[20]output_table!G7/100</f>
+        <f aca="false">[20]output_table!g7/100</f>
         <v>-0.0520344913675101</v>
       </c>
       <c r="D11" s="23" t="n">
-        <f aca="false">[20]output_table!H7/100</f>
+        <f aca="false">[20]output_table!h7/100</f>
         <v>0.000692639621538276</v>
       </c>
     </row>
@@ -37461,15 +33912,15 @@
         <v>97</v>
       </c>
       <c r="B12" s="21" t="n">
-        <f aca="false">[20]output_table!F8/100</f>
+        <f aca="false">[20]output_table!f8/100</f>
         <v>-0.119667287487995</v>
       </c>
       <c r="C12" s="22" t="n">
-        <f aca="false">[20]output_table!G8/100</f>
+        <f aca="false">[20]output_table!g8/100</f>
         <v>-0.104707824217086</v>
       </c>
       <c r="D12" s="23" t="n">
-        <f aca="false">[20]output_table!H8/100</f>
+        <f aca="false">[20]output_table!h8/100</f>
         <v>-0.0149594632709089</v>
       </c>
     </row>
@@ -37478,15 +33929,15 @@
         <v>98</v>
       </c>
       <c r="B13" s="21" t="n">
-        <f aca="false">[20]output_table!F9/100</f>
+        <f aca="false">[20]output_table!f9/100</f>
         <v>-0.0313088170251485</v>
       </c>
       <c r="C13" s="22" t="n">
-        <f aca="false">[20]output_table!G9/100</f>
+        <f aca="false">[20]output_table!g9/100</f>
         <v>-0.107178497673489</v>
       </c>
       <c r="D13" s="23" t="n">
-        <f aca="false">[20]output_table!H9/100</f>
+        <f aca="false">[20]output_table!h9/100</f>
         <v>0.0758696806483407</v>
       </c>
     </row>
@@ -37495,15 +33946,15 @@
         <v>99</v>
       </c>
       <c r="B14" s="21" t="n">
-        <f aca="false">[20]output_table!F10/100</f>
+        <f aca="false">[20]output_table!f10/100</f>
         <v>0.00635331066913522</v>
       </c>
       <c r="C14" s="22" t="n">
-        <f aca="false">[20]output_table!G10/100</f>
+        <f aca="false">[20]output_table!g10/100</f>
         <v>0.000718107311003328</v>
       </c>
       <c r="D14" s="23" t="n">
-        <f aca="false">[20]output_table!H10/100</f>
+        <f aca="false">[20]output_table!h10/100</f>
         <v>0.00563520335813189</v>
       </c>
     </row>
@@ -37512,15 +33963,15 @@
         <v>100</v>
       </c>
       <c r="B15" s="21" t="n">
-        <f aca="false">[20]output_table!F11/100</f>
+        <f aca="false">[20]output_table!f11/100</f>
         <v>-0.0038909365338811</v>
       </c>
       <c r="C15" s="22" t="n">
-        <f aca="false">[20]output_table!G11/100</f>
+        <f aca="false">[20]output_table!g11/100</f>
         <v>-0.010496032918241</v>
       </c>
       <c r="D15" s="23" t="n">
-        <f aca="false">[20]output_table!H11/100</f>
+        <f aca="false">[20]output_table!h11/100</f>
         <v>0.00660509638435986</v>
       </c>
     </row>
@@ -37529,15 +33980,15 @@
         <v>101</v>
       </c>
       <c r="B16" s="21" t="n">
-        <f aca="false">[20]output_table!F12/100</f>
+        <f aca="false">[20]output_table!f12/100</f>
         <v>0.039334362967529</v>
       </c>
       <c r="C16" s="22" t="n">
-        <f aca="false">[20]output_table!G12/100</f>
+        <f aca="false">[20]output_table!g12/100</f>
         <v>-0.00291771675960291</v>
       </c>
       <c r="D16" s="23" t="n">
-        <f aca="false">[20]output_table!H12/100</f>
+        <f aca="false">[20]output_table!h12/100</f>
         <v>0.042252079727132</v>
       </c>
     </row>
@@ -37546,15 +33997,15 @@
         <v>102</v>
       </c>
       <c r="B17" s="21" t="n">
-        <f aca="false">[20]output_table!F13/100</f>
+        <f aca="false">[20]output_table!f13/100</f>
         <v>0.00839604642091084</v>
       </c>
       <c r="C17" s="22" t="n">
-        <f aca="false">[20]output_table!G13/100</f>
+        <f aca="false">[20]output_table!g13/100</f>
         <v>1.68935392510633E-006</v>
       </c>
       <c r="D17" s="23" t="n">
-        <f aca="false">[20]output_table!H13/100</f>
+        <f aca="false">[20]output_table!h13/100</f>
         <v>0.00839435706698573</v>
       </c>
     </row>
@@ -37563,15 +34014,15 @@
         <v>103</v>
       </c>
       <c r="B18" s="21" t="n">
-        <f aca="false">[20]output_table!F14/100</f>
+        <f aca="false">[20]output_table!f14/100</f>
         <v>-0.136883714073982</v>
       </c>
       <c r="C18" s="22" t="n">
-        <f aca="false">[20]output_table!G14/100</f>
+        <f aca="false">[20]output_table!g14/100</f>
         <v>-0.131740126998184</v>
       </c>
       <c r="D18" s="23" t="n">
-        <f aca="false">[20]output_table!H14/100</f>
+        <f aca="false">[20]output_table!h14/100</f>
         <v>-0.0051435870757986</v>
       </c>
     </row>
@@ -37580,15 +34031,15 @@
         <v>104</v>
       </c>
       <c r="B19" s="21" t="n">
-        <f aca="false">[20]output_table!F15/100</f>
+        <f aca="false">[20]output_table!f15/100</f>
         <v>0.00325968119240197</v>
       </c>
       <c r="C19" s="22" t="n">
-        <f aca="false">[20]output_table!G15/100</f>
+        <f aca="false">[20]output_table!g15/100</f>
         <v>-0.00328152435850879</v>
       </c>
       <c r="D19" s="23" t="n">
-        <f aca="false">[20]output_table!H15/100</f>
+        <f aca="false">[20]output_table!h15/100</f>
         <v>0.00654120555091076</v>
       </c>
     </row>
@@ -37597,15 +34048,15 @@
         <v>105</v>
       </c>
       <c r="B20" s="21" t="n">
-        <f aca="false">[20]output_table!F16/100</f>
+        <f aca="false">[20]output_table!f16/100</f>
         <v>0.0124155168393402</v>
       </c>
       <c r="C20" s="22" t="n">
-        <f aca="false">[20]output_table!G16/100</f>
+        <f aca="false">[20]output_table!g16/100</f>
         <v>0.000525160870830255</v>
       </c>
       <c r="D20" s="23" t="n">
-        <f aca="false">[20]output_table!H16/100</f>
+        <f aca="false">[20]output_table!h16/100</f>
         <v>0.01189035596851</v>
       </c>
     </row>
@@ -37614,15 +34065,15 @@
         <v>106</v>
       </c>
       <c r="B21" s="21" t="n">
-        <f aca="false">[20]output_table!F17/100</f>
+        <f aca="false">[20]output_table!f17/100</f>
         <v>-0.211043125163187</v>
       </c>
       <c r="C21" s="22" t="n">
-        <f aca="false">[20]output_table!G17/100</f>
+        <f aca="false">[20]output_table!g17/100</f>
         <v>-0.369113474129628</v>
       </c>
       <c r="D21" s="23" t="n">
-        <f aca="false">[20]output_table!H17/100</f>
+        <f aca="false">[20]output_table!h17/100</f>
         <v>0.158070348966441</v>
       </c>
     </row>
@@ -37631,15 +34082,15 @@
         <v>107</v>
       </c>
       <c r="B22" s="21" t="n">
-        <f aca="false">[20]output_table!F18/100</f>
+        <f aca="false">[20]output_table!f18/100</f>
         <v>-0.047847557478251</v>
       </c>
       <c r="C22" s="22" t="n">
-        <f aca="false">[20]output_table!G18/100</f>
+        <f aca="false">[20]output_table!g18/100</f>
         <v>-0.127095892293388</v>
       </c>
       <c r="D22" s="23" t="n">
-        <f aca="false">[20]output_table!H18/100</f>
+        <f aca="false">[20]output_table!h18/100</f>
         <v>0.0792483348151372</v>
       </c>
     </row>
@@ -37648,15 +34099,15 @@
         <v>108</v>
       </c>
       <c r="B23" s="21" t="n">
-        <f aca="false">[20]output_table!F19/100</f>
+        <f aca="false">[20]output_table!f19/100</f>
         <v>-0.0704635294258179</v>
       </c>
       <c r="C23" s="22" t="n">
-        <f aca="false">[20]output_table!G19/100</f>
+        <f aca="false">[20]output_table!g19/100</f>
         <v>-0.0913963109681612</v>
       </c>
       <c r="D23" s="23" t="n">
-        <f aca="false">[20]output_table!H19/100</f>
+        <f aca="false">[20]output_table!h19/100</f>
         <v>0.0209327815423433</v>
       </c>
     </row>
@@ -37665,15 +34116,15 @@
         <v>109</v>
       </c>
       <c r="B24" s="21" t="n">
-        <f aca="false">[20]output_table!F20/100</f>
+        <f aca="false">[20]output_table!f20/100</f>
         <v>0.0249313115976838</v>
       </c>
       <c r="C24" s="22" t="n">
-        <f aca="false">[20]output_table!G20/100</f>
+        <f aca="false">[20]output_table!g20/100</f>
         <v>-0.0938287492871244</v>
       </c>
       <c r="D24" s="23" t="n">
-        <f aca="false">[20]output_table!H20/100</f>
+        <f aca="false">[20]output_table!h20/100</f>
         <v>0.118760060884808</v>
       </c>
     </row>
@@ -37682,15 +34133,15 @@
         <v>110</v>
       </c>
       <c r="B25" s="21" t="n">
-        <f aca="false">[20]output_table!F21/100</f>
+        <f aca="false">[20]output_table!f21/100</f>
         <v>0.00224070108171718</v>
       </c>
       <c r="C25" s="22" t="n">
-        <f aca="false">[20]output_table!G21/100</f>
+        <f aca="false">[20]output_table!g21/100</f>
         <v>-0.00309614693762422</v>
       </c>
       <c r="D25" s="23" t="n">
-        <f aca="false">[20]output_table!H21/100</f>
+        <f aca="false">[20]output_table!h21/100</f>
         <v>0.00533684801934141</v>
       </c>
     </row>
@@ -37699,15 +34150,15 @@
         <v>111</v>
       </c>
       <c r="B26" s="21" t="n">
-        <f aca="false">[20]output_table!F22/100</f>
+        <f aca="false">[20]output_table!f22/100</f>
         <v>-0.0232394302138938</v>
       </c>
       <c r="C26" s="22" t="n">
-        <f aca="false">[20]output_table!G22/100</f>
+        <f aca="false">[20]output_table!g22/100</f>
         <v>-0.0183858750280081</v>
       </c>
       <c r="D26" s="23" t="n">
-        <f aca="false">[20]output_table!H22/100</f>
+        <f aca="false">[20]output_table!h22/100</f>
         <v>-0.00485355518588569</v>
       </c>
     </row>
@@ -37716,15 +34167,15 @@
         <v>112</v>
       </c>
       <c r="B27" s="21" t="n">
-        <f aca="false">[20]output_table!F23/100</f>
+        <f aca="false">[20]output_table!f23/100</f>
         <v>-0.061076640400111</v>
       </c>
       <c r="C27" s="22" t="n">
-        <f aca="false">[20]output_table!G23/100</f>
+        <f aca="false">[20]output_table!g23/100</f>
         <v>-0.0324732459558318</v>
       </c>
       <c r="D27" s="23" t="n">
-        <f aca="false">[20]output_table!H23/100</f>
+        <f aca="false">[20]output_table!h23/100</f>
         <v>-0.0286033944442792</v>
       </c>
     </row>
@@ -37733,15 +34184,15 @@
         <v>113</v>
       </c>
       <c r="B28" s="21" t="n">
-        <f aca="false">[20]output_table!F24/100</f>
+        <f aca="false">[20]output_table!f24/100</f>
         <v>0.00388630733752689</v>
       </c>
       <c r="C28" s="22" t="n">
-        <f aca="false">[20]output_table!G24/100</f>
+        <f aca="false">[20]output_table!g24/100</f>
         <v>-0.0444118846054129</v>
       </c>
       <c r="D28" s="23" t="n">
-        <f aca="false">[20]output_table!H24/100</f>
+        <f aca="false">[20]output_table!h24/100</f>
         <v>0.0482981919429398</v>
       </c>
     </row>
@@ -37750,15 +34201,15 @@
         <v>114</v>
       </c>
       <c r="B29" s="21" t="n">
-        <f aca="false">[20]output_table!F25/100</f>
+        <f aca="false">[20]output_table!f25/100</f>
         <v>-0.0177962541884038</v>
       </c>
       <c r="C29" s="22" t="n">
-        <f aca="false">[20]output_table!G25/100</f>
+        <f aca="false">[20]output_table!g25/100</f>
         <v>-0.0260381343923937</v>
       </c>
       <c r="D29" s="23" t="n">
-        <f aca="false">[20]output_table!H25/100</f>
+        <f aca="false">[20]output_table!h25/100</f>
         <v>0.00824188020398989</v>
       </c>
     </row>
@@ -37767,15 +34218,15 @@
         <v>115</v>
       </c>
       <c r="B30" s="25" t="n">
-        <f aca="false">[20]output_table!F26/100</f>
+        <f aca="false">[20]output_table!f26/100</f>
         <v>0.0035216979484502</v>
       </c>
       <c r="C30" s="26" t="n">
-        <f aca="false">[20]output_table!G26/100</f>
+        <f aca="false">[20]output_table!g26/100</f>
         <v>0.001172941236904</v>
       </c>
       <c r="D30" s="27" t="n">
-        <f aca="false">[20]output_table!H26/100</f>
+        <f aca="false">[20]output_table!h26/100</f>
         <v>0.0023487567115462</v>
       </c>
     </row>
@@ -37904,39 +34355,39 @@
         <v>91</v>
       </c>
       <c r="B7" s="17" t="n">
-        <f aca="false">[21]output_table!F2/100</f>
+        <f aca="false">[21]output_table!f2/100</f>
         <v>-0.025552001380833</v>
       </c>
       <c r="C7" s="18" t="n">
-        <f aca="false">[21]output_table!G2/100</f>
+        <f aca="false">[21]output_table!g2/100</f>
         <v>-0.00577986459155564</v>
       </c>
       <c r="D7" s="19" t="n">
-        <f aca="false">[21]output_table!H2/100</f>
+        <f aca="false">[21]output_table!h2/100</f>
         <v>-0.0197721367892773</v>
       </c>
       <c r="E7" s="17" t="n">
-        <f aca="false">[22]output_table!F2/100</f>
+        <f aca="false">[22]output_table!f2/100</f>
         <v>-0.0266796931843565</v>
       </c>
       <c r="F7" s="18" t="n">
-        <f aca="false">[22]output_table!G2/100</f>
+        <f aca="false">[22]output_table!g2/100</f>
         <v>-0.0061144094824339</v>
       </c>
       <c r="G7" s="19" t="n">
-        <f aca="false">[22]output_table!H2/100</f>
+        <f aca="false">[22]output_table!h2/100</f>
         <v>-0.0205652837019225</v>
       </c>
       <c r="H7" s="17" t="n">
-        <f aca="false">[23]output_table!F2/100</f>
+        <f aca="false">[23]output_table!f2/100</f>
         <v>-0.0289341326976549</v>
       </c>
       <c r="I7" s="18" t="n">
-        <f aca="false">[23]output_table!G2/100</f>
+        <f aca="false">[23]output_table!g2/100</f>
         <v>-0.00711778118024133</v>
       </c>
       <c r="J7" s="19" t="n">
-        <f aca="false">[23]output_table!H2/100</f>
+        <f aca="false">[23]output_table!h2/100</f>
         <v>-0.0218163515174136</v>
       </c>
     </row>
@@ -37945,39 +34396,39 @@
         <v>92</v>
       </c>
       <c r="B8" s="21" t="n">
-        <f aca="false">[21]output_table!F3/100</f>
+        <f aca="false">[21]output_table!f3/100</f>
         <v>-0.423322726561705</v>
       </c>
       <c r="C8" s="22" t="n">
-        <f aca="false">[21]output_table!G3/100</f>
+        <f aca="false">[21]output_table!g3/100</f>
         <v>-1.18593872095676</v>
       </c>
       <c r="D8" s="23" t="n">
-        <f aca="false">[21]output_table!H3/100</f>
+        <f aca="false">[21]output_table!h3/100</f>
         <v>0.762615994395055</v>
       </c>
       <c r="E8" s="21" t="n">
-        <f aca="false">[22]output_table!F3/100</f>
+        <f aca="false">[22]output_table!f3/100</f>
         <v>-0.423629574590959</v>
       </c>
       <c r="F8" s="22" t="n">
-        <f aca="false">[22]output_table!G3/100</f>
+        <f aca="false">[22]output_table!g3/100</f>
         <v>-1.18328123849958</v>
       </c>
       <c r="G8" s="23" t="n">
-        <f aca="false">[22]output_table!H3/100</f>
+        <f aca="false">[22]output_table!h3/100</f>
         <v>0.759651663908626</v>
       </c>
       <c r="H8" s="21" t="n">
-        <f aca="false">[23]output_table!F3/100</f>
+        <f aca="false">[23]output_table!f3/100</f>
         <v>-0.418988774416205</v>
       </c>
       <c r="I8" s="22" t="n">
-        <f aca="false">[23]output_table!G3/100</f>
+        <f aca="false">[23]output_table!g3/100</f>
         <v>-1.19236454127509</v>
       </c>
       <c r="J8" s="23" t="n">
-        <f aca="false">[23]output_table!H3/100</f>
+        <f aca="false">[23]output_table!h3/100</f>
         <v>0.773375766858883</v>
       </c>
     </row>
@@ -37986,39 +34437,39 @@
         <v>93</v>
       </c>
       <c r="B9" s="21" t="n">
-        <f aca="false">[21]output_table!F4/100</f>
+        <f aca="false">[21]output_table!f4/100</f>
         <v>-0.660721614182489</v>
       </c>
       <c r="C9" s="22" t="n">
-        <f aca="false">[21]output_table!G4/100</f>
+        <f aca="false">[21]output_table!g4/100</f>
         <v>-1.07039705230357</v>
       </c>
       <c r="D9" s="23" t="n">
-        <f aca="false">[21]output_table!H4/100</f>
+        <f aca="false">[21]output_table!h4/100</f>
         <v>0.409675438121084</v>
       </c>
       <c r="E9" s="21" t="n">
-        <f aca="false">[22]output_table!F4/100</f>
+        <f aca="false">[22]output_table!f4/100</f>
         <v>-0.661302748346941</v>
       </c>
       <c r="F9" s="22" t="n">
-        <f aca="false">[22]output_table!G4/100</f>
+        <f aca="false">[22]output_table!g4/100</f>
         <v>-1.07351354140696</v>
       </c>
       <c r="G9" s="23" t="n">
-        <f aca="false">[22]output_table!H4/100</f>
+        <f aca="false">[22]output_table!h4/100</f>
         <v>0.412210793060017</v>
       </c>
       <c r="H9" s="21" t="n">
-        <f aca="false">[23]output_table!F4/100</f>
+        <f aca="false">[23]output_table!f4/100</f>
         <v>-0.66230965983515</v>
       </c>
       <c r="I9" s="22" t="n">
-        <f aca="false">[23]output_table!G4/100</f>
+        <f aca="false">[23]output_table!g4/100</f>
         <v>-1.07947873636971</v>
       </c>
       <c r="J9" s="23" t="n">
-        <f aca="false">[23]output_table!H4/100</f>
+        <f aca="false">[23]output_table!h4/100</f>
         <v>0.417169076534563</v>
       </c>
     </row>
@@ -38027,39 +34478,39 @@
         <v>94</v>
       </c>
       <c r="B10" s="21" t="n">
-        <f aca="false">[21]output_table!F5/100</f>
+        <f aca="false">[21]output_table!f5/100</f>
         <v>-0.730538243118469</v>
       </c>
       <c r="C10" s="22" t="n">
-        <f aca="false">[21]output_table!G5/100</f>
+        <f aca="false">[21]output_table!g5/100</f>
         <v>-1.00247297285294</v>
       </c>
       <c r="D10" s="23" t="n">
-        <f aca="false">[21]output_table!H5/100</f>
+        <f aca="false">[21]output_table!h5/100</f>
         <v>0.27193472973447</v>
       </c>
       <c r="E10" s="21" t="n">
-        <f aca="false">[22]output_table!F5/100</f>
+        <f aca="false">[22]output_table!f5/100</f>
         <v>-0.731839132125132</v>
       </c>
       <c r="F10" s="22" t="n">
-        <f aca="false">[22]output_table!G5/100</f>
+        <f aca="false">[22]output_table!g5/100</f>
         <v>-1.00028564093028</v>
       </c>
       <c r="G10" s="23" t="n">
-        <f aca="false">[22]output_table!H5/100</f>
+        <f aca="false">[22]output_table!h5/100</f>
         <v>0.268446508805149</v>
       </c>
       <c r="H10" s="21" t="n">
-        <f aca="false">[23]output_table!F5/100</f>
+        <f aca="false">[23]output_table!f5/100</f>
         <v>-0.73367520295894</v>
       </c>
       <c r="I10" s="22" t="n">
-        <f aca="false">[23]output_table!G5/100</f>
+        <f aca="false">[23]output_table!g5/100</f>
         <v>-0.993360455270193</v>
       </c>
       <c r="J10" s="23" t="n">
-        <f aca="false">[23]output_table!H5/100</f>
+        <f aca="false">[23]output_table!h5/100</f>
         <v>0.259685252311253</v>
       </c>
     </row>
@@ -38068,39 +34519,39 @@
         <v>95</v>
       </c>
       <c r="B11" s="21" t="n">
-        <f aca="false">[21]output_table!F6/100</f>
+        <f aca="false">[21]output_table!f6/100</f>
         <v>0.0135255339468982</v>
       </c>
       <c r="C11" s="22" t="n">
-        <f aca="false">[21]output_table!G6/100</f>
+        <f aca="false">[21]output_table!g6/100</f>
         <v>0.00462363401250637</v>
       </c>
       <c r="D11" s="23" t="n">
-        <f aca="false">[21]output_table!H6/100</f>
+        <f aca="false">[21]output_table!h6/100</f>
         <v>0.00890189993439181</v>
       </c>
       <c r="E11" s="21" t="n">
-        <f aca="false">[22]output_table!F6/100</f>
+        <f aca="false">[22]output_table!f6/100</f>
         <v>0.013771798050067</v>
       </c>
       <c r="F11" s="22" t="n">
-        <f aca="false">[22]output_table!G6/100</f>
+        <f aca="false">[22]output_table!g6/100</f>
         <v>0.00461735350361208</v>
       </c>
       <c r="G11" s="23" t="n">
-        <f aca="false">[22]output_table!H6/100</f>
+        <f aca="false">[22]output_table!h6/100</f>
         <v>0.00915444454645491</v>
       </c>
       <c r="H11" s="21" t="n">
-        <f aca="false">[23]output_table!F6/100</f>
+        <f aca="false">[23]output_table!f6/100</f>
         <v>0.0138367398806146</v>
       </c>
       <c r="I11" s="22" t="n">
-        <f aca="false">[23]output_table!G6/100</f>
+        <f aca="false">[23]output_table!g6/100</f>
         <v>0.0046009372282509</v>
       </c>
       <c r="J11" s="23" t="n">
-        <f aca="false">[23]output_table!H6/100</f>
+        <f aca="false">[23]output_table!h6/100</f>
         <v>0.00923580265236368</v>
       </c>
     </row>
@@ -38109,39 +34560,39 @@
         <v>96</v>
       </c>
       <c r="B12" s="21" t="n">
-        <f aca="false">[21]output_table!F7/100</f>
+        <f aca="false">[21]output_table!f7/100</f>
         <v>-0.439714344259867</v>
       </c>
       <c r="C12" s="22" t="n">
-        <f aca="false">[21]output_table!G7/100</f>
+        <f aca="false">[21]output_table!g7/100</f>
         <v>-0.612623403774383</v>
       </c>
       <c r="D12" s="23" t="n">
-        <f aca="false">[21]output_table!H7/100</f>
+        <f aca="false">[21]output_table!h7/100</f>
         <v>0.172909059514516</v>
       </c>
       <c r="E12" s="21" t="n">
-        <f aca="false">[22]output_table!F7/100</f>
+        <f aca="false">[22]output_table!f7/100</f>
         <v>-0.440095238236493</v>
       </c>
       <c r="F12" s="22" t="n">
-        <f aca="false">[22]output_table!G7/100</f>
+        <f aca="false">[22]output_table!g7/100</f>
         <v>-0.608026615739014</v>
       </c>
       <c r="G12" s="23" t="n">
-        <f aca="false">[22]output_table!H7/100</f>
+        <f aca="false">[22]output_table!h7/100</f>
         <v>0.167931377502521</v>
       </c>
       <c r="H12" s="21" t="n">
-        <f aca="false">[23]output_table!F7/100</f>
+        <f aca="false">[23]output_table!f7/100</f>
         <v>-0.440870898401464</v>
       </c>
       <c r="I12" s="22" t="n">
-        <f aca="false">[23]output_table!G7/100</f>
+        <f aca="false">[23]output_table!g7/100</f>
         <v>-0.606699925659237</v>
       </c>
       <c r="J12" s="23" t="n">
-        <f aca="false">[23]output_table!H7/100</f>
+        <f aca="false">[23]output_table!h7/100</f>
         <v>0.165829027257773</v>
       </c>
     </row>
@@ -38150,39 +34601,39 @@
         <v>97</v>
       </c>
       <c r="B13" s="21" t="n">
-        <f aca="false">[21]output_table!F8/100</f>
+        <f aca="false">[21]output_table!f8/100</f>
         <v>-0.780313000443816</v>
       </c>
       <c r="C13" s="22" t="n">
-        <f aca="false">[21]output_table!G8/100</f>
+        <f aca="false">[21]output_table!g8/100</f>
         <v>-0.407839669737209</v>
       </c>
       <c r="D13" s="23" t="n">
-        <f aca="false">[21]output_table!H8/100</f>
+        <f aca="false">[21]output_table!h8/100</f>
         <v>-0.372473330706607</v>
       </c>
       <c r="E13" s="21" t="n">
-        <f aca="false">[22]output_table!F8/100</f>
+        <f aca="false">[22]output_table!f8/100</f>
         <v>-0.78137408364807</v>
       </c>
       <c r="F13" s="22" t="n">
-        <f aca="false">[22]output_table!G8/100</f>
+        <f aca="false">[22]output_table!g8/100</f>
         <v>-0.409119086406024</v>
       </c>
       <c r="G13" s="23" t="n">
-        <f aca="false">[22]output_table!H8/100</f>
+        <f aca="false">[22]output_table!h8/100</f>
         <v>-0.372254997242046</v>
       </c>
       <c r="H13" s="21" t="n">
-        <f aca="false">[23]output_table!F8/100</f>
+        <f aca="false">[23]output_table!f8/100</f>
         <v>-0.782930140840132</v>
       </c>
       <c r="I13" s="22" t="n">
-        <f aca="false">[23]output_table!G8/100</f>
+        <f aca="false">[23]output_table!g8/100</f>
         <v>-0.411907579835277</v>
       </c>
       <c r="J13" s="23" t="n">
-        <f aca="false">[23]output_table!H8/100</f>
+        <f aca="false">[23]output_table!h8/100</f>
         <v>-0.371022561004855</v>
       </c>
     </row>
@@ -38191,39 +34642,39 @@
         <v>98</v>
       </c>
       <c r="B14" s="21" t="n">
-        <f aca="false">[21]output_table!F9/100</f>
+        <f aca="false">[21]output_table!f9/100</f>
         <v>-0.37970001814326</v>
       </c>
       <c r="C14" s="22" t="n">
-        <f aca="false">[21]output_table!G9/100</f>
+        <f aca="false">[21]output_table!g9/100</f>
         <v>-0.662810447292442</v>
       </c>
       <c r="D14" s="23" t="n">
-        <f aca="false">[21]output_table!H9/100</f>
+        <f aca="false">[21]output_table!h9/100</f>
         <v>0.283110429149182</v>
       </c>
       <c r="E14" s="21" t="n">
-        <f aca="false">[22]output_table!F9/100</f>
+        <f aca="false">[22]output_table!f9/100</f>
         <v>-0.380258357325712</v>
       </c>
       <c r="F14" s="22" t="n">
-        <f aca="false">[22]output_table!G9/100</f>
+        <f aca="false">[22]output_table!g9/100</f>
         <v>-0.665569562441252</v>
       </c>
       <c r="G14" s="23" t="n">
-        <f aca="false">[22]output_table!H9/100</f>
+        <f aca="false">[22]output_table!h9/100</f>
         <v>0.28531120511554</v>
       </c>
       <c r="H14" s="21" t="n">
-        <f aca="false">[23]output_table!F9/100</f>
+        <f aca="false">[23]output_table!f9/100</f>
         <v>-0.381329195249578</v>
       </c>
       <c r="I14" s="22" t="n">
-        <f aca="false">[23]output_table!G9/100</f>
+        <f aca="false">[23]output_table!g9/100</f>
         <v>-0.671639228775687</v>
       </c>
       <c r="J14" s="23" t="n">
-        <f aca="false">[23]output_table!H9/100</f>
+        <f aca="false">[23]output_table!h9/100</f>
         <v>0.290310033526109</v>
       </c>
     </row>
@@ -38232,39 +34683,39 @@
         <v>99</v>
       </c>
       <c r="B15" s="21" t="n">
-        <f aca="false">[21]output_table!F10/100</f>
+        <f aca="false">[21]output_table!f10/100</f>
         <v>-0.252255465433841</v>
       </c>
       <c r="C15" s="22" t="n">
-        <f aca="false">[21]output_table!G10/100</f>
+        <f aca="false">[21]output_table!g10/100</f>
         <v>0.276354755409549</v>
       </c>
       <c r="D15" s="23" t="n">
-        <f aca="false">[21]output_table!H10/100</f>
+        <f aca="false">[21]output_table!h10/100</f>
         <v>-0.52861022084339</v>
       </c>
       <c r="E15" s="21" t="n">
-        <f aca="false">[22]output_table!F10/100</f>
+        <f aca="false">[22]output_table!f10/100</f>
         <v>-0.251590361285561</v>
       </c>
       <c r="F15" s="22" t="n">
-        <f aca="false">[22]output_table!G10/100</f>
+        <f aca="false">[22]output_table!g10/100</f>
         <v>0.279607171319945</v>
       </c>
       <c r="G15" s="23" t="n">
-        <f aca="false">[22]output_table!H10/100</f>
+        <f aca="false">[22]output_table!h10/100</f>
         <v>-0.531197532605506</v>
       </c>
       <c r="H15" s="21" t="n">
-        <f aca="false">[23]output_table!F10/100</f>
+        <f aca="false">[23]output_table!f10/100</f>
         <v>-0.250841145098243</v>
       </c>
       <c r="I15" s="22" t="n">
-        <f aca="false">[23]output_table!G10/100</f>
+        <f aca="false">[23]output_table!g10/100</f>
         <v>0.284011882824115</v>
       </c>
       <c r="J15" s="23" t="n">
-        <f aca="false">[23]output_table!H10/100</f>
+        <f aca="false">[23]output_table!h10/100</f>
         <v>-0.534853027922359</v>
       </c>
     </row>
@@ -38273,39 +34724,39 @@
         <v>100</v>
       </c>
       <c r="B16" s="21" t="n">
-        <f aca="false">[21]output_table!F11/100</f>
+        <f aca="false">[21]output_table!f11/100</f>
         <v>-0.535701667842644</v>
       </c>
       <c r="C16" s="22" t="n">
-        <f aca="false">[21]output_table!G11/100</f>
+        <f aca="false">[21]output_table!g11/100</f>
         <v>-0.490406779266455</v>
       </c>
       <c r="D16" s="23" t="n">
-        <f aca="false">[21]output_table!H11/100</f>
+        <f aca="false">[21]output_table!h11/100</f>
         <v>-0.0452948885761888</v>
       </c>
       <c r="E16" s="21" t="n">
-        <f aca="false">[22]output_table!F11/100</f>
+        <f aca="false">[22]output_table!f11/100</f>
         <v>-0.537817977989666</v>
       </c>
       <c r="F16" s="22" t="n">
-        <f aca="false">[22]output_table!G11/100</f>
+        <f aca="false">[22]output_table!g11/100</f>
         <v>-0.491325183079783</v>
       </c>
       <c r="G16" s="23" t="n">
-        <f aca="false">[22]output_table!H11/100</f>
+        <f aca="false">[22]output_table!h11/100</f>
         <v>-0.0464927949098829</v>
       </c>
       <c r="H16" s="21" t="n">
-        <f aca="false">[23]output_table!F11/100</f>
+        <f aca="false">[23]output_table!f11/100</f>
         <v>-0.541282273245165</v>
       </c>
       <c r="I16" s="22" t="n">
-        <f aca="false">[23]output_table!G11/100</f>
+        <f aca="false">[23]output_table!g11/100</f>
         <v>-0.492812924441901</v>
       </c>
       <c r="J16" s="23" t="n">
-        <f aca="false">[23]output_table!H11/100</f>
+        <f aca="false">[23]output_table!h11/100</f>
         <v>-0.0484693488032648</v>
       </c>
     </row>
@@ -38314,39 +34765,39 @@
         <v>101</v>
       </c>
       <c r="B17" s="21" t="n">
-        <f aca="false">[21]output_table!F12/100</f>
+        <f aca="false">[21]output_table!f12/100</f>
         <v>-0.213434550111925</v>
       </c>
       <c r="C17" s="22" t="n">
-        <f aca="false">[21]output_table!G12/100</f>
+        <f aca="false">[21]output_table!g12/100</f>
         <v>0.0799203007605658</v>
       </c>
       <c r="D17" s="23" t="n">
-        <f aca="false">[21]output_table!H12/100</f>
+        <f aca="false">[21]output_table!h12/100</f>
         <v>-0.293354850872491</v>
       </c>
       <c r="E17" s="21" t="n">
-        <f aca="false">[22]output_table!F12/100</f>
+        <f aca="false">[22]output_table!f12/100</f>
         <v>-0.20414643219966</v>
       </c>
       <c r="F17" s="22" t="n">
-        <f aca="false">[22]output_table!G12/100</f>
+        <f aca="false">[22]output_table!g12/100</f>
         <v>0.0843740837265675</v>
       </c>
       <c r="G17" s="23" t="n">
-        <f aca="false">[22]output_table!H12/100</f>
+        <f aca="false">[22]output_table!h12/100</f>
         <v>-0.288520515926227</v>
       </c>
       <c r="H17" s="21" t="n">
-        <f aca="false">[23]output_table!F12/100</f>
+        <f aca="false">[23]output_table!f12/100</f>
         <v>-0.195320075227053</v>
       </c>
       <c r="I17" s="22" t="n">
-        <f aca="false">[23]output_table!G12/100</f>
+        <f aca="false">[23]output_table!g12/100</f>
         <v>0.0864541593663815</v>
       </c>
       <c r="J17" s="23" t="n">
-        <f aca="false">[23]output_table!H12/100</f>
+        <f aca="false">[23]output_table!h12/100</f>
         <v>-0.281774234593434</v>
       </c>
     </row>
@@ -38355,39 +34806,39 @@
         <v>102</v>
       </c>
       <c r="B18" s="21" t="n">
-        <f aca="false">[21]output_table!F13/100</f>
+        <f aca="false">[21]output_table!f13/100</f>
         <v>-0.160745719211399</v>
       </c>
       <c r="C18" s="22" t="n">
-        <f aca="false">[21]output_table!G13/100</f>
+        <f aca="false">[21]output_table!g13/100</f>
         <v>-0.0608383884646459</v>
       </c>
       <c r="D18" s="23" t="n">
-        <f aca="false">[21]output_table!H13/100</f>
+        <f aca="false">[21]output_table!h13/100</f>
         <v>-0.0999073307467527</v>
       </c>
       <c r="E18" s="21" t="n">
-        <f aca="false">[22]output_table!F13/100</f>
+        <f aca="false">[22]output_table!f13/100</f>
         <v>-0.160271986068322</v>
       </c>
       <c r="F18" s="22" t="n">
-        <f aca="false">[22]output_table!G13/100</f>
+        <f aca="false">[22]output_table!g13/100</f>
         <v>-0.0609851311585413</v>
       </c>
       <c r="G18" s="23" t="n">
-        <f aca="false">[22]output_table!H13/100</f>
+        <f aca="false">[22]output_table!h13/100</f>
         <v>-0.0992868549097809</v>
       </c>
       <c r="H18" s="21" t="n">
-        <f aca="false">[23]output_table!F13/100</f>
+        <f aca="false">[23]output_table!f13/100</f>
         <v>-0.159580868234849</v>
       </c>
       <c r="I18" s="22" t="n">
-        <f aca="false">[23]output_table!G13/100</f>
+        <f aca="false">[23]output_table!g13/100</f>
         <v>-0.0609895636514533</v>
       </c>
       <c r="J18" s="23" t="n">
-        <f aca="false">[23]output_table!H13/100</f>
+        <f aca="false">[23]output_table!h13/100</f>
         <v>-0.0985913045833956</v>
       </c>
     </row>
@@ -38396,39 +34847,39 @@
         <v>103</v>
       </c>
       <c r="B19" s="21" t="n">
-        <f aca="false">[21]output_table!F14/100</f>
+        <f aca="false">[21]output_table!f14/100</f>
         <v>-0.589555049068939</v>
       </c>
       <c r="C19" s="22" t="n">
-        <f aca="false">[21]output_table!G14/100</f>
+        <f aca="false">[21]output_table!g14/100</f>
         <v>-0.693737135158804</v>
       </c>
       <c r="D19" s="23" t="n">
-        <f aca="false">[21]output_table!H14/100</f>
+        <f aca="false">[21]output_table!h14/100</f>
         <v>0.104182086089865</v>
       </c>
       <c r="E19" s="21" t="n">
-        <f aca="false">[22]output_table!F14/100</f>
+        <f aca="false">[22]output_table!f14/100</f>
         <v>-0.588349819612927</v>
       </c>
       <c r="F19" s="22" t="n">
-        <f aca="false">[22]output_table!G14/100</f>
+        <f aca="false">[22]output_table!g14/100</f>
         <v>-0.698904405704207</v>
       </c>
       <c r="G19" s="23" t="n">
-        <f aca="false">[22]output_table!H14/100</f>
+        <f aca="false">[22]output_table!h14/100</f>
         <v>0.110554586091279</v>
       </c>
       <c r="H19" s="21" t="n">
-        <f aca="false">[23]output_table!F14/100</f>
+        <f aca="false">[23]output_table!f14/100</f>
         <v>-0.586396824130472</v>
       </c>
       <c r="I19" s="22" t="n">
-        <f aca="false">[23]output_table!G14/100</f>
+        <f aca="false">[23]output_table!g14/100</f>
         <v>-0.707144652781309</v>
       </c>
       <c r="J19" s="23" t="n">
-        <f aca="false">[23]output_table!H14/100</f>
+        <f aca="false">[23]output_table!h14/100</f>
         <v>0.120747828650838</v>
       </c>
     </row>
@@ -38437,39 +34888,39 @@
         <v>104</v>
       </c>
       <c r="B20" s="21" t="n">
-        <f aca="false">[21]output_table!F15/100</f>
+        <f aca="false">[21]output_table!f15/100</f>
         <v>-0.273676531286215</v>
       </c>
       <c r="C20" s="22" t="n">
-        <f aca="false">[21]output_table!G15/100</f>
+        <f aca="false">[21]output_table!g15/100</f>
         <v>0.231814008507476</v>
       </c>
       <c r="D20" s="23" t="n">
-        <f aca="false">[21]output_table!H15/100</f>
+        <f aca="false">[21]output_table!h15/100</f>
         <v>-0.505490539793691</v>
       </c>
       <c r="E20" s="21" t="n">
-        <f aca="false">[22]output_table!F15/100</f>
+        <f aca="false">[22]output_table!f15/100</f>
         <v>-0.271906329424986</v>
       </c>
       <c r="F20" s="22" t="n">
-        <f aca="false">[22]output_table!G15/100</f>
+        <f aca="false">[22]output_table!g15/100</f>
         <v>0.23826779871052</v>
       </c>
       <c r="G20" s="23" t="n">
-        <f aca="false">[22]output_table!H15/100</f>
+        <f aca="false">[22]output_table!h15/100</f>
         <v>-0.510174128135506</v>
       </c>
       <c r="H20" s="21" t="n">
-        <f aca="false">[23]output_table!F15/100</f>
+        <f aca="false">[23]output_table!f15/100</f>
         <v>-0.271168634423718</v>
       </c>
       <c r="I20" s="22" t="n">
-        <f aca="false">[23]output_table!G15/100</f>
+        <f aca="false">[23]output_table!g15/100</f>
         <v>0.244700836737262</v>
       </c>
       <c r="J20" s="23" t="n">
-        <f aca="false">[23]output_table!H15/100</f>
+        <f aca="false">[23]output_table!h15/100</f>
         <v>-0.51586947116098</v>
       </c>
     </row>
@@ -38478,39 +34929,39 @@
         <v>105</v>
       </c>
       <c r="B21" s="21" t="n">
-        <f aca="false">[21]output_table!F16/100</f>
+        <f aca="false">[21]output_table!f16/100</f>
         <v>-0.0238067998254113</v>
       </c>
       <c r="C21" s="22" t="n">
-        <f aca="false">[21]output_table!G16/100</f>
+        <f aca="false">[21]output_table!g16/100</f>
         <v>0.0798960817550755</v>
       </c>
       <c r="D21" s="23" t="n">
-        <f aca="false">[21]output_table!H16/100</f>
+        <f aca="false">[21]output_table!h16/100</f>
         <v>-0.103702881580487</v>
       </c>
       <c r="E21" s="21" t="n">
-        <f aca="false">[22]output_table!F16/100</f>
+        <f aca="false">[22]output_table!f16/100</f>
         <v>-0.0236959204737678</v>
       </c>
       <c r="F21" s="22" t="n">
-        <f aca="false">[22]output_table!G16/100</f>
+        <f aca="false">[22]output_table!g16/100</f>
         <v>0.0798856305026664</v>
       </c>
       <c r="G21" s="23" t="n">
-        <f aca="false">[22]output_table!H16/100</f>
+        <f aca="false">[22]output_table!h16/100</f>
         <v>-0.103581550976434</v>
       </c>
       <c r="H21" s="21" t="n">
-        <f aca="false">[23]output_table!F16/100</f>
+        <f aca="false">[23]output_table!f16/100</f>
         <v>-0.0245949777444653</v>
       </c>
       <c r="I21" s="22" t="n">
-        <f aca="false">[23]output_table!G16/100</f>
+        <f aca="false">[23]output_table!g16/100</f>
         <v>0.080370253598561</v>
       </c>
       <c r="J21" s="23" t="n">
-        <f aca="false">[23]output_table!H16/100</f>
+        <f aca="false">[23]output_table!h16/100</f>
         <v>-0.104965231343026</v>
       </c>
     </row>
@@ -38519,39 +34970,39 @@
         <v>106</v>
       </c>
       <c r="B22" s="21" t="n">
-        <f aca="false">[21]output_table!F17/100</f>
+        <f aca="false">[21]output_table!f17/100</f>
         <v>-0.574718087284225</v>
       </c>
       <c r="C22" s="22" t="n">
-        <f aca="false">[21]output_table!G17/100</f>
+        <f aca="false">[21]output_table!g17/100</f>
         <v>-0.922399959868402</v>
       </c>
       <c r="D22" s="23" t="n">
-        <f aca="false">[21]output_table!H17/100</f>
+        <f aca="false">[21]output_table!h17/100</f>
         <v>0.347681872584177</v>
       </c>
       <c r="E22" s="21" t="n">
-        <f aca="false">[22]output_table!F17/100</f>
+        <f aca="false">[22]output_table!f17/100</f>
         <v>-0.576189595295001</v>
       </c>
       <c r="F22" s="22" t="n">
-        <f aca="false">[22]output_table!G17/100</f>
+        <f aca="false">[22]output_table!g17/100</f>
         <v>-0.916976093204253</v>
       </c>
       <c r="G22" s="23" t="n">
-        <f aca="false">[22]output_table!H17/100</f>
+        <f aca="false">[22]output_table!h17/100</f>
         <v>0.340786497909252</v>
       </c>
       <c r="H22" s="21" t="n">
-        <f aca="false">[23]output_table!F17/100</f>
+        <f aca="false">[23]output_table!f17/100</f>
         <v>-0.578099220380614</v>
       </c>
       <c r="I22" s="22" t="n">
-        <f aca="false">[23]output_table!G17/100</f>
+        <f aca="false">[23]output_table!g17/100</f>
         <v>-0.907875991351932</v>
       </c>
       <c r="J22" s="23" t="n">
-        <f aca="false">[23]output_table!H17/100</f>
+        <f aca="false">[23]output_table!h17/100</f>
         <v>0.329776770971319</v>
       </c>
     </row>
@@ -38560,39 +35011,39 @@
         <v>107</v>
       </c>
       <c r="B23" s="21" t="n">
-        <f aca="false">[21]output_table!F18/100</f>
+        <f aca="false">[21]output_table!f18/100</f>
         <v>-0.731877550459867</v>
       </c>
       <c r="C23" s="22" t="n">
-        <f aca="false">[21]output_table!G18/100</f>
+        <f aca="false">[21]output_table!g18/100</f>
         <v>-1.34055286709446</v>
       </c>
       <c r="D23" s="23" t="n">
-        <f aca="false">[21]output_table!H18/100</f>
+        <f aca="false">[21]output_table!h18/100</f>
         <v>0.608675316634588</v>
       </c>
       <c r="E23" s="21" t="n">
-        <f aca="false">[22]output_table!F18/100</f>
+        <f aca="false">[22]output_table!f18/100</f>
         <v>-0.733596143807629</v>
       </c>
       <c r="F23" s="22" t="n">
-        <f aca="false">[22]output_table!G18/100</f>
+        <f aca="false">[22]output_table!g18/100</f>
         <v>-1.34742140023648</v>
       </c>
       <c r="G23" s="23" t="n">
-        <f aca="false">[22]output_table!H18/100</f>
+        <f aca="false">[22]output_table!h18/100</f>
         <v>0.613825256428847</v>
       </c>
       <c r="H23" s="21" t="n">
-        <f aca="false">[23]output_table!F18/100</f>
+        <f aca="false">[23]output_table!f18/100</f>
         <v>-0.736029512250811</v>
       </c>
       <c r="I23" s="22" t="n">
-        <f aca="false">[23]output_table!G18/100</f>
+        <f aca="false">[23]output_table!g18/100</f>
         <v>-1.35947788331968</v>
       </c>
       <c r="J23" s="23" t="n">
-        <f aca="false">[23]output_table!H18/100</f>
+        <f aca="false">[23]output_table!h18/100</f>
         <v>0.62344837106887</v>
       </c>
     </row>
@@ -38601,39 +35052,39 @@
         <v>108</v>
       </c>
       <c r="B24" s="21" t="n">
-        <f aca="false">[21]output_table!F19/100</f>
+        <f aca="false">[21]output_table!f19/100</f>
         <v>-0.330230940947804</v>
       </c>
       <c r="C24" s="22" t="n">
-        <f aca="false">[21]output_table!G19/100</f>
+        <f aca="false">[21]output_table!g19/100</f>
         <v>-0.892621756855797</v>
       </c>
       <c r="D24" s="23" t="n">
-        <f aca="false">[21]output_table!H19/100</f>
+        <f aca="false">[21]output_table!h19/100</f>
         <v>0.562390815907993</v>
       </c>
       <c r="E24" s="21" t="n">
-        <f aca="false">[22]output_table!F19/100</f>
+        <f aca="false">[22]output_table!f19/100</f>
         <v>-0.327771606885922</v>
       </c>
       <c r="F24" s="22" t="n">
-        <f aca="false">[22]output_table!G19/100</f>
+        <f aca="false">[22]output_table!g19/100</f>
         <v>-0.892087236513379</v>
       </c>
       <c r="G24" s="23" t="n">
-        <f aca="false">[22]output_table!H19/100</f>
+        <f aca="false">[22]output_table!h19/100</f>
         <v>0.564315629627457</v>
       </c>
       <c r="H24" s="21" t="n">
-        <f aca="false">[23]output_table!F19/100</f>
+        <f aca="false">[23]output_table!f19/100</f>
         <v>-0.323509608770828</v>
       </c>
       <c r="I24" s="22" t="n">
-        <f aca="false">[23]output_table!G19/100</f>
+        <f aca="false">[23]output_table!g19/100</f>
         <v>-0.891915450523876</v>
       </c>
       <c r="J24" s="23" t="n">
-        <f aca="false">[23]output_table!H19/100</f>
+        <f aca="false">[23]output_table!h19/100</f>
         <v>0.568405841753048</v>
       </c>
     </row>
@@ -38642,39 +35093,39 @@
         <v>109</v>
       </c>
       <c r="B25" s="21" t="n">
-        <f aca="false">[21]output_table!F20/100</f>
+        <f aca="false">[21]output_table!f20/100</f>
         <v>-0.0762539677951164</v>
       </c>
       <c r="C25" s="22" t="n">
-        <f aca="false">[21]output_table!G20/100</f>
+        <f aca="false">[21]output_table!g20/100</f>
         <v>-0.589563871507255</v>
       </c>
       <c r="D25" s="23" t="n">
-        <f aca="false">[21]output_table!H20/100</f>
+        <f aca="false">[21]output_table!h20/100</f>
         <v>0.513309903712138</v>
       </c>
       <c r="E25" s="21" t="n">
-        <f aca="false">[22]output_table!F20/100</f>
+        <f aca="false">[22]output_table!f20/100</f>
         <v>-0.0864855681434859</v>
       </c>
       <c r="F25" s="22" t="n">
-        <f aca="false">[22]output_table!G20/100</f>
+        <f aca="false">[22]output_table!g20/100</f>
         <v>-0.583372010262255</v>
       </c>
       <c r="G25" s="23" t="n">
-        <f aca="false">[22]output_table!H20/100</f>
+        <f aca="false">[22]output_table!h20/100</f>
         <v>0.496886442118769</v>
       </c>
       <c r="H25" s="21" t="n">
-        <f aca="false">[23]output_table!F20/100</f>
+        <f aca="false">[23]output_table!f20/100</f>
         <v>-0.0984920481366926</v>
       </c>
       <c r="I25" s="22" t="n">
-        <f aca="false">[23]output_table!G20/100</f>
+        <f aca="false">[23]output_table!g20/100</f>
         <v>-0.57469682441449</v>
       </c>
       <c r="J25" s="23" t="n">
-        <f aca="false">[23]output_table!H20/100</f>
+        <f aca="false">[23]output_table!h20/100</f>
         <v>0.476204776277797</v>
       </c>
     </row>
@@ -38683,39 +35134,39 @@
         <v>110</v>
       </c>
       <c r="B26" s="21" t="n">
-        <f aca="false">[21]output_table!F21/100</f>
+        <f aca="false">[21]output_table!f21/100</f>
         <v>0.0106301545352257</v>
       </c>
       <c r="C26" s="22" t="n">
-        <f aca="false">[21]output_table!G21/100</f>
+        <f aca="false">[21]output_table!g21/100</f>
         <v>-0.0145281328423382</v>
       </c>
       <c r="D26" s="23" t="n">
-        <f aca="false">[21]output_table!H21/100</f>
+        <f aca="false">[21]output_table!h21/100</f>
         <v>0.0251582873775639</v>
       </c>
       <c r="E26" s="21" t="n">
-        <f aca="false">[22]output_table!F21/100</f>
+        <f aca="false">[22]output_table!f21/100</f>
         <v>0.0107432419056741</v>
       </c>
       <c r="F26" s="22" t="n">
-        <f aca="false">[22]output_table!G21/100</f>
+        <f aca="false">[22]output_table!g21/100</f>
         <v>-0.0144101563222107</v>
       </c>
       <c r="G26" s="23" t="n">
-        <f aca="false">[22]output_table!H21/100</f>
+        <f aca="false">[22]output_table!h21/100</f>
         <v>0.0251533982278848</v>
       </c>
       <c r="H26" s="21" t="n">
-        <f aca="false">[23]output_table!F21/100</f>
+        <f aca="false">[23]output_table!f21/100</f>
         <v>0.0109700442906916</v>
       </c>
       <c r="I26" s="22" t="n">
-        <f aca="false">[23]output_table!G21/100</f>
+        <f aca="false">[23]output_table!g21/100</f>
         <v>-0.0145832120477589</v>
       </c>
       <c r="J26" s="23" t="n">
-        <f aca="false">[23]output_table!H21/100</f>
+        <f aca="false">[23]output_table!h21/100</f>
         <v>0.0255532563384503</v>
       </c>
     </row>
@@ -38724,39 +35175,39 @@
         <v>111</v>
       </c>
       <c r="B27" s="21" t="n">
-        <f aca="false">[21]output_table!F22/100</f>
+        <f aca="false">[21]output_table!f22/100</f>
         <v>-0.013086472455515</v>
       </c>
       <c r="C27" s="22" t="n">
-        <f aca="false">[21]output_table!G22/100</f>
+        <f aca="false">[21]output_table!g22/100</f>
         <v>-0.101268754956323</v>
       </c>
       <c r="D27" s="23" t="n">
-        <f aca="false">[21]output_table!H22/100</f>
+        <f aca="false">[21]output_table!h22/100</f>
         <v>0.0881822825008079</v>
       </c>
       <c r="E27" s="21" t="n">
-        <f aca="false">[22]output_table!F22/100</f>
+        <f aca="false">[22]output_table!f22/100</f>
         <v>-0.014116695618217</v>
       </c>
       <c r="F27" s="22" t="n">
-        <f aca="false">[22]output_table!G22/100</f>
+        <f aca="false">[22]output_table!g22/100</f>
         <v>-0.104083586046464</v>
       </c>
       <c r="G27" s="23" t="n">
-        <f aca="false">[22]output_table!H22/100</f>
+        <f aca="false">[22]output_table!h22/100</f>
         <v>0.0899668904282466</v>
       </c>
       <c r="H27" s="21" t="n">
-        <f aca="false">[23]output_table!F22/100</f>
+        <f aca="false">[23]output_table!f22/100</f>
         <v>-0.016438257304013</v>
       </c>
       <c r="I27" s="22" t="n">
-        <f aca="false">[23]output_table!G22/100</f>
+        <f aca="false">[23]output_table!g22/100</f>
         <v>-0.108393338960519</v>
       </c>
       <c r="J27" s="23" t="n">
-        <f aca="false">[23]output_table!H22/100</f>
+        <f aca="false">[23]output_table!h22/100</f>
         <v>0.0919550816565064</v>
       </c>
     </row>
@@ -38765,39 +35216,39 @@
         <v>112</v>
       </c>
       <c r="B28" s="21" t="n">
-        <f aca="false">[21]output_table!F23/100</f>
+        <f aca="false">[21]output_table!f23/100</f>
         <v>-0.803831917051109</v>
       </c>
       <c r="C28" s="22" t="n">
-        <f aca="false">[21]output_table!G23/100</f>
+        <f aca="false">[21]output_table!g23/100</f>
         <v>-0.440779988838245</v>
       </c>
       <c r="D28" s="23" t="n">
-        <f aca="false">[21]output_table!H23/100</f>
+        <f aca="false">[21]output_table!h23/100</f>
         <v>-0.363051928212864</v>
       </c>
       <c r="E28" s="21" t="n">
-        <f aca="false">[22]output_table!F23/100</f>
+        <f aca="false">[22]output_table!f23/100</f>
         <v>-0.803495747189471</v>
       </c>
       <c r="F28" s="22" t="n">
-        <f aca="false">[22]output_table!G23/100</f>
+        <f aca="false">[22]output_table!g23/100</f>
         <v>-0.441998044039949</v>
       </c>
       <c r="G28" s="23" t="n">
-        <f aca="false">[22]output_table!H23/100</f>
+        <f aca="false">[22]output_table!h23/100</f>
         <v>-0.361497703149523</v>
       </c>
       <c r="H28" s="21" t="n">
-        <f aca="false">[23]output_table!F23/100</f>
+        <f aca="false">[23]output_table!f23/100</f>
         <v>-0.803018919032221</v>
       </c>
       <c r="I28" s="22" t="n">
-        <f aca="false">[23]output_table!G23/100</f>
+        <f aca="false">[23]output_table!g23/100</f>
         <v>-0.442463820138538</v>
       </c>
       <c r="J28" s="23" t="n">
-        <f aca="false">[23]output_table!H23/100</f>
+        <f aca="false">[23]output_table!h23/100</f>
         <v>-0.360555098893683</v>
       </c>
     </row>
@@ -38806,39 +35257,39 @@
         <v>113</v>
       </c>
       <c r="B29" s="21" t="n">
-        <f aca="false">[21]output_table!F24/100</f>
+        <f aca="false">[21]output_table!f24/100</f>
         <v>-0.415841597751872</v>
       </c>
       <c r="C29" s="22" t="n">
-        <f aca="false">[21]output_table!G24/100</f>
+        <f aca="false">[21]output_table!g24/100</f>
         <v>-0.272369041405237</v>
       </c>
       <c r="D29" s="23" t="n">
-        <f aca="false">[21]output_table!H24/100</f>
+        <f aca="false">[21]output_table!h24/100</f>
         <v>-0.143472556346635</v>
       </c>
       <c r="E29" s="21" t="n">
-        <f aca="false">[22]output_table!F24/100</f>
+        <f aca="false">[22]output_table!f24/100</f>
         <v>-0.417920665467754</v>
       </c>
       <c r="F29" s="22" t="n">
-        <f aca="false">[22]output_table!G24/100</f>
+        <f aca="false">[22]output_table!g24/100</f>
         <v>-0.274718271378962</v>
       </c>
       <c r="G29" s="23" t="n">
-        <f aca="false">[22]output_table!H24/100</f>
+        <f aca="false">[22]output_table!h24/100</f>
         <v>-0.143202394088792</v>
       </c>
       <c r="H29" s="21" t="n">
-        <f aca="false">[23]output_table!F24/100</f>
+        <f aca="false">[23]output_table!f24/100</f>
         <v>-0.421668677089906</v>
       </c>
       <c r="I29" s="22" t="n">
-        <f aca="false">[23]output_table!G24/100</f>
+        <f aca="false">[23]output_table!g24/100</f>
         <v>-0.279343695591198</v>
       </c>
       <c r="J29" s="23" t="n">
-        <f aca="false">[23]output_table!H24/100</f>
+        <f aca="false">[23]output_table!h24/100</f>
         <v>-0.142324981498708</v>
       </c>
     </row>
@@ -38847,39 +35298,39 @@
         <v>114</v>
       </c>
       <c r="B30" s="21" t="n">
-        <f aca="false">[21]output_table!F25/100</f>
+        <f aca="false">[21]output_table!f25/100</f>
         <v>-0.607002249263205</v>
       </c>
       <c r="C30" s="22" t="n">
-        <f aca="false">[21]output_table!G25/100</f>
+        <f aca="false">[21]output_table!g25/100</f>
         <v>-0.294360048840776</v>
       </c>
       <c r="D30" s="23" t="n">
-        <f aca="false">[21]output_table!H25/100</f>
+        <f aca="false">[21]output_table!h25/100</f>
         <v>-0.312642200422429</v>
       </c>
       <c r="E30" s="21" t="n">
-        <f aca="false">[22]output_table!F25/100</f>
+        <f aca="false">[22]output_table!f25/100</f>
         <v>-0.608634495586778</v>
       </c>
       <c r="F30" s="22" t="n">
-        <f aca="false">[22]output_table!G25/100</f>
+        <f aca="false">[22]output_table!g25/100</f>
         <v>-0.292838093239146</v>
       </c>
       <c r="G30" s="23" t="n">
-        <f aca="false">[22]output_table!H25/100</f>
+        <f aca="false">[22]output_table!h25/100</f>
         <v>-0.315796402347632</v>
       </c>
       <c r="H30" s="21" t="n">
-        <f aca="false">[23]output_table!F25/100</f>
+        <f aca="false">[23]output_table!f25/100</f>
         <v>-0.610958974822392</v>
       </c>
       <c r="I30" s="22" t="n">
-        <f aca="false">[23]output_table!G25/100</f>
+        <f aca="false">[23]output_table!g25/100</f>
         <v>-0.290659258936552</v>
       </c>
       <c r="J30" s="23" t="n">
-        <f aca="false">[23]output_table!H25/100</f>
+        <f aca="false">[23]output_table!h25/100</f>
         <v>-0.32029971588584</v>
       </c>
     </row>
@@ -38888,39 +35339,39 @@
         <v>115</v>
       </c>
       <c r="B31" s="25" t="n">
-        <f aca="false">[21]output_table!F26/100</f>
+        <f aca="false">[21]output_table!f26/100</f>
         <v>-0.00941277411164548</v>
       </c>
       <c r="C31" s="26" t="n">
-        <f aca="false">[21]output_table!G26/100</f>
+        <f aca="false">[21]output_table!g26/100</f>
         <v>0.0843301489970976</v>
       </c>
       <c r="D31" s="27" t="n">
-        <f aca="false">[21]output_table!H26/100</f>
+        <f aca="false">[21]output_table!h26/100</f>
         <v>-0.093742923108743</v>
       </c>
       <c r="E31" s="25" t="n">
-        <f aca="false">[22]output_table!F26/100</f>
+        <f aca="false">[22]output_table!f26/100</f>
         <v>-0.00938430820136792</v>
       </c>
       <c r="F31" s="26" t="n">
-        <f aca="false">[22]output_table!G26/100</f>
+        <f aca="false">[22]output_table!g26/100</f>
         <v>0.086806142477422</v>
       </c>
       <c r="G31" s="27" t="n">
-        <f aca="false">[22]output_table!H26/100</f>
+        <f aca="false">[22]output_table!h26/100</f>
         <v>-0.0961904506787899</v>
       </c>
       <c r="H31" s="25" t="n">
-        <f aca="false">[23]output_table!F26/100</f>
+        <f aca="false">[23]output_table!f26/100</f>
         <v>-0.00932692139599974</v>
       </c>
       <c r="I31" s="26" t="n">
-        <f aca="false">[23]output_table!G26/100</f>
+        <f aca="false">[23]output_table!g26/100</f>
         <v>0.0910492750169509</v>
       </c>
       <c r="J31" s="27" t="n">
-        <f aca="false">[23]output_table!H26/100</f>
+        <f aca="false">[23]output_table!h26/100</f>
         <v>-0.100376196412951</v>
       </c>
     </row>
@@ -39057,27 +35508,27 @@
         <v>91</v>
       </c>
       <c r="B7" s="17" t="n">
-        <f aca="false">[24]output_table!F2/100</f>
+        <f aca="false">[24]output_table!f2/100</f>
         <v>-0.0218961029636711</v>
       </c>
       <c r="C7" s="18" t="n">
-        <f aca="false">[24]output_table!G2/100</f>
+        <f aca="false">[24]output_table!g2/100</f>
         <v>-0.00440237369734909</v>
       </c>
       <c r="D7" s="19" t="n">
-        <f aca="false">[24]output_table!H2/100</f>
+        <f aca="false">[24]output_table!h2/100</f>
         <v>-0.0174937292663219</v>
       </c>
       <c r="E7" s="17" t="n">
-        <f aca="false">[25]output_table!F2/100</f>
+        <f aca="false">[25]output_table!f2/100</f>
         <v>-0.0196678831532851</v>
       </c>
       <c r="F7" s="18" t="n">
-        <f aca="false">[25]output_table!G2/100</f>
+        <f aca="false">[25]output_table!g2/100</f>
         <v>-0.000595931538534878</v>
       </c>
       <c r="G7" s="19" t="n">
-        <f aca="false">[25]output_table!H2/100</f>
+        <f aca="false">[25]output_table!h2/100</f>
         <v>-0.0190719516147501</v>
       </c>
     </row>
@@ -39086,27 +35537,27 @@
         <v>92</v>
       </c>
       <c r="B8" s="21" t="n">
-        <f aca="false">[24]output_table!F3/100</f>
+        <f aca="false">[24]output_table!f3/100</f>
         <v>-0.41648486992002</v>
       </c>
       <c r="C8" s="22" t="n">
-        <f aca="false">[24]output_table!G3/100</f>
+        <f aca="false">[24]output_table!g3/100</f>
         <v>-1.15056013308243</v>
       </c>
       <c r="D8" s="23" t="n">
-        <f aca="false">[24]output_table!H3/100</f>
+        <f aca="false">[24]output_table!h3/100</f>
         <v>0.734075263162409</v>
       </c>
       <c r="E8" s="21" t="n">
-        <f aca="false">[25]output_table!F3/100</f>
+        <f aca="false">[25]output_table!f3/100</f>
         <v>-0.438932550639296</v>
       </c>
       <c r="F8" s="22" t="n">
-        <f aca="false">[25]output_table!G3/100</f>
+        <f aca="false">[25]output_table!g3/100</f>
         <v>-1.12206838074573</v>
       </c>
       <c r="G8" s="23" t="n">
-        <f aca="false">[25]output_table!H3/100</f>
+        <f aca="false">[25]output_table!h3/100</f>
         <v>0.683135830106435</v>
       </c>
     </row>
@@ -39115,27 +35566,27 @@
         <v>93</v>
       </c>
       <c r="B9" s="21" t="n">
-        <f aca="false">[24]output_table!F4/100</f>
+        <f aca="false">[24]output_table!f4/100</f>
         <v>-0.654595263814363</v>
       </c>
       <c r="C9" s="22" t="n">
-        <f aca="false">[24]output_table!G4/100</f>
+        <f aca="false">[24]output_table!g4/100</f>
         <v>-1.04751881056035</v>
       </c>
       <c r="D9" s="23" t="n">
-        <f aca="false">[24]output_table!H4/100</f>
+        <f aca="false">[24]output_table!h4/100</f>
         <v>0.392923546745983</v>
       </c>
       <c r="E9" s="21" t="n">
-        <f aca="false">[25]output_table!F4/100</f>
+        <f aca="false">[25]output_table!f4/100</f>
         <v>-0.654423897175633</v>
       </c>
       <c r="F9" s="22" t="n">
-        <f aca="false">[25]output_table!G4/100</f>
+        <f aca="false">[25]output_table!g4/100</f>
         <v>-1.05299157867993</v>
       </c>
       <c r="G9" s="23" t="n">
-        <f aca="false">[25]output_table!H4/100</f>
+        <f aca="false">[25]output_table!h4/100</f>
         <v>0.398567681504301</v>
       </c>
     </row>
@@ -39144,27 +35595,27 @@
         <v>94</v>
       </c>
       <c r="B10" s="21" t="n">
-        <f aca="false">[24]output_table!F5/100</f>
+        <f aca="false">[24]output_table!f5/100</f>
         <v>-0.716929951620671</v>
       </c>
       <c r="C10" s="22" t="n">
-        <f aca="false">[24]output_table!G5/100</f>
+        <f aca="false">[24]output_table!g5/100</f>
         <v>-0.978810169054883</v>
       </c>
       <c r="D10" s="23" t="n">
-        <f aca="false">[24]output_table!H5/100</f>
+        <f aca="false">[24]output_table!h5/100</f>
         <v>0.261880217434211</v>
       </c>
       <c r="E10" s="21" t="n">
-        <f aca="false">[25]output_table!F5/100</f>
+        <f aca="false">[25]output_table!f5/100</f>
         <v>-0.716481217952848</v>
       </c>
       <c r="F10" s="22" t="n">
-        <f aca="false">[25]output_table!G5/100</f>
+        <f aca="false">[25]output_table!g5/100</f>
         <v>-0.97923600228885</v>
       </c>
       <c r="G10" s="23" t="n">
-        <f aca="false">[25]output_table!H5/100</f>
+        <f aca="false">[25]output_table!h5/100</f>
         <v>0.262754784336002</v>
       </c>
     </row>
@@ -39173,27 +35624,27 @@
         <v>95</v>
       </c>
       <c r="B11" s="21" t="n">
-        <f aca="false">[24]output_table!F6/100</f>
+        <f aca="false">[24]output_table!f6/100</f>
         <v>2.73923120533303E-005</v>
       </c>
       <c r="C11" s="22" t="n">
-        <f aca="false">[24]output_table!G6/100</f>
+        <f aca="false">[24]output_table!g6/100</f>
         <v>4.78307631060547E-005</v>
       </c>
       <c r="D11" s="23" t="n">
-        <f aca="false">[24]output_table!H6/100</f>
+        <f aca="false">[24]output_table!h6/100</f>
         <v>-2.04384510527244E-005</v>
       </c>
       <c r="E11" s="21" t="n">
-        <f aca="false">[25]output_table!F6/100</f>
+        <f aca="false">[25]output_table!f6/100</f>
         <v>0.00245531141892646</v>
       </c>
       <c r="F11" s="22" t="n">
-        <f aca="false">[25]output_table!G6/100</f>
+        <f aca="false">[25]output_table!g6/100</f>
         <v>-0.00382964160244466</v>
       </c>
       <c r="G11" s="23" t="n">
-        <f aca="false">[25]output_table!H6/100</f>
+        <f aca="false">[25]output_table!h6/100</f>
         <v>0.00628495302137112</v>
       </c>
     </row>
@@ -39202,27 +35653,27 @@
         <v>96</v>
       </c>
       <c r="B12" s="21" t="n">
-        <f aca="false">[24]output_table!F7/100</f>
+        <f aca="false">[24]output_table!f7/100</f>
         <v>-0.435903117898321</v>
       </c>
       <c r="C12" s="22" t="n">
-        <f aca="false">[24]output_table!G7/100</f>
+        <f aca="false">[24]output_table!g7/100</f>
         <v>-0.63368168521974</v>
       </c>
       <c r="D12" s="23" t="n">
-        <f aca="false">[24]output_table!H7/100</f>
+        <f aca="false">[24]output_table!h7/100</f>
         <v>0.197778567321419</v>
       </c>
       <c r="E12" s="21" t="n">
-        <f aca="false">[25]output_table!F7/100</f>
+        <f aca="false">[25]output_table!f7/100</f>
         <v>-0.428421419801462</v>
       </c>
       <c r="F12" s="22" t="n">
-        <f aca="false">[25]output_table!G7/100</f>
+        <f aca="false">[25]output_table!g7/100</f>
         <v>-0.634034088439061</v>
       </c>
       <c r="G12" s="23" t="n">
-        <f aca="false">[25]output_table!H7/100</f>
+        <f aca="false">[25]output_table!h7/100</f>
         <v>0.205612668637599</v>
       </c>
     </row>
@@ -39231,27 +35682,27 @@
         <v>97</v>
       </c>
       <c r="B13" s="21" t="n">
-        <f aca="false">[24]output_table!F8/100</f>
+        <f aca="false">[24]output_table!f8/100</f>
         <v>-0.770954706709294</v>
       </c>
       <c r="C13" s="22" t="n">
-        <f aca="false">[24]output_table!G8/100</f>
+        <f aca="false">[24]output_table!g8/100</f>
         <v>-0.428034805219064</v>
       </c>
       <c r="D13" s="23" t="n">
-        <f aca="false">[24]output_table!H8/100</f>
+        <f aca="false">[24]output_table!h8/100</f>
         <v>-0.34291990149023</v>
       </c>
       <c r="E13" s="21" t="n">
-        <f aca="false">[25]output_table!F8/100</f>
+        <f aca="false">[25]output_table!f8/100</f>
         <v>-0.778714435055737</v>
       </c>
       <c r="F13" s="22" t="n">
-        <f aca="false">[25]output_table!G8/100</f>
+        <f aca="false">[25]output_table!g8/100</f>
         <v>-0.417364272153668</v>
       </c>
       <c r="G13" s="23" t="n">
-        <f aca="false">[25]output_table!H8/100</f>
+        <f aca="false">[25]output_table!h8/100</f>
         <v>-0.361350162902069</v>
       </c>
     </row>
@@ -39260,27 +35711,27 @@
         <v>98</v>
       </c>
       <c r="B14" s="21" t="n">
-        <f aca="false">[24]output_table!F9/100</f>
+        <f aca="false">[24]output_table!f9/100</f>
         <v>-0.388229578507826</v>
       </c>
       <c r="C14" s="22" t="n">
-        <f aca="false">[24]output_table!G9/100</f>
+        <f aca="false">[24]output_table!g9/100</f>
         <v>-0.658891459885723</v>
       </c>
       <c r="D14" s="23" t="n">
-        <f aca="false">[24]output_table!H9/100</f>
+        <f aca="false">[24]output_table!h9/100</f>
         <v>0.270661881377897</v>
       </c>
       <c r="E14" s="21" t="n">
-        <f aca="false">[25]output_table!F9/100</f>
+        <f aca="false">[25]output_table!f9/100</f>
         <v>-0.387519691476728</v>
       </c>
       <c r="F14" s="22" t="n">
-        <f aca="false">[25]output_table!G9/100</f>
+        <f aca="false">[25]output_table!g9/100</f>
         <v>-0.657950602379068</v>
       </c>
       <c r="G14" s="23" t="n">
-        <f aca="false">[25]output_table!H9/100</f>
+        <f aca="false">[25]output_table!h9/100</f>
         <v>0.270430910902339</v>
       </c>
     </row>
@@ -39289,27 +35740,27 @@
         <v>99</v>
       </c>
       <c r="B15" s="21" t="n">
-        <f aca="false">[24]output_table!F10/100</f>
+        <f aca="false">[24]output_table!f10/100</f>
         <v>-0.248405632282291</v>
       </c>
       <c r="C15" s="22" t="n">
-        <f aca="false">[24]output_table!G10/100</f>
+        <f aca="false">[24]output_table!g10/100</f>
         <v>0.249972611444312</v>
       </c>
       <c r="D15" s="23" t="n">
-        <f aca="false">[24]output_table!H10/100</f>
+        <f aca="false">[24]output_table!h10/100</f>
         <v>-0.498378243726603</v>
       </c>
       <c r="E15" s="21" t="n">
-        <f aca="false">[25]output_table!F10/100</f>
+        <f aca="false">[25]output_table!f10/100</f>
         <v>-0.247958126099335</v>
       </c>
       <c r="F15" s="22" t="n">
-        <f aca="false">[25]output_table!G10/100</f>
+        <f aca="false">[25]output_table!g10/100</f>
         <v>0.241179656306079</v>
       </c>
       <c r="G15" s="23" t="n">
-        <f aca="false">[25]output_table!H10/100</f>
+        <f aca="false">[25]output_table!h10/100</f>
         <v>-0.489137782405414</v>
       </c>
     </row>
@@ -39318,27 +35769,27 @@
         <v>100</v>
       </c>
       <c r="B16" s="21" t="n">
-        <f aca="false">[24]output_table!F11/100</f>
+        <f aca="false">[24]output_table!f11/100</f>
         <v>-0.521363706544546</v>
       </c>
       <c r="C16" s="22" t="n">
-        <f aca="false">[24]output_table!G11/100</f>
+        <f aca="false">[24]output_table!g11/100</f>
         <v>-0.481038007966281</v>
       </c>
       <c r="D16" s="23" t="n">
-        <f aca="false">[24]output_table!H11/100</f>
+        <f aca="false">[24]output_table!h11/100</f>
         <v>-0.0403256985782658</v>
       </c>
       <c r="E16" s="21" t="n">
-        <f aca="false">[25]output_table!F11/100</f>
+        <f aca="false">[25]output_table!f11/100</f>
         <v>-0.520628648565271</v>
       </c>
       <c r="F16" s="22" t="n">
-        <f aca="false">[25]output_table!G11/100</f>
+        <f aca="false">[25]output_table!g11/100</f>
         <v>-0.487751519095866</v>
       </c>
       <c r="G16" s="23" t="n">
-        <f aca="false">[25]output_table!H11/100</f>
+        <f aca="false">[25]output_table!h11/100</f>
         <v>-0.032877129469405</v>
       </c>
     </row>
@@ -39347,27 +35798,27 @@
         <v>101</v>
       </c>
       <c r="B17" s="21" t="n">
-        <f aca="false">[24]output_table!F12/100</f>
+        <f aca="false">[24]output_table!f12/100</f>
         <v>-0.229686680672435</v>
       </c>
       <c r="C17" s="22" t="n">
-        <f aca="false">[24]output_table!G12/100</f>
+        <f aca="false">[24]output_table!g12/100</f>
         <v>0.0934007705040011</v>
       </c>
       <c r="D17" s="23" t="n">
-        <f aca="false">[24]output_table!H12/100</f>
+        <f aca="false">[24]output_table!h12/100</f>
         <v>-0.323087451176436</v>
       </c>
       <c r="E17" s="21" t="n">
-        <f aca="false">[25]output_table!F12/100</f>
+        <f aca="false">[25]output_table!f12/100</f>
         <v>-0.214489416083624</v>
       </c>
       <c r="F17" s="22" t="n">
-        <f aca="false">[25]output_table!G12/100</f>
+        <f aca="false">[25]output_table!g12/100</f>
         <v>0.101053667069775</v>
       </c>
       <c r="G17" s="23" t="n">
-        <f aca="false">[25]output_table!H12/100</f>
+        <f aca="false">[25]output_table!h12/100</f>
         <v>-0.315543083153399</v>
       </c>
     </row>
@@ -39376,27 +35827,27 @@
         <v>102</v>
       </c>
       <c r="B18" s="21" t="n">
-        <f aca="false">[24]output_table!F13/100</f>
+        <f aca="false">[24]output_table!f13/100</f>
         <v>-0.162320228157664</v>
       </c>
       <c r="C18" s="22" t="n">
-        <f aca="false">[24]output_table!G13/100</f>
+        <f aca="false">[24]output_table!g13/100</f>
         <v>-0.0649248925702922</v>
       </c>
       <c r="D18" s="23" t="n">
-        <f aca="false">[24]output_table!H13/100</f>
+        <f aca="false">[24]output_table!h13/100</f>
         <v>-0.0973953355873719</v>
       </c>
       <c r="E18" s="21" t="n">
-        <f aca="false">[25]output_table!F13/100</f>
+        <f aca="false">[25]output_table!f13/100</f>
         <v>-0.163369871788357</v>
       </c>
       <c r="F18" s="22" t="n">
-        <f aca="false">[25]output_table!G13/100</f>
+        <f aca="false">[25]output_table!g13/100</f>
         <v>-0.0588669951801949</v>
       </c>
       <c r="G18" s="23" t="n">
-        <f aca="false">[25]output_table!H13/100</f>
+        <f aca="false">[25]output_table!h13/100</f>
         <v>-0.104502876608163</v>
       </c>
     </row>
@@ -39405,27 +35856,27 @@
         <v>103</v>
       </c>
       <c r="B19" s="21" t="n">
-        <f aca="false">[24]output_table!F14/100</f>
+        <f aca="false">[24]output_table!f14/100</f>
         <v>-0.572234290540782</v>
       </c>
       <c r="C19" s="22" t="n">
-        <f aca="false">[24]output_table!G14/100</f>
+        <f aca="false">[24]output_table!g14/100</f>
         <v>-0.717544203940489</v>
       </c>
       <c r="D19" s="23" t="n">
-        <f aca="false">[24]output_table!H14/100</f>
+        <f aca="false">[24]output_table!h14/100</f>
         <v>0.145309913399707</v>
       </c>
       <c r="E19" s="21" t="n">
-        <f aca="false">[25]output_table!F14/100</f>
+        <f aca="false">[25]output_table!f14/100</f>
         <v>-0.607198009765161</v>
       </c>
       <c r="F19" s="22" t="n">
-        <f aca="false">[25]output_table!G14/100</f>
+        <f aca="false">[25]output_table!g14/100</f>
         <v>-0.643800622631151</v>
       </c>
       <c r="G19" s="23" t="n">
-        <f aca="false">[25]output_table!H14/100</f>
+        <f aca="false">[25]output_table!h14/100</f>
         <v>0.0366026128659904</v>
       </c>
     </row>
@@ -39434,27 +35885,27 @@
         <v>104</v>
       </c>
       <c r="B20" s="21" t="n">
-        <f aca="false">[24]output_table!F15/100</f>
+        <f aca="false">[24]output_table!f15/100</f>
         <v>-0.275626703339957</v>
       </c>
       <c r="C20" s="22" t="n">
-        <f aca="false">[24]output_table!G15/100</f>
+        <f aca="false">[24]output_table!g15/100</f>
         <v>0.216736233561073</v>
       </c>
       <c r="D20" s="23" t="n">
-        <f aca="false">[24]output_table!H15/100</f>
+        <f aca="false">[24]output_table!h15/100</f>
         <v>-0.49236293690103</v>
       </c>
       <c r="E20" s="21" t="n">
-        <f aca="false">[25]output_table!F15/100</f>
+        <f aca="false">[25]output_table!f15/100</f>
         <v>-0.273992020153306</v>
       </c>
       <c r="F20" s="22" t="n">
-        <f aca="false">[25]output_table!G15/100</f>
+        <f aca="false">[25]output_table!g15/100</f>
         <v>0.213340664630145</v>
       </c>
       <c r="G20" s="23" t="n">
-        <f aca="false">[25]output_table!H15/100</f>
+        <f aca="false">[25]output_table!h15/100</f>
         <v>-0.487332684783452</v>
       </c>
     </row>
@@ -39463,27 +35914,27 @@
         <v>105</v>
       </c>
       <c r="B21" s="21" t="n">
-        <f aca="false">[24]output_table!F16/100</f>
+        <f aca="false">[24]output_table!f16/100</f>
         <v>-0.0196492130557775</v>
       </c>
       <c r="C21" s="22" t="n">
-        <f aca="false">[24]output_table!G16/100</f>
+        <f aca="false">[24]output_table!g16/100</f>
         <v>0.0792783947811649</v>
       </c>
       <c r="D21" s="23" t="n">
-        <f aca="false">[24]output_table!H16/100</f>
+        <f aca="false">[24]output_table!h16/100</f>
         <v>-0.0989276078369423</v>
       </c>
       <c r="E21" s="21" t="n">
-        <f aca="false">[25]output_table!F16/100</f>
+        <f aca="false">[25]output_table!f16/100</f>
         <v>-0.0259630486114502</v>
       </c>
       <c r="F21" s="22" t="n">
-        <f aca="false">[25]output_table!G16/100</f>
+        <f aca="false">[25]output_table!g16/100</f>
         <v>0.0806183713348829</v>
       </c>
       <c r="G21" s="23" t="n">
-        <f aca="false">[25]output_table!H16/100</f>
+        <f aca="false">[25]output_table!h16/100</f>
         <v>-0.106581419946333</v>
       </c>
     </row>
@@ -39492,27 +35943,27 @@
         <v>106</v>
       </c>
       <c r="B22" s="21" t="n">
-        <f aca="false">[24]output_table!F17/100</f>
+        <f aca="false">[24]output_table!f17/100</f>
         <v>-0.562124480503203</v>
       </c>
       <c r="C22" s="22" t="n">
-        <f aca="false">[24]output_table!G17/100</f>
+        <f aca="false">[24]output_table!g17/100</f>
         <v>-0.926392039717878</v>
       </c>
       <c r="D22" s="23" t="n">
-        <f aca="false">[24]output_table!H17/100</f>
+        <f aca="false">[24]output_table!h17/100</f>
         <v>0.364267559214674</v>
       </c>
       <c r="E22" s="21" t="n">
-        <f aca="false">[25]output_table!F17/100</f>
+        <f aca="false">[25]output_table!f17/100</f>
         <v>-0.558880151079416</v>
       </c>
       <c r="F22" s="22" t="n">
-        <f aca="false">[25]output_table!G17/100</f>
+        <f aca="false">[25]output_table!g17/100</f>
         <v>-0.931708514942454</v>
       </c>
       <c r="G22" s="23" t="n">
-        <f aca="false">[25]output_table!H17/100</f>
+        <f aca="false">[25]output_table!h17/100</f>
         <v>0.372828363863037</v>
       </c>
     </row>
@@ -39521,27 +35972,27 @@
         <v>107</v>
       </c>
       <c r="B23" s="21" t="n">
-        <f aca="false">[24]output_table!F18/100</f>
+        <f aca="false">[24]output_table!f18/100</f>
         <v>-0.717567826706369</v>
       </c>
       <c r="C23" s="22" t="n">
-        <f aca="false">[24]output_table!G18/100</f>
+        <f aca="false">[24]output_table!g18/100</f>
         <v>-1.3043861933879</v>
       </c>
       <c r="D23" s="23" t="n">
-        <f aca="false">[24]output_table!H18/100</f>
+        <f aca="false">[24]output_table!h18/100</f>
         <v>0.586818366681528</v>
       </c>
       <c r="E23" s="21" t="n">
-        <f aca="false">[25]output_table!F18/100</f>
+        <f aca="false">[25]output_table!f18/100</f>
         <v>-0.71717873619417</v>
       </c>
       <c r="F23" s="22" t="n">
-        <f aca="false">[25]output_table!G18/100</f>
+        <f aca="false">[25]output_table!g18/100</f>
         <v>-1.30255913537213</v>
       </c>
       <c r="G23" s="23" t="n">
-        <f aca="false">[25]output_table!H18/100</f>
+        <f aca="false">[25]output_table!h18/100</f>
         <v>0.585380399177961</v>
       </c>
     </row>
@@ -39550,27 +36001,27 @@
         <v>108</v>
       </c>
       <c r="B24" s="21" t="n">
-        <f aca="false">[24]output_table!F19/100</f>
+        <f aca="false">[24]output_table!f19/100</f>
         <v>-0.344530468483963</v>
       </c>
       <c r="C24" s="22" t="n">
-        <f aca="false">[24]output_table!G19/100</f>
+        <f aca="false">[24]output_table!g19/100</f>
         <v>-0.854873800312538</v>
       </c>
       <c r="D24" s="23" t="n">
-        <f aca="false">[24]output_table!H19/100</f>
+        <f aca="false">[24]output_table!h19/100</f>
         <v>0.510343331828575</v>
       </c>
       <c r="E24" s="21" t="n">
-        <f aca="false">[25]output_table!F19/100</f>
+        <f aca="false">[25]output_table!f19/100</f>
         <v>-0.347218389839025</v>
       </c>
       <c r="F24" s="22" t="n">
-        <f aca="false">[25]output_table!G19/100</f>
+        <f aca="false">[25]output_table!g19/100</f>
         <v>-0.85877631009168</v>
       </c>
       <c r="G24" s="23" t="n">
-        <f aca="false">[25]output_table!H19/100</f>
+        <f aca="false">[25]output_table!h19/100</f>
         <v>0.511557920252655</v>
       </c>
     </row>
@@ -39579,27 +36030,27 @@
         <v>109</v>
       </c>
       <c r="B25" s="21" t="n">
-        <f aca="false">[24]output_table!F20/100</f>
+        <f aca="false">[24]output_table!f20/100</f>
         <v>-0.0825415086838592</v>
       </c>
       <c r="C25" s="22" t="n">
-        <f aca="false">[24]output_table!G20/100</f>
+        <f aca="false">[24]output_table!g20/100</f>
         <v>-0.575642040295559</v>
       </c>
       <c r="D25" s="23" t="n">
-        <f aca="false">[24]output_table!H20/100</f>
+        <f aca="false">[24]output_table!h20/100</f>
         <v>0.4931005316117</v>
       </c>
       <c r="E25" s="21" t="n">
-        <f aca="false">[25]output_table!F20/100</f>
+        <f aca="false">[25]output_table!f20/100</f>
         <v>-0.108909262585042</v>
       </c>
       <c r="F25" s="22" t="n">
-        <f aca="false">[25]output_table!G20/100</f>
+        <f aca="false">[25]output_table!g20/100</f>
         <v>-0.556016424413042</v>
       </c>
       <c r="G25" s="23" t="n">
-        <f aca="false">[25]output_table!H20/100</f>
+        <f aca="false">[25]output_table!h20/100</f>
         <v>0.447107161828</v>
       </c>
     </row>
@@ -39608,27 +36059,27 @@
         <v>110</v>
       </c>
       <c r="B26" s="21" t="n">
-        <f aca="false">[24]output_table!F21/100</f>
+        <f aca="false">[24]output_table!f21/100</f>
         <v>0.00847387195541128</v>
       </c>
       <c r="C26" s="22" t="n">
-        <f aca="false">[24]output_table!G21/100</f>
+        <f aca="false">[24]output_table!g21/100</f>
         <v>-0.0144986046286064</v>
       </c>
       <c r="D26" s="23" t="n">
-        <f aca="false">[24]output_table!H21/100</f>
+        <f aca="false">[24]output_table!h21/100</f>
         <v>0.0229724765840178</v>
       </c>
       <c r="E26" s="21" t="n">
-        <f aca="false">[25]output_table!F21/100</f>
+        <f aca="false">[25]output_table!f21/100</f>
         <v>0.0119385396272565</v>
       </c>
       <c r="F26" s="22" t="n">
-        <f aca="false">[25]output_table!G21/100</f>
+        <f aca="false">[25]output_table!g21/100</f>
         <v>-0.012435310262334</v>
       </c>
       <c r="G26" s="23" t="n">
-        <f aca="false">[25]output_table!H21/100</f>
+        <f aca="false">[25]output_table!h21/100</f>
         <v>0.0243738498895905</v>
       </c>
     </row>
@@ -39637,27 +36088,27 @@
         <v>111</v>
       </c>
       <c r="B27" s="21" t="n">
-        <f aca="false">[24]output_table!F22/100</f>
+        <f aca="false">[24]output_table!f22/100</f>
         <v>-0.0140012883534573</v>
       </c>
       <c r="C27" s="22" t="n">
-        <f aca="false">[24]output_table!G22/100</f>
+        <f aca="false">[24]output_table!g22/100</f>
         <v>-0.087977961290577</v>
       </c>
       <c r="D27" s="23" t="n">
-        <f aca="false">[24]output_table!H22/100</f>
+        <f aca="false">[24]output_table!h22/100</f>
         <v>0.0739766729371197</v>
       </c>
       <c r="E27" s="21" t="n">
-        <f aca="false">[25]output_table!F22/100</f>
+        <f aca="false">[25]output_table!f22/100</f>
         <v>-0.0156782100041967</v>
       </c>
       <c r="F27" s="22" t="n">
-        <f aca="false">[25]output_table!G22/100</f>
+        <f aca="false">[25]output_table!g22/100</f>
         <v>-0.0760873529718931</v>
       </c>
       <c r="G27" s="23" t="n">
-        <f aca="false">[25]output_table!H22/100</f>
+        <f aca="false">[25]output_table!h22/100</f>
         <v>0.0604091429676965</v>
       </c>
     </row>
@@ -39666,27 +36117,27 @@
         <v>112</v>
       </c>
       <c r="B28" s="21" t="n">
-        <f aca="false">[24]output_table!F23/100</f>
+        <f aca="false">[24]output_table!f23/100</f>
         <v>-0.795038422104811</v>
       </c>
       <c r="C28" s="22" t="n">
-        <f aca="false">[24]output_table!G23/100</f>
+        <f aca="false">[24]output_table!g23/100</f>
         <v>-0.434322136532216</v>
       </c>
       <c r="D28" s="23" t="n">
-        <f aca="false">[24]output_table!H23/100</f>
+        <f aca="false">[24]output_table!h23/100</f>
         <v>-0.360716285572595</v>
       </c>
       <c r="E28" s="21" t="n">
-        <f aca="false">[25]output_table!F23/100</f>
+        <f aca="false">[25]output_table!f23/100</f>
         <v>-0.794449683715988</v>
       </c>
       <c r="F28" s="22" t="n">
-        <f aca="false">[25]output_table!G23/100</f>
+        <f aca="false">[25]output_table!g23/100</f>
         <v>-0.433570763990323</v>
       </c>
       <c r="G28" s="23" t="n">
-        <f aca="false">[25]output_table!H23/100</f>
+        <f aca="false">[25]output_table!h23/100</f>
         <v>-0.360878919725665</v>
       </c>
     </row>
@@ -39695,27 +36146,27 @@
         <v>113</v>
       </c>
       <c r="B29" s="21" t="n">
-        <f aca="false">[24]output_table!F24/100</f>
+        <f aca="false">[24]output_table!f24/100</f>
         <v>-0.391711879818646</v>
       </c>
       <c r="C29" s="22" t="n">
-        <f aca="false">[24]output_table!G24/100</f>
+        <f aca="false">[24]output_table!g24/100</f>
         <v>-0.247755656892051</v>
       </c>
       <c r="D29" s="23" t="n">
-        <f aca="false">[24]output_table!H24/100</f>
+        <f aca="false">[24]output_table!h24/100</f>
         <v>-0.143956222926596</v>
       </c>
       <c r="E29" s="21" t="n">
-        <f aca="false">[25]output_table!F24/100</f>
+        <f aca="false">[25]output_table!f24/100</f>
         <v>-0.401931912672231</v>
       </c>
       <c r="F29" s="22" t="n">
-        <f aca="false">[25]output_table!G24/100</f>
+        <f aca="false">[25]output_table!g24/100</f>
         <v>-0.255587326493613</v>
       </c>
       <c r="G29" s="23" t="n">
-        <f aca="false">[25]output_table!H24/100</f>
+        <f aca="false">[25]output_table!h24/100</f>
         <v>-0.146344586178618</v>
       </c>
     </row>
@@ -39724,27 +36175,27 @@
         <v>114</v>
       </c>
       <c r="B30" s="21" t="n">
-        <f aca="false">[24]output_table!F25/100</f>
+        <f aca="false">[24]output_table!f25/100</f>
         <v>-0.58484269971657</v>
       </c>
       <c r="C30" s="22" t="n">
-        <f aca="false">[24]output_table!G25/100</f>
+        <f aca="false">[24]output_table!g25/100</f>
         <v>-0.29606684989844</v>
       </c>
       <c r="D30" s="23" t="n">
-        <f aca="false">[24]output_table!H25/100</f>
+        <f aca="false">[24]output_table!h25/100</f>
         <v>-0.28877584981813</v>
       </c>
       <c r="E30" s="21" t="n">
-        <f aca="false">[25]output_table!F25/100</f>
+        <f aca="false">[25]output_table!f25/100</f>
         <v>-0.585095549231333</v>
       </c>
       <c r="F30" s="22" t="n">
-        <f aca="false">[25]output_table!G25/100</f>
+        <f aca="false">[25]output_table!g25/100</f>
         <v>-0.296901418553679</v>
       </c>
       <c r="G30" s="23" t="n">
-        <f aca="false">[25]output_table!H25/100</f>
+        <f aca="false">[25]output_table!h25/100</f>
         <v>-0.288194130677655</v>
       </c>
     </row>
@@ -39753,27 +36204,27 @@
         <v>115</v>
       </c>
       <c r="B31" s="25" t="n">
-        <f aca="false">[24]output_table!F26/100</f>
+        <f aca="false">[24]output_table!f26/100</f>
         <v>-0.0130572483666685</v>
       </c>
       <c r="C31" s="26" t="n">
-        <f aca="false">[24]output_table!G26/100</f>
+        <f aca="false">[24]output_table!g26/100</f>
         <v>0.0744121762426056</v>
       </c>
       <c r="D31" s="27" t="n">
-        <f aca="false">[24]output_table!H26/100</f>
+        <f aca="false">[24]output_table!h26/100</f>
         <v>-0.0874694246092741</v>
       </c>
       <c r="E31" s="25" t="n">
-        <f aca="false">[25]output_table!F26/100</f>
+        <f aca="false">[25]output_table!f26/100</f>
         <v>-0.0198658557905298</v>
       </c>
       <c r="F31" s="26" t="n">
-        <f aca="false">[25]output_table!G26/100</f>
+        <f aca="false">[25]output_table!g26/100</f>
         <v>0.062011706232672</v>
       </c>
       <c r="G31" s="27" t="n">
-        <f aca="false">[25]output_table!H26/100</f>
+        <f aca="false">[25]output_table!h26/100</f>
         <v>-0.0818775620232018</v>
       </c>
     </row>
@@ -39874,15 +36325,15 @@
         <v>119</v>
       </c>
       <c r="B6" s="17" t="n">
-        <f aca="false">[26]volatility_by_decade!B2/100</f>
+        <f aca="false">[26]volatility_by_decade!b2/100</f>
         <v>-0.0346454117791853</v>
       </c>
       <c r="C6" s="18" t="n">
-        <f aca="false">[26]volatility_by_decade!C2/100</f>
+        <f aca="false">[26]volatility_by_decade!c2/100</f>
         <v>-0.157728637070534</v>
       </c>
       <c r="D6" s="19" t="n">
-        <f aca="false">[26]volatility_by_decade!D2/100</f>
+        <f aca="false">[26]volatility_by_decade!d2/100</f>
         <v>0.123083225291349</v>
       </c>
     </row>
@@ -39891,15 +36342,15 @@
         <v>120</v>
       </c>
       <c r="B7" s="21" t="n">
-        <f aca="false">[26]volatility_by_decade!B3/100</f>
+        <f aca="false">[26]volatility_by_decade!b3/100</f>
         <v>-0.122605649647202</v>
       </c>
       <c r="C7" s="22" t="n">
-        <f aca="false">[26]volatility_by_decade!C3/100</f>
+        <f aca="false">[26]volatility_by_decade!c3/100</f>
         <v>-0.358976211246128</v>
       </c>
       <c r="D7" s="23" t="n">
-        <f aca="false">[26]volatility_by_decade!D3/100</f>
+        <f aca="false">[26]volatility_by_decade!d3/100</f>
         <v>0.236370561598926</v>
       </c>
     </row>
@@ -39908,15 +36359,15 @@
         <v>121</v>
       </c>
       <c r="B8" s="21" t="n">
-        <f aca="false">[26]volatility_by_decade!B4/100</f>
+        <f aca="false">[26]volatility_by_decade!b4/100</f>
         <v>-0.339882118161683</v>
       </c>
       <c r="C8" s="22" t="n">
-        <f aca="false">[26]volatility_by_decade!C4/100</f>
+        <f aca="false">[26]volatility_by_decade!c4/100</f>
         <v>-0.661571142567296</v>
       </c>
       <c r="D8" s="23" t="n">
-        <f aca="false">[26]volatility_by_decade!D4/100</f>
+        <f aca="false">[26]volatility_by_decade!d4/100</f>
         <v>0.321689024405613</v>
       </c>
     </row>
@@ -39925,15 +36376,15 @@
         <v>122</v>
       </c>
       <c r="B9" s="25" t="n">
-        <f aca="false">[26]volatility_by_decade!B5/100</f>
+        <f aca="false">[26]volatility_by_decade!b5/100</f>
         <v>-0.669616225478105</v>
       </c>
       <c r="C9" s="26" t="n">
-        <f aca="false">[26]volatility_by_decade!C5/100</f>
+        <f aca="false">[26]volatility_by_decade!c5/100</f>
         <v>-0.645586016994561</v>
       </c>
       <c r="D9" s="27" t="n">
-        <f aca="false">[26]volatility_by_decade!D5/100</f>
+        <f aca="false">[26]volatility_by_decade!d5/100</f>
         <v>-0.0240302084835442</v>
       </c>
     </row>

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -23,6 +23,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1103,7 +1104,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1113,277 +1114,566 @@
       <sheetData sheetId="0">
         <row r="2">
           <cell r="F2">
-            <v>-4.24700584377045</v>
+            <v>-4.37331057212242</v>
           </cell>
           <cell r="G2">
-            <v>-3.22610856623628</v>
+            <v>0.21949184856248</v>
           </cell>
           <cell r="H2">
-            <v>-1.02089727753415</v>
+            <v>-4.5928024206849</v>
           </cell>
         </row>
         <row r="3">
           <cell r="F3">
-            <v>-52.9324518043044</v>
+            <v>-51.3099050414287</v>
           </cell>
           <cell r="G3">
-            <v>-52.5684229312778</v>
+            <v>-59.4441644736992</v>
           </cell>
           <cell r="H3">
-            <v>-0.364028873026663</v>
+            <v>8.13425943227054</v>
           </cell>
         </row>
         <row r="4">
           <cell r="F4">
-            <v>-73.0967524165371</v>
+            <v>-72.2214345607101</v>
           </cell>
           <cell r="G4">
-            <v>-59.8153703442266</v>
+            <v>-48.4993181771023</v>
           </cell>
           <cell r="H4">
-            <v>-13.2813820723105</v>
+            <v>-23.7221163836077</v>
           </cell>
         </row>
         <row r="5">
           <cell r="F5">
-            <v>-74.5232982923199</v>
+            <v>-74.5255934972134</v>
           </cell>
           <cell r="G5">
-            <v>-48.1591100675098</v>
+            <v>-52.3223241407493</v>
           </cell>
           <cell r="H5">
-            <v>-26.3641882248101</v>
+            <v>-22.2032693564641</v>
           </cell>
         </row>
         <row r="6">
           <cell r="F6">
-            <v>2.23985746888382</v>
+            <v>2.58721911279002</v>
           </cell>
           <cell r="G6">
-            <v>-9.50799908540213</v>
+            <v>-4.94567543537128</v>
           </cell>
           <cell r="H6">
-            <v>11.747856554286</v>
+            <v>7.53289454816127</v>
           </cell>
         </row>
         <row r="7">
           <cell r="F7">
-            <v>-31.7588698120711</v>
+            <v>-37.0915028133695</v>
           </cell>
           <cell r="G7">
-            <v>-128.44176558061</v>
+            <v>-130.91611222525</v>
           </cell>
           <cell r="H7">
-            <v>96.6828957685386</v>
+            <v>93.8246094118801</v>
           </cell>
         </row>
         <row r="8">
           <cell r="F8">
-            <v>-80.3567379627799</v>
+            <v>-80.2448798269329</v>
           </cell>
           <cell r="G8">
-            <v>-9.97227752337863</v>
+            <v>-13.5050976462384</v>
           </cell>
           <cell r="H8">
-            <v>-70.3844604394012</v>
+            <v>-66.7397821806945</v>
           </cell>
         </row>
         <row r="9">
           <cell r="F9">
-            <v>-38.2407366147895</v>
+            <v>-38.551485474784</v>
           </cell>
           <cell r="G9">
-            <v>-30.8356913932688</v>
+            <v>-28.6298828956188</v>
           </cell>
           <cell r="H9">
-            <v>-7.40504522152075</v>
+            <v>-9.92160257916519</v>
           </cell>
         </row>
         <row r="10">
           <cell r="F10">
-            <v>-20.6210356016845</v>
+            <v>-21.9039232776394</v>
           </cell>
           <cell r="G10">
-            <v>31.1083040428914</v>
+            <v>37.8334681910329</v>
           </cell>
           <cell r="H10">
-            <v>-51.729339644576</v>
+            <v>-59.7373914686722</v>
           </cell>
         </row>
         <row r="11">
           <cell r="F11">
-            <v>-41.3753993163408</v>
+            <v>-43.6721162441733</v>
           </cell>
           <cell r="G11">
-            <v>-1.69281500344195</v>
+            <v>-8.70472459793691</v>
           </cell>
           <cell r="H11">
-            <v>-39.6825843128989</v>
+            <v>-34.9673916462364</v>
           </cell>
         </row>
         <row r="12">
           <cell r="F12">
-            <v>-42.4498684100269</v>
+            <v>-30.1542399704959</v>
           </cell>
           <cell r="G12">
-            <v>-26.7806346707347</v>
+            <v>31.3868745623727</v>
           </cell>
           <cell r="H12">
-            <v>-15.6692337392926</v>
+            <v>-61.5411145328686</v>
           </cell>
         </row>
         <row r="13">
           <cell r="F13">
-            <v>-35.0449390197793</v>
+            <v>-32.8391702315125</v>
           </cell>
           <cell r="G13">
-            <v>-46.3869105352978</v>
+            <v>-29.3304594133641</v>
           </cell>
           <cell r="H13">
-            <v>11.3419715155185</v>
+            <v>-3.50871081814841</v>
           </cell>
         </row>
         <row r="14">
           <cell r="F14">
-            <v>-57.3673515037132</v>
+            <v>-58.2340883173942</v>
           </cell>
           <cell r="G14">
-            <v>-0.48314377495887</v>
+            <v>-29.7507633068765</v>
           </cell>
           <cell r="H14">
-            <v>-56.8842077287543</v>
+            <v>-28.4833250105177</v>
           </cell>
         </row>
         <row r="15">
           <cell r="F15">
-            <v>-25.8494667697873</v>
+            <v>-26.9383213720629</v>
           </cell>
           <cell r="G15">
-            <v>46.0021152751505</v>
+            <v>37.648985254093</v>
           </cell>
           <cell r="H15">
-            <v>-71.8515820449378</v>
+            <v>-64.5873066261559</v>
           </cell>
         </row>
         <row r="16">
           <cell r="F16">
-            <v>-1.61594426556377</v>
+            <v>-3.60386504403561</v>
           </cell>
           <cell r="G16">
-            <v>-5.88306081812264</v>
+            <v>4.69963427020947</v>
           </cell>
           <cell r="H16">
-            <v>4.26711655255885</v>
+            <v>-8.30349931424506</v>
           </cell>
         </row>
         <row r="17">
           <cell r="F17">
-            <v>-70.9495607886844</v>
+            <v>-69.0387027150459</v>
           </cell>
           <cell r="G17">
-            <v>-43.5065162688841</v>
+            <v>-29.3274092603577</v>
           </cell>
           <cell r="H17">
-            <v>-27.4430445198004</v>
+            <v>-39.7112934546882</v>
           </cell>
         </row>
         <row r="18">
           <cell r="F18">
-            <v>-74.2024908691538</v>
+            <v>-74.2295154959689</v>
           </cell>
           <cell r="G18">
-            <v>-51.7202514740215</v>
+            <v>-47.4839954214155</v>
           </cell>
           <cell r="H18">
-            <v>-22.4822393951322</v>
+            <v>-26.7455200745534</v>
           </cell>
         </row>
         <row r="19">
           <cell r="F19">
-            <v>-29.0808287638034</v>
+            <v>-30.4808561362157</v>
           </cell>
           <cell r="G19">
-            <v>-77.1306982466794</v>
+            <v>-65.2388925426207</v>
           </cell>
           <cell r="H19">
-            <v>48.049869482876</v>
+            <v>34.758036406405</v>
           </cell>
         </row>
         <row r="20">
           <cell r="F20">
-            <v>-13.606161287555</v>
+            <v>-14.1161374258826</v>
           </cell>
           <cell r="G20">
-            <v>-7.49759418631569</v>
+            <v>-14.3998539480107</v>
           </cell>
           <cell r="H20">
-            <v>-6.10856710123939</v>
+            <v>0.283716522128082</v>
           </cell>
         </row>
         <row r="21">
           <cell r="F21">
-            <v>3.84977636789347</v>
+            <v>3.489981441953</v>
           </cell>
           <cell r="G21">
-            <v>-8.97500143405787</v>
+            <v>-7.6898003621075</v>
           </cell>
           <cell r="H21">
-            <v>12.8247778019513</v>
+            <v>11.1797818040605</v>
           </cell>
         </row>
         <row r="22">
           <cell r="F22">
-            <v>2.80313079055405</v>
+            <v>3.12192397724355</v>
           </cell>
           <cell r="G22">
-            <v>-228.517426773814</v>
+            <v>-25.0600070513189</v>
           </cell>
           <cell r="H22">
-            <v>231.320557564368</v>
+            <v>28.1819310285625</v>
           </cell>
         </row>
         <row r="23">
           <cell r="F23">
-            <v>-81.732145531497</v>
+            <v>-81.3859372391022</v>
           </cell>
           <cell r="G23">
-            <v>-26.5044535611909</v>
+            <v>-28.6303682633693</v>
           </cell>
           <cell r="H23">
-            <v>-55.227691970306</v>
+            <v>-52.7555689757329</v>
           </cell>
         </row>
         <row r="24">
           <cell r="F24">
-            <v>-45.6163092023758</v>
+            <v>-46.4623838746426</v>
           </cell>
           <cell r="G24">
-            <v>-7.11657566882191</v>
+            <v>13.1848326449393</v>
           </cell>
           <cell r="H24">
-            <v>-38.4997335335539</v>
+            <v>-59.6472165195818</v>
           </cell>
         </row>
         <row r="25">
           <cell r="F25">
-            <v>-59.0402947071121</v>
+            <v>-59.79706852728</v>
           </cell>
           <cell r="G25">
-            <v>5.68946935205537</v>
+            <v>5.25656223697922</v>
           </cell>
           <cell r="H25">
-            <v>-64.7297640591674</v>
+            <v>-65.0536307642592</v>
           </cell>
         </row>
         <row r="26">
           <cell r="F26">
-            <v>-0.351835440384865</v>
+            <v>0.117395300848192</v>
           </cell>
           <cell r="G26">
-            <v>3.58040250822731</v>
+            <v>7.53718047506602</v>
           </cell>
           <cell r="H26">
-            <v>-3.93223794861215</v>
+            <v>-7.41978517421784</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="output_table"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="F2">
+            <v>-2.31987491526708</v>
+          </cell>
+          <cell r="G2">
+            <v>-0.635755623291128</v>
+          </cell>
+          <cell r="H2">
+            <v>-1.68411929197596</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="F3">
+            <v>-37.7089679430125</v>
+          </cell>
+          <cell r="G3">
+            <v>-102.886742958135</v>
+          </cell>
+          <cell r="H3">
+            <v>65.1777750151224</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="F4">
+            <v>-62.8618689270968</v>
+          </cell>
+          <cell r="G4">
+            <v>-67.7648065904077</v>
+          </cell>
+          <cell r="H4">
+            <v>4.90293766331088</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="F5">
+            <v>-67.7642773482324</v>
+          </cell>
+          <cell r="G5">
+            <v>-76.9031683010256</v>
+          </cell>
+          <cell r="H5">
+            <v>9.13889095279318</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="F6">
+            <v>0.385757162658495</v>
+          </cell>
+          <cell r="G6">
+            <v>-0.132035071272213</v>
+          </cell>
+          <cell r="H6">
+            <v>0.517792233930708</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7">
+            <v>-35.0071531786577</v>
+          </cell>
+          <cell r="G7">
+            <v>-32.8346733353409</v>
+          </cell>
+          <cell r="H7">
+            <v>-2.17247984331684</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8">
+            <v>-82.2221406360923</v>
+          </cell>
+          <cell r="G8">
+            <v>-41.9110620037622</v>
+          </cell>
+          <cell r="H8">
+            <v>-40.3110786323301</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="F9">
+            <v>-38.6951169846288</v>
+          </cell>
+          <cell r="G9">
+            <v>-48.7433144736645</v>
+          </cell>
+          <cell r="H9">
+            <v>10.0481974890357</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="F10">
+            <v>-21.6766231712592</v>
+          </cell>
+          <cell r="G10">
+            <v>20.2977247668418</v>
+          </cell>
+          <cell r="H10">
+            <v>-41.974347938101</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="F11">
+            <v>-61.9072501389762</v>
+          </cell>
+          <cell r="G11">
+            <v>-85.2075934332299</v>
+          </cell>
+          <cell r="H11">
+            <v>23.3003432942536</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="F12">
+            <v>-9.87829407125928</v>
+          </cell>
+          <cell r="G12">
+            <v>14.0664425936309</v>
+          </cell>
+          <cell r="H12">
+            <v>-23.9447366648902</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="F13">
+            <v>-6.85891474864828</v>
+          </cell>
+          <cell r="G13">
+            <v>-1.99049729104541</v>
+          </cell>
+          <cell r="H13">
+            <v>-4.86841745760287</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="F14">
+            <v>-59.4397653718879</v>
+          </cell>
+          <cell r="G14">
+            <v>-44.8937456946869</v>
+          </cell>
+          <cell r="H14">
+            <v>-14.546019677201</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="F15">
+            <v>-22.9194878821356</v>
+          </cell>
+          <cell r="G15">
+            <v>19.4174150285038</v>
+          </cell>
+          <cell r="H15">
+            <v>-42.3369029106393</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="F16">
+            <v>-5.29492963578905</v>
+          </cell>
+          <cell r="G16">
+            <v>1.17891457658208</v>
+          </cell>
+          <cell r="H16">
+            <v>-6.47384421237113</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="F17">
+            <v>-44.4873338410454</v>
+          </cell>
+          <cell r="G17">
+            <v>-46.6262482586029</v>
+          </cell>
+          <cell r="H17">
+            <v>2.13891441755751</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="F18">
+            <v>-72.1798332348372</v>
+          </cell>
+          <cell r="G18">
+            <v>-93.6491755004949</v>
+          </cell>
+          <cell r="H18">
+            <v>21.4693422656577</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="F19">
+            <v>-40.1973497577248</v>
+          </cell>
+          <cell r="G19">
+            <v>-58.2398549258541</v>
+          </cell>
+          <cell r="H19">
+            <v>18.0425051681294</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="F20">
+            <v>1.27998798918097</v>
+          </cell>
+          <cell r="G20">
+            <v>-58.969312210821</v>
+          </cell>
+          <cell r="H20">
+            <v>60.2493002000019</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="F21">
+            <v>-1.16864157459739</v>
+          </cell>
+          <cell r="G21">
+            <v>-2.18118993205592</v>
+          </cell>
+          <cell r="H21">
+            <v>1.01254835745855</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="F22">
+            <v>0.44376438251493</v>
+          </cell>
+          <cell r="G22">
+            <v>4.83413357500981</v>
+          </cell>
+          <cell r="H22">
+            <v>-4.39036919249488</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="F23">
+            <v>-77.1033603695931</v>
+          </cell>
+          <cell r="G23">
+            <v>-52.4719082945895</v>
+          </cell>
+          <cell r="H23">
+            <v>-24.6314520750036</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="F24">
+            <v>-32.6225959701779</v>
+          </cell>
+          <cell r="G24">
+            <v>2.19990903450105</v>
+          </cell>
+          <cell r="H24">
+            <v>-34.822505004679</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="F25">
+            <v>-60.0713929491941</v>
+          </cell>
+          <cell r="G25">
+            <v>-39.7223530120159</v>
+          </cell>
+          <cell r="H25">
+            <v>-20.3490399371782</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="F26">
+            <v>-0.575060343014248</v>
+          </cell>
+          <cell r="G26">
+            <v>1.09074064910073</v>
+          </cell>
+          <cell r="H26">
+            <v>-1.66580099211498</v>
           </cell>
         </row>
       </sheetData>
@@ -29848,7 +30138,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29865,20 +30155,20 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="str">
-        <f aca="false">CONCATENATE("Title: Changes in average volatility due to measured changes in trade barriers, alternative calibrations (",_xlfn.UNICHAR(963), " = 0.4 and ",_xlfn.UNICHAR(963), " = 1.3)")</f>
-        <v>Title: Changes in average volatility due to measured changes in trade barriers, alternative calibrations (σ = 0.4 and σ = 1.3)</v>
+        <f aca="false">CONCATENATE("Title: Changes in average volatility due to measured changes in trade barriers, alternative calibrations (",_xlfn.UNICHAR(963), " = 0.5 and ",_xlfn.UNICHAR(963), " = 1.5)")</f>
+        <v>Title: Changes in average volatility due to measured changes in trade barriers, alternative calibrations (σ = 0.5 and σ = 1.5)</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="30" t="str">
-        <f aca="false">CONCATENATE(_xlfn.UNICHAR(963)," = 0.4")</f>
-        <v>σ = 0.4</v>
+        <f aca="false">CONCATENATE(_xlfn.UNICHAR(963)," = 0.5")</f>
+        <v>σ = 0.5</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
       <c r="E5" s="30" t="str">
-        <f aca="false">CONCATENATE(_xlfn.UNICHAR(963)," = 1.3")</f>
-        <v>σ = 1.3</v>
+        <f aca="false">CONCATENATE(_xlfn.UNICHAR(963)," = 1.5")</f>
+        <v>σ = 1.5</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
@@ -29909,28 +30199,28 @@
         <v>91</v>
       </c>
       <c r="B7" s="17" t="n">
-        <f aca="false">[27]output_table!F2/100</f>
-        <v>-0.0424700584377045</v>
+        <f aca="false">[15]output_table!F2/100</f>
+        <v>-0.0437331057212242</v>
       </c>
       <c r="C7" s="18" t="n">
-        <f aca="false">[27]output_table!G2/100</f>
-        <v>-0.0322610856623628</v>
+        <f aca="false">[15]output_table!G2/100</f>
+        <v>0.0021949184856248</v>
       </c>
       <c r="D7" s="19" t="n">
-        <f aca="false">[27]output_table!H2/100</f>
-        <v>-0.0102089727753415</v>
+        <f aca="false">[15]output_table!H2/100</f>
+        <v>-0.045928024206849</v>
       </c>
       <c r="E7" s="17" t="n">
-        <f aca="false">[28]output_table!f2/100</f>
-        <v>-0.0226841459627221</v>
+        <f aca="false">[16]output_table!F2/100</f>
+        <v>-0.0231987491526708</v>
       </c>
       <c r="F7" s="18" t="n">
-        <f aca="false">[28]output_table!g2/100</f>
-        <v>-0.00358432184359962</v>
+        <f aca="false">[16]output_table!G2/100</f>
+        <v>-0.00635755623291128</v>
       </c>
       <c r="G7" s="19" t="n">
-        <f aca="false">[28]output_table!h2/100</f>
-        <v>-0.0190998241191224</v>
+        <f aca="false">[16]output_table!H2/100</f>
+        <v>-0.0168411929197596</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29938,28 +30228,28 @@
         <v>92</v>
       </c>
       <c r="B8" s="21" t="n">
-        <f aca="false">[27]output_table!F3/100</f>
-        <v>-0.529324518043044</v>
+        <f aca="false">[15]output_table!F3/100</f>
+        <v>-0.513099050414287</v>
       </c>
       <c r="C8" s="22" t="n">
-        <f aca="false">[27]output_table!G3/100</f>
-        <v>-0.525684229312778</v>
+        <f aca="false">[15]output_table!G3/100</f>
+        <v>-0.594441644736992</v>
       </c>
       <c r="D8" s="23" t="n">
-        <f aca="false">[27]output_table!H3/100</f>
-        <v>-0.00364028873026663</v>
+        <f aca="false">[15]output_table!H3/100</f>
+        <v>0.0813425943227054</v>
       </c>
       <c r="E8" s="21" t="n">
-        <f aca="false">[28]output_table!f3/100</f>
-        <v>-0.405949974462572</v>
+        <f aca="false">[16]output_table!F3/100</f>
+        <v>-0.377089679430125</v>
       </c>
       <c r="F8" s="22" t="n">
-        <f aca="false">[28]output_table!g3/100</f>
-        <v>-0.958247076304075</v>
+        <f aca="false">[16]output_table!G3/100</f>
+        <v>-1.02886742958135</v>
       </c>
       <c r="G8" s="23" t="n">
-        <f aca="false">[28]output_table!h3/100</f>
-        <v>0.552297101841503</v>
+        <f aca="false">[16]output_table!H3/100</f>
+        <v>0.651777750151224</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29967,28 +30257,28 @@
         <v>93</v>
       </c>
       <c r="B9" s="21" t="n">
-        <f aca="false">[27]output_table!F4/100</f>
-        <v>-0.730967524165371</v>
+        <f aca="false">[15]output_table!F4/100</f>
+        <v>-0.722214345607101</v>
       </c>
       <c r="C9" s="22" t="n">
-        <f aca="false">[27]output_table!G4/100</f>
-        <v>-0.598153703442266</v>
+        <f aca="false">[15]output_table!G4/100</f>
+        <v>-0.484993181771023</v>
       </c>
       <c r="D9" s="23" t="n">
-        <f aca="false">[27]output_table!H4/100</f>
-        <v>-0.132813820723105</v>
+        <f aca="false">[15]output_table!H4/100</f>
+        <v>-0.237221163836077</v>
       </c>
       <c r="E9" s="21" t="n">
-        <f aca="false">[28]output_table!f4/100</f>
-        <v>-0.652522753856962</v>
+        <f aca="false">[16]output_table!F4/100</f>
+        <v>-0.628618689270968</v>
       </c>
       <c r="F9" s="22" t="n">
-        <f aca="false">[28]output_table!g4/100</f>
-        <v>-0.642326951122212</v>
+        <f aca="false">[16]output_table!G4/100</f>
+        <v>-0.677648065904077</v>
       </c>
       <c r="G9" s="23" t="n">
-        <f aca="false">[28]output_table!h4/100</f>
-        <v>-0.01019580273475</v>
+        <f aca="false">[16]output_table!H4/100</f>
+        <v>0.0490293766331088</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29996,28 +30286,28 @@
         <v>94</v>
       </c>
       <c r="B10" s="21" t="n">
-        <f aca="false">[27]output_table!F5/100</f>
-        <v>-0.745232982923199</v>
+        <f aca="false">[15]output_table!F5/100</f>
+        <v>-0.745255934972134</v>
       </c>
       <c r="C10" s="22" t="n">
-        <f aca="false">[27]output_table!G5/100</f>
-        <v>-0.481591100675098</v>
+        <f aca="false">[15]output_table!G5/100</f>
+        <v>-0.523223241407493</v>
       </c>
       <c r="D10" s="23" t="n">
-        <f aca="false">[27]output_table!H5/100</f>
-        <v>-0.263641882248101</v>
+        <f aca="false">[15]output_table!H5/100</f>
+        <v>-0.222032693564641</v>
       </c>
       <c r="E10" s="21" t="n">
-        <f aca="false">[28]output_table!f5/100</f>
-        <v>-0.700915836976509</v>
+        <f aca="false">[16]output_table!F5/100</f>
+        <v>-0.677642773482324</v>
       </c>
       <c r="F10" s="22" t="n">
-        <f aca="false">[28]output_table!g5/100</f>
-        <v>-0.765091950206227</v>
+        <f aca="false">[16]output_table!G5/100</f>
+        <v>-0.769031683010256</v>
       </c>
       <c r="G10" s="23" t="n">
-        <f aca="false">[28]output_table!h5/100</f>
-        <v>0.0641761132297187</v>
+        <f aca="false">[16]output_table!H5/100</f>
+        <v>0.0913889095279318</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30025,28 +30315,28 @@
         <v>95</v>
       </c>
       <c r="B11" s="21" t="n">
-        <f aca="false">[27]output_table!F6/100</f>
-        <v>0.0223985746888382</v>
+        <f aca="false">[15]output_table!F6/100</f>
+        <v>0.0258721911279002</v>
       </c>
       <c r="C11" s="22" t="n">
-        <f aca="false">[27]output_table!G6/100</f>
-        <v>-0.0950799908540213</v>
+        <f aca="false">[15]output_table!G6/100</f>
+        <v>-0.0494567543537128</v>
       </c>
       <c r="D11" s="23" t="n">
-        <f aca="false">[27]output_table!H6/100</f>
-        <v>0.11747856554286</v>
+        <f aca="false">[15]output_table!H6/100</f>
+        <v>0.0753289454816127</v>
       </c>
       <c r="E11" s="21" t="n">
-        <f aca="false">[28]output_table!f6/100</f>
-        <v>0.00634566883199406</v>
+        <f aca="false">[16]output_table!F6/100</f>
+        <v>0.00385757162658495</v>
       </c>
       <c r="F11" s="22" t="n">
-        <f aca="false">[28]output_table!g6/100</f>
-        <v>-0.000891236308778796</v>
+        <f aca="false">[16]output_table!G6/100</f>
+        <v>-0.00132035071272213</v>
       </c>
       <c r="G11" s="23" t="n">
-        <f aca="false">[28]output_table!h6/100</f>
-        <v>0.00723690514077286</v>
+        <f aca="false">[16]output_table!H6/100</f>
+        <v>0.00517792233930708</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30054,28 +30344,28 @@
         <v>96</v>
       </c>
       <c r="B12" s="21" t="n">
-        <f aca="false">[27]output_table!F7/100</f>
-        <v>-0.317588698120711</v>
+        <f aca="false">[15]output_table!F7/100</f>
+        <v>-0.370915028133695</v>
       </c>
       <c r="C12" s="22" t="n">
-        <f aca="false">[27]output_table!G7/100</f>
-        <v>-1.2844176558061</v>
+        <f aca="false">[15]output_table!G7/100</f>
+        <v>-1.3091611222525</v>
       </c>
       <c r="D12" s="23" t="n">
-        <f aca="false">[27]output_table!H7/100</f>
-        <v>0.966828957685386</v>
+        <f aca="false">[15]output_table!H7/100</f>
+        <v>0.938246094118801</v>
       </c>
       <c r="E12" s="21" t="n">
-        <f aca="false">[28]output_table!f7/100</f>
-        <v>-0.384695455364029</v>
+        <f aca="false">[16]output_table!F7/100</f>
+        <v>-0.350071531786577</v>
       </c>
       <c r="F12" s="22" t="n">
-        <f aca="false">[28]output_table!g7/100</f>
-        <v>-0.397098475070796</v>
+        <f aca="false">[16]output_table!G7/100</f>
+        <v>-0.328346733353409</v>
       </c>
       <c r="G12" s="23" t="n">
-        <f aca="false">[28]output_table!h7/100</f>
-        <v>0.0124030197067676</v>
+        <f aca="false">[16]output_table!H7/100</f>
+        <v>-0.0217247984331684</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30083,28 +30373,28 @@
         <v>97</v>
       </c>
       <c r="B13" s="21" t="n">
-        <f aca="false">[27]output_table!F8/100</f>
-        <v>-0.803567379627799</v>
+        <f aca="false">[15]output_table!F8/100</f>
+        <v>-0.802448798269329</v>
       </c>
       <c r="C13" s="22" t="n">
-        <f aca="false">[27]output_table!G8/100</f>
-        <v>-0.0997227752337863</v>
+        <f aca="false">[15]output_table!G8/100</f>
+        <v>-0.135050976462384</v>
       </c>
       <c r="D13" s="23" t="n">
-        <f aca="false">[27]output_table!H8/100</f>
-        <v>-0.703844604394012</v>
+        <f aca="false">[15]output_table!H8/100</f>
+        <v>-0.667397821806945</v>
       </c>
       <c r="E13" s="21" t="n">
-        <f aca="false">[28]output_table!f8/100</f>
-        <v>-0.813419436809039</v>
+        <f aca="false">[16]output_table!F8/100</f>
+        <v>-0.822221406360923</v>
       </c>
       <c r="F13" s="22" t="n">
-        <f aca="false">[28]output_table!g8/100</f>
-        <v>-0.348895516108597</v>
+        <f aca="false">[16]output_table!G8/100</f>
+        <v>-0.419110620037622</v>
       </c>
       <c r="G13" s="23" t="n">
-        <f aca="false">[28]output_table!h8/100</f>
-        <v>-0.464523920700442</v>
+        <f aca="false">[16]output_table!H8/100</f>
+        <v>-0.403110786323301</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30112,28 +30402,28 @@
         <v>98</v>
       </c>
       <c r="B14" s="21" t="n">
-        <f aca="false">[27]output_table!F9/100</f>
-        <v>-0.382407366147895</v>
+        <f aca="false">[15]output_table!F9/100</f>
+        <v>-0.38551485474784</v>
       </c>
       <c r="C14" s="22" t="n">
-        <f aca="false">[27]output_table!G9/100</f>
-        <v>-0.308356913932688</v>
+        <f aca="false">[15]output_table!G9/100</f>
+        <v>-0.286298828956188</v>
       </c>
       <c r="D14" s="23" t="n">
-        <f aca="false">[27]output_table!H9/100</f>
-        <v>-0.0740504522152075</v>
+        <f aca="false">[15]output_table!H9/100</f>
+        <v>-0.0992160257916519</v>
       </c>
       <c r="E14" s="21" t="n">
-        <f aca="false">[28]output_table!f9/100</f>
-        <v>-0.384804139596221</v>
+        <f aca="false">[16]output_table!F9/100</f>
+        <v>-0.386951169846288</v>
       </c>
       <c r="F14" s="22" t="n">
-        <f aca="false">[28]output_table!g9/100</f>
-        <v>-0.435369783333816</v>
+        <f aca="false">[16]output_table!G9/100</f>
+        <v>-0.487433144736644</v>
       </c>
       <c r="G14" s="23" t="n">
-        <f aca="false">[28]output_table!h9/100</f>
-        <v>0.050565643737595</v>
+        <f aca="false">[16]output_table!H9/100</f>
+        <v>0.100481974890357</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30141,28 +30431,28 @@
         <v>99</v>
       </c>
       <c r="B15" s="21" t="n">
-        <f aca="false">[27]output_table!F10/100</f>
-        <v>-0.206210356016845</v>
+        <f aca="false">[15]output_table!F10/100</f>
+        <v>-0.219039232776394</v>
       </c>
       <c r="C15" s="22" t="n">
-        <f aca="false">[27]output_table!G10/100</f>
-        <v>0.311083040428914</v>
+        <f aca="false">[15]output_table!G10/100</f>
+        <v>0.378334681910329</v>
       </c>
       <c r="D15" s="23" t="n">
-        <f aca="false">[27]output_table!H10/100</f>
-        <v>-0.51729339644576</v>
+        <f aca="false">[15]output_table!H10/100</f>
+        <v>-0.597373914686722</v>
       </c>
       <c r="E15" s="21" t="n">
-        <f aca="false">[28]output_table!f10/100</f>
-        <v>-0.234523959421473</v>
+        <f aca="false">[16]output_table!F10/100</f>
+        <v>-0.216766231712592</v>
       </c>
       <c r="F15" s="22" t="n">
-        <f aca="false">[28]output_table!g10/100</f>
-        <v>0.23455844346093</v>
+        <f aca="false">[16]output_table!G10/100</f>
+        <v>0.202977247668418</v>
       </c>
       <c r="G15" s="23" t="n">
-        <f aca="false">[28]output_table!h10/100</f>
-        <v>-0.469082402882403</v>
+        <f aca="false">[16]output_table!H10/100</f>
+        <v>-0.41974347938101</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30170,28 +30460,28 @@
         <v>100</v>
       </c>
       <c r="B16" s="21" t="n">
-        <f aca="false">[27]output_table!F11/100</f>
-        <v>-0.413753993163408</v>
+        <f aca="false">[15]output_table!F11/100</f>
+        <v>-0.436721162441733</v>
       </c>
       <c r="C16" s="22" t="n">
-        <f aca="false">[27]output_table!G11/100</f>
-        <v>-0.0169281500344195</v>
+        <f aca="false">[15]output_table!G11/100</f>
+        <v>-0.0870472459793691</v>
       </c>
       <c r="D16" s="23" t="n">
-        <f aca="false">[27]output_table!H11/100</f>
-        <v>-0.396825843128989</v>
+        <f aca="false">[15]output_table!H11/100</f>
+        <v>-0.349673916462364</v>
       </c>
       <c r="E16" s="21" t="n">
-        <f aca="false">[28]output_table!f11/100</f>
-        <v>-0.587461029005024</v>
+        <f aca="false">[16]output_table!F11/100</f>
+        <v>-0.619072501389762</v>
       </c>
       <c r="F16" s="22" t="n">
-        <f aca="false">[28]output_table!g11/100</f>
-        <v>-0.698822002943098</v>
+        <f aca="false">[16]output_table!G11/100</f>
+        <v>-0.852075934332298</v>
       </c>
       <c r="G16" s="23" t="n">
-        <f aca="false">[28]output_table!h11/100</f>
-        <v>0.111360973938074</v>
+        <f aca="false">[16]output_table!H11/100</f>
+        <v>0.233003432942536</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30199,28 +30489,28 @@
         <v>101</v>
       </c>
       <c r="B17" s="21" t="n">
-        <f aca="false">[27]output_table!F12/100</f>
-        <v>-0.424498684100269</v>
+        <f aca="false">[15]output_table!F12/100</f>
+        <v>-0.301542399704959</v>
       </c>
       <c r="C17" s="22" t="n">
-        <f aca="false">[27]output_table!G12/100</f>
-        <v>-0.267806346707347</v>
+        <f aca="false">[15]output_table!G12/100</f>
+        <v>0.313868745623727</v>
       </c>
       <c r="D17" s="23" t="n">
-        <f aca="false">[27]output_table!H12/100</f>
-        <v>-0.156692337392926</v>
+        <f aca="false">[15]output_table!H12/100</f>
+        <v>-0.615411145328686</v>
       </c>
       <c r="E17" s="21" t="n">
-        <f aca="false">[28]output_table!f12/100</f>
-        <v>-0.181133296014505</v>
+        <f aca="false">[16]output_table!F12/100</f>
+        <v>-0.0987829407125928</v>
       </c>
       <c r="F17" s="22" t="n">
-        <f aca="false">[28]output_table!g12/100</f>
-        <v>0.209230382439203</v>
+        <f aca="false">[16]output_table!G12/100</f>
+        <v>0.140664425936309</v>
       </c>
       <c r="G17" s="23" t="n">
-        <f aca="false">[28]output_table!h12/100</f>
-        <v>-0.390363678453708</v>
+        <f aca="false">[16]output_table!H12/100</f>
+        <v>-0.239447366648902</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30228,28 +30518,28 @@
         <v>102</v>
       </c>
       <c r="B18" s="21" t="n">
-        <f aca="false">[27]output_table!F13/100</f>
-        <v>-0.350449390197793</v>
+        <f aca="false">[15]output_table!F13/100</f>
+        <v>-0.328391702315125</v>
       </c>
       <c r="C18" s="22" t="n">
-        <f aca="false">[27]output_table!G13/100</f>
-        <v>-0.463869105352978</v>
+        <f aca="false">[15]output_table!G13/100</f>
+        <v>-0.293304594133641</v>
       </c>
       <c r="D18" s="23" t="n">
-        <f aca="false">[27]output_table!H13/100</f>
-        <v>0.113419715155185</v>
+        <f aca="false">[15]output_table!H13/100</f>
+        <v>-0.0350871081814841</v>
       </c>
       <c r="E18" s="21" t="n">
-        <f aca="false">[28]output_table!f13/100</f>
-        <v>-0.104202007484901</v>
+        <f aca="false">[16]output_table!F13/100</f>
+        <v>-0.0685891474864828</v>
       </c>
       <c r="F18" s="22" t="n">
-        <f aca="false">[28]output_table!g13/100</f>
-        <v>-0.0400271634864455</v>
+        <f aca="false">[16]output_table!G13/100</f>
+        <v>-0.0199049729104541</v>
       </c>
       <c r="G18" s="23" t="n">
-        <f aca="false">[28]output_table!h13/100</f>
-        <v>-0.0641748439984555</v>
+        <f aca="false">[16]output_table!H13/100</f>
+        <v>-0.0486841745760287</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30257,28 +30547,28 @@
         <v>103</v>
       </c>
       <c r="B19" s="21" t="n">
-        <f aca="false">[27]output_table!F14/100</f>
-        <v>-0.573673515037132</v>
+        <f aca="false">[15]output_table!F14/100</f>
+        <v>-0.582340883173942</v>
       </c>
       <c r="C19" s="22" t="n">
-        <f aca="false">[27]output_table!G14/100</f>
-        <v>-0.0048314377495887</v>
+        <f aca="false">[15]output_table!G14/100</f>
+        <v>-0.297507633068765</v>
       </c>
       <c r="D19" s="23" t="n">
-        <f aca="false">[27]output_table!H14/100</f>
-        <v>-0.568842077287542</v>
+        <f aca="false">[15]output_table!H14/100</f>
+        <v>-0.284833250105177</v>
       </c>
       <c r="E19" s="21" t="n">
-        <f aca="false">[28]output_table!f14/100</f>
-        <v>-0.604010098896906</v>
+        <f aca="false">[16]output_table!F14/100</f>
+        <v>-0.594397653718879</v>
       </c>
       <c r="F19" s="22" t="n">
-        <f aca="false">[28]output_table!g14/100</f>
-        <v>-0.472987068150296</v>
+        <f aca="false">[16]output_table!G14/100</f>
+        <v>-0.448937456946869</v>
       </c>
       <c r="G19" s="23" t="n">
-        <f aca="false">[28]output_table!h14/100</f>
-        <v>-0.13102303074661</v>
+        <f aca="false">[16]output_table!H14/100</f>
+        <v>-0.14546019677201</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30286,28 +30576,28 @@
         <v>104</v>
       </c>
       <c r="B20" s="21" t="n">
-        <f aca="false">[27]output_table!F15/100</f>
-        <v>-0.258494667697873</v>
+        <f aca="false">[15]output_table!F15/100</f>
+        <v>-0.269383213720629</v>
       </c>
       <c r="C20" s="22" t="n">
-        <f aca="false">[27]output_table!G15/100</f>
-        <v>0.460021152751505</v>
+        <f aca="false">[15]output_table!G15/100</f>
+        <v>0.37648985254093</v>
       </c>
       <c r="D20" s="23" t="n">
-        <f aca="false">[27]output_table!H15/100</f>
-        <v>-0.718515820449378</v>
+        <f aca="false">[15]output_table!H15/100</f>
+        <v>-0.645873066261559</v>
       </c>
       <c r="E20" s="21" t="n">
-        <f aca="false">[28]output_table!f15/100</f>
-        <v>-0.25125356500322</v>
+        <f aca="false">[16]output_table!F15/100</f>
+        <v>-0.229194878821356</v>
       </c>
       <c r="F20" s="22" t="n">
-        <f aca="false">[28]output_table!g15/100</f>
-        <v>0.226995332003587</v>
+        <f aca="false">[16]output_table!G15/100</f>
+        <v>0.194174150285038</v>
       </c>
       <c r="G20" s="23" t="n">
-        <f aca="false">[28]output_table!h15/100</f>
-        <v>-0.478248897006807</v>
+        <f aca="false">[16]output_table!H15/100</f>
+        <v>-0.423369029106393</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30315,28 +30605,28 @@
         <v>105</v>
       </c>
       <c r="B21" s="21" t="n">
-        <f aca="false">[27]output_table!F16/100</f>
-        <v>-0.0161594426556377</v>
+        <f aca="false">[15]output_table!F16/100</f>
+        <v>-0.0360386504403561</v>
       </c>
       <c r="C21" s="22" t="n">
-        <f aca="false">[27]output_table!G16/100</f>
-        <v>-0.0588306081812264</v>
+        <f aca="false">[15]output_table!G16/100</f>
+        <v>0.0469963427020947</v>
       </c>
       <c r="D21" s="23" t="n">
-        <f aca="false">[27]output_table!H16/100</f>
-        <v>0.0426711655255885</v>
+        <f aca="false">[15]output_table!H16/100</f>
+        <v>-0.0830349931424506</v>
       </c>
       <c r="E21" s="21" t="n">
-        <f aca="false">[28]output_table!f16/100</f>
-        <v>-0.0550849136631305</v>
+        <f aca="false">[16]output_table!F16/100</f>
+        <v>-0.0529492963578905</v>
       </c>
       <c r="F21" s="22" t="n">
-        <f aca="false">[28]output_table!g16/100</f>
-        <v>0.0265979324750983</v>
+        <f aca="false">[16]output_table!G16/100</f>
+        <v>0.0117891457658208</v>
       </c>
       <c r="G21" s="23" t="n">
-        <f aca="false">[28]output_table!h16/100</f>
-        <v>-0.0816828461382288</v>
+        <f aca="false">[16]output_table!H16/100</f>
+        <v>-0.0647384421237113</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30344,28 +30634,28 @@
         <v>106</v>
       </c>
       <c r="B22" s="21" t="n">
-        <f aca="false">[27]output_table!F17/100</f>
-        <v>-0.709495607886844</v>
+        <f aca="false">[15]output_table!F17/100</f>
+        <v>-0.690387027150459</v>
       </c>
       <c r="C22" s="22" t="n">
-        <f aca="false">[27]output_table!G17/100</f>
-        <v>-0.43506516268884</v>
+        <f aca="false">[15]output_table!G17/100</f>
+        <v>-0.293274092603577</v>
       </c>
       <c r="D22" s="23" t="n">
-        <f aca="false">[27]output_table!H17/100</f>
-        <v>-0.274430445198004</v>
+        <f aca="false">[15]output_table!H17/100</f>
+        <v>-0.397112934546882</v>
       </c>
       <c r="E22" s="21" t="n">
-        <f aca="false">[28]output_table!f17/100</f>
-        <v>-0.494343386533971</v>
+        <f aca="false">[16]output_table!F17/100</f>
+        <v>-0.444873338410454</v>
       </c>
       <c r="F22" s="22" t="n">
-        <f aca="false">[28]output_table!g17/100</f>
-        <v>-0.476337769409249</v>
+        <f aca="false">[16]output_table!G17/100</f>
+        <v>-0.466262482586029</v>
       </c>
       <c r="G22" s="23" t="n">
-        <f aca="false">[28]output_table!h17/100</f>
-        <v>-0.0180056171247219</v>
+        <f aca="false">[16]output_table!H17/100</f>
+        <v>0.0213891441755751</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30373,28 +30663,28 @@
         <v>107</v>
       </c>
       <c r="B23" s="21" t="n">
-        <f aca="false">[27]output_table!F18/100</f>
-        <v>-0.742024908691538</v>
+        <f aca="false">[15]output_table!F18/100</f>
+        <v>-0.742295154959689</v>
       </c>
       <c r="C23" s="22" t="n">
-        <f aca="false">[27]output_table!G18/100</f>
-        <v>-0.517202514740216</v>
+        <f aca="false">[15]output_table!G18/100</f>
+        <v>-0.474839954214155</v>
       </c>
       <c r="D23" s="23" t="n">
-        <f aca="false">[27]output_table!H18/100</f>
-        <v>-0.224822393951322</v>
+        <f aca="false">[15]output_table!H18/100</f>
+        <v>-0.267455200745534</v>
       </c>
       <c r="E23" s="21" t="n">
-        <f aca="false">[28]output_table!f18/100</f>
-        <v>-0.727835555843657</v>
+        <f aca="false">[16]output_table!F18/100</f>
+        <v>-0.721798332348372</v>
       </c>
       <c r="F23" s="22" t="n">
-        <f aca="false">[28]output_table!g18/100</f>
-        <v>-0.872918428432004</v>
+        <f aca="false">[16]output_table!G18/100</f>
+        <v>-0.936491755004949</v>
       </c>
       <c r="G23" s="23" t="n">
-        <f aca="false">[28]output_table!h18/100</f>
-        <v>0.145082872588347</v>
+        <f aca="false">[16]output_table!H18/100</f>
+        <v>0.214693422656577</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30402,28 +30692,28 @@
         <v>108</v>
       </c>
       <c r="B24" s="21" t="n">
-        <f aca="false">[27]output_table!F19/100</f>
-        <v>-0.290808287638034</v>
+        <f aca="false">[15]output_table!F19/100</f>
+        <v>-0.304808561362157</v>
       </c>
       <c r="C24" s="22" t="n">
-        <f aca="false">[27]output_table!G19/100</f>
-        <v>-0.771306982466794</v>
+        <f aca="false">[15]output_table!G19/100</f>
+        <v>-0.652388925426207</v>
       </c>
       <c r="D24" s="23" t="n">
-        <f aca="false">[27]output_table!H19/100</f>
-        <v>0.48049869482876</v>
+        <f aca="false">[15]output_table!H19/100</f>
+        <v>0.34758036406405</v>
       </c>
       <c r="E24" s="21" t="n">
-        <f aca="false">[28]output_table!f19/100</f>
-        <v>-0.38845609988043</v>
+        <f aca="false">[16]output_table!F19/100</f>
+        <v>-0.401973497577248</v>
       </c>
       <c r="F24" s="22" t="n">
-        <f aca="false">[28]output_table!g19/100</f>
-        <v>-0.597967373471684</v>
+        <f aca="false">[16]output_table!G19/100</f>
+        <v>-0.582398549258541</v>
       </c>
       <c r="G24" s="23" t="n">
-        <f aca="false">[28]output_table!h19/100</f>
-        <v>0.209511273591255</v>
+        <f aca="false">[16]output_table!H19/100</f>
+        <v>0.180425051681294</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30431,28 +30721,28 @@
         <v>109</v>
       </c>
       <c r="B25" s="21" t="n">
-        <f aca="false">[27]output_table!F20/100</f>
-        <v>-0.13606161287555</v>
+        <f aca="false">[15]output_table!F20/100</f>
+        <v>-0.141161374258826</v>
       </c>
       <c r="C25" s="22" t="n">
-        <f aca="false">[27]output_table!G20/100</f>
-        <v>-0.0749759418631569</v>
+        <f aca="false">[15]output_table!G20/100</f>
+        <v>-0.143998539480106</v>
       </c>
       <c r="D25" s="23" t="n">
-        <f aca="false">[27]output_table!H20/100</f>
-        <v>-0.0610856710123939</v>
+        <f aca="false">[15]output_table!H20/100</f>
+        <v>0.00283716522128082</v>
       </c>
       <c r="E25" s="21" t="n">
-        <f aca="false">[28]output_table!f20/100</f>
-        <v>-0.0123949114354937</v>
+        <f aca="false">[16]output_table!F20/100</f>
+        <v>0.0127998798918097</v>
       </c>
       <c r="F25" s="22" t="n">
-        <f aca="false">[28]output_table!g20/100</f>
-        <v>-0.52532574988439</v>
+        <f aca="false">[16]output_table!G20/100</f>
+        <v>-0.58969312210821</v>
       </c>
       <c r="G25" s="23" t="n">
-        <f aca="false">[28]output_table!h20/100</f>
-        <v>0.512930838448897</v>
+        <f aca="false">[16]output_table!H20/100</f>
+        <v>0.602493002000019</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30460,28 +30750,28 @@
         <v>110</v>
       </c>
       <c r="B26" s="21" t="n">
-        <f aca="false">[27]output_table!F21/100</f>
-        <v>0.0384977636789347</v>
+        <f aca="false">[15]output_table!F21/100</f>
+        <v>0.03489981441953</v>
       </c>
       <c r="C26" s="22" t="n">
-        <f aca="false">[27]output_table!G21/100</f>
-        <v>-0.0897500143405787</v>
+        <f aca="false">[15]output_table!G21/100</f>
+        <v>-0.076898003621075</v>
       </c>
       <c r="D26" s="23" t="n">
-        <f aca="false">[27]output_table!H21/100</f>
-        <v>0.128247778019513</v>
+        <f aca="false">[15]output_table!H21/100</f>
+        <v>0.111797818040605</v>
       </c>
       <c r="E26" s="21" t="n">
-        <f aca="false">[28]output_table!f21/100</f>
-        <v>-0.00197237766447248</v>
+        <f aca="false">[16]output_table!F21/100</f>
+        <v>-0.0116864157459739</v>
       </c>
       <c r="F26" s="22" t="n">
-        <f aca="false">[28]output_table!g21/100</f>
-        <v>-0.0301179003694763</v>
+        <f aca="false">[16]output_table!G21/100</f>
+        <v>-0.0218118993205592</v>
       </c>
       <c r="G26" s="23" t="n">
-        <f aca="false">[28]output_table!h21/100</f>
-        <v>0.028145522705004</v>
+        <f aca="false">[16]output_table!H21/100</f>
+        <v>0.0101254835745855</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30489,28 +30779,28 @@
         <v>111</v>
       </c>
       <c r="B27" s="21" t="n">
-        <f aca="false">[27]output_table!F22/100</f>
-        <v>0.0280313079055405</v>
+        <f aca="false">[15]output_table!F22/100</f>
+        <v>0.0312192397724355</v>
       </c>
       <c r="C27" s="22" t="n">
-        <f aca="false">[27]output_table!G22/100</f>
-        <v>-2.28517426773814</v>
+        <f aca="false">[15]output_table!G22/100</f>
+        <v>-0.250600070513189</v>
       </c>
       <c r="D27" s="23" t="n">
-        <f aca="false">[27]output_table!H22/100</f>
-        <v>2.31320557564368</v>
+        <f aca="false">[15]output_table!H22/100</f>
+        <v>0.281819310285625</v>
       </c>
       <c r="E27" s="21" t="n">
-        <f aca="false">[28]output_table!f22/100</f>
-        <v>-0.00605341011763756</v>
+        <f aca="false">[16]output_table!F22/100</f>
+        <v>0.0044376438251493</v>
       </c>
       <c r="F27" s="22" t="n">
-        <f aca="false">[28]output_table!g22/100</f>
-        <v>0.0255358539475986</v>
+        <f aca="false">[16]output_table!G22/100</f>
+        <v>0.0483413357500981</v>
       </c>
       <c r="G27" s="23" t="n">
-        <f aca="false">[28]output_table!h22/100</f>
-        <v>-0.0315892640652362</v>
+        <f aca="false">[16]output_table!H22/100</f>
+        <v>-0.0439036919249488</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30518,28 +30808,28 @@
         <v>112</v>
       </c>
       <c r="B28" s="21" t="n">
-        <f aca="false">[27]output_table!F23/100</f>
-        <v>-0.81732145531497</v>
+        <f aca="false">[15]output_table!F23/100</f>
+        <v>-0.813859372391022</v>
       </c>
       <c r="C28" s="22" t="n">
-        <f aca="false">[27]output_table!G23/100</f>
-        <v>-0.265044535611909</v>
+        <f aca="false">[15]output_table!G23/100</f>
+        <v>-0.286303682633693</v>
       </c>
       <c r="D28" s="23" t="n">
-        <f aca="false">[27]output_table!H23/100</f>
-        <v>-0.55227691970306</v>
+        <f aca="false">[15]output_table!H23/100</f>
+        <v>-0.527555689757329</v>
       </c>
       <c r="E28" s="21" t="n">
-        <f aca="false">[28]output_table!f23/100</f>
-        <v>-0.786782026307128</v>
+        <f aca="false">[16]output_table!F23/100</f>
+        <v>-0.771033603695931</v>
       </c>
       <c r="F28" s="22" t="n">
-        <f aca="false">[28]output_table!g23/100</f>
-        <v>-0.513190138184122</v>
+        <f aca="false">[16]output_table!G23/100</f>
+        <v>-0.524719082945895</v>
       </c>
       <c r="G28" s="23" t="n">
-        <f aca="false">[28]output_table!h23/100</f>
-        <v>-0.273591888123006</v>
+        <f aca="false">[16]output_table!H23/100</f>
+        <v>-0.246314520750036</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30547,28 +30837,28 @@
         <v>113</v>
       </c>
       <c r="B29" s="21" t="n">
-        <f aca="false">[27]output_table!F24/100</f>
-        <v>-0.456163092023758</v>
+        <f aca="false">[15]output_table!F24/100</f>
+        <v>-0.464623838746426</v>
       </c>
       <c r="C29" s="22" t="n">
-        <f aca="false">[27]output_table!G24/100</f>
-        <v>-0.0711657566882191</v>
+        <f aca="false">[15]output_table!G24/100</f>
+        <v>0.131848326449393</v>
       </c>
       <c r="D29" s="23" t="n">
-        <f aca="false">[27]output_table!H24/100</f>
-        <v>-0.384997335335539</v>
+        <f aca="false">[15]output_table!H24/100</f>
+        <v>-0.596472165195818</v>
       </c>
       <c r="E29" s="21" t="n">
-        <f aca="false">[28]output_table!f24/100</f>
-        <v>-0.360806126968098</v>
+        <f aca="false">[16]output_table!F24/100</f>
+        <v>-0.326225959701779</v>
       </c>
       <c r="F29" s="22" t="n">
-        <f aca="false">[28]output_table!g24/100</f>
-        <v>0.0365352092382854</v>
+        <f aca="false">[16]output_table!G24/100</f>
+        <v>0.0219990903450105</v>
       </c>
       <c r="G29" s="23" t="n">
-        <f aca="false">[28]output_table!h24/100</f>
-        <v>-0.397341336206383</v>
+        <f aca="false">[16]output_table!H24/100</f>
+        <v>-0.34822505004679</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30576,28 +30866,28 @@
         <v>114</v>
       </c>
       <c r="B30" s="21" t="n">
-        <f aca="false">[27]output_table!F25/100</f>
-        <v>-0.590402947071121</v>
+        <f aca="false">[15]output_table!F25/100</f>
+        <v>-0.5979706852728</v>
       </c>
       <c r="C30" s="22" t="n">
-        <f aca="false">[27]output_table!G25/100</f>
-        <v>0.0568946935205537</v>
+        <f aca="false">[15]output_table!G25/100</f>
+        <v>0.0525656223697922</v>
       </c>
       <c r="D30" s="23" t="n">
-        <f aca="false">[27]output_table!H25/100</f>
-        <v>-0.647297640591674</v>
+        <f aca="false">[15]output_table!H25/100</f>
+        <v>-0.650536307642592</v>
       </c>
       <c r="E30" s="21" t="n">
-        <f aca="false">[28]output_table!f25/100</f>
-        <v>-0.604260852771997</v>
+        <f aca="false">[16]output_table!F25/100</f>
+        <v>-0.600713929491941</v>
       </c>
       <c r="F30" s="22" t="n">
-        <f aca="false">[28]output_table!g25/100</f>
-        <v>-0.330674228555407</v>
+        <f aca="false">[16]output_table!G25/100</f>
+        <v>-0.397223530120159</v>
       </c>
       <c r="G30" s="23" t="n">
-        <f aca="false">[28]output_table!h25/100</f>
-        <v>-0.273586624216589</v>
+        <f aca="false">[16]output_table!H25/100</f>
+        <v>-0.203490399371782</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -30605,28 +30895,28 @@
         <v>115</v>
       </c>
       <c r="B31" s="25" t="n">
-        <f aca="false">[27]output_table!F26/100</f>
-        <v>-0.00351835440384865</v>
+        <f aca="false">[15]output_table!F26/100</f>
+        <v>0.00117395300848192</v>
       </c>
       <c r="C31" s="26" t="n">
-        <f aca="false">[27]output_table!G26/100</f>
-        <v>0.0358040250822731</v>
+        <f aca="false">[15]output_table!G26/100</f>
+        <v>0.0753718047506602</v>
       </c>
       <c r="D31" s="27" t="n">
-        <f aca="false">[27]output_table!H26/100</f>
-        <v>-0.0393223794861215</v>
+        <f aca="false">[15]output_table!H26/100</f>
+        <v>-0.0741978517421784</v>
       </c>
       <c r="E31" s="25" t="n">
-        <f aca="false">[28]output_table!f26/100</f>
-        <v>-0.0100340647875241</v>
+        <f aca="false">[16]output_table!F26/100</f>
+        <v>-0.00575060343014248</v>
       </c>
       <c r="F31" s="26" t="n">
-        <f aca="false">[28]output_table!g26/100</f>
-        <v>0.0327454604153869</v>
+        <f aca="false">[16]output_table!G26/100</f>
+        <v>0.0109074064910073</v>
       </c>
       <c r="G31" s="27" t="n">
-        <f aca="false">[28]output_table!h26/100</f>
-        <v>-0.042779525202911</v>
+        <f aca="false">[16]output_table!H26/100</f>
+        <v>-0.0166580099211498</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30635,27 +30925,27 @@
       </c>
       <c r="B32" s="28" t="n">
         <f aca="false">AVERAGE(B7:B31)</f>
-        <v>-0.378066687838681</v>
+        <v>-0.376743167130071</v>
       </c>
       <c r="C32" s="28" t="n">
         <f aca="false">AVERAGE(C7:C31)</f>
-        <v>-0.31533661469197</v>
+        <v>-0.194444727871261</v>
       </c>
       <c r="D32" s="28" t="n">
         <f aca="false">AVERAGE(D7:D31)</f>
-        <v>-0.0627300731467108</v>
+        <v>-0.18229843925881</v>
       </c>
       <c r="E32" s="28" t="n">
         <f aca="false">AVERAGE(E7:E31)</f>
-        <v>-0.350770150239825</v>
+        <v>-0.336340289383509</v>
       </c>
       <c r="F32" s="28" t="n">
         <f aca="false">AVERAGE(F7:F31)</f>
-        <v>-0.292706980768167</v>
+        <v>-0.31707126267445</v>
       </c>
       <c r="G32" s="28" t="n">
         <f aca="false">AVERAGE(G7:G31)</f>
-        <v>-0.0580631694716576</v>
+        <v>-0.019269026709059</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
